--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15660" tabRatio="894" firstSheet="10" activeTab="18"/>
+    <workbookView windowHeight="15660" tabRatio="894"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="1786">
   <si>
     <t>code</t>
   </si>
@@ -126,6 +126,24 @@
     <t>Permission Management</t>
   </si>
   <si>
+    <t>permission.list</t>
+  </si>
+  <si>
+    <t>[Core] [Permission Management] Danh sách Quyền</t>
+  </si>
+  <si>
+    <t>Xem danh sách Quyền</t>
+  </si>
+  <si>
+    <t>permission.structure</t>
+  </si>
+  <si>
+    <t>[Core] [Permission Management] UNREGISTERED Structure Quyền</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</t>
+  </si>
+  <si>
     <t>role.create</t>
   </si>
   <si>
@@ -436,24 +454,6 @@
   </si>
   <si>
     <t>Xem chi tiết của Phiếu phạt</t>
-  </si>
-  <si>
-    <t>permission.list</t>
-  </si>
-  <si>
-    <t>[Core] [Permission Management] Danh sách Quyền</t>
-  </si>
-  <si>
-    <t>Xem danh sách Quyền</t>
-  </si>
-  <si>
-    <t>permission.structure</t>
-  </si>
-  <si>
-    <t>[Core] [Permission Management] UNREGISTERED Structure Quyền</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</t>
   </si>
   <si>
     <t>attendance_record.wifi_attendance</t>
@@ -6847,8 +6847,8 @@
   <sheetPr/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6928,141 +6928,174 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="1"/>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
         <v>8</v>
       </c>
       <c r="E208" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
       </c>
       <c r="E209" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D210" t="s">
         <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
       </c>
       <c r="E211" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D212" t="s">
         <v>8</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" customFormat="1" spans="1:5">
       <c r="A213" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D213" t="s">
         <v>8</v>
       </c>
       <c r="E213" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D214" t="s">
         <v>8</v>
       </c>
       <c r="E214" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D215" t="s">
         <v>8</v>
       </c>
       <c r="E215" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7142,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7123,7 +7156,7 @@
         <v>1144</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>1145</v>
@@ -7143,7 +7176,7 @@
         <v>1149</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>1145</v>
@@ -7163,7 +7196,7 @@
         <v>1152</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>1145</v>
@@ -7183,7 +7216,7 @@
         <v>1155</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>1145</v>
@@ -7203,7 +7236,7 @@
         <v>1158</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>1145</v>
@@ -7223,7 +7256,7 @@
         <v>1161</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>1145</v>
@@ -7243,7 +7276,7 @@
         <v>1164</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>1145</v>
@@ -7263,7 +7296,7 @@
         <v>1167</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>1145</v>
@@ -7283,7 +7316,7 @@
         <v>1170</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>1145</v>
@@ -7303,7 +7336,7 @@
         <v>1173</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>1145</v>
@@ -7323,7 +7356,7 @@
         <v>1176</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>1145</v>
@@ -7343,7 +7376,7 @@
         <v>1179</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>1145</v>
@@ -7363,7 +7396,7 @@
         <v>1182</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>1145</v>
@@ -7383,7 +7416,7 @@
         <v>1144</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>1185</v>
@@ -7403,7 +7436,7 @@
         <v>1149</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>1185</v>
@@ -7423,7 +7456,7 @@
         <v>1152</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>1185</v>
@@ -7443,7 +7476,7 @@
         <v>1158</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>1185</v>
@@ -7463,7 +7496,7 @@
         <v>1161</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>1185</v>
@@ -7483,7 +7516,7 @@
         <v>1164</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>1185</v>
@@ -7503,7 +7536,7 @@
         <v>1167</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>1185</v>
@@ -7523,7 +7556,7 @@
         <v>1170</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>1185</v>
@@ -7543,7 +7576,7 @@
         <v>1173</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>1185</v>
@@ -7563,7 +7596,7 @@
         <v>1176</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>1185</v>
@@ -7583,7 +7616,7 @@
         <v>1179</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>1185</v>
@@ -7603,7 +7636,7 @@
         <v>1182</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>1185</v>
@@ -7623,7 +7656,7 @@
         <v>1210</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>1211</v>
@@ -7643,7 +7676,7 @@
         <v>1214</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>1211</v>
@@ -7663,7 +7696,7 @@
         <v>1217</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>1211</v>
@@ -7683,7 +7716,7 @@
         <v>1220</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>1211</v>
@@ -7703,7 +7736,7 @@
         <v>1223</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>1211</v>
@@ -7723,7 +7756,7 @@
         <v>1226</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>1211</v>
@@ -7743,7 +7776,7 @@
         <v>1229</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>1211</v>
@@ -7763,7 +7796,7 @@
         <v>1232</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
         <v>1211</v>
@@ -7783,7 +7816,7 @@
         <v>1235</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
         <v>1211</v>
@@ -7837,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
@@ -8014,7 +8047,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
         <v>1240</v>
@@ -8034,7 +8067,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
         <v>1240</v>
@@ -8405,7 +8438,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8879,7 +8912,7 @@
         <v>1397</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>1398</v>
@@ -8899,7 +8932,7 @@
         <v>1401</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>1398</v>
@@ -8939,7 +8972,7 @@
         <v>1407</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>1398</v>
@@ -8959,7 +8992,7 @@
         <v>1410</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>1398</v>
@@ -8979,7 +9012,7 @@
         <v>1413</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>1398</v>
@@ -8999,7 +9032,7 @@
         <v>1416</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>1398</v>
@@ -9019,7 +9052,7 @@
         <v>1419</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>1398</v>
@@ -9039,7 +9072,7 @@
         <v>1422</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>1398</v>
@@ -9351,7 +9384,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11593,7 +11626,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12099,43 +12132,43 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B27" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F27" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B28" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C28" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F28" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12458,7 +12491,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13358,7 +13391,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13864,43 +13897,43 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B27" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F27" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B28" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C28" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F28" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -16680,7 +16713,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -17467,43 +17500,43 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B41" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D41" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E41" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F41" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B42" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C42" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D42" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E42" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F42" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -18882,7 +18915,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -19388,43 +19421,43 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B27" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F27" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B28" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C28" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F28" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -28066,8 +28099,8 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -28094,7 +28127,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -28881,43 +28914,43 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B41" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D41" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E41" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F41" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B42" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C42" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D42" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E42" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F42" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -29290,10 +29323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A24" sqref="A24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -29321,487 +29354,447 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -29846,7 +29839,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -29951,7 +29944,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -30279,7 +30272,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -30313,7 +30306,7 @@
         <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>186</v>
@@ -30333,7 +30326,7 @@
         <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>186</v>
@@ -30353,7 +30346,7 @@
         <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>186</v>
@@ -30373,7 +30366,7 @@
         <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>186</v>
@@ -30393,7 +30386,7 @@
         <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>186</v>
@@ -30413,7 +30406,7 @@
         <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>186</v>
@@ -30433,7 +30426,7 @@
         <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>186</v>
@@ -30453,7 +30446,7 @@
         <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>186</v>
@@ -30685,7 +30678,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -30699,7 +30692,7 @@
         <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>186</v>
@@ -30719,7 +30712,7 @@
         <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>186</v>
@@ -30739,7 +30732,7 @@
         <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>186</v>
@@ -30759,7 +30752,7 @@
         <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>186</v>
@@ -30779,7 +30772,7 @@
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>186</v>
@@ -30799,7 +30792,7 @@
         <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>186</v>
@@ -30819,7 +30812,7 @@
         <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>186</v>
@@ -30839,7 +30832,7 @@
         <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>186</v>
@@ -31099,7 +31092,7 @@
         <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>186</v>
@@ -31119,7 +31112,7 @@
         <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>186</v>
@@ -31139,7 +31132,7 @@
         <v>304</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>186</v>
@@ -31159,7 +31152,7 @@
         <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>186</v>
@@ -31179,7 +31172,7 @@
         <v>310</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>186</v>
@@ -31199,7 +31192,7 @@
         <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>186</v>
@@ -31219,7 +31212,7 @@
         <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>186</v>
@@ -31239,7 +31232,7 @@
         <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>186</v>
@@ -31259,7 +31252,7 @@
         <v>322</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>186</v>
@@ -31279,7 +31272,7 @@
         <v>325</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>186</v>
@@ -31299,7 +31292,7 @@
         <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>186</v>
@@ -31319,7 +31312,7 @@
         <v>331</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>186</v>
@@ -31339,7 +31332,7 @@
         <v>244</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
         <v>186</v>
@@ -31359,7 +31352,7 @@
         <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
         <v>186</v>
@@ -31379,7 +31372,7 @@
         <v>336</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
         <v>186</v>
@@ -31399,7 +31392,7 @@
         <v>339</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>186</v>
@@ -31419,7 +31412,7 @@
         <v>342</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
         <v>186</v>
@@ -31439,7 +31432,7 @@
         <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
         <v>186</v>
@@ -31459,7 +31452,7 @@
         <v>348</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
         <v>186</v>
@@ -31479,7 +31472,7 @@
         <v>351</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
         <v>186</v>
@@ -31499,7 +31492,7 @@
         <v>354</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
         <v>186</v>
@@ -31519,7 +31512,7 @@
         <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>186</v>
@@ -31539,7 +31532,7 @@
         <v>360</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
         <v>186</v>
@@ -31559,7 +31552,7 @@
         <v>363</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>186</v>
@@ -31579,7 +31572,7 @@
         <v>366</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
         <v>186</v>
@@ -31599,7 +31592,7 @@
         <v>369</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
         <v>186</v>
@@ -31619,7 +31612,7 @@
         <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
         <v>186</v>
@@ -31639,7 +31632,7 @@
         <v>375</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
         <v>186</v>
@@ -31659,7 +31652,7 @@
         <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
         <v>186</v>
@@ -31679,7 +31672,7 @@
         <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
         <v>186</v>
@@ -31699,7 +31692,7 @@
         <v>384</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>186</v>
@@ -31719,7 +31712,7 @@
         <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
         <v>186</v>
@@ -31739,7 +31732,7 @@
         <v>390</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
         <v>186</v>
@@ -31759,7 +31752,7 @@
         <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
         <v>186</v>
@@ -31779,7 +31772,7 @@
         <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
         <v>186</v>
@@ -31799,7 +31792,7 @@
         <v>399</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>186</v>
@@ -31819,7 +31812,7 @@
         <v>402</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
         <v>186</v>
@@ -31839,7 +31832,7 @@
         <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
         <v>186</v>
@@ -31859,7 +31852,7 @@
         <v>408</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
         <v>186</v>
@@ -31879,7 +31872,7 @@
         <v>411</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
         <v>186</v>
@@ -31899,7 +31892,7 @@
         <v>414</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
         <v>186</v>
@@ -31919,7 +31912,7 @@
         <v>417</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -31939,7 +31932,7 @@
         <v>420</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
         <v>186</v>
@@ -31959,7 +31952,7 @@
         <v>423</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
         <v>186</v>
@@ -31979,7 +31972,7 @@
         <v>426</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
         <v>186</v>
@@ -31999,7 +31992,7 @@
         <v>429</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
         <v>186</v>
@@ -32019,7 +32012,7 @@
         <v>432</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
         <v>186</v>
@@ -32039,7 +32032,7 @@
         <v>435</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
         <v>186</v>
@@ -32059,7 +32052,7 @@
         <v>438</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>186</v>
@@ -32079,7 +32072,7 @@
         <v>441</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
         <v>186</v>
@@ -32099,7 +32092,7 @@
         <v>444</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
         <v>186</v>
@@ -32119,7 +32112,7 @@
         <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
         <v>186</v>
@@ -32139,7 +32132,7 @@
         <v>450</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
         <v>186</v>
@@ -32159,7 +32152,7 @@
         <v>453</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>186</v>
@@ -32299,7 +32292,7 @@
         <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
         <v>186</v>
@@ -32319,7 +32312,7 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
         <v>186</v>
@@ -32339,7 +32332,7 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
         <v>186</v>
@@ -32359,7 +32352,7 @@
         <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
         <v>186</v>
@@ -32379,7 +32372,7 @@
         <v>198</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E86" t="s">
         <v>186</v>
@@ -32399,7 +32392,7 @@
         <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E87" t="s">
         <v>186</v>
@@ -32419,7 +32412,7 @@
         <v>204</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
         <v>186</v>
@@ -32439,7 +32432,7 @@
         <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
         <v>186</v>
@@ -32459,7 +32452,7 @@
         <v>475</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
         <v>186</v>
@@ -32479,7 +32472,7 @@
         <v>478</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E91" t="s">
         <v>186</v>
@@ -32499,7 +32492,7 @@
         <v>481</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
         <v>186</v>
@@ -32519,7 +32512,7 @@
         <v>484</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
         <v>186</v>
@@ -32539,7 +32532,7 @@
         <v>487</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E94" t="s">
         <v>186</v>
@@ -32559,7 +32552,7 @@
         <v>490</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E95" t="s">
         <v>186</v>
@@ -32579,7 +32572,7 @@
         <v>493</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
         <v>186</v>
@@ -32599,7 +32592,7 @@
         <v>496</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>186</v>
@@ -32619,7 +32612,7 @@
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E98" t="s">
         <v>186</v>
@@ -32672,7 +32665,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -32686,10 +32679,10 @@
         <v>502</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>503</v>
@@ -32706,10 +32699,10 @@
         <v>506</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>503</v>
@@ -32717,19 +32710,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>503</v>
@@ -32746,10 +32739,10 @@
         <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>503</v>
@@ -32766,7 +32759,7 @@
         <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>513</v>
@@ -32786,7 +32779,7 @@
         <v>516</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>513</v>
@@ -32806,7 +32799,7 @@
         <v>519</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>513</v>
@@ -32826,7 +32819,7 @@
         <v>522</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>513</v>
@@ -32846,7 +32839,7 @@
         <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>513</v>
@@ -32866,7 +32859,7 @@
         <v>528</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>513</v>
@@ -32886,7 +32879,7 @@
         <v>531</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>513</v>
@@ -32906,7 +32899,7 @@
         <v>534</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>513</v>
@@ -32926,10 +32919,10 @@
         <v>537</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
         <v>503</v>
@@ -32946,10 +32939,10 @@
         <v>540</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
         <v>503</v>
@@ -32966,10 +32959,10 @@
         <v>543</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
         <v>503</v>
@@ -32986,10 +32979,10 @@
         <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>503</v>
@@ -32997,19 +32990,19 @@
     </row>
     <row r="18" customFormat="1" spans="1:6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
         <v>503</v>
@@ -33026,10 +33019,10 @@
         <v>549</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
         <v>503</v>
@@ -33046,10 +33039,10 @@
         <v>552</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
         <v>503</v>
@@ -33066,10 +33059,10 @@
         <v>555</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
         <v>503</v>
@@ -33086,10 +33079,10 @@
         <v>558</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>503</v>
@@ -33106,10 +33099,10 @@
         <v>561</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
         <v>503</v>
@@ -33126,10 +33119,10 @@
         <v>564</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>503</v>
@@ -33146,10 +33139,10 @@
         <v>567</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
         <v>503</v>
@@ -33157,19 +33150,19 @@
     </row>
     <row r="26" customFormat="1" spans="1:6">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
         <v>503</v>
@@ -33186,10 +33179,10 @@
         <v>570</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
         <v>503</v>
@@ -33206,10 +33199,10 @@
         <v>573</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
         <v>503</v>
@@ -33226,10 +33219,10 @@
         <v>576</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
         <v>503</v>
@@ -33246,10 +33239,10 @@
         <v>579</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>503</v>
@@ -33266,10 +33259,10 @@
         <v>582</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
         <v>503</v>
@@ -33286,10 +33279,10 @@
         <v>585</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
         <v>503</v>
@@ -33306,10 +33299,10 @@
         <v>588</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
         <v>503</v>
@@ -33326,10 +33319,10 @@
         <v>591</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
         <v>503</v>
@@ -33346,10 +33339,10 @@
         <v>594</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>503</v>
@@ -33366,10 +33359,10 @@
         <v>597</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
         <v>503</v>
@@ -33386,10 +33379,10 @@
         <v>600</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
         <v>503</v>
@@ -33406,10 +33399,10 @@
         <v>603</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
         <v>503</v>
@@ -33426,10 +33419,10 @@
         <v>606</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
         <v>503</v>
@@ -33446,10 +33439,10 @@
         <v>609</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
         <v>503</v>
@@ -33466,10 +33459,10 @@
         <v>612</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
         <v>503</v>
@@ -33486,10 +33479,10 @@
         <v>615</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
         <v>503</v>
@@ -33497,19 +33490,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
         <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>104</v>
       </c>
       <c r="F43" t="s">
         <v>503</v>
@@ -33526,10 +33519,10 @@
         <v>618</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
         <v>503</v>
@@ -33546,10 +33539,10 @@
         <v>621</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
         <v>503</v>
@@ -33566,10 +33559,10 @@
         <v>624</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
         <v>503</v>
@@ -33586,10 +33579,10 @@
         <v>627</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
         <v>503</v>
@@ -33606,10 +33599,10 @@
         <v>630</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
         <v>503</v>
@@ -33626,7 +33619,7 @@
         <v>633</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
         <v>634</v>
@@ -33646,7 +33639,7 @@
         <v>637</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
         <v>634</v>
@@ -33666,7 +33659,7 @@
         <v>640</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
         <v>634</v>
@@ -33686,7 +33679,7 @@
         <v>643</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>634</v>
@@ -33706,7 +33699,7 @@
         <v>646</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
         <v>634</v>
@@ -33726,7 +33719,7 @@
         <v>649</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
         <v>634</v>
@@ -33746,7 +33739,7 @@
         <v>652</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
         <v>634</v>
@@ -33766,7 +33759,7 @@
         <v>655</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
         <v>634</v>
@@ -33786,7 +33779,7 @@
         <v>658</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>634</v>
@@ -33806,7 +33799,7 @@
         <v>661</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
         <v>634</v>
@@ -33826,7 +33819,7 @@
         <v>664</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
         <v>634</v>
@@ -33846,7 +33839,7 @@
         <v>667</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
         <v>634</v>
@@ -33866,7 +33859,7 @@
         <v>670</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
         <v>634</v>
@@ -33886,7 +33879,7 @@
         <v>673</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
         <v>634</v>
@@ -33906,7 +33899,7 @@
         <v>676</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
         <v>634</v>
@@ -33926,7 +33919,7 @@
         <v>679</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
         <v>634</v>
@@ -33946,7 +33939,7 @@
         <v>682</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
         <v>634</v>
@@ -33966,7 +33959,7 @@
         <v>685</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
         <v>634</v>
@@ -33986,7 +33979,7 @@
         <v>688</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
         <v>634</v>
@@ -34006,7 +33999,7 @@
         <v>691</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
         <v>634</v>
@@ -34026,7 +34019,7 @@
         <v>694</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
         <v>695</v>
@@ -34046,7 +34039,7 @@
         <v>698</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>695</v>
@@ -34066,7 +34059,7 @@
         <v>701</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
         <v>695</v>
@@ -34086,7 +34079,7 @@
         <v>704</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
         <v>695</v>
@@ -34106,7 +34099,7 @@
         <v>707</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
         <v>695</v>
@@ -34126,7 +34119,7 @@
         <v>710</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
         <v>695</v>
@@ -34146,7 +34139,7 @@
         <v>713</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>695</v>
@@ -34166,7 +34159,7 @@
         <v>716</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s">
         <v>695</v>
@@ -34186,7 +34179,7 @@
         <v>719</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E77" t="s">
         <v>634</v>
@@ -34206,7 +34199,7 @@
         <v>722</v>
       </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E78" t="s">
         <v>634</v>
@@ -34226,7 +34219,7 @@
         <v>725</v>
       </c>
       <c r="D79" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
         <v>634</v>
@@ -34246,7 +34239,7 @@
         <v>728</v>
       </c>
       <c r="D80" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
         <v>634</v>
@@ -34266,7 +34259,7 @@
         <v>731</v>
       </c>
       <c r="D81" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E81" t="s">
         <v>634</v>
@@ -34286,7 +34279,7 @@
         <v>734</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
         <v>634</v>
@@ -34306,7 +34299,7 @@
         <v>737</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
         <v>634</v>
@@ -34326,7 +34319,7 @@
         <v>740</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
         <v>634</v>
@@ -34346,7 +34339,7 @@
         <v>743</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
         <v>634</v>
@@ -34366,7 +34359,7 @@
         <v>746</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E86" t="s">
         <v>634</v>
@@ -34386,7 +34379,7 @@
         <v>749</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E87" t="s">
         <v>634</v>
@@ -34406,7 +34399,7 @@
         <v>752</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
         <v>634</v>
@@ -34426,7 +34419,7 @@
         <v>755</v>
       </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
         <v>634</v>
@@ -34446,7 +34439,7 @@
         <v>758</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
         <v>634</v>
@@ -34466,7 +34459,7 @@
         <v>761</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E91" t="s">
         <v>634</v>
@@ -34486,7 +34479,7 @@
         <v>764</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
         <v>634</v>
@@ -34566,7 +34559,7 @@
         <v>777</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
         <v>634</v>
@@ -34586,7 +34579,7 @@
         <v>780</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>634</v>
@@ -34606,7 +34599,7 @@
         <v>783</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E98" t="s">
         <v>634</v>
@@ -34626,7 +34619,7 @@
         <v>786</v>
       </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E99" t="s">
         <v>634</v>
@@ -34646,7 +34639,7 @@
         <v>789</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
         <v>634</v>
@@ -34746,7 +34739,7 @@
         <v>805</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E105" t="s">
         <v>634</v>
@@ -34766,7 +34759,7 @@
         <v>808</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E106" t="s">
         <v>634</v>
@@ -34786,7 +34779,7 @@
         <v>811</v>
       </c>
       <c r="D107" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
         <v>634</v>
@@ -34806,7 +34799,7 @@
         <v>814</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E108" t="s">
         <v>634</v>
@@ -34826,7 +34819,7 @@
         <v>817</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E109" t="s">
         <v>634</v>
@@ -34846,7 +34839,7 @@
         <v>820</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E110" t="s">
         <v>634</v>
@@ -34866,7 +34859,7 @@
         <v>823</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E111" t="s">
         <v>634</v>
@@ -34886,7 +34879,7 @@
         <v>826</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E112" t="s">
         <v>634</v>
@@ -34906,10 +34899,10 @@
         <v>829</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F113" t="s">
         <v>503</v>
@@ -34926,10 +34919,10 @@
         <v>832</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F114" t="s">
         <v>503</v>
@@ -34946,10 +34939,10 @@
         <v>835</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F115" t="s">
         <v>503</v>
@@ -34966,10 +34959,10 @@
         <v>838</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F116" t="s">
         <v>503</v>
@@ -34977,19 +34970,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F117" t="s">
         <v>503</v>
@@ -35006,10 +34999,10 @@
         <v>841</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F118" t="s">
         <v>503</v>
@@ -35026,10 +35019,10 @@
         <v>844</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F119" t="s">
         <v>503</v>
@@ -35046,10 +35039,10 @@
         <v>847</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F120" t="s">
         <v>503</v>
@@ -35100,7 +35093,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
@@ -35134,10 +35127,10 @@
         <v>856</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>853</v>
@@ -35154,10 +35147,10 @@
         <v>859</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>853</v>
@@ -35174,10 +35167,10 @@
         <v>862</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>853</v>
@@ -35194,10 +35187,10 @@
         <v>865</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>853</v>
@@ -35214,10 +35207,10 @@
         <v>868</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
         <v>853</v>
@@ -35225,19 +35218,19 @@
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
         <v>853</v>
@@ -35254,10 +35247,10 @@
         <v>871</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>853</v>
@@ -35265,19 +35258,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
         <v>853</v>
@@ -35294,10 +35287,10 @@
         <v>874</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>853</v>
@@ -35314,7 +35307,7 @@
         <v>877</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
         <v>878</v>
@@ -35334,7 +35327,7 @@
         <v>881</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
         <v>878</v>
@@ -35354,7 +35347,7 @@
         <v>884</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
         <v>878</v>
@@ -35374,7 +35367,7 @@
         <v>887</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>878</v>
@@ -35394,7 +35387,7 @@
         <v>890</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
         <v>878</v>
@@ -35414,7 +35407,7 @@
         <v>893</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
         <v>878</v>
@@ -35434,7 +35427,7 @@
         <v>896</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>878</v>
@@ -35454,7 +35447,7 @@
         <v>899</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>878</v>
@@ -35474,7 +35467,7 @@
         <v>902</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>878</v>
@@ -35494,7 +35487,7 @@
         <v>905</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
         <v>906</v>
@@ -35514,7 +35507,7 @@
         <v>909</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
         <v>906</v>
@@ -35534,7 +35527,7 @@
         <v>912</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
         <v>906</v>
@@ -35554,7 +35547,7 @@
         <v>915</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>906</v>
@@ -35574,7 +35567,7 @@
         <v>918</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>906</v>
@@ -35594,7 +35587,7 @@
         <v>921</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>906</v>
@@ -35614,7 +35607,7 @@
         <v>924</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
         <v>906</v>
@@ -35634,7 +35627,7 @@
         <v>927</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>906</v>
@@ -35654,7 +35647,7 @@
         <v>930</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
         <v>906</v>
@@ -35694,7 +35687,7 @@
         <v>936</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
         <v>933</v>
@@ -35714,7 +35707,7 @@
         <v>939</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
         <v>940</v>
@@ -35734,7 +35727,7 @@
         <v>943</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>940</v>
@@ -35754,7 +35747,7 @@
         <v>946</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
         <v>940</v>
@@ -35774,7 +35767,7 @@
         <v>949</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
         <v>940</v>
@@ -35794,7 +35787,7 @@
         <v>952</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
         <v>940</v>
@@ -35814,7 +35807,7 @@
         <v>955</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
         <v>940</v>
@@ -35834,7 +35827,7 @@
         <v>958</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
         <v>940</v>
@@ -35854,7 +35847,7 @@
         <v>961</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
         <v>940</v>
@@ -35874,7 +35867,7 @@
         <v>964</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>940</v>
@@ -35894,7 +35887,7 @@
         <v>967</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>940</v>
@@ -35914,7 +35907,7 @@
         <v>970</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>940</v>
@@ -35967,7 +35960,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -36261,7 +36254,7 @@
         <v>1017</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>1018</v>
@@ -36281,7 +36274,7 @@
         <v>1021</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>1018</v>
@@ -36301,7 +36294,7 @@
         <v>1024</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>1018</v>
@@ -36321,7 +36314,7 @@
         <v>1027</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>1018</v>
@@ -36341,7 +36334,7 @@
         <v>1030</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>1018</v>
@@ -36361,7 +36354,7 @@
         <v>1033</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>1018</v>
@@ -36381,7 +36374,7 @@
         <v>1036</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>1018</v>
@@ -36401,7 +36394,7 @@
         <v>1039</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>1040</v>
@@ -36421,7 +36414,7 @@
         <v>1043</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>1040</v>
@@ -36441,7 +36434,7 @@
         <v>1046</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>1040</v>
@@ -36461,7 +36454,7 @@
         <v>1049</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>1040</v>
@@ -36481,7 +36474,7 @@
         <v>1052</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>1040</v>
@@ -36501,7 +36494,7 @@
         <v>1055</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>1040</v>
@@ -36521,7 +36514,7 @@
         <v>1058</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>1040</v>
@@ -36541,7 +36534,7 @@
         <v>1061</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>1040</v>
@@ -36561,7 +36554,7 @@
         <v>1064</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>1040</v>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15660" tabRatio="894"/>
+    <workbookView windowHeight="15660" tabRatio="894" firstSheet="7" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="R-Nhân viên HCNS-Lương" sheetId="19" r:id="rId17"/>
     <sheet name="R-Nhân viên HCNS-Tổng hợp" sheetId="20" r:id="rId18"/>
     <sheet name="R-Trưởng phòng kinh doanh" sheetId="21" r:id="rId19"/>
+    <sheet name="R-Trưởng phòng HCNS" sheetId="22" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">core_permission!$A$1:$E$252</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="1786">
   <si>
     <t>code</t>
   </si>
@@ -6468,8 +6469,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="S_NV_CHUNG" displayName="S_NV_CHUNG" ref="A1:F25" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F25" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="S_NV_CHUNG" displayName="S_NV_CHUNG" ref="A1:F23" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F23" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code"/>
     <tableColumn id="2" name="Tên"/>
@@ -6847,8 +6848,8 @@
   <sheetPr/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -11692,7 +11693,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="str" cm="1">
-        <f t="array" ref="A5:F28">S_NV_CHUNG[]</f>
+        <f t="array" ref="A5:F26">S_NV_CHUNG[]</f>
         <v>administrative_unit.list</v>
       </c>
       <c r="B5" t="str">
@@ -12129,46 +12130,6 @@
       </c>
       <c r="F26" t="str">
         <v>S_NHANVIEN_CHUNG</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -13457,7 +13418,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="str" cm="1">
-        <f t="array" ref="A5:F28">S_NV_CHUNG[]</f>
+        <f t="array" ref="A5:F26">S_NV_CHUNG[]</f>
         <v>administrative_unit.list</v>
       </c>
       <c r="B5" t="str">
@@ -13894,46 +13855,6 @@
       </c>
       <c r="F26" t="str">
         <v>S_NHANVIEN_CHUNG</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17060,7 +16981,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="str" cm="1">
-        <f t="array" ref="A19:F42">S_NV_CHUNG[]</f>
+        <f t="array" ref="A19:F40">S_NV_CHUNG[]</f>
         <v>administrative_unit.list</v>
       </c>
       <c r="B19" t="str">
@@ -17497,46 +17418,6 @@
       </c>
       <c r="F40" t="str">
         <v>S_NHANVIEN_CHUNG</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -18981,7 +18862,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="str" cm="1">
-        <f t="array" ref="A5:F28">S_NV_CHUNG[]</f>
+        <f t="array" ref="A5:F26">S_NV_CHUNG[]</f>
         <v>administrative_unit.list</v>
       </c>
       <c r="B5" t="str">
@@ -19418,46 +19299,6 @@
       </c>
       <c r="F26" t="str">
         <v>S_NHANVIEN_CHUNG</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -28099,8 +27940,8 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -28474,7 +28315,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="str" cm="1">
-        <f t="array" ref="A19:F42">S_NV_CHUNG[]</f>
+        <f t="array" ref="A19:F40">S_NV_CHUNG[]</f>
         <v>administrative_unit.list</v>
       </c>
       <c r="B19" t="str">
@@ -28911,46 +28752,6 @@
       </c>
       <c r="F40" t="str">
         <v>S_NHANVIEN_CHUNG</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -29326,7 +29127,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -29804,6 +29605,9534 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F475"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A477" sqref="A477"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:F23">S_NV_CHUNG[]</f>
+        <v>administrative_unit.list</v>
+      </c>
+      <c r="B2" t="str">
+        <v>[Hệ thống ] [Đơn vị hành chính] Danh sách Các Đơn Vị Hành Chính</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Xem danh sách Các Đơn Vị Hành Chính</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E2" t="str">
+        <v>Đơn vị hành chính</v>
+      </c>
+      <c r="F2" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="str">
+        <v>administrative_unit.retrieve</v>
+      </c>
+      <c r="B3" t="str">
+        <v>[Hệ thống ] [Đơn vị hành chính] Xem Đơn vị hành chính</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Xem chi tiết của Đơn vị hành chính</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E3" t="str">
+        <v>Đơn vị hành chính</v>
+      </c>
+      <c r="F3" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <v>decision.create</v>
+      </c>
+      <c r="B4" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền tạo Quyết Định</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Quyền tạo mới một Quyết Định</v>
+      </c>
+      <c r="D4" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F4" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <v>decision.destroy</v>
+      </c>
+      <c r="B5" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền xóa Quyết Định</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Quyền xóa Quyết Định</v>
+      </c>
+      <c r="D5" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F5" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="str">
+        <v>decision.export</v>
+      </c>
+      <c r="B6" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền xuất Quyết Định</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Quyền xuất Quyết Định</v>
+      </c>
+      <c r="D6" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F6" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="str">
+        <v>decision.histories</v>
+      </c>
+      <c r="B7" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem lịch sử Quyết Định</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Xem lịch sử Quyết Định</v>
+      </c>
+      <c r="D7" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F7" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <v>decision.history_detail</v>
+      </c>
+      <c r="B8" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem chi tiết lịch sử của Quyết Định</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Xem chi tiết lịch sử của Quyết Định</v>
+      </c>
+      <c r="D8" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F8" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="str">
+        <v>decision.list</v>
+      </c>
+      <c r="B9" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Danh sách Các Quyết Định</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Xem danh sách Các Quyết Định</v>
+      </c>
+      <c r="D9" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F9" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="str">
+        <v>decision.partial_update</v>
+      </c>
+      <c r="B10" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền cập nhật một phần Quyết Định</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Quyền cập nhật một phần Quyết Định</v>
+      </c>
+      <c r="D10" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F10" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="str">
+        <v>decision.retrieve</v>
+      </c>
+      <c r="B11" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem Quyết Định</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Xem chi tiết của Quyết Định</v>
+      </c>
+      <c r="D11" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F11" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="str">
+        <v>decision.update</v>
+      </c>
+      <c r="B12" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền cập nhật Quyết Định</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Quyền cập nhật Quyết Định</v>
+      </c>
+      <c r="D12" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F12" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="str">
+        <v>files.confirm_multiple_files</v>
+      </c>
+      <c r="B13" t="str">
+        <v>[Tệp tin] [Xác nhận] Xác nhận nhiều tệp tin</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Xác nhận nhiều tệp tin</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Tệp tin</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Xác nhận</v>
+      </c>
+      <c r="F13" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="str">
+        <v>files.presign_url</v>
+      </c>
+      <c r="B14" t="str">
+        <v>[Tệp tin] [Ký trước] Tạo URL ký trước</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Tạo URL ký trước</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Tệp tin</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Ký trước</v>
+      </c>
+      <c r="F14" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="str">
+        <v>province.list</v>
+      </c>
+      <c r="B15" t="str">
+        <v>[Core] [Geographic Data] Danh sách Provinces</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Xem danh sách Provinces</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F15" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="str">
+        <v>province.retrieve</v>
+      </c>
+      <c r="B16" t="str">
+        <v>[Core] [Geographic Data] Xem Province</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Xem chi tiết của Province</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F16" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="str">
+        <v>bank.list</v>
+      </c>
+      <c r="B17" t="str">
+        <v>[HCNS] [Quản lý Ngân Hàng] Danh sách Các Ngân Hàng</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Xem danh sách Các Ngân Hàng</v>
+      </c>
+      <c r="D17" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Quản lý Ngân Hàng</v>
+      </c>
+      <c r="F17" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="str">
+        <v>block.list</v>
+      </c>
+      <c r="B18" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Khối</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Xem danh sách Khối</v>
+      </c>
+      <c r="D18" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F18" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="str">
+        <v>branch.list</v>
+      </c>
+      <c r="B19" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chi Nhánh</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Xem danh sách Chi Nhánh</v>
+      </c>
+      <c r="D19" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F19" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="str">
+        <v>department.list</v>
+      </c>
+      <c r="B20" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Phòng Ban</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Xem danh sách phòng ban với các bộ lọc và sắp xếp</v>
+      </c>
+      <c r="D20" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F20" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="str">
+        <v>position.list</v>
+      </c>
+      <c r="B21" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chức Vụ</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Xem danh sách Chức Vụ</v>
+      </c>
+      <c r="D21" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F21" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="str">
+        <v>payroll.penalty_ticket.list</v>
+      </c>
+      <c r="B22" t="str">
+        <v>[Bảng lương] [Penalty Management] Danh sách Các Phiếu Phạt</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Xem danh sách Các Phiếu Phạt</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F22" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="str">
+        <v>payroll.penalty_ticket.retrieve</v>
+      </c>
+      <c r="B23" t="str">
+        <v>[Bảng lương] [Penalty Management] Xem Phiếu phạt</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Xem chi tiết của Phiếu phạt</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F23" t="str">
+        <v>S_NHANVIEN_CHUNG</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="str" cm="1">
+        <f t="array" ref="A24:F26">S_NV_CHAMCONG[]</f>
+        <v>attendance_record.wifi_attendance</v>
+      </c>
+      <c r="B24" t="str">
+        <v>[HRM] [Log chấm công] Chấm Công WiFi</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Chấm công bằng WiFi BSSID</v>
+      </c>
+      <c r="D24" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F24" t="str">
+        <v>S_NV_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="str">
+        <v>attendance_geolocation.create</v>
+      </c>
+      <c r="B25" t="str">
+        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Quyền tạo mới một Log chấm Công GPS</v>
+      </c>
+      <c r="D25" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F25" t="str">
+        <v>S_NV_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="str">
+        <v>attendance_record.other_attendance</v>
+      </c>
+      <c r="B26" t="str">
+        <v>[HRM] [Log chấm công] Chấm Công Khác</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Log chấm Công thủ công hoặc lý do khác</v>
+      </c>
+      <c r="D26" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F26" t="str">
+        <v>S_NV_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:F40">S_NV_TAODEXUAT[]</f>
+        <v>proposal_asset_allocation.create</v>
+      </c>
+      <c r="B27" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Cấp tài sản</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất cấp tài sản</v>
+      </c>
+      <c r="D27" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F27" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="str">
+        <v>proposal_device_change.create</v>
+      </c>
+      <c r="B28" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Thay đổi thiết bị đăng nhập</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất thay đổi thiết bị đăng nhập</v>
+      </c>
+      <c r="D28" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F28" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="str">
+        <v>proposal_job_transfer.create</v>
+      </c>
+      <c r="B29" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Điều chuyển công tác</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất điều chuyển công tác</v>
+      </c>
+      <c r="D29" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F29" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="str">
+        <v>proposal_late_exemption.create</v>
+      </c>
+      <c r="B30" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Miễn trừ trễ</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất miễn trừ trễ</v>
+      </c>
+      <c r="D30" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F30" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="str">
+        <v>proposal_maternity_leave.create</v>
+      </c>
+      <c r="B31" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ việc hưởng chế độ thai sản</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ việc hưởng chế độ thai sản</v>
+      </c>
+      <c r="D31" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F31" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="str">
+        <v>proposal_overtime_work.create</v>
+      </c>
+      <c r="B32" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Làm việc ngoài giờ</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất làm việc ngoài giờ</v>
+      </c>
+      <c r="D32" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F32" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="str">
+        <v>proposal_paid_leave.create</v>
+      </c>
+      <c r="B33" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ phép có lương</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ phép có lương</v>
+      </c>
+      <c r="D33" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F33" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="str">
+        <v>proposal_post_maternity_benefits.create</v>
+      </c>
+      <c r="B34" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Chế độ làm việc hậu thai sản</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất chế độ làm việc hậu thai sản</v>
+      </c>
+      <c r="D34" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F34" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="str">
+        <v>proposal_timesheet_entry_complaint.create</v>
+      </c>
+      <c r="B35" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Khiếu nại Chấm công</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất khiếu nại chấm công</v>
+      </c>
+      <c r="D35" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F35" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="str">
+        <v>proposal_unpaid_leave.create</v>
+      </c>
+      <c r="B36" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ không lương</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ không lương</v>
+      </c>
+      <c r="D36" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F36" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="str">
+        <v>proposal_verifier.create</v>
+      </c>
+      <c r="B37" t="str">
+        <v>[HRM] [Đề xuất] Quyền tạo Người xác minh</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Quyền tạo mới một Người xác minh</v>
+      </c>
+      <c r="D37" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F37" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="str">
+        <v>proposal_verifier.list</v>
+      </c>
+      <c r="B38" t="str">
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Xem danh sách Người Xác Minh</v>
+      </c>
+      <c r="D38" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F38" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="str">
+        <v>proposal_verifier.list</v>
+      </c>
+      <c r="B39" t="str">
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Xem danh sách Người Xác Minh</v>
+      </c>
+      <c r="D39" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F39" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="str">
+        <v>proposal_verifier.list</v>
+      </c>
+      <c r="B40" t="str">
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Xem danh sách Người Xác Minh</v>
+      </c>
+      <c r="D40" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F40" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="str" cm="1">
+        <f t="array" ref="A41:F66">S_HRM_CHUNG[]</f>
+        <v>export.check_status</v>
+      </c>
+      <c r="B41" t="str">
+        <v>[Hệ thống ] [Trạng thái xuất dữ liệu] Trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Quyền xem trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E41" t="str">
+        <v>Trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="F41" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="str">
+        <v>import.check_status</v>
+      </c>
+      <c r="B42" t="str">
+        <v>[Imports] [Trạng thái] Quyền kiểm tra trạng thái nhập dữ liệu</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Kiểm tra trạng thái nhập dữ liệu</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Imports</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Trạng thái</v>
+      </c>
+      <c r="F42" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="str">
+        <v>mailtemplate.job_status</v>
+      </c>
+      <c r="B43" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Job Status MailTemplate</v>
+      </c>
+      <c r="C43" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Job Status a MailTemplate</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F43" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="str">
+        <v>mailtemplate.list</v>
+      </c>
+      <c r="B44" t="str">
+        <v>[Mail Templates] [Template Management] Danh sách MailTemplates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Xem danh sách MailTemplates</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F44" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="str">
+        <v>mailtemplate.preview</v>
+      </c>
+      <c r="B45" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Preview MailTemplate</v>
+      </c>
+      <c r="C45" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Preview a MailTemplate</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F45" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="str">
+        <v>mailtemplate.retrieve</v>
+      </c>
+      <c r="B46" t="str">
+        <v>[Mail Templates] [Template Management] Xem MailTemplate</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Xem chi tiết của MailTemplate</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F46" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="str">
+        <v>mailtemplate.send</v>
+      </c>
+      <c r="B47" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Send MailTemplate</v>
+      </c>
+      <c r="C47" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Send a MailTemplate</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F47" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="str">
+        <v>mailtemplate.update</v>
+      </c>
+      <c r="B48" t="str">
+        <v>[Mail Templates] [Template Management] Quyền cập nhật MailTemplate</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Quyền cập nhật MailTemplate</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F48" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="str">
+        <v>nationality.list</v>
+      </c>
+      <c r="B49" t="str">
+        <v>[Core] [Geographic Data] Danh sách Nationalities</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Xem danh sách Nationalities</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F49" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="str">
+        <v>nationality.retrieve</v>
+      </c>
+      <c r="B50" t="str">
+        <v>[Core] [Geographic Data] Xem Nationality</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Xem chi tiết của Nationality</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F50" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="str">
+        <v>project.create</v>
+      </c>
+      <c r="B51" t="str">
+        <v>[Real Estate] [Project Management] Quyền tạo Project</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Quyền tạo mới một Project</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F51" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="str">
+        <v>project.destroy</v>
+      </c>
+      <c r="B52" t="str">
+        <v>[Real Estate] [Project Management] Quyền xóa Project</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Quyền xóa Project</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F52" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="str">
+        <v>project.histories</v>
+      </c>
+      <c r="B53" t="str">
+        <v>[Real Estate] [Project Management] Xem lịch sử Project</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Xem lịch sử Project</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F53" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="str">
+        <v>project.history_detail</v>
+      </c>
+      <c r="B54" t="str">
+        <v>[Real Estate] [Project Management] Xem chi tiết lịch sử của Project</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Xem chi tiết lịch sử của Project</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F54" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="str">
+        <v>project.list</v>
+      </c>
+      <c r="B55" t="str">
+        <v>[Real Estate] [Project Management] Danh sách Projects</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Xem danh sách Projects</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F55" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="str">
+        <v>project.partial_update</v>
+      </c>
+      <c r="B56" t="str">
+        <v>[Real Estate] [Project Management] Quyền cập nhật một phần Project</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Quyền cập nhật một phần Project</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F56" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="str">
+        <v>project.retrieve</v>
+      </c>
+      <c r="B57" t="str">
+        <v>[Real Estate] [Project Management] Xem Project</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Xem chi tiết của Project</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F57" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="str">
+        <v>project.update</v>
+      </c>
+      <c r="B58" t="str">
+        <v>[Real Estate] [Project Management] Quyền cập nhật Project</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Quyền cập nhật Project</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F58" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="str">
+        <v>employee_self_assessment.create</v>
+      </c>
+      <c r="B59" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền tạo EmployeeSelfAssessment</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Quyền tạo mới một EmployeeSelfAssessment</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F59" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="str">
+        <v>employee_self_assessment.current_assessment</v>
+      </c>
+      <c r="B60" t="str">
+        <v>[Payroll] [Employee Self-Assessment] UNREGISTERED Current Assessment EmployeeSelfAssessment</v>
+      </c>
+      <c r="C60" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessment a EmployeeSelfAssessment</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F60" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="str">
+        <v>employee_self_assessment.destroy</v>
+      </c>
+      <c r="B61" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền xóa EmployeeSelfAssessment</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Quyền xóa EmployeeSelfAssessment</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F61" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="str">
+        <v>employee_self_assessment.list</v>
+      </c>
+      <c r="B62" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Xem danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F62" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="str">
+        <v>employee_self_assessment.partial_update</v>
+      </c>
+      <c r="B63" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F63" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="str">
+        <v>employee_self_assessment.retrieve</v>
+      </c>
+      <c r="B64" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Xem EmployeeSelfAssessment</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Xem chi tiết của EmployeeSelfAssessment</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F64" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="str">
+        <v>employee_self_assessment.update</v>
+      </c>
+      <c r="B65" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật EmployeeSelfAssessment</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Quyền cập nhật EmployeeSelfAssessment</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F65" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="str">
+        <v>employee_self_assessment.update_item_score</v>
+      </c>
+      <c r="B66" t="str">
+        <v>[Payroll] [Employee Self-Assessment] UNREGISTERED Update Item Score EmployeeSelfAssessment</v>
+      </c>
+      <c r="C66" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Update Item Score a EmployeeSelfAssessment</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F66" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="str" cm="1">
+        <f t="array" ref="A67:F121">S_HRM_CHAMCONG[]</f>
+        <v>attendance_record.other_bulk_approve</v>
+      </c>
+      <c r="B67" t="str">
+        <v>[HRM] [Log chấm công] Duyệt hàng loạt cho log chấm công Khác</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Duyệt hoặc từ chối hàng loạt log chấm công Khác</v>
+      </c>
+      <c r="D67" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F67" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="str">
+        <v>attendance_record.partial_update</v>
+      </c>
+      <c r="B68" t="str">
+        <v>[HRM] [Log chấm công] Quyền cập nhật một phần Log Chấm Công</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Quyền cập nhật một phần Log Chấm Công</v>
+      </c>
+      <c r="D68" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F68" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="str">
+        <v>attendance_record.retrieve</v>
+      </c>
+      <c r="B69" t="str">
+        <v>[HRM] [Log chấm công] Xem Log Chấm Công</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Xem chi tiết của Log Chấm Công</v>
+      </c>
+      <c r="D69" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F69" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="str">
+        <v>attendance_record.update</v>
+      </c>
+      <c r="B70" t="str">
+        <v>[HRM] [Log chấm công] Quyền cập nhật Log Chấm Công</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Quyền cập nhật Log Chấm Công</v>
+      </c>
+      <c r="D70" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F70" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="str">
+        <v>attendance_device.check_connection</v>
+      </c>
+      <c r="B71" t="str">
+        <v>[HRM] [Máy chấm công] Kiểm tra kết nối thiết bị</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Thử kết nối đến thiết bị chấm công và cập nhật trạng thái kết nối của nó</v>
+      </c>
+      <c r="D71" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F71" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="str">
+        <v>attendance_device.create</v>
+      </c>
+      <c r="B72" t="str">
+        <v>[HRM] [Máy chấm công] Quyền tạo Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Quyền tạo mới một Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D72" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F72" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="str">
+        <v>attendance_device.destroy</v>
+      </c>
+      <c r="B73" t="str">
+        <v>[HRM] [Máy chấm công] Quyền xóa Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Quyền xóa Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D73" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F73" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="str">
+        <v>attendance_device.histories</v>
+      </c>
+      <c r="B74" t="str">
+        <v>[HRM] [Máy chấm công] Xem lịch sử Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Xem lịch sử Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D74" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F74" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="str">
+        <v>attendance_device.history_detail</v>
+      </c>
+      <c r="B75" t="str">
+        <v>[HRM] [Máy chấm công] Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D75" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F75" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="str">
+        <v>attendance_device.list</v>
+      </c>
+      <c r="B76" t="str">
+        <v>[HRM] [Máy chấm công] Danh sách Các Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Xem danh sách Các Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D76" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F76" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="str">
+        <v>attendance_device.partial_update</v>
+      </c>
+      <c r="B77" t="str">
+        <v>[HRM] [Máy chấm công] Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D77" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F77" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="str">
+        <v>attendance_device.retrieve</v>
+      </c>
+      <c r="B78" t="str">
+        <v>[HRM] [Máy chấm công] Xem Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Xem chi tiết của Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D78" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F78" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="str">
+        <v>attendance_device.toggle_enabled</v>
+      </c>
+      <c r="B79" t="str">
+        <v>[HRM] [Máy chấm công] Bật/tắt trạng thái thiết bị</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Enable hoặc disable thiết bị chấm công</v>
+      </c>
+      <c r="D79" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F79" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="str">
+        <v>attendance_device.update</v>
+      </c>
+      <c r="B80" t="str">
+        <v>[HRM] [Máy chấm công] Quyền cập nhật Thiết Bị Chấm Công</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Quyền cập nhật Thiết Bị Chấm Công</v>
+      </c>
+      <c r="D80" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F80" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="str">
+        <v>timesheet.histories</v>
+      </c>
+      <c r="B81" t="str">
+        <v>[HCNS] [Bảng chấm công] Lịch sử bảng công</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Xem lịch sử thay đổi bảng công</v>
+      </c>
+      <c r="D81" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F81" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="str">
+        <v>timesheet.history_detail</v>
+      </c>
+      <c r="B82" t="str">
+        <v>[HCNS] [Bảng chấm công] Xem chi tiết lịch sử bảng công</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Xem chi tiết lịch sử bảng công</v>
+      </c>
+      <c r="D82" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F82" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="str">
+        <v>timesheet.list</v>
+      </c>
+      <c r="B83" t="str">
+        <v>[HCNS] [Bảng chấm công] Bảng công</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Bảng công</v>
+      </c>
+      <c r="D83" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F83" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="str">
+        <v>timesheet.mine</v>
+      </c>
+      <c r="B84" t="str">
+        <v>[HCNS] [Bảng chấm công] Liệt kê bảng chấm công của nhân viên hiện tại</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Liệt kê bảng chấm công của nhân viên hiện tại</v>
+      </c>
+      <c r="D84" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F84" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="str">
+        <v>timesheet.partial_update</v>
+      </c>
+      <c r="B85" t="str">
+        <v>[HCNS] [Bảng chấm công] Quyền cập nhật một phần Bảng chấm công</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Quyền cập nhật một phần Bảng chấm công</v>
+      </c>
+      <c r="D85" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F85" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="str">
+        <v>timesheet.retrieve</v>
+      </c>
+      <c r="B86" t="str">
+        <v>[HCNS] [Bảng chấm công] Chi tiết bảng công nhân viên</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Chi tiết bảng công nhân viên</v>
+      </c>
+      <c r="D86" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F86" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="str">
+        <v>timesheet.update</v>
+      </c>
+      <c r="B87" t="str">
+        <v>[HCNS] [Bảng chấm công] Cập nhật ngày công của nhân viên</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Cập nhật ngày công của nhân viên</v>
+      </c>
+      <c r="D87" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Bảng chấm công</v>
+      </c>
+      <c r="F87" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="str">
+        <v>wifi_attendance_device.create</v>
+      </c>
+      <c r="B88" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền tạo Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Quyền tạo mới một Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D88" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F88" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="str">
+        <v>wifi_attendance_device.destroy</v>
+      </c>
+      <c r="B89" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xóa Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Quyền xóa Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D89" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F89" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="str">
+        <v>wifi_attendance_device.export</v>
+      </c>
+      <c r="B90" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xuất Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Quyền xuất Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D90" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F90" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="str">
+        <v>wifi_attendance_device.histories</v>
+      </c>
+      <c r="B91" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D91" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F91" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="str">
+        <v>wifi_attendance_device.history_detail</v>
+      </c>
+      <c r="B92" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D92" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F92" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="str">
+        <v>wifi_attendance_device.list</v>
+      </c>
+      <c r="B93" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Danh sách Các Thiết Bị Chấm Công Wifi</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Xem danh sách Các Thiết Bị Chấm Công Wifi</v>
+      </c>
+      <c r="D93" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F93" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="str">
+        <v>wifi_attendance_device.partial_update</v>
+      </c>
+      <c r="B94" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D94" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F94" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="str">
+        <v>wifi_attendance_device.retrieve</v>
+      </c>
+      <c r="B95" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Xem chi tiết của Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D95" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F95" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="str">
+        <v>wifi_attendance_device.update</v>
+      </c>
+      <c r="B96" t="str">
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+      </c>
+      <c r="D96" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Thiết bị chấm công WiFi</v>
+      </c>
+      <c r="F96" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="str">
+        <v>recruitment_reports.by_method</v>
+      </c>
+      <c r="B97" t="str">
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo tỷ lệ chấm công theo các phương thức</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Báo cáo thống kê chấm công theo phương thức (thiết bị, wifi, GPS, khác)</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Báo Cáo</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F97" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="str">
+        <v>recruitment_reports.by_project</v>
+      </c>
+      <c r="B98" t="str">
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo Cáo Chấm Công Hàng Ngày</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Báo cáo chấm công GPS theo dự án</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Báo Cáo</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F98" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="str">
+        <v>recruitment_reports.by_project_organization</v>
+      </c>
+      <c r="B99" t="str">
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo chấm công GPS theo phòng ban</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Báo cáo chấm công GPS theo phòng ban</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Báo Cáo</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F99" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="str">
+        <v>attendance_exemption.create</v>
+      </c>
+      <c r="B100" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Quyền tạo Miễn chấm công</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Quyền tạo mới một Miễn chấm công</v>
+      </c>
+      <c r="D100" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F100" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="str">
+        <v>attendance_exemption.destroy</v>
+      </c>
+      <c r="B101" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Quyền xóa Miễn chấm công</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Quyền xóa Miễn chấm công</v>
+      </c>
+      <c r="D101" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F101" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="str">
+        <v>attendance_exemption.export</v>
+      </c>
+      <c r="B102" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Quyền xuất Miễn chấm công</v>
+      </c>
+      <c r="D102" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F102" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="str">
+        <v>attendance_exemption.histories</v>
+      </c>
+      <c r="B103" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Xem lịch sử Miễn chấm công</v>
+      </c>
+      <c r="D103" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F103" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="str">
+        <v>attendance_exemption.history_detail</v>
+      </c>
+      <c r="B104" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
+      </c>
+      <c r="D104" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F104" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="str">
+        <v>attendance_exemption.list</v>
+      </c>
+      <c r="B105" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
+      </c>
+      <c r="D105" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F105" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="str">
+        <v>attendance_exemption.partial_update</v>
+      </c>
+      <c r="B106" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật một phần Miễn chấm công</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Quyền cập nhật một phần Miễn chấm công</v>
+      </c>
+      <c r="D106" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F106" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="str">
+        <v>attendance_exemption.retrieve</v>
+      </c>
+      <c r="B107" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Xem chi tiết của Miễn chấm công</v>
+      </c>
+      <c r="D107" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F107" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="str">
+        <v>attendance_exemption.update</v>
+      </c>
+      <c r="B108" t="str">
+        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật Miễn chấm công</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Quyền cập nhật Miễn chấm công</v>
+      </c>
+      <c r="D108" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F108" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="str">
+        <v>attendance_geolocation.destroy</v>
+      </c>
+      <c r="B109" t="str">
+        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Quyền xóa Log chấm Công GPS</v>
+      </c>
+      <c r="D109" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F109" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="str">
+        <v>attendance_geolocation.export</v>
+      </c>
+      <c r="B110" t="str">
+        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Quyền xuất Log chấm Công GPS</v>
+      </c>
+      <c r="D110" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F110" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="str">
+        <v>attendance_geolocation.histories</v>
+      </c>
+      <c r="B111" t="str">
+        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Xem lịch sử Log chấm Công GPS</v>
+      </c>
+      <c r="D111" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F111" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="str">
+        <v>attendance_geolocation.history_detail</v>
+      </c>
+      <c r="B112" t="str">
+        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
+      </c>
+      <c r="D112" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F112" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="str">
+        <v>attendance_geolocation.list</v>
+      </c>
+      <c r="B113" t="str">
+        <v>[HRM] [Định vị dự án] Danh sách Các Log Chấm Công Gps</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Xem danh sách Các Log Chấm Công Gps</v>
+      </c>
+      <c r="D113" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F113" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="str">
+        <v>attendance_geolocation.partial_update</v>
+      </c>
+      <c r="B114" t="str">
+        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
+      </c>
+      <c r="D114" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F114" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="str">
+        <v>attendance_geolocation.retrieve</v>
+      </c>
+      <c r="B115" t="str">
+        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Xem chi tiết của Log chấm Công GPS</v>
+      </c>
+      <c r="D115" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F115" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="str">
+        <v>attendance_geolocation.update</v>
+      </c>
+      <c r="B116" t="str">
+        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Quyền cập nhật Log chấm Công GPS</v>
+      </c>
+      <c r="D116" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Định vị dự án</v>
+      </c>
+      <c r="F116" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="str">
+        <v>attendance_record.destroy</v>
+      </c>
+      <c r="B117" t="str">
+        <v>[HRM] [Log chấm công] Quyền xóa Log Chấm Công</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Quyền xóa Log Chấm Công</v>
+      </c>
+      <c r="D117" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F117" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="str">
+        <v>attendance_record.geolocation_attendance</v>
+      </c>
+      <c r="B118" t="str">
+        <v>[HRM] [Log chấm công] Log chấm Công GPS</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Chấm công GPS</v>
+      </c>
+      <c r="D118" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F118" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="str">
+        <v>attendance_record.histories</v>
+      </c>
+      <c r="B119" t="str">
+        <v>[HRM] [Log chấm công] Xem lịch sử Log Chấm Công</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Xem lịch sử Log Chấm Công</v>
+      </c>
+      <c r="D119" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F119" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="str">
+        <v>attendance_record.history_detail</v>
+      </c>
+      <c r="B120" t="str">
+        <v>[HRM] [Log chấm công] Xem chi tiết lịch sử của Log Chấm Công</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Xem chi tiết lịch sử của Log Chấm Công</v>
+      </c>
+      <c r="D120" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F120" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="str">
+        <v>attendance_record.list</v>
+      </c>
+      <c r="B121" t="str">
+        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Xem danh sách Các Log Chấm Công</v>
+      </c>
+      <c r="D121" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F121" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="str" cm="1">
+        <f t="array" ref="A122:F155">S_HRM_HOPDONG[]</f>
+        <v>contract.create</v>
+      </c>
+      <c r="B122" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Quyền tạo Hợp đồng</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Quyền tạo mới một Hợp đồng</v>
+      </c>
+      <c r="D122" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F122" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="str">
+        <v>contract.destroy</v>
+      </c>
+      <c r="B123" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Quyền xóa Hợp đồng</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Quyền xóa Hợp đồng</v>
+      </c>
+      <c r="D123" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F123" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="str">
+        <v>contract.export</v>
+      </c>
+      <c r="B124" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Quyền xuất Hợp đồng</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Quyền xuất Hợp đồng</v>
+      </c>
+      <c r="D124" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F124" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="str">
+        <v>contract.export_detail_document</v>
+      </c>
+      <c r="B125" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] UNREGISTERED Export Detail Document Hợp đồng</v>
+      </c>
+      <c r="C125" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Hợp đồng</v>
+      </c>
+      <c r="D125" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F125" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="str">
+        <v>contract.histories</v>
+      </c>
+      <c r="B126" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Xem lịch sử Hợp đồng</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Xem lịch sử Hợp đồng</v>
+      </c>
+      <c r="D126" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F126" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="str">
+        <v>contract.history_detail</v>
+      </c>
+      <c r="B127" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Xem chi tiết lịch sử của Hợp đồng</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Xem chi tiết lịch sử của Hợp đồng</v>
+      </c>
+      <c r="D127" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F127" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="str">
+        <v>contract.import_template</v>
+      </c>
+      <c r="B128" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] UNREGISTERED Import Template Hợp đồng</v>
+      </c>
+      <c r="C128" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Import Template a Hợp đồng</v>
+      </c>
+      <c r="D128" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F128" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="str">
+        <v>contract.list</v>
+      </c>
+      <c r="B129" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Danh sách Hợp Đồng</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Xem danh sách Hợp Đồng</v>
+      </c>
+      <c r="D129" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F129" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="str">
+        <v>contract.partial_update</v>
+      </c>
+      <c r="B130" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Quyền cập nhật một phần Hợp đồng</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Quyền cập nhật một phần Hợp đồng</v>
+      </c>
+      <c r="D130" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F130" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="str">
+        <v>contract.publish</v>
+      </c>
+      <c r="B131" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Ban hành Hợp đồng</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Ban hành Hợp đồng</v>
+      </c>
+      <c r="D131" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F131" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="str">
+        <v>contract.retrieve</v>
+      </c>
+      <c r="B132" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Xem Hợp đồng</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Xem chi tiết của Hợp đồng</v>
+      </c>
+      <c r="D132" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F132" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="str">
+        <v>contract.start_import</v>
+      </c>
+      <c r="B133" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] UNREGISTERED Start Import Hợp đồng</v>
+      </c>
+      <c r="C133" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Start Import a Hợp đồng</v>
+      </c>
+      <c r="D133" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F133" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="str">
+        <v>contract.update</v>
+      </c>
+      <c r="B134" t="str">
+        <v>[HCNS] [Quản lý Hợp Đồng] Quyền cập nhật Hợp đồng</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Quyền cập nhật Hợp đồng</v>
+      </c>
+      <c r="D134" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Quản lý Hợp Đồng</v>
+      </c>
+      <c r="F134" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="str">
+        <v>contract_appendix.create</v>
+      </c>
+      <c r="B135" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Quyền tạo Hợp đồng</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Quyền tạo mới một Hợp đồng</v>
+      </c>
+      <c r="D135" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F135" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="str">
+        <v>contract_appendix.destroy</v>
+      </c>
+      <c r="B136" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Quyền xóa Hợp đồng</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Quyền xóa Hợp đồng</v>
+      </c>
+      <c r="D136" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F136" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="str">
+        <v>contract_appendix.export</v>
+      </c>
+      <c r="B137" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Quyền xuất Hợp đồng</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Quyền xuất Hợp đồng</v>
+      </c>
+      <c r="D137" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F137" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="str">
+        <v>contract_appendix.histories</v>
+      </c>
+      <c r="B138" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Xem lịch sử Hợp đồng</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Xem lịch sử Hợp đồng</v>
+      </c>
+      <c r="D138" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F138" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="str">
+        <v>contract_appendix.history_detail</v>
+      </c>
+      <c r="B139" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Xem chi tiết lịch sử của Hợp đồng</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Xem chi tiết lịch sử của Hợp đồng</v>
+      </c>
+      <c r="D139" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F139" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="str">
+        <v>contract_appendix.import_template</v>
+      </c>
+      <c r="B140" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] UNREGISTERED Import Template Hợp đồng</v>
+      </c>
+      <c r="C140" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Import Template a Hợp đồng</v>
+      </c>
+      <c r="D140" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F140" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="str">
+        <v>contract_appendix.list</v>
+      </c>
+      <c r="B141" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Danh sách Hợp Đồng</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Xem danh sách Hợp Đồng</v>
+      </c>
+      <c r="D141" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F141" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="str">
+        <v>contract_appendix.partial_update</v>
+      </c>
+      <c r="B142" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Quyền cập nhật một phần Hợp đồng</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Quyền cập nhật một phần Hợp đồng</v>
+      </c>
+      <c r="D142" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F142" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="str">
+        <v>contract_appendix.publish</v>
+      </c>
+      <c r="B143" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Ban hành Hợp đồng</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Ban hành Hợp đồng</v>
+      </c>
+      <c r="D143" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F143" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="str">
+        <v>contract_appendix.retrieve</v>
+      </c>
+      <c r="B144" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Xem Hợp đồng</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Xem chi tiết của Hợp đồng</v>
+      </c>
+      <c r="D144" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F144" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="str">
+        <v>contract_appendix.start_import</v>
+      </c>
+      <c r="B145" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] UNREGISTERED Start Import Hợp đồng</v>
+      </c>
+      <c r="C145" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Start Import a Hợp đồng</v>
+      </c>
+      <c r="D145" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F145" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="str">
+        <v>contract_appendix.update</v>
+      </c>
+      <c r="B146" t="str">
+        <v>[HCNS] [Quản lý Phụ lục Hợp Đồng] Quyền cập nhật Hợp đồng</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Quyền cập nhật Hợp đồng</v>
+      </c>
+      <c r="D146" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Quản lý Phụ lục Hợp Đồng</v>
+      </c>
+      <c r="F146" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="str">
+        <v>contract_type.create</v>
+      </c>
+      <c r="B147" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Quyền tạo Loại Hợp Đồng</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Quyền tạo mới một Loại Hợp Đồng</v>
+      </c>
+      <c r="D147" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F147" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="str">
+        <v>contract_type.destroy</v>
+      </c>
+      <c r="B148" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Quyền xóa Loại Hợp Đồng</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Quyền xóa Loại Hợp Đồng</v>
+      </c>
+      <c r="D148" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F148" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="str">
+        <v>contract_type.export</v>
+      </c>
+      <c r="B149" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Quyền xuất Loại Hợp Đồng</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Quyền xuất Loại Hợp Đồng</v>
+      </c>
+      <c r="D149" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F149" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="str">
+        <v>contract_type.histories</v>
+      </c>
+      <c r="B150" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Xem lịch sử Loại Hợp Đồng</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Xem lịch sử Loại Hợp Đồng</v>
+      </c>
+      <c r="D150" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F150" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="str">
+        <v>contract_type.history_detail</v>
+      </c>
+      <c r="B151" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Xem chi tiết lịch sử của Loại Hợp Đồng</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Xem chi tiết lịch sử của Loại Hợp Đồng</v>
+      </c>
+      <c r="D151" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F151" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="str">
+        <v>contract_type.list</v>
+      </c>
+      <c r="B152" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Danh sách Loại Hợp Đồng</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Xem danh sách Loại Hợp Đồng</v>
+      </c>
+      <c r="D152" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F152" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="str">
+        <v>contract_type.partial_update</v>
+      </c>
+      <c r="B153" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Quyền cập nhật một phần Loại Hợp Đồng</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Quyền cập nhật một phần Loại Hợp Đồng</v>
+      </c>
+      <c r="D153" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F153" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="str">
+        <v>contract_type.retrieve</v>
+      </c>
+      <c r="B154" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Xem Loại Hợp Đồng</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Xem chi tiết của Loại Hợp Đồng</v>
+      </c>
+      <c r="D154" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F154" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="str">
+        <v>contract_type.update</v>
+      </c>
+      <c r="B155" t="str">
+        <v>[HCNS] [Quản lý Loại Hợp Đồng] Quyền cập nhật Loại Hợp Đồng</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Quyền cập nhật Loại Hợp Đồng</v>
+      </c>
+      <c r="D155" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Quản lý Loại Hợp Đồng</v>
+      </c>
+      <c r="F155" t="str">
+        <v>S_HRM_HOPDONG</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="str" cm="1">
+        <f t="array" ref="A156:F196">S_HRM_LUONG[]</f>
+        <v>payroll.kpi_config</v>
+      </c>
+      <c r="B156" t="str">
+        <v>[Payroll] [KPI Configuration] Xem cấu hình KPI</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Xem cấu hình KPI</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E156" t="str">
+        <v>KPI Configuration</v>
+      </c>
+      <c r="F156" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="str">
+        <v>payroll.penalty_ticket.bulk_update_status</v>
+      </c>
+      <c r="B157" t="str">
+        <v>[Bảng lương] [Penalty Management] UNREGISTERED Bulk Update Status Phiếu phạt</v>
+      </c>
+      <c r="C157" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Bulk Update Status a Phiếu phạt</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F157" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="str">
+        <v>payroll.penalty_ticket.create</v>
+      </c>
+      <c r="B158" t="str">
+        <v>[Bảng lương] [Penalty Management] Quyền tạo Phiếu phạt</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Quyền tạo mới một Phiếu phạt</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F158" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="str">
+        <v>payroll.penalty_ticket.destroy</v>
+      </c>
+      <c r="B159" t="str">
+        <v>[Bảng lương] [Penalty Management] Quyền xóa Phiếu phạt</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Quyền xóa Phiếu phạt</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F159" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="str">
+        <v>payroll.penalty_ticket.histories</v>
+      </c>
+      <c r="B160" t="str">
+        <v>[Bảng lương] [Penalty Management] Xem lịch sử Phiếu phạt</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Xem lịch sử Phiếu phạt</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F160" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="str">
+        <v>payroll.penalty_ticket.history_detail</v>
+      </c>
+      <c r="B161" t="str">
+        <v>[Bảng lương] [Penalty Management] Xem chi tiết lịch sử của Phiếu phạt</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Xem chi tiết lịch sử của Phiếu phạt</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F161" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="str">
+        <v>payroll.penalty_ticket.list</v>
+      </c>
+      <c r="B162" t="str">
+        <v>[Bảng lương] [Penalty Management] Danh sách Các Phiếu Phạt</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Xem danh sách Các Phiếu Phạt</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F162" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="str">
+        <v>payroll.penalty_ticket.partial_update</v>
+      </c>
+      <c r="B163" t="str">
+        <v>[Bảng lương] [Penalty Management] Quyền cập nhật một phần Phiếu phạt</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Quyền cập nhật một phần Phiếu phạt</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F163" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="str">
+        <v>payroll.penalty_ticket.retrieve</v>
+      </c>
+      <c r="B164" t="str">
+        <v>[Bảng lương] [Penalty Management] Xem Phiếu phạt</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Xem chi tiết của Phiếu phạt</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F164" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="str">
+        <v>payroll.penalty_ticket.update</v>
+      </c>
+      <c r="B165" t="str">
+        <v>[Bảng lương] [Penalty Management] Quyền cập nhật Phiếu phạt</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Quyền cập nhật Phiếu phạt</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Penalty Management</v>
+      </c>
+      <c r="F165" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="str">
+        <v>payroll.recovery_voucher.create</v>
+      </c>
+      <c r="B166" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Quyền tạo Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Quyền tạo mới một Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F166" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="str">
+        <v>payroll.recovery_voucher.destroy</v>
+      </c>
+      <c r="B167" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Quyền xóa Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Quyền xóa Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F167" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="str">
+        <v>payroll.recovery_voucher.export</v>
+      </c>
+      <c r="B168" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Quyền xuất Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Quyền xuất Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F168" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="str">
+        <v>payroll.recovery_voucher.histories</v>
+      </c>
+      <c r="B169" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Xem lịch sử Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Xem lịch sử Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F169" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="str">
+        <v>payroll.recovery_voucher.history_detail</v>
+      </c>
+      <c r="B170" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Xem chi tiết lịch sử của Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Xem chi tiết lịch sử của Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F170" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="str">
+        <v>payroll.recovery_voucher.list</v>
+      </c>
+      <c r="B171" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Danh sách Các Phiếu Truy Thu/Truy Lĩnh</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Xem danh sách Các Phiếu Truy Thu/Truy Lĩnh</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F171" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="str">
+        <v>payroll.recovery_voucher.partial_update</v>
+      </c>
+      <c r="B172" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Quyền cập nhật một phần Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Quyền cập nhật một phần Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F172" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="str">
+        <v>payroll.recovery_voucher.retrieve</v>
+      </c>
+      <c r="B173" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Xem Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Xem chi tiết của Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F173" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="str">
+        <v>payroll.recovery_voucher.update</v>
+      </c>
+      <c r="B174" t="str">
+        <v>[Bảng lương] [Truy thu / Truy lĩnh] Quyền cập nhật Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Quyền cập nhật Phiếu truy thu/truy lĩnh</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Truy thu / Truy lĩnh</v>
+      </c>
+      <c r="F174" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="str">
+        <v>payroll.travel_expense.create</v>
+      </c>
+      <c r="B175" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Quyền tạo Công tác phí</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Quyền tạo mới một Công tác phí</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F175" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="str">
+        <v>payroll.travel_expense.destroy</v>
+      </c>
+      <c r="B176" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Quyền xóa Công tác phí</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Quyền xóa Công tác phí</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F176" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="str">
+        <v>payroll.travel_expense.export</v>
+      </c>
+      <c r="B177" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Quyền xuất Công tác phí</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Quyền xuất Công tác phí</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F177" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="str">
+        <v>payroll.travel_expense.histories</v>
+      </c>
+      <c r="B178" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Xem lịch sử Công tác phí</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Xem lịch sử Công tác phí</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F178" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="str">
+        <v>payroll.travel_expense.history_detail</v>
+      </c>
+      <c r="B179" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Xem chi tiết lịch sử của Công tác phí</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Xem chi tiết lịch sử của Công tác phí</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F179" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="str">
+        <v>payroll.travel_expense.list</v>
+      </c>
+      <c r="B180" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Danh sách Các Công Tác Phí</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Xem danh sách Các Công Tác Phí</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F180" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="str">
+        <v>payroll.travel_expense.partial_update</v>
+      </c>
+      <c r="B181" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Quyền cập nhật một phần Công tác phí</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Quyền cập nhật một phần Công tác phí</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F181" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="str">
+        <v>payroll.travel_expense.retrieve</v>
+      </c>
+      <c r="B182" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Xem Công tác phí</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Xem chi tiết của Công tác phí</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F182" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="str">
+        <v>payroll.travel_expense.update</v>
+      </c>
+      <c r="B183" t="str">
+        <v>[Bảng lương] [Quản lý chi phí đi lại] Quyền cập nhật Công tác phí</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Quyền cập nhật Công tác phí</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Quản lý chi phí đi lại</v>
+      </c>
+      <c r="F183" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="str">
+        <v>payroll.view_kpi_config</v>
+      </c>
+      <c r="B184" t="str">
+        <v>[Payroll] [Cấu hình] Payroll View KPI Configuration</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Xem cấu hình KPI</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Cấu hình</v>
+      </c>
+      <c r="F184" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="str">
+        <v>payroll.view_salary_config</v>
+      </c>
+      <c r="B185" t="str">
+        <v>[Bảng lương] [Cấu hình] Xem cấu hình bảng lương</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Xem cấu hình lương</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Cấu hình</v>
+      </c>
+      <c r="F185" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="str">
+        <v>sales_revenue.create</v>
+      </c>
+      <c r="B186" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Quyền tạo Sales Revenue</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Quyền tạo mới một Sales Revenue</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F186" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="str">
+        <v>sales_revenue.destroy</v>
+      </c>
+      <c r="B187" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Quyền xóa Sales Revenue</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Quyền xóa Sales Revenue</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F187" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="str">
+        <v>sales_revenue.export</v>
+      </c>
+      <c r="B188" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Quyền xuất Sales Revenue</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Quyền xuất Sales Revenue</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F188" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="str">
+        <v>sales_revenue.histories</v>
+      </c>
+      <c r="B189" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Xem lịch sử Sales Revenue</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Xem lịch sử Sales Revenue</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F189" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="str">
+        <v>sales_revenue.history_detail</v>
+      </c>
+      <c r="B190" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Xem chi tiết lịch sử của Sales Revenue</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Xem chi tiết lịch sử của Sales Revenue</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F190" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="str">
+        <v>sales_revenue.import_template</v>
+      </c>
+      <c r="B191" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] UNREGISTERED Import Template Sales Revenue</v>
+      </c>
+      <c r="C191" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Import Template a Sales Revenue</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F191" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="str">
+        <v>sales_revenue.list</v>
+      </c>
+      <c r="B192" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Danh sách Sales Revenues</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Xem danh sách Sales Revenues</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F192" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="str">
+        <v>sales_revenue.partial_update</v>
+      </c>
+      <c r="B193" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Quyền cập nhật một phần Sales Revenue</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Quyền cập nhật một phần Sales Revenue</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F193" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="str">
+        <v>sales_revenue.retrieve</v>
+      </c>
+      <c r="B194" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Xem Sales Revenue</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Xem chi tiết của Sales Revenue</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F194" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="str">
+        <v>sales_revenue.start_import</v>
+      </c>
+      <c r="B195" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] UNREGISTERED Start Import Sales Revenue</v>
+      </c>
+      <c r="C195" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Start Import a Sales Revenue</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F195" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="str">
+        <v>sales_revenue.update</v>
+      </c>
+      <c r="B196" t="str">
+        <v>[Bảng lương] [Sales Revenue Management] Quyền cập nhật Sales Revenue</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Quyền cập nhật Sales Revenue</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Bảng lương</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Sales Revenue Management</v>
+      </c>
+      <c r="F196" t="str">
+        <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="str" cm="1">
+        <f t="array" ref="A197:F315">S_HRM_NHANSU[]</f>
+        <v>bank.histories</v>
+      </c>
+      <c r="B197" t="str">
+        <v>[HCNS] [Quản lý Ngân Hàng] Xem lịch sử Ngân Hàng</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Xem lịch sử Ngân Hàng</v>
+      </c>
+      <c r="D197" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Quản lý Ngân Hàng</v>
+      </c>
+      <c r="F197" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="str">
+        <v>bank.history_detail</v>
+      </c>
+      <c r="B198" t="str">
+        <v>[HCNS] [Quản lý Ngân Hàng] Xem chi tiết lịch sử của Ngân Hàng</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Xem chi tiết lịch sử của Ngân Hàng</v>
+      </c>
+      <c r="D198" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Quản lý Ngân Hàng</v>
+      </c>
+      <c r="F198" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="str">
+        <v>bank.list</v>
+      </c>
+      <c r="B199" t="str">
+        <v>[HCNS] [Quản lý Ngân Hàng] Danh sách Các Ngân Hàng</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Xem danh sách Các Ngân Hàng</v>
+      </c>
+      <c r="D199" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E199" t="str">
+        <v>Quản lý Ngân Hàng</v>
+      </c>
+      <c r="F199" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="str">
+        <v>bank.retrieve</v>
+      </c>
+      <c r="B200" t="str">
+        <v>[HCNS] [Quản lý Ngân Hàng] Xem Ngân Hàng</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Xem chi tiết của Ngân Hàng</v>
+      </c>
+      <c r="D200" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Quản lý Ngân Hàng</v>
+      </c>
+      <c r="F200" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="str">
+        <v>bank_account.create</v>
+      </c>
+      <c r="B201" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Quyền tạo Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Quyền tạo mới một Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D201" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F201" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="str">
+        <v>bank_account.destroy</v>
+      </c>
+      <c r="B202" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Quyền xóa Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Quyền xóa Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D202" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F202" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="str">
+        <v>bank_account.histories</v>
+      </c>
+      <c r="B203" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Xem lịch sử Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Xem lịch sử Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D203" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F203" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="str">
+        <v>bank_account.history_detail</v>
+      </c>
+      <c r="B204" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Xem chi tiết lịch sử của Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Xem chi tiết lịch sử của Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D204" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F204" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="str">
+        <v>bank_account.list</v>
+      </c>
+      <c r="B205" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Danh sách Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Xem danh sách Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D205" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F205" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="str">
+        <v>bank_account.partial_update</v>
+      </c>
+      <c r="B206" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Quyền cập nhật một phần Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Quyền cập nhật một phần Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D206" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F206" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="str">
+        <v>bank_account.retrieve</v>
+      </c>
+      <c r="B207" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Xem Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Xem chi tiết của Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D207" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F207" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="str">
+        <v>bank_account.update</v>
+      </c>
+      <c r="B208" t="str">
+        <v>[HCNS] [Quản lý Tài Khoản Ngân Hàng] Quyền cập nhật Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Quyền cập nhật Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="D208" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Quản lý Tài Khoản Ngân Hàng</v>
+      </c>
+      <c r="F208" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="str">
+        <v>block.create</v>
+      </c>
+      <c r="B209" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền tạo Khối</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Quyền tạo mới một Khối</v>
+      </c>
+      <c r="D209" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F209" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="str">
+        <v>block.destroy</v>
+      </c>
+      <c r="B210" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền xóa Khối</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Quyền xóa Khối</v>
+      </c>
+      <c r="D210" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F210" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="str">
+        <v>block.histories</v>
+      </c>
+      <c r="B211" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem lịch sử Khối</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Xem lịch sử Khối</v>
+      </c>
+      <c r="D211" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F211" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="str">
+        <v>block.history_detail</v>
+      </c>
+      <c r="B212" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem chi tiết lịch sử của Khối</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Xem chi tiết lịch sử của Khối</v>
+      </c>
+      <c r="D212" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F212" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="str">
+        <v>block.list</v>
+      </c>
+      <c r="B213" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Khối</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Xem danh sách Khối</v>
+      </c>
+      <c r="D213" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F213" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="str">
+        <v>block.partial_update</v>
+      </c>
+      <c r="B214" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật một phần Khối</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Quyền cập nhật một phần Khối</v>
+      </c>
+      <c r="D214" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F214" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="str">
+        <v>block.retrieve</v>
+      </c>
+      <c r="B215" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem Khối</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Xem chi tiết của Khối</v>
+      </c>
+      <c r="D215" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F215" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="str">
+        <v>block.update</v>
+      </c>
+      <c r="B216" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật Khối</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Quyền cập nhật Khối</v>
+      </c>
+      <c r="D216" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F216" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="str">
+        <v>branch.create</v>
+      </c>
+      <c r="B217" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền tạo Chi Nhánh</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Quyền tạo mới một Chi Nhánh</v>
+      </c>
+      <c r="D217" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F217" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="str">
+        <v>branch.destroy</v>
+      </c>
+      <c r="B218" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền xóa Chi Nhánh</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Quyền xóa Chi Nhánh</v>
+      </c>
+      <c r="D218" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F218" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="str">
+        <v>branch.histories</v>
+      </c>
+      <c r="B219" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem lịch sử Chi Nhánh</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Xem lịch sử Chi Nhánh</v>
+      </c>
+      <c r="D219" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F219" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="str">
+        <v>branch.history_detail</v>
+      </c>
+      <c r="B220" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem chi tiết lịch sử của Chi Nhánh</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Xem chi tiết lịch sử của Chi Nhánh</v>
+      </c>
+      <c r="D220" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F220" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="str">
+        <v>branch.list</v>
+      </c>
+      <c r="B221" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chi Nhánh</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Xem danh sách Chi Nhánh</v>
+      </c>
+      <c r="D221" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F221" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="str">
+        <v>branch.partial_update</v>
+      </c>
+      <c r="B222" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật một phần Chi Nhánh</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Quyền cập nhật một phần Chi Nhánh</v>
+      </c>
+      <c r="D222" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F222" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="str">
+        <v>branch.retrieve</v>
+      </c>
+      <c r="B223" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem Chi Nhánh</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Xem chi tiết của Chi Nhánh</v>
+      </c>
+      <c r="D223" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F223" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="str">
+        <v>branch.update</v>
+      </c>
+      <c r="B224" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật Chi Nhánh</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Quyền cập nhật Chi Nhánh</v>
+      </c>
+      <c r="D224" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F224" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="str">
+        <v>branchcontactinfo.create</v>
+      </c>
+      <c r="B225" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền tạo Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Quyền tạo mới một Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D225" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F225" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="str">
+        <v>branchcontactinfo.destroy</v>
+      </c>
+      <c r="B226" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền xóa Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Quyền xóa Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D226" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F226" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="str">
+        <v>branchcontactinfo.histories</v>
+      </c>
+      <c r="B227" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem lịch sử Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Xem lịch sử Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D227" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E227" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F227" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="str">
+        <v>branchcontactinfo.history_detail</v>
+      </c>
+      <c r="B228" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem chi tiết lịch sử của Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Xem chi tiết lịch sử của Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D228" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F228" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="str">
+        <v>branchcontactinfo.list</v>
+      </c>
+      <c r="B229" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Thông Tin Liên Hệ Chi Nhánh</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Xem danh sách Thông Tin Liên Hệ Chi Nhánh</v>
+      </c>
+      <c r="D229" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F229" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="str">
+        <v>branchcontactinfo.partial_update</v>
+      </c>
+      <c r="B230" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật một phần Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Quyền cập nhật một phần Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D230" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E230" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F230" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="str">
+        <v>branchcontactinfo.retrieve</v>
+      </c>
+      <c r="B231" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Xem chi tiết của Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D231" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E231" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F231" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="str">
+        <v>branchcontactinfo.update</v>
+      </c>
+      <c r="B232" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Quyền cập nhật Thông tin liên hệ chi nhánh</v>
+      </c>
+      <c r="D232" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E232" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F232" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="str">
+        <v>department.create</v>
+      </c>
+      <c r="B233" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Tạo Phòng Ban</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Tạo phòng ban mới</v>
+      </c>
+      <c r="D233" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E233" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F233" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="str">
+        <v>department.destroy</v>
+      </c>
+      <c r="B234" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xóa Phòng Ban</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Xóa một phòng ban khỏi hệ thống</v>
+      </c>
+      <c r="D234" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E234" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F234" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="str">
+        <v>department.function_choices</v>
+      </c>
+      <c r="B235" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Lựa chọn chức năng phòng ban</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Lọc các chức năng phòng ban có sẵn dựa trên loại khối</v>
+      </c>
+      <c r="D235" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E235" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F235" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="str">
+        <v>department.histories</v>
+      </c>
+      <c r="B236" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem lịch sử Phòng Ban</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Xem lịch sử Phòng Ban</v>
+      </c>
+      <c r="D236" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E236" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F236" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="str">
+        <v>department.history_detail</v>
+      </c>
+      <c r="B237" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem chi tiết lịch sử của Phòng Ban</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Xem chi tiết lịch sử của Phòng Ban</v>
+      </c>
+      <c r="D237" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E237" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F237" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="str">
+        <v>department.list</v>
+      </c>
+      <c r="B238" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Phòng Ban</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Xem danh sách phòng ban với các bộ lọc và sắp xếp</v>
+      </c>
+      <c r="D238" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E238" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F238" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="str">
+        <v>department.management_choices</v>
+      </c>
+      <c r="B239" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quản lý Phòng Ban</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Lấy các phòng ban có thể làm phòng ban quản lý</v>
+      </c>
+      <c r="D239" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E239" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F239" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="str">
+        <v>department.partial_update</v>
+      </c>
+      <c r="B240" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Cập nhật một phần Phòng Ban</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Cập nhật một phần thông tin phòng ban</v>
+      </c>
+      <c r="D240" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E240" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F240" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="str">
+        <v>department.retrieve</v>
+      </c>
+      <c r="B241" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Chi Tiết Phòng Ban</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Xem thông tin chi tiết về một phòng ban cụ thể</v>
+      </c>
+      <c r="D241" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E241" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F241" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="str">
+        <v>department.tree</v>
+      </c>
+      <c r="B242" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Sơ đồ phòng ban</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Lấy sơ đồ phòng ban theo khối</v>
+      </c>
+      <c r="D242" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E242" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F242" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="str">
+        <v>department.update</v>
+      </c>
+      <c r="B243" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Cập nhật Phòng Ban</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Cập nhật thông tin phòng ban</v>
+      </c>
+      <c r="D243" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F243" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="str">
+        <v>employee.active</v>
+      </c>
+      <c r="B244" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Chuyển nhân viên sang trạng thái bắt đầu làm việc</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Chuyển nhân viên sang trạng thái bắt đầu làm việc</v>
+      </c>
+      <c r="D244" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F244" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="str">
+        <v>employee.change_employee_type</v>
+      </c>
+      <c r="B245" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Thay đổi loại Nhân Viên</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Thay đổi loại Nhân Viên</v>
+      </c>
+      <c r="D245" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E245" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F245" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="str">
+        <v>employee.create</v>
+      </c>
+      <c r="B246" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền tạo Nhân sự</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Quyền tạo mới một Nhân sự</v>
+      </c>
+      <c r="D246" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F246" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="str">
+        <v>employee.destroy</v>
+      </c>
+      <c r="B247" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền xóa Nhân sự</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Quyền xóa Nhân sự</v>
+      </c>
+      <c r="D247" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E247" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F247" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="str">
+        <v>employee.export</v>
+      </c>
+      <c r="B248" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền xuất Nhân sự</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Quyền xuất Nhân sự</v>
+      </c>
+      <c r="D248" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E248" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F248" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="str">
+        <v>employee.histories</v>
+      </c>
+      <c r="B249" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem lịch sử Nhân sự</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Xem lịch sử Nhân sự</v>
+      </c>
+      <c r="D249" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F249" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="str">
+        <v>employee.history_detail</v>
+      </c>
+      <c r="B250" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem chi tiết lịch sử của Nhân sự</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Xem chi tiết lịch sử của Nhân sự</v>
+      </c>
+      <c r="D250" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E250" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F250" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="str">
+        <v>employee.import_template</v>
+      </c>
+      <c r="B251" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] UNREGISTERED Import Template Nhân sự</v>
+      </c>
+      <c r="C251" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Import Template a Nhân sự</v>
+      </c>
+      <c r="D251" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E251" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F251" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="str">
+        <v>employee.list</v>
+      </c>
+      <c r="B252" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Danh sách Nhân Sự</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Xem danh sách Nhân Sự</v>
+      </c>
+      <c r="D252" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F252" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="str">
+        <v>employee.maternity_leave</v>
+      </c>
+      <c r="B253" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Chuyển nhân viên nghỉ việc hưởng chế độ thai sản</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Chuyển nhân viên nghỉ việc hưởng chế độ thai sản</v>
+      </c>
+      <c r="D253" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E253" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F253" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="str">
+        <v>employee.partial_update</v>
+      </c>
+      <c r="B254" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật một phần Nhân sự</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Quyền cập nhật một phần Nhân sự</v>
+      </c>
+      <c r="D254" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E254" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F254" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="str">
+        <v>employee.reactive</v>
+      </c>
+      <c r="B255" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Chuyển nhân viên quay lại làm việc</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Chuyển nhân viên quay lại làm việc</v>
+      </c>
+      <c r="D255" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E255" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F255" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="str">
+        <v>employee.resigned</v>
+      </c>
+      <c r="B256" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Chuyển nhân viên sang trạng thái nghỉ việc</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Chuyển nhân viên sang trạng thái nghỉ việc</v>
+      </c>
+      <c r="D256" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E256" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F256" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="str">
+        <v>employee.retrieve</v>
+      </c>
+      <c r="B257" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem Nhân sự</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Xem chi tiết của Nhân sự</v>
+      </c>
+      <c r="D257" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E257" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F257" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="str">
+        <v>employee.start_import</v>
+      </c>
+      <c r="B258" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] UNREGISTERED Start Import Nhân sự</v>
+      </c>
+      <c r="C258" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Start Import a Nhân sự</v>
+      </c>
+      <c r="D258" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E258" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F258" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="str">
+        <v>employee.transfer</v>
+      </c>
+      <c r="B259" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Điều chuyển nhân viên</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Điều chuyển nhân viên</v>
+      </c>
+      <c r="D259" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E259" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F259" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="str">
+        <v>employee.update</v>
+      </c>
+      <c r="B260" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật Nhân sự</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Quyền cập nhật Nhân sự</v>
+      </c>
+      <c r="D260" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E260" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F260" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="str">
+        <v>employee.update_avatar</v>
+      </c>
+      <c r="B261" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Cập nhật Ảnh Đại Diện Nhân Viên</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Cập nhật Ảnh Đại Diện Nhân Viên</v>
+      </c>
+      <c r="D261" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E261" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F261" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="str">
+        <v>employee.welcome_email_preview</v>
+      </c>
+      <c r="B262" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] UNREGISTERED Welcome Email Preview Nhân sự</v>
+      </c>
+      <c r="C262" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Welcome Email Preview a Nhân sự</v>
+      </c>
+      <c r="D262" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E262" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F262" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="str">
+        <v>employee.welcome_email_send</v>
+      </c>
+      <c r="B263" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] UNREGISTERED Welcome Email Send Nhân sự</v>
+      </c>
+      <c r="C263" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Welcome Email Send a Nhân sự</v>
+      </c>
+      <c r="D263" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E263" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F263" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="str">
+        <v>employee_certificate.create</v>
+      </c>
+      <c r="B264" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Quyền tạo Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Quyền tạo mới một Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D264" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E264" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F264" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="str">
+        <v>employee_certificate.destroy</v>
+      </c>
+      <c r="B265" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Quyền xóa Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Quyền xóa Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D265" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E265" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F265" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="str">
+        <v>employee_certificate.histories</v>
+      </c>
+      <c r="B266" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Xem lịch sử Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Xem lịch sử Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D266" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E266" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F266" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="str">
+        <v>employee_certificate.history_detail</v>
+      </c>
+      <c r="B267" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Xem chi tiết lịch sử của Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Xem chi tiết lịch sử của Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D267" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E267" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F267" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="str">
+        <v>employee_certificate.list</v>
+      </c>
+      <c r="B268" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Danh sách Bằng Cấp Chứng Chỉ</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Xem danh sách Bằng Cấp Chứng Chỉ</v>
+      </c>
+      <c r="D268" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E268" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F268" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="str">
+        <v>employee_certificate.partial_update</v>
+      </c>
+      <c r="B269" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Quyền cập nhật một phần Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Quyền cập nhật một phần Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D269" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E269" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F269" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="str">
+        <v>employee_certificate.retrieve</v>
+      </c>
+      <c r="B270" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Xem Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Xem chi tiết của Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D270" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E270" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F270" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="str">
+        <v>employee_certificate.update</v>
+      </c>
+      <c r="B271" t="str">
+        <v>[HCNS] [Quản lý bằng cấp chứng chỉ] Quyền cập nhật Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Quyền cập nhật Bằng cấp chứng chỉ</v>
+      </c>
+      <c r="D271" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E271" t="str">
+        <v>Quản lý bằng cấp chứng chỉ</v>
+      </c>
+      <c r="F271" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="str">
+        <v>employee_dependent.create</v>
+      </c>
+      <c r="B272" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền tạo Người phụ thuộc</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Quyền tạo mới một Người phụ thuộc</v>
+      </c>
+      <c r="D272" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E272" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F272" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="str">
+        <v>employee_dependent.destroy</v>
+      </c>
+      <c r="B273" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền xóa Người phụ thuộc</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Quyền xóa Người phụ thuộc</v>
+      </c>
+      <c r="D273" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E273" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F273" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="str">
+        <v>employee_dependent.histories</v>
+      </c>
+      <c r="B274" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem lịch sử Người phụ thuộc</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Xem lịch sử Người phụ thuộc</v>
+      </c>
+      <c r="D274" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E274" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F274" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="str">
+        <v>employee_dependent.history_detail</v>
+      </c>
+      <c r="B275" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem chi tiết lịch sử của Người phụ thuộc</v>
+      </c>
+      <c r="C275" t="str">
+        <v>Xem chi tiết lịch sử của Người phụ thuộc</v>
+      </c>
+      <c r="D275" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E275" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F275" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="str">
+        <v>employee_dependent.list</v>
+      </c>
+      <c r="B276" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Danh sách Người Phụ Thuộc</v>
+      </c>
+      <c r="C276" t="str">
+        <v>Xem danh sách Người Phụ Thuộc</v>
+      </c>
+      <c r="D276" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E276" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F276" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="str">
+        <v>employee_dependent.partial_update</v>
+      </c>
+      <c r="B277" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật một phần Người phụ thuộc</v>
+      </c>
+      <c r="C277" t="str">
+        <v>Quyền cập nhật một phần Người phụ thuộc</v>
+      </c>
+      <c r="D277" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E277" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F277" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="str">
+        <v>employee_dependent.retrieve</v>
+      </c>
+      <c r="B278" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem Người phụ thuộc</v>
+      </c>
+      <c r="C278" t="str">
+        <v>Xem chi tiết của Người phụ thuộc</v>
+      </c>
+      <c r="D278" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E278" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F278" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="str">
+        <v>employee_dependent.update</v>
+      </c>
+      <c r="B279" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật Người phụ thuộc</v>
+      </c>
+      <c r="C279" t="str">
+        <v>Quyền cập nhật Người phụ thuộc</v>
+      </c>
+      <c r="D279" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E279" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F279" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="str">
+        <v>employee_relationship.create</v>
+      </c>
+      <c r="B280" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền tạo Quan hệ nhân thân</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Quyền tạo mới một Quan hệ nhân thân</v>
+      </c>
+      <c r="D280" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E280" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F280" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="str">
+        <v>employee_relationship.destroy</v>
+      </c>
+      <c r="B281" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền xóa Quan hệ nhân thân</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Quyền xóa Quan hệ nhân thân</v>
+      </c>
+      <c r="D281" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E281" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F281" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="str">
+        <v>employee_relationship.histories</v>
+      </c>
+      <c r="B282" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem lịch sử Quan hệ nhân thân</v>
+      </c>
+      <c r="C282" t="str">
+        <v>Xem lịch sử Quan hệ nhân thân</v>
+      </c>
+      <c r="D282" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E282" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F282" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="str">
+        <v>employee_relationship.history_detail</v>
+      </c>
+      <c r="B283" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem chi tiết lịch sử của Quan hệ nhân thân</v>
+      </c>
+      <c r="C283" t="str">
+        <v>Xem chi tiết lịch sử của Quan hệ nhân thân</v>
+      </c>
+      <c r="D283" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E283" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F283" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="str">
+        <v>employee_relationship.list</v>
+      </c>
+      <c r="B284" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Danh sách Quan Hệ Nhân Thân</v>
+      </c>
+      <c r="C284" t="str">
+        <v>Xem danh sách Quan Hệ Nhân Thân</v>
+      </c>
+      <c r="D284" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E284" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F284" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="str">
+        <v>employee_relationship.partial_update</v>
+      </c>
+      <c r="B285" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật một phần Quan hệ nhân thân</v>
+      </c>
+      <c r="C285" t="str">
+        <v>Quyền cập nhật một phần Quan hệ nhân thân</v>
+      </c>
+      <c r="D285" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E285" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F285" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="str">
+        <v>employee_relationship.retrieve</v>
+      </c>
+      <c r="B286" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem Quan hệ nhân thân</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Xem chi tiết của Quan hệ nhân thân</v>
+      </c>
+      <c r="D286" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E286" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F286" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="str">
+        <v>employee_relationship.update</v>
+      </c>
+      <c r="B287" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật Quan hệ nhân thân</v>
+      </c>
+      <c r="C287" t="str">
+        <v>Quyền cập nhật Quan hệ nhân thân</v>
+      </c>
+      <c r="D287" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E287" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F287" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="str">
+        <v>employee_reports.employee_resigned_breakdown</v>
+      </c>
+      <c r="B288" t="str">
+        <v>[Báo cáo] [Báo cáo Nhân sự] Xem Báo cáo số lượng nghỉ việc</v>
+      </c>
+      <c r="C288" t="str">
+        <v>Xem Báo cáo số lượng nghỉ việc</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E288" t="str">
+        <v>Báo cáo Nhân sự</v>
+      </c>
+      <c r="F288" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="str">
+        <v>employee_reports.employee_resigned_reasons_summary</v>
+      </c>
+      <c r="B289" t="str">
+        <v>[Báo cáo] [Báo cáo Nhân sự] Xem báo cáo Báo cáo Tỉ lệ lý do nghỉ việc</v>
+      </c>
+      <c r="C289" t="str">
+        <v>Xem báo cáo Báo cáo Tỉ lệ lý do nghỉ việc</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E289" t="str">
+        <v>Báo cáo Nhân sự</v>
+      </c>
+      <c r="F289" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="str">
+        <v>employee_reports.employee_status_breakdown</v>
+      </c>
+      <c r="B290" t="str">
+        <v>[Báo cáo] [Báo cáo Nhân sự] Xem báo cáo số lượng nhân sự</v>
+      </c>
+      <c r="C290" t="str">
+        <v>Xem báo cáo số lượng nhân sự</v>
+      </c>
+      <c r="D290" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E290" t="str">
+        <v>Báo cáo Nhân sự</v>
+      </c>
+      <c r="F290" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="str">
+        <v>employee_role.bulk_update_roles</v>
+      </c>
+      <c r="B291" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Cập nhật Vai trò Nhân Viên Hàng Loạt</v>
+      </c>
+      <c r="C291" t="str">
+        <v>Không thể cập nhật hơn 25 nhân viên cùng một lúc.</v>
+      </c>
+      <c r="D291" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E291" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F291" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="str">
+        <v>employee_role.histories</v>
+      </c>
+      <c r="B292" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem lịch sử User</v>
+      </c>
+      <c r="C292" t="str">
+        <v>Xem lịch sử User</v>
+      </c>
+      <c r="D292" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E292" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F292" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="str">
+        <v>employee_role.history_detail</v>
+      </c>
+      <c r="B293" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem chi tiết lịch sử của User</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Xem chi tiết lịch sử của User</v>
+      </c>
+      <c r="D293" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E293" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F293" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="str">
+        <v>employee_role.list</v>
+      </c>
+      <c r="B294" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Danh sách Users</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Xem danh sách Users</v>
+      </c>
+      <c r="D294" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E294" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F294" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="str">
+        <v>employee_role.retrieve</v>
+      </c>
+      <c r="B295" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem User</v>
+      </c>
+      <c r="C295" t="str">
+        <v>Xem chi tiết của User</v>
+      </c>
+      <c r="D295" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E295" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F295" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="str">
+        <v>employee_seniority_report.export</v>
+      </c>
+      <c r="B296" t="str">
+        <v>[Báo cáo] [Báo cáo Thâm niên Nhân viên] Báo cáo Thâm niên Nhân viên</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Xuất báo cáo Thâm niên Nhân viên</v>
+      </c>
+      <c r="D296" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E296" t="str">
+        <v>Báo cáo Thâm niên Nhân viên</v>
+      </c>
+      <c r="F296" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="str">
+        <v>employee_seniority_report.list</v>
+      </c>
+      <c r="B297" t="str">
+        <v>[Báo cáo] [Báo cáo Thâm niên Nhân viên] Báo cáo Thâm niên Nhân viên</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Xem báo cáo Thâm niên Nhân viên với các bộ lọc và sắp xếp</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E297" t="str">
+        <v>Báo cáo Thâm niên Nhân viên</v>
+      </c>
+      <c r="F297" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="str">
+        <v>employee_type_conversion_report.export</v>
+      </c>
+      <c r="B298" t="str">
+        <v>[Báo cáo] [Báo cáo chuyển đổi loại nhân viên] Xuất báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="C298" t="str">
+        <v>Xuất báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="D298" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E298" t="str">
+        <v>Báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="F298" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="str">
+        <v>employee_type_conversion_report.list</v>
+      </c>
+      <c r="B299" t="str">
+        <v>[Báo cáo] [Báo cáo chuyển đổi loại nhân viên] Báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="C299" t="str">
+        <v>Xem Báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="D299" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E299" t="str">
+        <v>Báo cáo chuyển đổi loại nhân viên</v>
+      </c>
+      <c r="F299" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="str">
+        <v>employee_work_history.create</v>
+      </c>
+      <c r="B300" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền tạo Lịch sử công tác</v>
+      </c>
+      <c r="C300" t="str">
+        <v>Quyền tạo mới một Lịch sử công tác</v>
+      </c>
+      <c r="D300" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E300" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F300" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="str">
+        <v>employee_work_history.destroy</v>
+      </c>
+      <c r="B301" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền xóa Lịch sử công tác</v>
+      </c>
+      <c r="C301" t="str">
+        <v>Quyền xóa Lịch sử công tác</v>
+      </c>
+      <c r="D301" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E301" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F301" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="str">
+        <v>employee_work_history.histories</v>
+      </c>
+      <c r="B302" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem lịch sử Lịch sử công tác</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Xem lịch sử Lịch sử công tác</v>
+      </c>
+      <c r="D302" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E302" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F302" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="str">
+        <v>employee_work_history.history_detail</v>
+      </c>
+      <c r="B303" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem chi tiết lịch sử của Lịch sử công tác</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Xem chi tiết lịch sử của Lịch sử công tác</v>
+      </c>
+      <c r="D303" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E303" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F303" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="str">
+        <v>employee_work_history.list</v>
+      </c>
+      <c r="B304" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Danh sách Lich Sử Công Tác</v>
+      </c>
+      <c r="C304" t="str">
+        <v>Xem danh sách Lich Sử Công Tác</v>
+      </c>
+      <c r="D304" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E304" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F304" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="str">
+        <v>employee_work_history.partial_update</v>
+      </c>
+      <c r="B305" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật một phần Lịch sử công tác</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Quyền cập nhật một phần Lịch sử công tác</v>
+      </c>
+      <c r="D305" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E305" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F305" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="str">
+        <v>employee_work_history.retrieve</v>
+      </c>
+      <c r="B306" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Xem Lịch sử công tác</v>
+      </c>
+      <c r="C306" t="str">
+        <v>Xem chi tiết của Lịch sử công tác</v>
+      </c>
+      <c r="D306" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E306" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F306" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="str">
+        <v>employee_work_history.update</v>
+      </c>
+      <c r="B307" t="str">
+        <v>[HCNS] [Quản lý Nhân Viên] Quyền cập nhật Lịch sử công tác</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Quyền cập nhật Lịch sử công tác</v>
+      </c>
+      <c r="D307" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E307" t="str">
+        <v>Quản lý Nhân Viên</v>
+      </c>
+      <c r="F307" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="str">
+        <v>position.create</v>
+      </c>
+      <c r="B308" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền tạo Chức Vụ</v>
+      </c>
+      <c r="C308" t="str">
+        <v>Quyền tạo mới một Chức Vụ</v>
+      </c>
+      <c r="D308" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E308" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F308" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="str">
+        <v>position.destroy</v>
+      </c>
+      <c r="B309" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền xóa Chức Vụ</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Quyền xóa Chức Vụ</v>
+      </c>
+      <c r="D309" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E309" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F309" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="str">
+        <v>position.histories</v>
+      </c>
+      <c r="B310" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem lịch sử Chức Vụ</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Xem lịch sử Chức Vụ</v>
+      </c>
+      <c r="D310" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E310" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F310" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="str">
+        <v>position.history_detail</v>
+      </c>
+      <c r="B311" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem chi tiết lịch sử của Chức Vụ</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Xem chi tiết lịch sử của Chức Vụ</v>
+      </c>
+      <c r="D311" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E311" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F311" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="str">
+        <v>position.list</v>
+      </c>
+      <c r="B312" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chức Vụ</v>
+      </c>
+      <c r="C312" t="str">
+        <v>Xem danh sách Chức Vụ</v>
+      </c>
+      <c r="D312" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E312" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F312" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="str">
+        <v>position.partial_update</v>
+      </c>
+      <c r="B313" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật một phần Chức Vụ</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Quyền cập nhật một phần Chức Vụ</v>
+      </c>
+      <c r="D313" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E313" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F313" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="str">
+        <v>position.retrieve</v>
+      </c>
+      <c r="B314" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Xem Chức Vụ</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Xem chi tiết của Chức Vụ</v>
+      </c>
+      <c r="D314" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E314" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F314" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="str">
+        <v>position.update</v>
+      </c>
+      <c r="B315" t="str">
+        <v>[HCNS] [Sơ đồ tổ chức] Quyền cập nhật Chức Vụ</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Quyền cập nhật Chức Vụ</v>
+      </c>
+      <c r="D315" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E315" t="str">
+        <v>Sơ đồ tổ chức</v>
+      </c>
+      <c r="F315" t="str">
+        <v>S_HRM_NHANSU</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="str" cm="1">
+        <f t="array" ref="A316:F360">S_HRM_TONG[]</f>
+        <v>employee_kpi_assessment.create</v>
+      </c>
+      <c r="B316" t="str">
+        <v>[Payroll] [KPI Management] Quyền tạo Employee KPI Assessment</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Quyền tạo mới một Employee KPI Assessment</v>
+      </c>
+      <c r="D316" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E316" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F316" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="str">
+        <v>employee_kpi_assessment.destroy</v>
+      </c>
+      <c r="B317" t="str">
+        <v>[Payroll] [KPI Management] Quyền xóa Employee KPI Assessment</v>
+      </c>
+      <c r="C317" t="str">
+        <v>Quyền xóa Employee KPI Assessment</v>
+      </c>
+      <c r="D317" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E317" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F317" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="str">
+        <v>employee_kpi_assessment.histories</v>
+      </c>
+      <c r="B318" t="str">
+        <v>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</v>
+      </c>
+      <c r="C318" t="str">
+        <v>Xem lịch sử Employee KPI Assessment</v>
+      </c>
+      <c r="D318" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E318" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F318" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="str">
+        <v>employee_kpi_assessment.history_detail</v>
+      </c>
+      <c r="B319" t="str">
+        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</v>
+      </c>
+      <c r="C319" t="str">
+        <v>Xem chi tiết lịch sử của Employee KPI Assessment</v>
+      </c>
+      <c r="D319" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E319" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F319" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="str">
+        <v>employee_kpi_assessment.list</v>
+      </c>
+      <c r="B320" t="str">
+        <v>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="C320" t="str">
+        <v>Xem danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="D320" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E320" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F320" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="str">
+        <v>employee_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B321" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="C321" t="str">
+        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="D321" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E321" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F321" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="str">
+        <v>employee_kpi_assessment.retrieve</v>
+      </c>
+      <c r="B322" t="str">
+        <v>[Payroll] [KPI Management] Xem Employee KPI Assessment</v>
+      </c>
+      <c r="C322" t="str">
+        <v>Xem chi tiết của Employee KPI Assessment</v>
+      </c>
+      <c r="D322" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E322" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F322" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="str">
+        <v>employee_kpi_assessment.update</v>
+      </c>
+      <c r="B323" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="D323" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E323" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F323" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="str">
+        <v>employee_manager_assessment.create</v>
+      </c>
+      <c r="B324" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</v>
+      </c>
+      <c r="C324" t="str">
+        <v>Quyền tạo mới một ManagerAssessment</v>
+      </c>
+      <c r="D324" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E324" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F324" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="str">
+        <v>employee_manager_assessment.current_assessments</v>
+      </c>
+      <c r="B325" t="str">
+        <v>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</v>
+      </c>
+      <c r="C325" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</v>
+      </c>
+      <c r="D325" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E325" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F325" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="str">
+        <v>employee_manager_assessment.destroy</v>
+      </c>
+      <c r="B326" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</v>
+      </c>
+      <c r="C326" t="str">
+        <v>Quyền xóa ManagerAssessment</v>
+      </c>
+      <c r="D326" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E326" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F326" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="str">
+        <v>employee_manager_assessment.list</v>
+      </c>
+      <c r="B327" t="str">
+        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+      </c>
+      <c r="C327" t="str">
+        <v>Xem danh sách ManagerAssessments</v>
+      </c>
+      <c r="D327" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E327" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F327" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="str">
+        <v>employee_manager_assessment.partial_update</v>
+      </c>
+      <c r="B328" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="C328" t="str">
+        <v>Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="D328" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E328" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F328" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="str">
+        <v>employee_manager_assessment.retrieve</v>
+      </c>
+      <c r="B329" t="str">
+        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+      </c>
+      <c r="C329" t="str">
+        <v>Xem chi tiết của ManagerAssessment</v>
+      </c>
+      <c r="D329" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E329" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F329" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="str">
+        <v>employee_manager_assessment.update</v>
+      </c>
+      <c r="B330" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</v>
+      </c>
+      <c r="C330" t="str">
+        <v>Quyền cập nhật ManagerAssessment</v>
+      </c>
+      <c r="D330" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E330" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F330" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="str">
+        <v>department_kpi_assessment.create</v>
+      </c>
+      <c r="B331" t="str">
+        <v>[Payroll] [KPI Management] Quyền tạo Department KPI Assessment</v>
+      </c>
+      <c r="C331" t="str">
+        <v>Quyền tạo mới một Department KPI Assessment</v>
+      </c>
+      <c r="D331" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E331" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F331" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="str">
+        <v>department_kpi_assessment.destroy</v>
+      </c>
+      <c r="B332" t="str">
+        <v>[Payroll] [KPI Management] Quyền xóa Department KPI Assessment</v>
+      </c>
+      <c r="C332" t="str">
+        <v>Quyền xóa Department KPI Assessment</v>
+      </c>
+      <c r="D332" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E332" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F332" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="str">
+        <v>department_kpi_assessment.histories</v>
+      </c>
+      <c r="B333" t="str">
+        <v>[Payroll] [KPI Management] Xem lịch sử Department KPI Assessment</v>
+      </c>
+      <c r="C333" t="str">
+        <v>Xem lịch sử Department KPI Assessment</v>
+      </c>
+      <c r="D333" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E333" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F333" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="str">
+        <v>department_kpi_assessment.history_detail</v>
+      </c>
+      <c r="B334" t="str">
+        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Department KPI Assessment</v>
+      </c>
+      <c r="C334" t="str">
+        <v>Xem chi tiết lịch sử của Department KPI Assessment</v>
+      </c>
+      <c r="D334" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E334" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F334" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="str">
+        <v>department_kpi_assessment.list</v>
+      </c>
+      <c r="B335" t="str">
+        <v>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</v>
+      </c>
+      <c r="C335" t="str">
+        <v>Xem danh sách Department Kpi Assessments</v>
+      </c>
+      <c r="D335" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E335" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F335" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="str">
+        <v>department_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B336" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="C336" t="str">
+        <v>Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="D336" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E336" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F336" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="str">
+        <v>department_kpi_assessment.retrieve</v>
+      </c>
+      <c r="B337" t="str">
+        <v>[Payroll] [KPI Management] Xem Department KPI Assessment</v>
+      </c>
+      <c r="C337" t="str">
+        <v>Xem chi tiết của Department KPI Assessment</v>
+      </c>
+      <c r="D337" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E337" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F337" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="str">
+        <v>department_kpi_assessment.update</v>
+      </c>
+      <c r="B338" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="C338" t="str">
+        <v>Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="D338" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E338" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F338" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="str">
+        <v>holiday.create</v>
+      </c>
+      <c r="B339" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền tạo CompensatoryWorkday</v>
+      </c>
+      <c r="C339" t="str">
+        <v>Quyền tạo mới một CompensatoryWorkday</v>
+      </c>
+      <c r="D339" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E339" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F339" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="str">
+        <v>holiday.destroy</v>
+      </c>
+      <c r="B340" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền xóa CompensatoryWorkday</v>
+      </c>
+      <c r="C340" t="str">
+        <v>Quyền xóa CompensatoryWorkday</v>
+      </c>
+      <c r="D340" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E340" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F340" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="str">
+        <v>holiday.export</v>
+      </c>
+      <c r="B341" t="str">
+        <v>[HRM] [Quản lý Ngày Nghỉ Lễ] Quyền xuất Ngày lễ</v>
+      </c>
+      <c r="C341" t="str">
+        <v>Quyền xuất Ngày lễ</v>
+      </c>
+      <c r="D341" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E341" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F341" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="str">
+        <v>holiday.histories</v>
+      </c>
+      <c r="B342" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem lịch sử CompensatoryWorkday</v>
+      </c>
+      <c r="C342" t="str">
+        <v>Xem lịch sử CompensatoryWorkday</v>
+      </c>
+      <c r="D342" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E342" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F342" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="str">
+        <v>holiday.history_detail</v>
+      </c>
+      <c r="B343" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem chi tiết lịch sử của CompensatoryWorkday</v>
+      </c>
+      <c r="C343" t="str">
+        <v>Xem chi tiết lịch sử của CompensatoryWorkday</v>
+      </c>
+      <c r="D343" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E343" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F343" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="str">
+        <v>holiday.list</v>
+      </c>
+      <c r="B344" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Danh sách CompensatoryWorkdays</v>
+      </c>
+      <c r="C344" t="str">
+        <v>Xem danh sách CompensatoryWorkdays</v>
+      </c>
+      <c r="D344" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E344" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F344" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="str">
+        <v>holiday.partial_update</v>
+      </c>
+      <c r="B345" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật một phần CompensatoryWorkday</v>
+      </c>
+      <c r="C345" t="str">
+        <v>Quyền cập nhật một phần CompensatoryWorkday</v>
+      </c>
+      <c r="D345" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E345" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F345" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="str">
+        <v>holiday.retrieve</v>
+      </c>
+      <c r="B346" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem CompensatoryWorkday</v>
+      </c>
+      <c r="C346" t="str">
+        <v>Xem chi tiết của CompensatoryWorkday</v>
+      </c>
+      <c r="D346" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E346" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F346" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="str">
+        <v>holiday.update</v>
+      </c>
+      <c r="B347" t="str">
+        <v>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật CompensatoryWorkday</v>
+      </c>
+      <c r="C347" t="str">
+        <v>Quyền cập nhật CompensatoryWorkday</v>
+      </c>
+      <c r="D347" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E347" t="str">
+        <v>Quản lý Ngày Nghỉ Lễ</v>
+      </c>
+      <c r="F347" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="str">
+        <v>kpi.view_kpi_config</v>
+      </c>
+      <c r="B348" t="str">
+        <v>[KPI] [Configuration] Xem cấu hình KPI</v>
+      </c>
+      <c r="C348" t="str">
+        <v>Xem cấu hình KPI</v>
+      </c>
+      <c r="D348" t="str">
+        <v>KPI</v>
+      </c>
+      <c r="E348" t="str">
+        <v>Configuration</v>
+      </c>
+      <c r="F348" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="str">
+        <v>kpi_assessment_period.finalize</v>
+      </c>
+      <c r="B349" t="str">
+        <v>[Payroll] [KPI Period Management] UNREGISTERED Finalize KPI Assessment Period</v>
+      </c>
+      <c r="C349" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Finalize a KPI Assessment Period</v>
+      </c>
+      <c r="D349" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E349" t="str">
+        <v>KPI Period Management</v>
+      </c>
+      <c r="F349" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="str">
+        <v>kpi_assessment_period.generate</v>
+      </c>
+      <c r="B350" t="str">
+        <v>[Payroll] [KPI Period Management] UNREGISTERED Generate KPI Assessment Period</v>
+      </c>
+      <c r="C350" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Generate a KPI Assessment Period</v>
+      </c>
+      <c r="D350" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E350" t="str">
+        <v>KPI Period Management</v>
+      </c>
+      <c r="F350" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="str">
+        <v>kpi_assessment_period.list</v>
+      </c>
+      <c r="B351" t="str">
+        <v>[Payroll] [KPI Period Management] Danh sách Kpi Assessment Periods</v>
+      </c>
+      <c r="C351" t="str">
+        <v>Xem danh sách Kpi Assessment Periods</v>
+      </c>
+      <c r="D351" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E351" t="str">
+        <v>KPI Period Management</v>
+      </c>
+      <c r="F351" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="str">
+        <v>kpi_assessment_period.retrieve</v>
+      </c>
+      <c r="B352" t="str">
+        <v>[Payroll] [KPI Period Management] Xem KPI Assessment Period</v>
+      </c>
+      <c r="C352" t="str">
+        <v>Xem chi tiết của KPI Assessment Period</v>
+      </c>
+      <c r="D352" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E352" t="str">
+        <v>KPI Period Management</v>
+      </c>
+      <c r="F352" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="str">
+        <v>kpi_assessment_period.summary</v>
+      </c>
+      <c r="B353" t="str">
+        <v>[Payroll] [KPI Period Management] UNREGISTERED Summary KPI Assessment Period</v>
+      </c>
+      <c r="C353" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Summary a KPI Assessment Period</v>
+      </c>
+      <c r="D353" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E353" t="str">
+        <v>KPI Period Management</v>
+      </c>
+      <c r="F353" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="str">
+        <v>kpi_criterion.create</v>
+      </c>
+      <c r="B354" t="str">
+        <v>[Payroll] [KPI Management] Quyền tạo KPI Criterion</v>
+      </c>
+      <c r="C354" t="str">
+        <v>Quyền tạo mới một KPI Criterion</v>
+      </c>
+      <c r="D354" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E354" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F354" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="str">
+        <v>kpi_criterion.destroy</v>
+      </c>
+      <c r="B355" t="str">
+        <v>[Payroll] [KPI Management] Quyền xóa KPI Criterion</v>
+      </c>
+      <c r="C355" t="str">
+        <v>Quyền xóa KPI Criterion</v>
+      </c>
+      <c r="D355" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E355" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F355" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="str">
+        <v>kpi_criterion.histories</v>
+      </c>
+      <c r="B356" t="str">
+        <v>[Payroll] [KPI Management] Xem lịch sử KPI Criterion</v>
+      </c>
+      <c r="C356" t="str">
+        <v>Xem lịch sử KPI Criterion</v>
+      </c>
+      <c r="D356" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E356" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F356" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="str">
+        <v>kpi_criterion.history_detail</v>
+      </c>
+      <c r="B357" t="str">
+        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của KPI Criterion</v>
+      </c>
+      <c r="C357" t="str">
+        <v>Xem chi tiết lịch sử của KPI Criterion</v>
+      </c>
+      <c r="D357" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E357" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F357" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="str">
+        <v>kpi_criterion.list</v>
+      </c>
+      <c r="B358" t="str">
+        <v>[Payroll] [KPI Management] Danh sách Kpi Criteria</v>
+      </c>
+      <c r="C358" t="str">
+        <v>Xem danh sách Kpi Criteria</v>
+      </c>
+      <c r="D358" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E358" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F358" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="str">
+        <v>kpi_criterion.partial_update</v>
+      </c>
+      <c r="B359" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần KPI Criterion</v>
+      </c>
+      <c r="C359" t="str">
+        <v>Quyền cập nhật một phần KPI Criterion</v>
+      </c>
+      <c r="D359" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E359" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F359" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="str">
+        <v>kpi_criterion.retrieve</v>
+      </c>
+      <c r="B360" t="str">
+        <v>[Payroll] [KPI Management] Xem KPI Criterion</v>
+      </c>
+      <c r="C360" t="str">
+        <v>Xem chi tiết của KPI Criterion</v>
+      </c>
+      <c r="D360" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E360" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F360" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="str" cm="1">
+        <f t="array" ref="A361:F457">S_HRM_TUYENDUNG[]</f>
+        <v>interview_candidate.create</v>
+      </c>
+      <c r="B361" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Ứng viên</v>
+      </c>
+      <c r="C361" t="str">
+        <v>Quyền tạo mới một Ứng viên</v>
+      </c>
+      <c r="D361" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E361" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F361" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="str">
+        <v>interview_candidate.destroy</v>
+      </c>
+      <c r="B362" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Ứng viên</v>
+      </c>
+      <c r="C362" t="str">
+        <v>Quyền xóa Ứng viên</v>
+      </c>
+      <c r="D362" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E362" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F362" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="str">
+        <v>interview_candidate.histories</v>
+      </c>
+      <c r="B363" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Ứng viên</v>
+      </c>
+      <c r="C363" t="str">
+        <v>Xem lịch sử Ứng viên</v>
+      </c>
+      <c r="D363" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E363" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F363" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="str">
+        <v>interview_candidate.history_detail</v>
+      </c>
+      <c r="B364" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Ứng viên</v>
+      </c>
+      <c r="C364" t="str">
+        <v>Xem chi tiết lịch sử của Ứng viên</v>
+      </c>
+      <c r="D364" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E364" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F364" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="str">
+        <v>interview_candidate.list</v>
+      </c>
+      <c r="B365" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Ứng Viên</v>
+      </c>
+      <c r="C365" t="str">
+        <v>Xem danh sách Ứng Viên</v>
+      </c>
+      <c r="D365" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E365" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F365" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="str">
+        <v>interview_candidate.partial_update</v>
+      </c>
+      <c r="B366" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Ứng viên</v>
+      </c>
+      <c r="C366" t="str">
+        <v>Quyền cập nhật một phần Ứng viên</v>
+      </c>
+      <c r="D366" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E366" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F366" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="str">
+        <v>interview_candidate.retrieve</v>
+      </c>
+      <c r="B367" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Ứng viên</v>
+      </c>
+      <c r="C367" t="str">
+        <v>Xem chi tiết của Ứng viên</v>
+      </c>
+      <c r="D367" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E367" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F367" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="str">
+        <v>interview_candidate.update</v>
+      </c>
+      <c r="B368" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Ứng viên</v>
+      </c>
+      <c r="C368" t="str">
+        <v>Quyền cập nhật Ứng viên</v>
+      </c>
+      <c r="D368" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E368" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F368" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="str">
+        <v>interview_schedule.create</v>
+      </c>
+      <c r="B369" t="str">
+        <v>[HRM] [Tuyển dụng] Quyền tạo Lịch phỏng vấn</v>
+      </c>
+      <c r="C369" t="str">
+        <v>Quyền tạo mới một Lịch phỏng vấn</v>
+      </c>
+      <c r="D369" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E369" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F369" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="str">
+        <v>interview_schedule.destroy</v>
+      </c>
+      <c r="B370" t="str">
+        <v>[HRM] [Tuyển dụng] Quyền xóa Lịch phỏng vấn</v>
+      </c>
+      <c r="C370" t="str">
+        <v>Quyền xóa Lịch phỏng vấn</v>
+      </c>
+      <c r="D370" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E370" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F370" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="str">
+        <v>interview_schedule.export</v>
+      </c>
+      <c r="B371" t="str">
+        <v>[HRM] [Tuyển dụng] Quyền xuất Lịch phỏng vấn</v>
+      </c>
+      <c r="C371" t="str">
+        <v>Quyền xuất Lịch phỏng vấn</v>
+      </c>
+      <c r="D371" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E371" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F371" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="str">
+        <v>interview_schedule.histories</v>
+      </c>
+      <c r="B372" t="str">
+        <v>[HRM] [Tuyển dụng] Xem lịch sử Lịch phỏng vấn</v>
+      </c>
+      <c r="C372" t="str">
+        <v>Xem lịch sử Lịch phỏng vấn</v>
+      </c>
+      <c r="D372" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E372" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F372" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="str">
+        <v>interview_schedule.history_detail</v>
+      </c>
+      <c r="B373" t="str">
+        <v>[HRM] [Tuyển dụng] Xem chi tiết lịch sử của Lịch phỏng vấn</v>
+      </c>
+      <c r="C373" t="str">
+        <v>Xem chi tiết lịch sử của Lịch phỏng vấn</v>
+      </c>
+      <c r="D373" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E373" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F373" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="str">
+        <v>interview_schedule.interview_invite_preview</v>
+      </c>
+      <c r="B374" t="str">
+        <v>[HRM] [Tuyển dụng] Xem trước lời mời phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="C374" t="str">
+        <v>Xem trước lời mời phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="D374" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E374" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F374" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="str">
+        <v>interview_schedule.interview_invite_send</v>
+      </c>
+      <c r="B375" t="str">
+        <v>[HRM] [Tuyển dụng] Gửi lời mời phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="C375" t="str">
+        <v>Gửi lời mời phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="D375" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E375" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F375" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="str">
+        <v>interview_schedule.list</v>
+      </c>
+      <c r="B376" t="str">
+        <v>[HRM] [Tuyển dụng] Danh sách Lịch Phỏng Vấn</v>
+      </c>
+      <c r="C376" t="str">
+        <v>Xem danh sách Lịch Phỏng Vấn</v>
+      </c>
+      <c r="D376" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E376" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F376" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="str">
+        <v>interview_schedule.partial_update</v>
+      </c>
+      <c r="B377" t="str">
+        <v>[HRM] [Tuyển dụng] Quyền cập nhật một phần Lịch phỏng vấn</v>
+      </c>
+      <c r="C377" t="str">
+        <v>Quyền cập nhật một phần Lịch phỏng vấn</v>
+      </c>
+      <c r="D377" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E377" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F377" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="str">
+        <v>interview_schedule.retrieve</v>
+      </c>
+      <c r="B378" t="str">
+        <v>[HRM] [Tuyển dụng] Xem Lịch phỏng vấn</v>
+      </c>
+      <c r="C378" t="str">
+        <v>Xem chi tiết của Lịch phỏng vấn</v>
+      </c>
+      <c r="D378" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E378" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F378" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="str">
+        <v>interview_schedule.update</v>
+      </c>
+      <c r="B379" t="str">
+        <v>[HRM] [Tuyển dụng] Quyền cập nhật Lịch phỏng vấn</v>
+      </c>
+      <c r="C379" t="str">
+        <v>Quyền cập nhật Lịch phỏng vấn</v>
+      </c>
+      <c r="D379" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E379" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F379" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="str">
+        <v>interview_schedule.update_interviewers</v>
+      </c>
+      <c r="B380" t="str">
+        <v>[HRM] [Tuyển dụng] Cập nhật người phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="C380" t="str">
+        <v>Cập nhật người phỏng vấn cho Lịch phỏng vấn</v>
+      </c>
+      <c r="D380" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E380" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F380" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="str">
+        <v>job_description.create</v>
+      </c>
+      <c r="B381" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Mô tả công việc</v>
+      </c>
+      <c r="C381" t="str">
+        <v>Quyền tạo mới một Mô tả công việc</v>
+      </c>
+      <c r="D381" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E381" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F381" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="str">
+        <v>job_description.destroy</v>
+      </c>
+      <c r="B382" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="C382" t="str">
+        <v>Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="D382" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E382" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F382" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="str">
+        <v>job_description.export</v>
+      </c>
+      <c r="B383" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="C383" t="str">
+        <v>Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="D383" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E383" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F383" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="str">
+        <v>job_description.histories</v>
+      </c>
+      <c r="B384" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="C384" t="str">
+        <v>Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="D384" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E384" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F384" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="str">
+        <v>job_description.history_detail</v>
+      </c>
+      <c r="B385" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="C385" t="str">
+        <v>Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="D385" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E385" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F385" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="str">
+        <v>job_description.list</v>
+      </c>
+      <c r="B386" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Mô Tả Công Việc</v>
+      </c>
+      <c r="C386" t="str">
+        <v>Xem danh sách Mô Tả Công Việc</v>
+      </c>
+      <c r="D386" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E386" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F386" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="str">
+        <v>job_description.partial_update</v>
+      </c>
+      <c r="B387" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Mô tả công việc</v>
+      </c>
+      <c r="C387" t="str">
+        <v>Quyền cập nhật một phần Mô tả công việc</v>
+      </c>
+      <c r="D387" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E387" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F387" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="str">
+        <v>job_description.retrieve</v>
+      </c>
+      <c r="B388" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Mô tả công việc</v>
+      </c>
+      <c r="C388" t="str">
+        <v>Xem chi tiết của Mô tả công việc</v>
+      </c>
+      <c r="D388" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E388" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F388" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="str">
+        <v>job_description.update</v>
+      </c>
+      <c r="B389" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Mô tả công việc</v>
+      </c>
+      <c r="C389" t="str">
+        <v>Quyền cập nhật Mô tả công việc</v>
+      </c>
+      <c r="D389" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E389" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F389" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="str">
+        <v>recruitment_candidate.create</v>
+      </c>
+      <c r="B390" t="str">
+        <v>[HCNS] [Tuyển dụng] Tạo Ứng viên</v>
+      </c>
+      <c r="C390" t="str">
+        <v>Tạo ứng viên</v>
+      </c>
+      <c r="D390" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E390" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F390" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="str">
+        <v>recruitment_candidate.destroy</v>
+      </c>
+      <c r="B391" t="str">
+        <v>[HCNS] [Tuyển dụng] Xóa Ứng viên</v>
+      </c>
+      <c r="C391" t="str">
+        <v>Xóa một ứng viên cụ thể khỏi hệ thống</v>
+      </c>
+      <c r="D391" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E391" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F391" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="str">
+        <v>recruitment_candidate.export</v>
+      </c>
+      <c r="B392" t="str">
+        <v>[HCNS] [Tuyển dụng] Xuất Ứng viên</v>
+      </c>
+      <c r="C392" t="str">
+        <v>Xuất ứng viên ra file</v>
+      </c>
+      <c r="D392" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E392" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F392" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="str">
+        <v>recruitment_candidate.histories</v>
+      </c>
+      <c r="B393" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Ứng viên</v>
+      </c>
+      <c r="C393" t="str">
+        <v>Xem lịch sử Ứng viên</v>
+      </c>
+      <c r="D393" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E393" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F393" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="str">
+        <v>recruitment_candidate.history_detail</v>
+      </c>
+      <c r="B394" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Ứng viên</v>
+      </c>
+      <c r="C394" t="str">
+        <v>Xem chi tiết lịch sử của Ứng viên</v>
+      </c>
+      <c r="D394" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E394" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F394" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="str">
+        <v>recruitment_candidate.import_template</v>
+      </c>
+      <c r="B395" t="str">
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Import Template Ứng viên</v>
+      </c>
+      <c r="C395" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Import Template a Ứng viên</v>
+      </c>
+      <c r="D395" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E395" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F395" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="str">
+        <v>recruitment_candidate.list</v>
+      </c>
+      <c r="B396" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem danh sách Ứng viên</v>
+      </c>
+      <c r="C396" t="str">
+        <v>Xem tất cả ứng viên trong hệ thống</v>
+      </c>
+      <c r="D396" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E396" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F396" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="str">
+        <v>recruitment_candidate.partial_update</v>
+      </c>
+      <c r="B397" t="str">
+        <v>[HCNS] [Tuyển dụng] Cập nhật một phần Ứng viên</v>
+      </c>
+      <c r="C397" t="str">
+        <v>Cập nhật một phần thông tin cho một ứng viên cụ thể</v>
+      </c>
+      <c r="D397" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E397" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F397" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="str">
+        <v>recruitment_candidate.retrieve</v>
+      </c>
+      <c r="B398" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết Ứng viên</v>
+      </c>
+      <c r="C398" t="str">
+        <v>Xem chi tiết của một ứng viên cụ thể</v>
+      </c>
+      <c r="D398" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E398" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F398" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="str">
+        <v>recruitment_candidate.start_import</v>
+      </c>
+      <c r="B399" t="str">
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Start Import Ứng viên</v>
+      </c>
+      <c r="C399" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Start Import a Ứng viên</v>
+      </c>
+      <c r="D399" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E399" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F399" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="str">
+        <v>recruitment_candidate.to_employee</v>
+      </c>
+      <c r="B400" t="str">
+        <v>[HCNS] [Tuyển dụng] Chuyển Ứng viên thành Nhân viên</v>
+      </c>
+      <c r="C400" t="str">
+        <v>Chuyển một ứng viên thành nhân viên</v>
+      </c>
+      <c r="D400" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E400" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F400" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="str">
+        <v>recruitment_candidate.update</v>
+      </c>
+      <c r="B401" t="str">
+        <v>[HCNS] [Tuyển dụng] Cập nhật Ứng viên</v>
+      </c>
+      <c r="C401" t="str">
+        <v>Cập nhật thông tin cho một ứng viên cụ thể</v>
+      </c>
+      <c r="D401" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E401" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F401" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="str">
+        <v>recruitment_candidate.update_referrer</v>
+      </c>
+      <c r="B402" t="str">
+        <v>[HCNS] [Tuyển dụng] Cập nhật Người Giới Thiệu Ứng Viên</v>
+      </c>
+      <c r="C402" t="str">
+        <v>Cập nhật người giới thiệu cho một ứng viên cụ thể</v>
+      </c>
+      <c r="D402" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E402" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F402" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="str">
+        <v>recruitment_candidate_contact_log.create</v>
+      </c>
+      <c r="B403" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C403" t="str">
+        <v>Quyền tạo mới một Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D403" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E403" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F403" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="str">
+        <v>recruitment_candidate_contact_log.destroy</v>
+      </c>
+      <c r="B404" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C404" t="str">
+        <v>Quyền xóa Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D404" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E404" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F404" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="str">
+        <v>recruitment_candidate_contact_log.histories</v>
+      </c>
+      <c r="B405" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C405" t="str">
+        <v>Xem lịch sử Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D405" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E405" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F405" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="str">
+        <v>recruitment_candidate_contact_log.history_detail</v>
+      </c>
+      <c r="B406" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C406" t="str">
+        <v>Xem chi tiết lịch sử của Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D406" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E406" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F406" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="str">
+        <v>recruitment_candidate_contact_log.list</v>
+      </c>
+      <c r="B407" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Lịch Sử Liên Hệ Ứng Viên</v>
+      </c>
+      <c r="C407" t="str">
+        <v>Xem danh sách Lịch Sử Liên Hệ Ứng Viên</v>
+      </c>
+      <c r="D407" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E407" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F407" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="str">
+        <v>recruitment_candidate_contact_log.partial_update</v>
+      </c>
+      <c r="B408" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C408" t="str">
+        <v>Quyền cập nhật một phần Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D408" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E408" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F408" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="str">
+        <v>recruitment_candidate_contact_log.retrieve</v>
+      </c>
+      <c r="B409" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C409" t="str">
+        <v>Xem chi tiết của Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D409" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E409" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F409" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="str">
+        <v>recruitment_candidate_contact_log.update</v>
+      </c>
+      <c r="B410" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="C410" t="str">
+        <v>Quyền cập nhật Lịch sử liên hệ ứng viên</v>
+      </c>
+      <c r="D410" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E410" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F410" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="str">
+        <v>recruitment_channel.create</v>
+      </c>
+      <c r="B411" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Kênh tuyển dụng</v>
+      </c>
+      <c r="C411" t="str">
+        <v>Quyền tạo mới một Kênh tuyển dụng</v>
+      </c>
+      <c r="D411" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E411" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F411" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="str">
+        <v>recruitment_channel.destroy</v>
+      </c>
+      <c r="B412" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Kênh tuyển dụng</v>
+      </c>
+      <c r="C412" t="str">
+        <v>Quyền xóa Kênh tuyển dụng</v>
+      </c>
+      <c r="D412" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E412" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F412" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="str">
+        <v>recruitment_channel.histories</v>
+      </c>
+      <c r="B413" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Kênh tuyển dụng</v>
+      </c>
+      <c r="C413" t="str">
+        <v>Xem lịch sử Kênh tuyển dụng</v>
+      </c>
+      <c r="D413" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E413" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F413" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="str">
+        <v>recruitment_channel.history_detail</v>
+      </c>
+      <c r="B414" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Kênh tuyển dụng</v>
+      </c>
+      <c r="C414" t="str">
+        <v>Xem chi tiết lịch sử của Kênh tuyển dụng</v>
+      </c>
+      <c r="D414" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E414" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F414" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="str">
+        <v>recruitment_channel.list</v>
+      </c>
+      <c r="B415" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Kênh Tuyển Dụng</v>
+      </c>
+      <c r="C415" t="str">
+        <v>Xem danh sách Kênh Tuyển Dụng</v>
+      </c>
+      <c r="D415" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E415" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F415" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="str">
+        <v>recruitment_channel.partial_update</v>
+      </c>
+      <c r="B416" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Kênh tuyển dụng</v>
+      </c>
+      <c r="C416" t="str">
+        <v>Quyền cập nhật một phần Kênh tuyển dụng</v>
+      </c>
+      <c r="D416" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E416" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F416" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="str">
+        <v>recruitment_channel.retrieve</v>
+      </c>
+      <c r="B417" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Kênh tuyển dụng</v>
+      </c>
+      <c r="C417" t="str">
+        <v>Xem chi tiết của Kênh tuyển dụng</v>
+      </c>
+      <c r="D417" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E417" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F417" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="str">
+        <v>recruitment_channel.update</v>
+      </c>
+      <c r="B418" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Kênh tuyển dụng</v>
+      </c>
+      <c r="C418" t="str">
+        <v>Quyền cập nhật Kênh tuyển dụng</v>
+      </c>
+      <c r="D418" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E418" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F418" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="str">
+        <v>recruitment_dashboard.branch_breakdown_chart</v>
+      </c>
+      <c r="B419" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem báo cáo tỷ lệ tuyển mới theo chi nhánh</v>
+      </c>
+      <c r="C419" t="str">
+        <v>Xem báo cáo tỷ lệ tuyển mới theo chi nhánh</v>
+      </c>
+      <c r="D419" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E419" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F419" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="str">
+        <v>recruitment_dashboard.cost_breakdown_chart</v>
+      </c>
+      <c r="B420" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem báo cáo chi phí tuyển dụng theo nguồn</v>
+      </c>
+      <c r="C420" t="str">
+        <v>Xem báo cáo chi phí tuyển dụng theo nguồn</v>
+      </c>
+      <c r="D420" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E420" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F420" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="str">
+        <v>recruitment_dashboard.cost_by_branches_chart</v>
+      </c>
+      <c r="B421" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem báo cáo chi phí tuyển dụng theo chi nhánh</v>
+      </c>
+      <c r="C421" t="str">
+        <v>Xem báo cáo chi phí tuyển dụng trung bình hàng tháng của các chi nhánh</v>
+      </c>
+      <c r="D421" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E421" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F421" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="str">
+        <v>recruitment_dashboard.experience_breakdown_chart</v>
+      </c>
+      <c r="B422" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem báo cáo tỷ lệ tuyển mới theo kinh nghiệm</v>
+      </c>
+      <c r="C422" t="str">
+        <v>Xem báo cáo tỷ lệ tuyển mới theo kinh nghiệm</v>
+      </c>
+      <c r="D422" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E422" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F422" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="str">
+        <v>recruitment_dashboard.monthly_trends_chart</v>
+      </c>
+      <c r="B423" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem biểu đồ xu hướng hàng tháng</v>
+      </c>
+      <c r="C423" t="str">
+        <v>Xem biểu đồ xu hướng hàng tháng của các nguồn ứng viên</v>
+      </c>
+      <c r="D423" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E423" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F423" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="str">
+        <v>recruitment_dashboard.realtime</v>
+      </c>
+      <c r="B424" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem KPI tuyển dụng thời gian thực</v>
+      </c>
+      <c r="C424" t="str">
+        <v>Xem các chỉ số hiệu suất tuyển dụng thời gian thực</v>
+      </c>
+      <c r="D424" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E424" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F424" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="str">
+        <v>recruitment_dashboard.source_type_breakdown_chart</v>
+      </c>
+      <c r="B425" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem báo cáo tỷ lệ tuyển mới theo nguồn</v>
+      </c>
+      <c r="C425" t="str">
+        <v>Xem báo cáo tỷ lệ tuyển mới theo nguồn</v>
+      </c>
+      <c r="D425" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E425" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F425" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="str">
+        <v>recruitment_expense.create</v>
+      </c>
+      <c r="B426" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Chi phí tuyển dụng</v>
+      </c>
+      <c r="C426" t="str">
+        <v>Quyền tạo mới một Chi phí tuyển dụng</v>
+      </c>
+      <c r="D426" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E426" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F426" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="str">
+        <v>recruitment_expense.destroy</v>
+      </c>
+      <c r="B427" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Chi phí tuyển dụng</v>
+      </c>
+      <c r="C427" t="str">
+        <v>Quyền xóa Chi phí tuyển dụng</v>
+      </c>
+      <c r="D427" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E427" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F427" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="str">
+        <v>recruitment_expense.export</v>
+      </c>
+      <c r="B428" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xuất Chi phí tuyển dụng</v>
+      </c>
+      <c r="C428" t="str">
+        <v>Quyền xuất Chi phí tuyển dụng</v>
+      </c>
+      <c r="D428" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E428" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F428" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="str">
+        <v>recruitment_expense.histories</v>
+      </c>
+      <c r="B429" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Chi phí tuyển dụng</v>
+      </c>
+      <c r="C429" t="str">
+        <v>Xem lịch sử Chi phí tuyển dụng</v>
+      </c>
+      <c r="D429" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E429" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F429" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="str">
+        <v>recruitment_expense.history_detail</v>
+      </c>
+      <c r="B430" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Chi phí tuyển dụng</v>
+      </c>
+      <c r="C430" t="str">
+        <v>Xem chi tiết lịch sử của Chi phí tuyển dụng</v>
+      </c>
+      <c r="D430" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E430" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F430" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="str">
+        <v>recruitment_expense.list</v>
+      </c>
+      <c r="B431" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Chi Phí Tuyển Dụng</v>
+      </c>
+      <c r="C431" t="str">
+        <v>Xem danh sách Chi Phí Tuyển Dụng</v>
+      </c>
+      <c r="D431" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E431" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F431" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="str">
+        <v>recruitment_expense.partial_update</v>
+      </c>
+      <c r="B432" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Chi phí tuyển dụng</v>
+      </c>
+      <c r="C432" t="str">
+        <v>Quyền cập nhật một phần Chi phí tuyển dụng</v>
+      </c>
+      <c r="D432" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E432" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F432" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="str">
+        <v>recruitment_expense.retrieve</v>
+      </c>
+      <c r="B433" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Chi phí tuyển dụng</v>
+      </c>
+      <c r="C433" t="str">
+        <v>Xem chi tiết của Chi phí tuyển dụng</v>
+      </c>
+      <c r="D433" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E433" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F433" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="str">
+        <v>recruitment_expense.update</v>
+      </c>
+      <c r="B434" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Chi phí tuyển dụng</v>
+      </c>
+      <c r="C434" t="str">
+        <v>Quyền cập nhật Chi phí tuyển dụng</v>
+      </c>
+      <c r="D434" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E434" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F434" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="str">
+        <v>recruitment_reports.hired_candidate</v>
+      </c>
+      <c r="B435" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo Ứng viên Đã Tuyển Dụng</v>
+      </c>
+      <c r="C435" t="str">
+        <v>Thống kê tổng hợp ứng viên đã tuyển dụng theo loại nguồn với tổng hợp theo kỳ và chi tiết nhân viên</v>
+      </c>
+      <c r="D435" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E435" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F435" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="str">
+        <v>recruitment_reports.recruitment_channel</v>
+      </c>
+      <c r="B436" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo kênh tuyển dụng</v>
+      </c>
+      <c r="C436" t="str">
+        <v>Tổng hợp thống kê tuyển dụng theo kênh tuyển dụng dưới dạng tổ chức lồng nhau</v>
+      </c>
+      <c r="D436" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E436" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F436" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="str">
+        <v>recruitment_reports.recruitment_cost</v>
+      </c>
+      <c r="B437" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo chi phí tuyển dụng</v>
+      </c>
+      <c r="C437" t="str">
+        <v>Tổng hợp dữ liệu chi phí tuyển dụng theo loại nguồn và tháng</v>
+      </c>
+      <c r="D437" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E437" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F437" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="str">
+        <v>recruitment_reports.recruitment_source</v>
+      </c>
+      <c r="B438" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo nguồn tuyển dụng</v>
+      </c>
+      <c r="C438" t="str">
+        <v>Tổng hợp thống kê tuyển dụng theo nguồn tuyển dụng dưới dạng tổ chức lồng nhau</v>
+      </c>
+      <c r="D438" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E438" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F438" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="str">
+        <v>recruitment_reports.referral_cost</v>
+      </c>
+      <c r="B439" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo chi phí giới thiệu</v>
+      </c>
+      <c r="C439" t="str">
+        <v>Thống kê chi phí giới thiệu với tóm tắt phòng ban và chi tiết nhân viên cho một tháng</v>
+      </c>
+      <c r="D439" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E439" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F439" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="str">
+        <v>recruitment_reports.staff_growth</v>
+      </c>
+      <c r="B440" t="str">
+        <v>[Báo cáo] [Tuyển dụng] Báo cáo tăng trưởng nhân sự</v>
+      </c>
+      <c r="C440" t="str">
+        <v>Báo cáo tổng hợp thay đổi nhân sự theo kỳ (tuần/tháng)</v>
+      </c>
+      <c r="D440" t="str">
+        <v>Báo cáo</v>
+      </c>
+      <c r="E440" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F440" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="str">
+        <v>recruitment_request.create</v>
+      </c>
+      <c r="B441" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C441" t="str">
+        <v>Quyền tạo mới một Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D441" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E441" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F441" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="str">
+        <v>recruitment_request.destroy</v>
+      </c>
+      <c r="B442" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C442" t="str">
+        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D442" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E442" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F442" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="str">
+        <v>recruitment_request.export_detail_document</v>
+      </c>
+      <c r="B443" t="str">
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C443" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D443" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E443" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F443" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="str">
+        <v>recruitment_request.histories</v>
+      </c>
+      <c r="B444" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C444" t="str">
+        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D444" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E444" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F444" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="str">
+        <v>recruitment_request.history_detail</v>
+      </c>
+      <c r="B445" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C445" t="str">
+        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D445" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E445" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F445" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="str">
+        <v>recruitment_request.list</v>
+      </c>
+      <c r="B446" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+      </c>
+      <c r="C446" t="str">
+        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+      </c>
+      <c r="D446" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E446" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F446" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="str">
+        <v>recruitment_request.partial_update</v>
+      </c>
+      <c r="B447" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C447" t="str">
+        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D447" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E447" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F447" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="str">
+        <v>recruitment_request.retrieve</v>
+      </c>
+      <c r="B448" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C448" t="str">
+        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D448" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E448" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F448" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="str">
+        <v>recruitment_request.update</v>
+      </c>
+      <c r="B449" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C449" t="str">
+        <v>Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D449" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E449" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F449" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="str">
+        <v>recruitment_source.create</v>
+      </c>
+      <c r="B450" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Nguồn tuyển dụng</v>
+      </c>
+      <c r="C450" t="str">
+        <v>Quyền tạo mới một Nguồn tuyển dụng</v>
+      </c>
+      <c r="D450" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E450" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F450" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="str">
+        <v>recruitment_source.destroy</v>
+      </c>
+      <c r="B451" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Nguồn tuyển dụng</v>
+      </c>
+      <c r="C451" t="str">
+        <v>Quyền xóa Nguồn tuyển dụng</v>
+      </c>
+      <c r="D451" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E451" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F451" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="str">
+        <v>recruitment_source.histories</v>
+      </c>
+      <c r="B452" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Nguồn tuyển dụng</v>
+      </c>
+      <c r="C452" t="str">
+        <v>Xem lịch sử Nguồn tuyển dụng</v>
+      </c>
+      <c r="D452" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E452" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F452" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="str">
+        <v>recruitment_source.history_detail</v>
+      </c>
+      <c r="B453" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Nguồn tuyển dụng</v>
+      </c>
+      <c r="C453" t="str">
+        <v>Xem chi tiết lịch sử của Nguồn tuyển dụng</v>
+      </c>
+      <c r="D453" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E453" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F453" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="str">
+        <v>recruitment_source.list</v>
+      </c>
+      <c r="B454" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Nguồn Tuyển Dụng</v>
+      </c>
+      <c r="C454" t="str">
+        <v>Xem danh sách Nguồn Tuyển Dụng</v>
+      </c>
+      <c r="D454" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E454" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F454" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="str">
+        <v>recruitment_source.partial_update</v>
+      </c>
+      <c r="B455" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Nguồn tuyển dụng</v>
+      </c>
+      <c r="C455" t="str">
+        <v>Quyền cập nhật một phần Nguồn tuyển dụng</v>
+      </c>
+      <c r="D455" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E455" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F455" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="str">
+        <v>recruitment_source.retrieve</v>
+      </c>
+      <c r="B456" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Nguồn tuyển dụng</v>
+      </c>
+      <c r="C456" t="str">
+        <v>Xem chi tiết của Nguồn tuyển dụng</v>
+      </c>
+      <c r="D456" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E456" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F456" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="str">
+        <v>recruitment_source.update</v>
+      </c>
+      <c r="B457" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Nguồn tuyển dụng</v>
+      </c>
+      <c r="C457" t="str">
+        <v>Quyền cập nhật Nguồn tuyển dụng</v>
+      </c>
+      <c r="D457" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E457" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F457" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="str" cm="1">
+        <f t="array" ref="A458:F475">S_TRUONGPHONG[]</f>
+        <v>proposal.mine</v>
+      </c>
+      <c r="B458" t="str">
+        <v>[HRM] [Đề xuất] Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
+      </c>
+      <c r="C458" t="str">
+        <v>Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
+      </c>
+      <c r="D458" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E458" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F458" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="str">
+        <v>recruitment_request.create</v>
+      </c>
+      <c r="B459" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C459" t="str">
+        <v>Quyền tạo mới một Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D459" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E459" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F459" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="str">
+        <v>recruitment_request.destroy</v>
+      </c>
+      <c r="B460" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C460" t="str">
+        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D460" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E460" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F460" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="str">
+        <v>recruitment_request.export_detail_document</v>
+      </c>
+      <c r="B461" t="str">
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C461" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D461" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E461" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F461" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="str">
+        <v>recruitment_request.histories</v>
+      </c>
+      <c r="B462" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C462" t="str">
+        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D462" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E462" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F462" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="str">
+        <v>recruitment_request.history_detail</v>
+      </c>
+      <c r="B463" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C463" t="str">
+        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D463" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E463" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F463" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="str">
+        <v>recruitment_request.list</v>
+      </c>
+      <c r="B464" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+      </c>
+      <c r="C464" t="str">
+        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+      </c>
+      <c r="D464" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E464" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F464" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="str">
+        <v>recruitment_request.partial_update</v>
+      </c>
+      <c r="B465" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C465" t="str">
+        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D465" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E465" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F465" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="str">
+        <v>recruitment_request.retrieve</v>
+      </c>
+      <c r="B466" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C466" t="str">
+        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D466" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E466" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F466" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="str">
+        <v>proposal_verifier.destroy</v>
+      </c>
+      <c r="B467" t="str">
+        <v>[HRM] [Đề xuất] Quyền xóa Người xác minh</v>
+      </c>
+      <c r="C467" t="str">
+        <v>Quyền xóa Người xác minh</v>
+      </c>
+      <c r="D467" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E467" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F467" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="str">
+        <v>proposal_verifier.histories</v>
+      </c>
+      <c r="B468" t="str">
+        <v>[HRM] [Đề xuất] Xem lịch sử Người xác minh</v>
+      </c>
+      <c r="C468" t="str">
+        <v>Xem lịch sử Người xác minh</v>
+      </c>
+      <c r="D468" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E468" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F468" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="str">
+        <v>proposal_verifier.history_detail</v>
+      </c>
+      <c r="B469" t="str">
+        <v>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</v>
+      </c>
+      <c r="C469" t="str">
+        <v>Xem chi tiết lịch sử của Người xác minh</v>
+      </c>
+      <c r="D469" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E469" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F469" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="str">
+        <v>proposal_verifier.mine</v>
+      </c>
+      <c r="B470" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</v>
+      </c>
+      <c r="C470" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</v>
+      </c>
+      <c r="D470" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E470" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F470" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="str">
+        <v>proposal_verifier.partial_update</v>
+      </c>
+      <c r="B471" t="str">
+        <v>[HRM] [Đề xuất] Quyền cập nhật một phần Người xác minh</v>
+      </c>
+      <c r="C471" t="str">
+        <v>Quyền cập nhật một phần Người xác minh</v>
+      </c>
+      <c r="D471" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E471" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F471" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="str">
+        <v>proposal_verifier.reject</v>
+      </c>
+      <c r="B472" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</v>
+      </c>
+      <c r="C472" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</v>
+      </c>
+      <c r="D472" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E472" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F472" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="str">
+        <v>proposal_verifier.retrieve</v>
+      </c>
+      <c r="B473" t="str">
+        <v>[HRM] [Đề xuất] Xem Người xác minh</v>
+      </c>
+      <c r="C473" t="str">
+        <v>Xem chi tiết của Người xác minh</v>
+      </c>
+      <c r="D473" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E473" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F473" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="str">
+        <v>proposal_verifier.update</v>
+      </c>
+      <c r="B474" t="str">
+        <v>[HRM] [Đề xuất] Quyền cập nhật Người xác minh</v>
+      </c>
+      <c r="C474" t="str">
+        <v>Quyền cập nhật Người xác minh</v>
+      </c>
+      <c r="D474" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E474" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F474" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="str">
+        <v>proposal_verifier.verify</v>
+      </c>
+      <c r="B475" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</v>
+      </c>
+      <c r="C475" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</v>
+      </c>
+      <c r="D475" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E475" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F475" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260" tabRatio="894" activeTab="1"/>
+    <workbookView windowHeight="16260" tabRatio="894" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="1882">
   <si>
     <t>code</t>
   </si>
@@ -30070,10 +30092,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -30224,303 +30246,362 @@
         <v>S_HRM_CHAMCONG</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="str" cm="1">
+        <f t="array" ref="A11:F32">S_NV_CHUNG[]</f>
+        <v>administrative_unit.list</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>[Hệ thống ] [Đơn vị hành chính] Danh sách Các Đơn Vị Hành Chính</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Xem danh sách Các Đơn Vị Hành Chính</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E11" t="str">
+        <v>Đơn vị hành chính</v>
+      </c>
+      <c r="F11" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="str">
+        <v>administrative_unit.retrieve</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>[Hệ thống ] [Đơn vị hành chính] Xem Đơn vị hành chính</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>Xem chi tiết của Đơn vị hành chính</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E12" t="str">
+        <v>Đơn vị hành chính</v>
+      </c>
+      <c r="F12" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="str">
+        <v>decision.list</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Danh sách Các Quyết Định</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Xem danh sách Các Quyết Định</v>
+      </c>
+      <c r="D13" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F13" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
     <row r="14" spans="1:6">
       <c r="A14" t="str">
-        <f t="array" ref="A14:F27">S_NV_TAODEXUAT[]</f>
-        <v>proposal_asset_allocation.create</v>
+        <v>decision.retrieve</v>
       </c>
       <c r="B14" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Cấp tài sản</v>
+        <v>[HCNS] [Quản lý Quyết Định] Xem Quyết Định</v>
       </c>
       <c r="C14" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất cấp tài sản</v>
+        <v>Xem chi tiết của Quyết Định</v>
       </c>
       <c r="D14" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E14" t="str">
-        <v>Đề xuất</v>
+        <v>Quản lý Quyết Định</v>
       </c>
       <c r="F14" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="str">
-        <v>proposal_device_change.create</v>
+        <v>files.confirm_multiple_files</v>
       </c>
       <c r="B15" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Thay đổi thiết bị đăng nhập</v>
+        <v>[Tệp tin] [Xác nhận] Xác nhận nhiều tệp tin</v>
       </c>
       <c r="C15" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất thay đổi thiết bị đăng nhập</v>
+        <v>Xác nhận nhiều tệp tin</v>
       </c>
       <c r="D15" t="str">
-        <v>HRM</v>
+        <v>Tệp tin</v>
       </c>
       <c r="E15" t="str">
-        <v>Đề xuất</v>
+        <v>Xác nhận</v>
       </c>
       <c r="F15" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="str">
-        <v>proposal_job_transfer.create</v>
+        <v>files.presign_url</v>
       </c>
       <c r="B16" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Điều chuyển công tác</v>
+        <v>[Tệp tin] [Ký trước] Tạo URL ký trước</v>
       </c>
       <c r="C16" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất điều chuyển công tác</v>
+        <v>Tạo URL ký trước</v>
       </c>
       <c r="D16" t="str">
-        <v>HRM</v>
+        <v>Tệp tin</v>
       </c>
       <c r="E16" t="str">
-        <v>Đề xuất</v>
+        <v>Ký trước</v>
       </c>
       <c r="F16" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="str">
-        <v>proposal_late_exemption.create</v>
+        <v>province.list</v>
       </c>
       <c r="B17" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Miễn trừ trễ</v>
+        <v>[Core] [Geographic Data] Danh sách Provinces</v>
       </c>
       <c r="C17" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất miễn trừ trễ</v>
+        <v>Xem danh sách Provinces</v>
       </c>
       <c r="D17" t="str">
-        <v>HRM</v>
+        <v>Core</v>
       </c>
       <c r="E17" t="str">
-        <v>Đề xuất</v>
+        <v>Geographic Data</v>
       </c>
       <c r="F17" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="str">
-        <v>proposal_maternity_leave.create</v>
+        <v>province.retrieve</v>
       </c>
       <c r="B18" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ việc hưởng chế độ thai sản</v>
+        <v>[Core] [Geographic Data] Xem Province</v>
       </c>
       <c r="C18" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất nghỉ việc hưởng chế độ thai sản</v>
+        <v>Xem chi tiết của Province</v>
       </c>
       <c r="D18" t="str">
-        <v>HRM</v>
+        <v>Core</v>
       </c>
       <c r="E18" t="str">
-        <v>Đề xuất</v>
+        <v>Geographic Data</v>
       </c>
       <c r="F18" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="str">
-        <v>proposal_overtime_work.create</v>
+        <v>bank.list</v>
       </c>
       <c r="B19" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Làm việc ngoài giờ</v>
+        <v>[HCNS] [Quản lý Ngân Hàng] Danh sách Các Ngân Hàng</v>
       </c>
       <c r="C19" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất làm việc ngoài giờ</v>
+        <v>Xem danh sách Các Ngân Hàng</v>
       </c>
       <c r="D19" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E19" t="str">
-        <v>Đề xuất</v>
+        <v>Quản lý Ngân Hàng</v>
       </c>
       <c r="F19" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="str">
-        <v>proposal_paid_leave.create</v>
+        <v>block.list</v>
       </c>
       <c r="B20" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ phép có lương</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Khối</v>
       </c>
       <c r="C20" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất nghỉ phép có lương</v>
+        <v>Xem danh sách Khối</v>
       </c>
       <c r="D20" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E20" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F20" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="str">
-        <v>proposal_post_maternity_benefits.create</v>
+        <v>branch.list</v>
       </c>
       <c r="B21" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Chế độ làm việc hậu thai sản</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chi Nhánh</v>
       </c>
       <c r="C21" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất chế độ làm việc hậu thai sản</v>
+        <v>Xem danh sách Chi Nhánh</v>
       </c>
       <c r="D21" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E21" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F21" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="str">
-        <v>proposal_timesheet_entry_complaint.create</v>
+        <v>department.list</v>
       </c>
       <c r="B22" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Khiếu nại Chấm công</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Phòng Ban</v>
       </c>
       <c r="C22" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất khiếu nại chấm công</v>
+        <v>Xem danh sách phòng ban với các bộ lọc và sắp xếp</v>
       </c>
       <c r="D22" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E22" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F22" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="str">
-        <v>proposal_unpaid_leave.create</v>
+        <v>position.list</v>
       </c>
       <c r="B23" t="str">
-        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ không lương</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chức Vụ</v>
       </c>
       <c r="C23" t="str">
-        <v>Cho phép người dùng tạo mới đề xuất nghỉ không lương</v>
+        <v>Xem danh sách Chức Vụ</v>
       </c>
       <c r="D23" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E23" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F23" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="str">
-        <v>proposal_verifier.create</v>
+        <v>payroll.penalty_ticket.list</v>
       </c>
       <c r="B24" t="str">
-        <v>[HRM] [Đề xuất] Quyền tạo Người xác minh</v>
+        <v>[Bảng lương] [Penalty Management] Danh sách Các Phiếu Phạt</v>
       </c>
       <c r="C24" t="str">
-        <v>Quyền tạo mới một Người xác minh</v>
+        <v>Xem danh sách Các Phiếu Phạt</v>
       </c>
       <c r="D24" t="str">
-        <v>HRM</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E24" t="str">
-        <v>Đề xuất</v>
+        <v>Penalty Management</v>
       </c>
       <c r="F24" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="str">
-        <v>proposal_verifier.list</v>
+        <v>payroll.penalty_ticket.retrieve</v>
       </c>
       <c r="B25" t="str">
-        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+        <v>[Bảng lương] [Penalty Management] Xem Phiếu phạt</v>
       </c>
       <c r="C25" t="str">
-        <v>Xem danh sách Người Xác Minh</v>
+        <v>Xem chi tiết của Phiếu phạt</v>
       </c>
       <c r="D25" t="str">
-        <v>HRM</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E25" t="str">
-        <v>Đề xuất</v>
+        <v>Penalty Management</v>
       </c>
       <c r="F25" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="str">
-        <v>proposal_verifier.list</v>
+        <v>employee_self_assessment.current_assessment</v>
       </c>
       <c r="B26" t="str">
-        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+        <v>[Payroll] [Employee Self-Assessment] Xem đánh giá hiện tại</v>
       </c>
       <c r="C26" t="str">
-        <v>Xem danh sách Người Xác Minh</v>
+        <v>Quyền xem đánh giá chưa hoàn tất hiện tại cho nhân viên trong phòng ban</v>
       </c>
       <c r="D26" t="str">
-        <v>HRM</v>
+        <v>Payroll</v>
       </c>
       <c r="E26" t="str">
-        <v>Đề xuất</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F26" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="str">
-        <v>proposal_verifier.list</v>
+        <v>employee_self_assessment.partial_update</v>
       </c>
       <c r="B27" t="str">
-        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="C27" t="str">
-        <v>Xem danh sách Người Xác Minh</v>
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="D27" t="str">
-        <v>HRM</v>
+        <v>Payroll</v>
       </c>
       <c r="E27" t="str">
-        <v>Đề xuất</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F27" t="str">
-        <v>S_NV_TAODEXUAT</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="str">
-        <f t="array" ref="A28:F47">S_NV_CHUNG[]</f>
-        <v>administrative_unit.list</v>
+        <v>employee_self_assessment.retrieve</v>
       </c>
       <c r="B28" t="str">
-        <v>[Hệ thống ] [Đơn vị hành chính] Danh sách Các Đơn Vị Hành Chính</v>
+        <v>[Payroll] [Employee Self-Assessment] Xem EmployeeSelfAssessment</v>
       </c>
       <c r="C28" t="str">
-        <v>Xem danh sách Các Đơn Vị Hành Chính</v>
+        <v>Xem chi tiết của EmployeeSelfAssessment</v>
       </c>
       <c r="D28" t="str">
-        <v>Hệ thống </v>
+        <v>Payroll</v>
       </c>
       <c r="E28" t="str">
-        <v>Đơn vị hành chính</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F28" t="str">
         <v>S_HRM_CHUNG</v>
@@ -30528,19 +30609,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="str">
-        <v>administrative_unit.retrieve</v>
+        <v>employee_self_assessment.partial_update</v>
       </c>
       <c r="B29" t="str">
-        <v>[Hệ thống ] [Đơn vị hành chính] Xem Đơn vị hành chính</v>
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="C29" t="str">
-        <v>Xem chi tiết của Đơn vị hành chính</v>
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="D29" t="str">
-        <v>Hệ thống </v>
+        <v>Payroll</v>
       </c>
       <c r="E29" t="str">
-        <v>Đơn vị hành chính</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F29" t="str">
         <v>S_HRM_CHUNG</v>
@@ -30548,19 +30629,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="str">
-        <v>decision.list</v>
+        <v>employee.dropdown</v>
       </c>
       <c r="B30" t="str">
-        <v>[HCNS] [Quản lý Quyết Định] Danh sách Các Quyết Định</v>
+        <v>[HCNS] [Quản lý Nhân Viên] Xem danh sách nhân viên cho dạng dropdown</v>
       </c>
       <c r="C30" t="str">
-        <v>Xem danh sách Các Quyết Định</v>
+        <v>Danh sách nhân viên cho dạng dropdown</v>
       </c>
       <c r="D30" t="str">
         <v>HCNS</v>
       </c>
       <c r="E30" t="str">
-        <v>Quản lý Quyết Định</v>
+        <v>Quản lý Nhân Viên</v>
       </c>
       <c r="F30" t="str">
         <v>S_HRM_CHUNG</v>
@@ -30568,19 +30649,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="str">
-        <v>decision.retrieve</v>
+        <v>payroll.my_penalty_ticket.list</v>
       </c>
       <c r="B31" t="str">
-        <v>[HCNS] [Quản lý Quyết Định] Xem Quyết Định</v>
+        <v>[Bảng lương] [Quản lý phiếu phạt] Danh sách Các Phiếu Phạt</v>
       </c>
       <c r="C31" t="str">
-        <v>Xem chi tiết của Quyết Định</v>
+        <v>Xem danh sách Các Phiếu Phạt</v>
       </c>
       <c r="D31" t="str">
-        <v>HCNS</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E31" t="str">
-        <v>Quản lý Quyết Định</v>
+        <v>Quản lý phiếu phạt</v>
       </c>
       <c r="F31" t="str">
         <v>S_HRM_CHUNG</v>
@@ -30588,334 +30669,264 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="str">
-        <v>files.confirm_multiple_files</v>
+        <v>payroll.my_penalty_ticket.retrieve</v>
       </c>
       <c r="B32" t="str">
-        <v>[Tệp tin] [Xác nhận] Xác nhận nhiều tệp tin</v>
+        <v>[Bảng lương] [Quản lý phiếu phạt] Xem Phiếu phạt</v>
       </c>
       <c r="C32" t="str">
-        <v>Xác nhận nhiều tệp tin</v>
+        <v>Xem chi tiết của Phiếu phạt</v>
       </c>
       <c r="D32" t="str">
-        <v>Tệp tin</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E32" t="str">
-        <v>Xác nhận</v>
+        <v>Quản lý phiếu phạt</v>
       </c>
       <c r="F32" t="str">
         <v>S_HRM_CHUNG</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="str">
-        <v>files.presign_url</v>
-      </c>
-      <c r="B33" t="str">
-        <v>[Tệp tin] [Ký trước] Tạo URL ký trước</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Tạo URL ký trước</v>
-      </c>
-      <c r="D33" t="str">
-        <v>Tệp tin</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Ký trước</v>
-      </c>
-      <c r="F33" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="str">
-        <v>province.list</v>
-      </c>
-      <c r="B34" t="str">
-        <v>[Core] [Geographic Data] Danh sách Provinces</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Xem danh sách Provinces</v>
-      </c>
-      <c r="D34" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Geographic Data</v>
-      </c>
-      <c r="F34" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="str">
-        <v>province.retrieve</v>
-      </c>
-      <c r="B35" t="str">
-        <v>[Core] [Geographic Data] Xem Province</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Xem chi tiết của Province</v>
-      </c>
-      <c r="D35" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E35" t="str">
-        <v>Geographic Data</v>
-      </c>
-      <c r="F35" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="str">
-        <v>bank.list</v>
-      </c>
-      <c r="B36" t="str">
-        <v>[HCNS] [Quản lý Ngân Hàng] Danh sách Các Ngân Hàng</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Xem danh sách Các Ngân Hàng</v>
-      </c>
-      <c r="D36" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E36" t="str">
-        <v>Quản lý Ngân Hàng</v>
-      </c>
-      <c r="F36" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="str">
-        <v>block.list</v>
-      </c>
-      <c r="B37" t="str">
-        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Khối</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Xem danh sách Khối</v>
-      </c>
-      <c r="D37" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E37" t="str">
-        <v>Sơ đồ tổ chức</v>
-      </c>
-      <c r="F37" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="str">
-        <v>branch.list</v>
-      </c>
-      <c r="B38" t="str">
-        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chi Nhánh</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Xem danh sách Chi Nhánh</v>
-      </c>
-      <c r="D38" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Sơ đồ tổ chức</v>
-      </c>
-      <c r="F38" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="str">
-        <v>department.list</v>
-      </c>
-      <c r="B39" t="str">
-        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Phòng Ban</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Xem danh sách phòng ban với các bộ lọc và sắp xếp</v>
-      </c>
-      <c r="D39" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E39" t="str">
-        <v>Sơ đồ tổ chức</v>
-      </c>
-      <c r="F39" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="str">
-        <v>position.list</v>
-      </c>
-      <c r="B40" t="str">
-        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chức Vụ</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Xem danh sách Chức Vụ</v>
-      </c>
-      <c r="D40" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E40" t="str">
-        <v>Sơ đồ tổ chức</v>
-      </c>
-      <c r="F40" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="str">
-        <v>payroll.penalty_ticket.list</v>
-      </c>
-      <c r="B41" t="str">
-        <v>[Bảng lương] [Penalty Management] Danh sách Các Phiếu Phạt</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Xem danh sách Các Phiếu Phạt</v>
-      </c>
-      <c r="D41" t="str">
-        <v>Bảng lương</v>
-      </c>
-      <c r="E41" t="str">
-        <v>Penalty Management</v>
-      </c>
-      <c r="F41" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="str">
-        <v>payroll.penalty_ticket.retrieve</v>
-      </c>
-      <c r="B42" t="str">
-        <v>[Bảng lương] [Penalty Management] Xem Phiếu phạt</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Xem chi tiết của Phiếu phạt</v>
-      </c>
-      <c r="D42" t="str">
-        <v>Bảng lương</v>
-      </c>
-      <c r="E42" t="str">
-        <v>Penalty Management</v>
-      </c>
-      <c r="F42" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
+    <row r="33" spans="1:3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="str">
-        <v>employee_self_assessment.current_assessment</v>
+        <f t="array" ref="A43:F56">S_NV_TAODEXUAT[]</f>
+        <v>proposal_asset_allocation.create</v>
       </c>
       <c r="B43" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Xem đánh giá hiện tại</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Cấp tài sản</v>
       </c>
       <c r="C43" t="str">
-        <v>Quyền xem đánh giá chưa hoàn tất hiện tại cho nhân viên trong phòng ban</v>
+        <v>Cho phép người dùng tạo mới đề xuất cấp tài sản</v>
       </c>
       <c r="D43" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E43" t="str">
-        <v>Employee Self-Assessment</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F43" t="str">
-        <v>S_HRM_CHUNG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="str">
-        <v>employee_self_assessment.partial_update</v>
+        <v>proposal_device_change.create</v>
       </c>
       <c r="B44" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Thay đổi thiết bị đăng nhập</v>
       </c>
       <c r="C44" t="str">
-        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
+        <v>Cho phép người dùng tạo mới đề xuất thay đổi thiết bị đăng nhập</v>
       </c>
       <c r="D44" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E44" t="str">
-        <v>Employee Self-Assessment</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F44" t="str">
-        <v>S_HRM_CHUNG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="str">
-        <v>employee_self_assessment.retrieve</v>
+        <v>proposal_job_transfer.create</v>
       </c>
       <c r="B45" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Xem EmployeeSelfAssessment</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Điều chuyển công tác</v>
       </c>
       <c r="C45" t="str">
-        <v>Xem chi tiết của EmployeeSelfAssessment</v>
+        <v>Cho phép người dùng tạo mới đề xuất điều chuyển công tác</v>
       </c>
       <c r="D45" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E45" t="str">
-        <v>Employee Self-Assessment</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F45" t="str">
-        <v>S_HRM_CHUNG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="str">
-        <v>employee_self_assessment.partial_update</v>
+        <v>proposal_late_exemption.create</v>
       </c>
       <c r="B46" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Miễn trừ trễ</v>
       </c>
       <c r="C46" t="str">
-        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
+        <v>Cho phép người dùng tạo mới đề xuất miễn trừ trễ</v>
       </c>
       <c r="D46" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E46" t="str">
-        <v>Employee Self-Assessment</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F46" t="str">
-        <v>S_HRM_CHUNG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="str">
-        <v>employee.dropdown</v>
+        <v>proposal_maternity_leave.create</v>
       </c>
       <c r="B47" t="str">
-        <v>[HCNS] [Quản lý Nhân Viên] Xem danh sách nhân viên cho dạng dropdown</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ việc hưởng chế độ thai sản</v>
       </c>
       <c r="C47" t="str">
-        <v>Danh sách nhân viên cho dạng dropdown</v>
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ việc hưởng chế độ thai sản</v>
       </c>
       <c r="D47" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E47" t="str">
-        <v>Quản lý Nhân Viên</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F47" t="str">
-        <v>S_HRM_CHUNG</v>
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="str">
+        <v>proposal_overtime_work.create</v>
+      </c>
+      <c r="B48" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Làm việc ngoài giờ</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất làm việc ngoài giờ</v>
+      </c>
+      <c r="D48" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F48" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="str">
+        <v>proposal_paid_leave.create</v>
+      </c>
+      <c r="B49" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ phép có lương</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ phép có lương</v>
+      </c>
+      <c r="D49" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F49" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="str">
+        <v>proposal_post_maternity_benefits.create</v>
+      </c>
+      <c r="B50" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Chế độ làm việc hậu thai sản</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất chế độ làm việc hậu thai sản</v>
+      </c>
+      <c r="D50" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F50" t="str">
+        <v>S_NV_TAODEXUAT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="str">
+        <v>proposal_timesheet_entry_complaint.create</v>
+      </c>
+      <c r="B51" t="str">
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Khiếu nại Chấm công</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Cho phép người dùng tạo mới đề xuất khiếu nại chấm công</v>
+      </c>
+      <c r="D51" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F51" t="str">
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="str">
-        <f t="array" ref="A52:F89">S_TRUONGPHONG[]</f>
-        <v>proposal.mine</v>
+        <v>proposal_unpaid_leave.create</v>
       </c>
       <c r="B52" t="str">
-        <v>[HRM] [Đề xuất] Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
+        <v>[HRM] [Đề xuất] Tạo Đề xuất Nghỉ không lương</v>
       </c>
       <c r="C52" t="str">
-        <v>Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
+        <v>Cho phép người dùng tạo mới đề xuất nghỉ không lương</v>
       </c>
       <c r="D52" t="str">
         <v>HRM</v>
@@ -30924,584 +30935,506 @@
         <v>Đề xuất</v>
       </c>
       <c r="F52" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="str">
-        <v>recruitment_request.create</v>
+        <v>proposal_verifier.create</v>
       </c>
       <c r="B53" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền tạo Phiếu yêu cầu tuyển dụng</v>
+        <v>[HRM] [Đề xuất] Quyền tạo Người xác minh</v>
       </c>
       <c r="C53" t="str">
-        <v>Quyền tạo mới một Phiếu yêu cầu tuyển dụng</v>
+        <v>Quyền tạo mới một Người xác minh</v>
       </c>
       <c r="D53" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E53" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F53" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="str">
-        <v>recruitment_request.destroy</v>
+        <v>proposal_verifier.list</v>
       </c>
       <c r="B54" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
       </c>
       <c r="C54" t="str">
-        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Người Xác Minh</v>
       </c>
       <c r="D54" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E54" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F54" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="str">
-        <v>recruitment_request.export_detail_document</v>
+        <v>proposal_verifier.list</v>
       </c>
       <c r="B55" t="str">
-        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
       </c>
       <c r="C55" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Người Xác Minh</v>
       </c>
       <c r="D55" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E55" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F55" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="str">
-        <v>recruitment_request.histories</v>
+        <v>proposal_verifier.list</v>
       </c>
       <c r="B56" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+        <v>[HRM] [Đề xuất] Danh sách Người Xác Minh</v>
       </c>
       <c r="C56" t="str">
-        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Người Xác Minh</v>
       </c>
       <c r="D56" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E56" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F56" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_NV_TAODEXUAT</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="str">
-        <v>recruitment_request.history_detail</v>
+        <f t="array" ref="A57:F76">S_NV_CHUNG[]</f>
+        <v>administrative_unit.list</v>
       </c>
       <c r="B57" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+        <v>[Hệ thống ] [Đơn vị hành chính] Danh sách Các Đơn Vị Hành Chính</v>
       </c>
       <c r="C57" t="str">
-        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Các Đơn Vị Hành Chính</v>
       </c>
       <c r="D57" t="str">
-        <v>HCNS</v>
+        <v>Hệ thống </v>
       </c>
       <c r="E57" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đơn vị hành chính</v>
       </c>
       <c r="F57" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="str">
-        <v>recruitment_request.list</v>
+        <v>administrative_unit.retrieve</v>
       </c>
       <c r="B58" t="str">
-        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+        <v>[Hệ thống ] [Đơn vị hành chính] Xem Đơn vị hành chính</v>
       </c>
       <c r="C58" t="str">
-        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+        <v>Xem chi tiết của Đơn vị hành chính</v>
       </c>
       <c r="D58" t="str">
-        <v>HCNS</v>
+        <v>Hệ thống </v>
       </c>
       <c r="E58" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đơn vị hành chính</v>
       </c>
       <c r="F58" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="str">
-        <v>recruitment_request.partial_update</v>
+        <v>decision.list</v>
       </c>
       <c r="B59" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Quản lý Quyết Định] Danh sách Các Quyết Định</v>
       </c>
       <c r="C59" t="str">
-        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Các Quyết Định</v>
       </c>
       <c r="D59" t="str">
         <v>HCNS</v>
       </c>
       <c r="E59" t="str">
-        <v>Tuyển dụng</v>
+        <v>Quản lý Quyết Định</v>
       </c>
       <c r="F59" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="str">
-        <v>recruitment_request.retrieve</v>
+        <v>decision.retrieve</v>
       </c>
       <c r="B60" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Quản lý Quyết Định] Xem Quyết Định</v>
       </c>
       <c r="C60" t="str">
-        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem chi tiết của Quyết Định</v>
       </c>
       <c r="D60" t="str">
         <v>HCNS</v>
       </c>
       <c r="E60" t="str">
-        <v>Tuyển dụng</v>
+        <v>Quản lý Quyết Định</v>
       </c>
       <c r="F60" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="str">
-        <v>proposal_verifier.destroy</v>
+        <v>files.confirm_multiple_files</v>
       </c>
       <c r="B61" t="str">
-        <v>[HRM] [Đề xuất] Quyền xóa Người xác minh</v>
+        <v>[Tệp tin] [Xác nhận] Xác nhận nhiều tệp tin</v>
       </c>
       <c r="C61" t="str">
-        <v>Quyền xóa Người xác minh</v>
+        <v>Xác nhận nhiều tệp tin</v>
       </c>
       <c r="D61" t="str">
-        <v>HRM</v>
+        <v>Tệp tin</v>
       </c>
       <c r="E61" t="str">
-        <v>Đề xuất</v>
+        <v>Xác nhận</v>
       </c>
       <c r="F61" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="str">
-        <v>proposal_verifier.histories</v>
+        <v>files.presign_url</v>
       </c>
       <c r="B62" t="str">
-        <v>[HRM] [Đề xuất] Xem lịch sử Người xác minh</v>
+        <v>[Tệp tin] [Ký trước] Tạo URL ký trước</v>
       </c>
       <c r="C62" t="str">
-        <v>Xem lịch sử Người xác minh</v>
+        <v>Tạo URL ký trước</v>
       </c>
       <c r="D62" t="str">
-        <v>HRM</v>
+        <v>Tệp tin</v>
       </c>
       <c r="E62" t="str">
-        <v>Đề xuất</v>
+        <v>Ký trước</v>
       </c>
       <c r="F62" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="str">
-        <v>proposal_verifier.history_detail</v>
+        <v>province.list</v>
       </c>
       <c r="B63" t="str">
-        <v>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</v>
+        <v>[Core] [Geographic Data] Danh sách Provinces</v>
       </c>
       <c r="C63" t="str">
-        <v>Xem chi tiết lịch sử của Người xác minh</v>
+        <v>Xem danh sách Provinces</v>
       </c>
       <c r="D63" t="str">
-        <v>HRM</v>
+        <v>Core</v>
       </c>
       <c r="E63" t="str">
-        <v>Đề xuất</v>
+        <v>Geographic Data</v>
       </c>
       <c r="F63" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="str">
-        <v>proposal_verifier.mine</v>
+        <v>province.retrieve</v>
       </c>
       <c r="B64" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</v>
+        <v>[Core] [Geographic Data] Xem Province</v>
       </c>
       <c r="C64" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</v>
+        <v>Xem chi tiết của Province</v>
       </c>
       <c r="D64" t="str">
-        <v>HRM</v>
+        <v>Core</v>
       </c>
       <c r="E64" t="str">
-        <v>Đề xuất</v>
+        <v>Geographic Data</v>
       </c>
       <c r="F64" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="str">
-        <v>proposal_verifier.partial_update</v>
+        <v>bank.list</v>
       </c>
       <c r="B65" t="str">
-        <v>[HRM] [Đề xuất] Quyền cập nhật một phần Người xác minh</v>
+        <v>[HCNS] [Quản lý Ngân Hàng] Danh sách Các Ngân Hàng</v>
       </c>
       <c r="C65" t="str">
-        <v>Quyền cập nhật một phần Người xác minh</v>
+        <v>Xem danh sách Các Ngân Hàng</v>
       </c>
       <c r="D65" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E65" t="str">
-        <v>Đề xuất</v>
+        <v>Quản lý Ngân Hàng</v>
       </c>
       <c r="F65" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="str">
-        <v>proposal_verifier.reject</v>
+        <v>block.list</v>
       </c>
       <c r="B66" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Khối</v>
       </c>
       <c r="C66" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</v>
+        <v>Xem danh sách Khối</v>
       </c>
       <c r="D66" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E66" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F66" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="str">
-        <v>proposal_verifier.retrieve</v>
+        <v>branch.list</v>
       </c>
       <c r="B67" t="str">
-        <v>[HRM] [Đề xuất] Xem Người xác minh</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chi Nhánh</v>
       </c>
       <c r="C67" t="str">
-        <v>Xem chi tiết của Người xác minh</v>
+        <v>Xem danh sách Chi Nhánh</v>
       </c>
       <c r="D67" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E67" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F67" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="str">
-        <v>proposal_verifier.update</v>
+        <v>department.list</v>
       </c>
       <c r="B68" t="str">
-        <v>[HRM] [Đề xuất] Quyền cập nhật Người xác minh</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Phòng Ban</v>
       </c>
       <c r="C68" t="str">
-        <v>Quyền cập nhật Người xác minh</v>
+        <v>Xem danh sách phòng ban với các bộ lọc và sắp xếp</v>
       </c>
       <c r="D68" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E68" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F68" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="str">
-        <v>proposal_verifier.verify</v>
+        <v>position.list</v>
       </c>
       <c r="B69" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</v>
+        <v>[HCNS] [Sơ đồ tổ chức] Danh sách Chức Vụ</v>
       </c>
       <c r="C69" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</v>
+        <v>Xem danh sách Chức Vụ</v>
       </c>
       <c r="D69" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E69" t="str">
-        <v>Đề xuất</v>
+        <v>Sơ đồ tổ chức</v>
       </c>
       <c r="F69" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="str">
-        <v>recruitment_request.update</v>
+        <v>payroll.penalty_ticket.list</v>
       </c>
       <c r="B70" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+        <v>[Bảng lương] [Penalty Management] Danh sách Các Phiếu Phạt</v>
       </c>
       <c r="C70" t="str">
-        <v>Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Các Phiếu Phạt</v>
       </c>
       <c r="D70" t="str">
-        <v>HCNS</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E70" t="str">
-        <v>Tuyển dụng</v>
+        <v>Penalty Management</v>
       </c>
       <c r="F70" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="str">
-        <v>department_kpi_assessment.list</v>
+        <v>payroll.penalty_ticket.retrieve</v>
       </c>
       <c r="B71" t="str">
-        <v>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</v>
+        <v>[Bảng lương] [Penalty Management] Xem Phiếu phạt</v>
       </c>
       <c r="C71" t="str">
-        <v>Xem danh sách Department Kpi Assessments</v>
+        <v>Xem chi tiết của Phiếu phạt</v>
       </c>
       <c r="D71" t="str">
-        <v>Payroll</v>
+        <v>Bảng lương</v>
       </c>
       <c r="E71" t="str">
-        <v>KPI Management</v>
+        <v>Penalty Management</v>
       </c>
       <c r="F71" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="str">
-        <v>department_kpi_assessment.retrieve</v>
+        <v>employee_self_assessment.current_assessment</v>
       </c>
       <c r="B72" t="str">
-        <v>[Payroll] [KPI Management] Xem Department KPI Assessment</v>
+        <v>[Payroll] [Employee Self-Assessment] Xem đánh giá hiện tại</v>
       </c>
       <c r="C72" t="str">
-        <v>Xem chi tiết của Department KPI Assessment</v>
+        <v>Quyền xem đánh giá chưa hoàn tất hiện tại cho nhân viên trong phòng ban</v>
       </c>
       <c r="D72" t="str">
         <v>Payroll</v>
       </c>
       <c r="E72" t="str">
-        <v>KPI Management</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F72" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="str">
-        <v>employee_kpi_assessment.histories</v>
+        <v>employee_self_assessment.partial_update</v>
       </c>
       <c r="B73" t="str">
-        <v>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</v>
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="C73" t="str">
-        <v>Xem lịch sử Employee KPI Assessment</v>
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="D73" t="str">
         <v>Payroll</v>
       </c>
       <c r="E73" t="str">
-        <v>KPI Management</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F73" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="str">
-        <v>employee_kpi_assessment.history_detail</v>
+        <v>employee_self_assessment.retrieve</v>
       </c>
       <c r="B74" t="str">
-        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</v>
+        <v>[Payroll] [Employee Self-Assessment] Xem EmployeeSelfAssessment</v>
       </c>
       <c r="C74" t="str">
-        <v>Xem chi tiết lịch sử của Employee KPI Assessment</v>
+        <v>Xem chi tiết của EmployeeSelfAssessment</v>
       </c>
       <c r="D74" t="str">
         <v>Payroll</v>
       </c>
       <c r="E74" t="str">
-        <v>KPI Management</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F74" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="str">
-        <v>employee_kpi_assessment.list</v>
+        <v>employee_self_assessment.partial_update</v>
       </c>
       <c r="B75" t="str">
-        <v>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</v>
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="C75" t="str">
-        <v>Xem danh sách Employee Kpi Assessments</v>
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
       </c>
       <c r="D75" t="str">
         <v>Payroll</v>
       </c>
       <c r="E75" t="str">
-        <v>KPI Management</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F75" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="str">
-        <v>employee_kpi_assessment.partial_update</v>
+        <v>employee.dropdown</v>
       </c>
       <c r="B76" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</v>
+        <v>[HCNS] [Quản lý Nhân Viên] Xem danh sách nhân viên cho dạng dropdown</v>
       </c>
       <c r="C76" t="str">
-        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
+        <v>Danh sách nhân viên cho dạng dropdown</v>
       </c>
       <c r="D76" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E76" t="str">
-        <v>KPI Management</v>
+        <v>Quản lý Nhân Viên</v>
       </c>
       <c r="F76" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="str">
-        <v>employee_kpi_assessment.retrieve</v>
-      </c>
-      <c r="B77" t="str">
-        <v>[Payroll] [KPI Management] Xem Employee KPI Assessment</v>
-      </c>
-      <c r="C77" t="str">
-        <v>Xem chi tiết của Employee KPI Assessment</v>
-      </c>
-      <c r="D77" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E77" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F77" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="str">
-        <v>employee_kpi_assessment.update</v>
-      </c>
-      <c r="B78" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</v>
-      </c>
-      <c r="C78" t="str">
-        <v>Quyền cập nhật Employee KPI Assessment</v>
-      </c>
-      <c r="D78" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E78" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F78" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="str">
-        <v>employee_manager_assessment.list</v>
-      </c>
-      <c r="B79" t="str">
-        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
-      </c>
-      <c r="C79" t="str">
-        <v>Xem danh sách ManagerAssessments</v>
-      </c>
-      <c r="D79" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E79" t="str">
-        <v>Manager Assessment</v>
-      </c>
-      <c r="F79" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="str">
-        <v>employee_self_assessment.list</v>
-      </c>
-      <c r="B80" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
-      </c>
-      <c r="C80" t="str">
-        <v>Xem danh sách EmployeeSelfAssessments</v>
-      </c>
-      <c r="D80" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E80" t="str">
-        <v>Employee Self-Assessment</v>
-      </c>
-      <c r="F80" t="str">
-        <v>S_TRUONGPHONG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="str">
-        <v>employee_manager_assessment.partial_update</v>
+        <f t="array" ref="A81:F118">S_TRUONGPHONG[]</f>
+        <v>proposal.mine</v>
       </c>
       <c r="B81" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+        <v>[HRM] [Đề xuất] Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
       </c>
       <c r="C81" t="str">
-        <v>Quyền cập nhật một phần ManagerAssessment</v>
+        <v>Xem danh sách các yêu cầu đang chờ tôi phê duyệt</v>
       </c>
       <c r="D81" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E81" t="str">
-        <v>Manager Assessment</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F81" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31509,19 +31442,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="str">
-        <v>employee_manager_assessment.retrieve</v>
+        <v>recruitment_request.create</v>
       </c>
       <c r="B82" t="str">
-        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C82" t="str">
-        <v>Xem chi tiết của ManagerAssessment</v>
+        <v>Quyền tạo mới một Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D82" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E82" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F82" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31529,19 +31462,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="str">
-        <v>employee_manager_assessment.current_assessments</v>
+        <v>recruitment_request.destroy</v>
       </c>
       <c r="B83" t="str">
-        <v>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C83" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</v>
+        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D83" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E83" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F83" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31549,19 +31482,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="str">
-        <v>employee_manager_assessment.retrieve</v>
+        <v>recruitment_request.export_detail_document</v>
       </c>
       <c r="B84" t="str">
-        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C84" t="str">
-        <v>Xem chi tiết của ManagerAssessment</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D84" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E84" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F84" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31569,19 +31502,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="str">
-        <v>employee_manager_assessment.create</v>
+        <v>recruitment_request.histories</v>
       </c>
       <c r="B85" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C85" t="str">
-        <v>Quyền tạo mới một ManagerAssessment</v>
+        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D85" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E85" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F85" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31589,19 +31522,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="str">
-        <v>employee_manager_assessment.destroy</v>
+        <v>recruitment_request.history_detail</v>
       </c>
       <c r="B86" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C86" t="str">
-        <v>Quyền xóa ManagerAssessment</v>
+        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D86" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E86" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F86" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31609,19 +31542,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="str">
-        <v>employee_manager_assessment.list</v>
+        <v>recruitment_request.list</v>
       </c>
       <c r="B87" t="str">
-        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
       </c>
       <c r="C87" t="str">
-        <v>Xem danh sách ManagerAssessments</v>
+        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
       </c>
       <c r="D87" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E87" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F87" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31629,19 +31562,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="str">
-        <v>employee_manager_assessment.partial_update</v>
+        <v>recruitment_request.partial_update</v>
       </c>
       <c r="B88" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C88" t="str">
-        <v>Quyền cập nhật một phần ManagerAssessment</v>
+        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D88" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E88" t="str">
-        <v>Manager Assessment</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F88" t="str">
         <v>S_TRUONGPHONG</v>
@@ -31649,21 +31582,601 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="str">
+        <v>recruitment_request.retrieve</v>
+      </c>
+      <c r="B89" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D89" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F89" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="str">
+        <v>proposal_verifier.destroy</v>
+      </c>
+      <c r="B90" t="str">
+        <v>[HRM] [Đề xuất] Quyền xóa Người xác minh</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Quyền xóa Người xác minh</v>
+      </c>
+      <c r="D90" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F90" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="str">
+        <v>proposal_verifier.histories</v>
+      </c>
+      <c r="B91" t="str">
+        <v>[HRM] [Đề xuất] Xem lịch sử Người xác minh</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Xem lịch sử Người xác minh</v>
+      </c>
+      <c r="D91" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F91" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="str">
+        <v>proposal_verifier.history_detail</v>
+      </c>
+      <c r="B92" t="str">
+        <v>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Xem chi tiết lịch sử của Người xác minh</v>
+      </c>
+      <c r="D92" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F92" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="str">
+        <v>proposal_verifier.mine</v>
+      </c>
+      <c r="B93" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</v>
+      </c>
+      <c r="C93" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</v>
+      </c>
+      <c r="D93" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F93" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="str">
+        <v>proposal_verifier.partial_update</v>
+      </c>
+      <c r="B94" t="str">
+        <v>[HRM] [Đề xuất] Quyền cập nhật một phần Người xác minh</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Quyền cập nhật một phần Người xác minh</v>
+      </c>
+      <c r="D94" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F94" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="str">
+        <v>proposal_verifier.reject</v>
+      </c>
+      <c r="B95" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</v>
+      </c>
+      <c r="C95" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</v>
+      </c>
+      <c r="D95" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F95" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="str">
+        <v>proposal_verifier.retrieve</v>
+      </c>
+      <c r="B96" t="str">
+        <v>[HRM] [Đề xuất] Xem Người xác minh</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Xem chi tiết của Người xác minh</v>
+      </c>
+      <c r="D96" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F96" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="str">
+        <v>proposal_verifier.update</v>
+      </c>
+      <c r="B97" t="str">
+        <v>[HRM] [Đề xuất] Quyền cập nhật Người xác minh</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Quyền cập nhật Người xác minh</v>
+      </c>
+      <c r="D97" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F97" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="str">
+        <v>proposal_verifier.verify</v>
+      </c>
+      <c r="B98" t="str">
+        <v>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</v>
+      </c>
+      <c r="C98" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</v>
+      </c>
+      <c r="D98" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Đề xuất</v>
+      </c>
+      <c r="F98" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="str">
+        <v>recruitment_request.update</v>
+      </c>
+      <c r="B99" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+      </c>
+      <c r="D99" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F99" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="str">
+        <v>department_kpi_assessment.list</v>
+      </c>
+      <c r="B100" t="str">
+        <v>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Xem danh sách Department Kpi Assessments</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E100" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F100" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="str">
+        <v>department_kpi_assessment.retrieve</v>
+      </c>
+      <c r="B101" t="str">
+        <v>[Payroll] [KPI Management] Xem Department KPI Assessment</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Xem chi tiết của Department KPI Assessment</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E101" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F101" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="str">
+        <v>employee_kpi_assessment.histories</v>
+      </c>
+      <c r="B102" t="str">
+        <v>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Xem lịch sử Employee KPI Assessment</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E102" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F102" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="str">
+        <v>employee_kpi_assessment.history_detail</v>
+      </c>
+      <c r="B103" t="str">
+        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Xem chi tiết lịch sử của Employee KPI Assessment</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E103" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F103" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="str">
+        <v>employee_kpi_assessment.list</v>
+      </c>
+      <c r="B104" t="str">
+        <v>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Xem danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E104" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F104" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="str">
+        <v>employee_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B105" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E105" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F105" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="str">
+        <v>employee_kpi_assessment.retrieve</v>
+      </c>
+      <c r="B106" t="str">
+        <v>[Payroll] [KPI Management] Xem Employee KPI Assessment</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Xem chi tiết của Employee KPI Assessment</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E106" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F106" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="str">
+        <v>employee_kpi_assessment.update</v>
+      </c>
+      <c r="B107" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E107" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F107" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="str">
+        <v>employee_manager_assessment.list</v>
+      </c>
+      <c r="B108" t="str">
+        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Xem danh sách ManagerAssessments</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F108" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="str">
+        <v>employee_self_assessment.list</v>
+      </c>
+      <c r="B109" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Xem danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F109" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="str">
+        <v>employee_manager_assessment.partial_update</v>
+      </c>
+      <c r="B110" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F110" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="str">
+        <v>employee_manager_assessment.retrieve</v>
+      </c>
+      <c r="B111" t="str">
+        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Xem chi tiết của ManagerAssessment</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F111" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="str">
+        <v>employee_manager_assessment.current_assessments</v>
+      </c>
+      <c r="B112" t="str">
+        <v>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</v>
+      </c>
+      <c r="C112" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F112" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="str">
+        <v>employee_manager_assessment.retrieve</v>
+      </c>
+      <c r="B113" t="str">
+        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Xem chi tiết của ManagerAssessment</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F113" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="str">
+        <v>employee_manager_assessment.create</v>
+      </c>
+      <c r="B114" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Quyền tạo mới một ManagerAssessment</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F114" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="str">
+        <v>employee_manager_assessment.destroy</v>
+      </c>
+      <c r="B115" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Quyền xóa ManagerAssessment</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F115" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="str">
+        <v>employee_manager_assessment.list</v>
+      </c>
+      <c r="B116" t="str">
+        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Xem danh sách ManagerAssessments</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F116" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="str">
+        <v>employee_manager_assessment.partial_update</v>
+      </c>
+      <c r="B117" t="str">
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Quyền cập nhật một phần ManagerAssessment</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Manager Assessment</v>
+      </c>
+      <c r="F117" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="str">
         <v>employee_manager_assessment.update</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B118" t="str">
         <v>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C118" t="str">
         <v>Quyền cập nhật ManagerAssessment</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D118" t="str">
         <v>Payroll</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E118" t="str">
         <v>Manager Assessment</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F118" t="str">
         <v>S_TRUONGPHONG</v>
       </c>
     </row>
@@ -31678,8 +32191,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -32127,7 +32640,9 @@
       <c r="E22" t="s">
         <v>245</v>
       </c>
-      <c r="F22"/>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -32145,7 +32660,9 @@
       <c r="E23" t="s">
         <v>245</v>
       </c>
-      <c r="F23"/>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46817,7 +47334,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260" tabRatio="894" firstSheet="15" activeTab="19"/>
+    <workbookView windowHeight="16260" tabRatio="894" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1885">
   <si>
     <t>code</t>
   </si>
@@ -4211,9 +4211,6 @@
     <t>Quyền tạo mới một Quyết Định</t>
   </si>
   <si>
-    <t>S_NHANVIEN_CHUNG</t>
-  </si>
-  <si>
     <t>decision.destroy</t>
   </si>
   <si>
@@ -4266,6 +4263,18 @@
   </si>
   <si>
     <t>Quyền cập nhật Quyết Định</t>
+  </si>
+  <si>
+    <t>hrm.dashboard.common.realtime</t>
+  </si>
+  <si>
+    <t>[HCNS] [HRM Dashboard] View Common HRM realtime dashboard</t>
+  </si>
+  <si>
+    <t>View HRM stats for handling proposals, attendance, and penalties</t>
+  </si>
+  <si>
+    <t>HRM Dashboard</t>
   </si>
   <si>
     <t>proposal.mine</t>
@@ -7095,8 +7104,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="S_HRM_CHUNG" displayName="S_HRM_CHUNG" ref="A1:F36" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F36" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="S_HRM_CHUNG" displayName="S_HRM_CHUNG" ref="A1:F37" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F37" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="54"/>
     <tableColumn id="2" name="Tên" dataDxfId="55"/>
@@ -8095,10 +8104,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -8667,18 +8676,18 @@
         <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B29" t="s">
         <v>1375</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1376</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1377</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -8687,18 +8696,18 @@
         <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B30" t="s">
         <v>1378</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1379</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1380</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -8707,18 +8716,18 @@
         <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B31" t="s">
         <v>1381</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1382</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1383</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -8727,18 +8736,18 @@
         <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B32" t="s">
         <v>1384</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>1385</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1386</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -8747,7 +8756,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8767,18 +8776,18 @@
         <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B34" t="s">
         <v>1387</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>1388</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1389</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -8787,7 +8796,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8807,18 +8816,18 @@
         <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>1374</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B36" t="s">
         <v>1390</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>1391</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1392</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -8827,7 +8836,27 @@
         <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>1374</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8881,13 +8910,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
@@ -8896,7 +8925,7 @@
         <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8916,7 +8945,7 @@
         <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8936,7 +8965,7 @@
         <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8956,7 +8985,7 @@
         <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8976,7 +9005,7 @@
         <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8996,7 +9025,7 @@
         <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9016,7 +9045,7 @@
         <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9036,7 +9065,7 @@
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9056,18 +9085,18 @@
         <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B11" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C11" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -9076,18 +9105,18 @@
         <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B12" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C12" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -9096,18 +9125,18 @@
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="B13" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C13" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
@@ -9116,18 +9145,18 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="B14" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="C14" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="D14" t="s">
         <v>145</v>
@@ -9136,18 +9165,18 @@
         <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B15" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C15" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -9156,18 +9185,18 @@
         <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="B16" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="C16" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
@@ -9176,18 +9205,18 @@
         <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="B17" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C17" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
@@ -9196,18 +9225,18 @@
         <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="B18" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="C18" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
@@ -9216,18 +9245,18 @@
         <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B19" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C19" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
@@ -9236,7 +9265,7 @@
         <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9256,18 +9285,18 @@
         <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B21" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="C21" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -9276,18 +9305,18 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B22" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="C22" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -9296,18 +9325,18 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="B23" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="C23" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -9316,18 +9345,18 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B24" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C24" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -9336,18 +9365,18 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B25" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="C25" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -9356,18 +9385,18 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B26" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C26" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -9376,18 +9405,18 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B27" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C27" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -9396,18 +9425,18 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B28" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C28" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -9416,27 +9445,27 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B29" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C29" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F29" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9456,187 +9485,187 @@
         <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C31" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F31" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B32" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C32" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F32" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B33" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C33" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F33" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B34" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C34" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F34" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B35" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="C35" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F35" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B36" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="C36" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F36" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B37" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C37" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F37" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B38" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C38" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B39" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C39" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="F39" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -9689,13 +9718,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="C2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -9704,18 +9733,18 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="C3" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -9724,18 +9753,18 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="B4" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="C4" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -9744,18 +9773,18 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B5" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C5" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -9764,18 +9793,18 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B6" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="C6" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -9784,18 +9813,18 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B7" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C7" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -9804,18 +9833,18 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B8" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C8" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -9824,18 +9853,18 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B9" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C9" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -9844,18 +9873,18 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B10" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="C10" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -9864,18 +9893,18 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="B11" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="C11" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -9884,18 +9913,18 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="B12" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="C12" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -9904,18 +9933,18 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B13" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C13" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -9924,18 +9953,18 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B14" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="C14" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -9944,18 +9973,18 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B15" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="C15" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -9964,198 +9993,198 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="B16" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="C16" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F16" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B17" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="C17" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F17" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="B18" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="C18" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F18" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B19" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="C19" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F19" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B20" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C20" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F20" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B21" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="C21" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F21" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B22" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="C22" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F22" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B23" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C23" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F23" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="B24" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C24" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="F24" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B25" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="C25" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -10164,18 +10193,18 @@
         <v>1048</v>
       </c>
       <c r="F25" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="B26" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="C26" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -10184,12 +10213,12 @@
         <v>1048</v>
       </c>
       <c r="F26" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B27" t="s">
         <v>1046</v>
@@ -10204,12 +10233,12 @@
         <v>1048</v>
       </c>
       <c r="F27" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="B28" t="s">
         <v>1050</v>
@@ -10224,18 +10253,18 @@
         <v>1048</v>
       </c>
       <c r="F28" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B29" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="C29" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -10244,18 +10273,18 @@
         <v>1048</v>
       </c>
       <c r="F29" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="B30" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="C30" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -10264,18 +10293,18 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B31" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="C31" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -10284,18 +10313,18 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B32" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="C32" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -10304,18 +10333,18 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B33" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="C33" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -10324,18 +10353,18 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="B34" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="C34" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -10344,18 +10373,18 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B35" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="C35" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -10364,18 +10393,18 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B36" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C36" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -10384,18 +10413,18 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B37" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="C37" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -10455,13 +10484,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B2" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="C2" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
@@ -10470,18 +10499,18 @@
         <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B3" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="C3" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
@@ -10490,18 +10519,18 @@
         <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B4" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="C4" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -10510,18 +10539,18 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B5" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="C5" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -10530,18 +10559,18 @@
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B6" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="C6" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -10550,18 +10579,18 @@
         <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="B7" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="C7" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D7" t="s">
         <v>145</v>
@@ -10570,18 +10599,18 @@
         <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B8" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="C8" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
@@ -10590,23 +10619,23 @@
         <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B10" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C10" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D10" t="s">
         <v>145</v>
@@ -10615,18 +10644,18 @@
         <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="B11" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="C11" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -10635,18 +10664,18 @@
         <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="B12" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="C12" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -10655,18 +10684,18 @@
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B13" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C13" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
@@ -10675,18 +10704,18 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B14" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C14" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D14" t="s">
         <v>145</v>
@@ -10695,18 +10724,18 @@
         <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B15" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C15" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -10715,18 +10744,18 @@
         <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B16" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="C16" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
@@ -10735,18 +10764,18 @@
         <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B17" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="C17" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
@@ -10755,18 +10784,18 @@
         <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B18" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="C18" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
@@ -10775,18 +10804,18 @@
         <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B19" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C19" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
@@ -10795,23 +10824,23 @@
         <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B21" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="C21" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="D21" t="s">
         <v>145</v>
@@ -10820,18 +10849,18 @@
         <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B22" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="C22" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
@@ -10840,18 +10869,18 @@
         <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B23" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="C23" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -10860,18 +10889,18 @@
         <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="B24" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="C24" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -10880,18 +10909,18 @@
         <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B25" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C25" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -10900,18 +10929,18 @@
         <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B26" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C26" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -10920,18 +10949,18 @@
         <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B27" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="C27" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -10940,18 +10969,18 @@
         <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B28" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="C28" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
@@ -10960,18 +10989,18 @@
         <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B29" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="C29" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -10980,18 +11009,18 @@
         <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B30" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="C30" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -11000,23 +11029,23 @@
         <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="B32" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="C32" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
@@ -11025,18 +11054,18 @@
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B33" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C33" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="D33" t="s">
         <v>145</v>
@@ -11045,18 +11074,18 @@
         <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B34" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="C34" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="D34" t="s">
         <v>145</v>
@@ -11065,18 +11094,18 @@
         <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="B35" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C35" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="D35" t="s">
         <v>145</v>
@@ -11085,18 +11114,18 @@
         <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B36" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="C36" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
@@ -11105,18 +11134,18 @@
         <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="B37" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C37" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -11125,18 +11154,18 @@
         <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B38" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C38" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D38" t="s">
         <v>145</v>
@@ -11145,18 +11174,18 @@
         <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B39" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C39" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -11165,18 +11194,18 @@
         <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="B40" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C40" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="D40" t="s">
         <v>145</v>
@@ -11185,18 +11214,18 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="B41" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C41" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
@@ -11205,23 +11234,23 @@
         <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B43" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C43" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
@@ -11230,18 +11259,18 @@
         <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B44" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C44" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="D44" t="s">
         <v>145</v>
@@ -11250,18 +11279,18 @@
         <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B45" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C45" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -11270,18 +11299,18 @@
         <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B46" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C46" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -11290,18 +11319,18 @@
         <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B47" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C47" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
@@ -11310,18 +11339,18 @@
         <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="B48" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="C48" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
@@ -11330,18 +11359,18 @@
         <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B49" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="D49" t="s">
         <v>145</v>
@@ -11350,18 +11379,18 @@
         <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="B50" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C50" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
@@ -11370,18 +11399,18 @@
         <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B51" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C51" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -11390,18 +11419,18 @@
         <v>170</v>
       </c>
       <c r="F51" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B52" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C52" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -11410,23 +11439,23 @@
         <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="B54" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C54" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="D54" t="s">
         <v>145</v>
@@ -11435,18 +11464,18 @@
         <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="B55" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C55" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D55" t="s">
         <v>145</v>
@@ -11455,18 +11484,18 @@
         <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B56" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C56" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="D56" t="s">
         <v>145</v>
@@ -11475,18 +11504,18 @@
         <v>170</v>
       </c>
       <c r="F56" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B57" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C57" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
@@ -11495,18 +11524,18 @@
         <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B58" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C58" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -11515,18 +11544,18 @@
         <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="B59" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C59" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="D59" t="s">
         <v>145</v>
@@ -11535,18 +11564,18 @@
         <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B60" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C60" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -11555,18 +11584,18 @@
         <v>170</v>
       </c>
       <c r="F60" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="B61" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C61" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -11575,18 +11604,18 @@
         <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="B62" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C62" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="D62" t="s">
         <v>145</v>
@@ -11595,18 +11624,18 @@
         <v>170</v>
       </c>
       <c r="F62" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B63" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C63" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="D63" t="s">
         <v>145</v>
@@ -11615,23 +11644,23 @@
         <v>170</v>
       </c>
       <c r="F63" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B65" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C65" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="D65" t="s">
         <v>145</v>
@@ -11640,18 +11669,18 @@
         <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B66" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C66" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="D66" t="s">
         <v>145</v>
@@ -11660,18 +11689,18 @@
         <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B67" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C67" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="D67" t="s">
         <v>145</v>
@@ -11680,18 +11709,18 @@
         <v>170</v>
       </c>
       <c r="F67" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B68" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C68" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="D68" t="s">
         <v>145</v>
@@ -11700,18 +11729,18 @@
         <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B69" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C69" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="D69" t="s">
         <v>145</v>
@@ -11720,18 +11749,18 @@
         <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B70" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="C70" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
@@ -11740,18 +11769,18 @@
         <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B71" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="C71" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="D71" t="s">
         <v>145</v>
@@ -11760,18 +11789,18 @@
         <v>170</v>
       </c>
       <c r="F71" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B72" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="C72" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="D72" t="s">
         <v>145</v>
@@ -11780,18 +11809,18 @@
         <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B73" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="C73" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="D73" t="s">
         <v>145</v>
@@ -11800,18 +11829,18 @@
         <v>170</v>
       </c>
       <c r="F73" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B74" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="C74" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="D74" t="s">
         <v>145</v>
@@ -11820,23 +11849,23 @@
         <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B76" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="C76" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="D76" t="s">
         <v>145</v>
@@ -11845,18 +11874,18 @@
         <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B77" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="C77" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="D77" t="s">
         <v>145</v>
@@ -11865,18 +11894,18 @@
         <v>170</v>
       </c>
       <c r="F77" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="B78" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="C78" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D78" t="s">
         <v>145</v>
@@ -11885,18 +11914,18 @@
         <v>170</v>
       </c>
       <c r="F78" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B79" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C79" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="D79" t="s">
         <v>145</v>
@@ -11905,18 +11934,18 @@
         <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B80" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="C80" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="D80" t="s">
         <v>145</v>
@@ -11925,18 +11954,18 @@
         <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B81" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C81" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D81" t="s">
         <v>145</v>
@@ -11945,18 +11974,18 @@
         <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B82" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="C82" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="D82" t="s">
         <v>145</v>
@@ -11965,18 +11994,18 @@
         <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B83" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="C83" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="D83" t="s">
         <v>145</v>
@@ -11985,18 +12014,18 @@
         <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B84" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="C84" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D84" t="s">
         <v>145</v>
@@ -12005,18 +12034,18 @@
         <v>170</v>
       </c>
       <c r="F84" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="B85" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="C85" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="D85" t="s">
         <v>145</v>
@@ -12025,18 +12054,18 @@
         <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="B86" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="C86" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="D86" t="s">
         <v>145</v>
@@ -12045,18 +12074,18 @@
         <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="B87" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="C87" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="D87" t="s">
         <v>145</v>
@@ -12065,18 +12094,18 @@
         <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="B88" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="C88" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="D88" t="s">
         <v>145</v>
@@ -12085,18 +12114,18 @@
         <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="B89" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="C89" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="D89" t="s">
         <v>145</v>
@@ -12105,18 +12134,18 @@
         <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B90" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C90" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
@@ -12125,18 +12154,18 @@
         <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="B91" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="C91" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
@@ -12145,18 +12174,18 @@
         <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="B92" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="C92" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="D92" t="s">
         <v>145</v>
@@ -12165,18 +12194,18 @@
         <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B93" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="C93" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="D93" t="s">
         <v>145</v>
@@ -12185,18 +12214,18 @@
         <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="B94" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="C94" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="D94" t="s">
         <v>145</v>
@@ -12205,18 +12234,18 @@
         <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="B95" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="C95" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D95" t="s">
         <v>145</v>
@@ -12225,18 +12254,18 @@
         <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="B96" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="C96" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D96" t="s">
         <v>145</v>
@@ -12245,18 +12274,18 @@
         <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="B97" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="C97" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D97" t="s">
         <v>145</v>
@@ -12265,18 +12294,18 @@
         <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="B98" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="C98" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="D98" t="s">
         <v>145</v>
@@ -12285,18 +12314,18 @@
         <v>170</v>
       </c>
       <c r="F98" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="B99" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="C99" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="D99" t="s">
         <v>145</v>
@@ -12305,18 +12334,18 @@
         <v>170</v>
       </c>
       <c r="F99" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B100" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="C100" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="D100" t="s">
         <v>145</v>
@@ -12325,18 +12354,18 @@
         <v>170</v>
       </c>
       <c r="F100" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="B101" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="C101" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="D101" t="s">
         <v>145</v>
@@ -12345,18 +12374,18 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="B102" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="C102" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D102" t="s">
         <v>145</v>
@@ -12365,18 +12394,18 @@
         <v>170</v>
       </c>
       <c r="F102" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="B103" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="C103" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="D103" t="s">
         <v>145</v>
@@ -12385,18 +12414,18 @@
         <v>170</v>
       </c>
       <c r="F103" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B104" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C104" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -12405,18 +12434,18 @@
         <v>170</v>
       </c>
       <c r="F104" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="B105" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="C105" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D105" t="s">
         <v>145</v>
@@ -12425,18 +12454,18 @@
         <v>170</v>
       </c>
       <c r="F105" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="B106" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="C106" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="D106" t="s">
         <v>145</v>
@@ -12445,18 +12474,18 @@
         <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="B107" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="C107" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="D107" t="s">
         <v>145</v>
@@ -12465,18 +12494,18 @@
         <v>170</v>
       </c>
       <c r="F107" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="B108" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="C108" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="D108" t="s">
         <v>145</v>
@@ -12485,18 +12514,18 @@
         <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="B109" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="C109" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="D109" t="s">
         <v>145</v>
@@ -12505,18 +12534,18 @@
         <v>170</v>
       </c>
       <c r="F109" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="B110" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="C110" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D110" t="s">
         <v>145</v>
@@ -12525,18 +12554,18 @@
         <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="B111" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="C111" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="D111" t="s">
         <v>145</v>
@@ -12545,18 +12574,18 @@
         <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="B112" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="C112" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="D112" t="s">
         <v>145</v>
@@ -12565,18 +12594,18 @@
         <v>170</v>
       </c>
       <c r="F112" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="B113" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="C113" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="D113" t="s">
         <v>145</v>
@@ -12585,18 +12614,18 @@
         <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="B114" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="C114" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="D114" t="s">
         <v>145</v>
@@ -12605,7 +12634,7 @@
         <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -13460,7 +13489,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
     </row>
   </sheetData>
@@ -14445,7 +14474,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F54" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -14465,7 +14494,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F55" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -14485,7 +14514,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F56" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -14505,7 +14534,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F57" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -14525,7 +14554,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F58" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -14545,7 +14574,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F59" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -14565,7 +14594,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F60" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -14585,7 +14614,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F61" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14605,7 +14634,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F62" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
   </sheetData>
@@ -15986,7 +16015,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F77" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -16006,7 +16035,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F78" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -16026,7 +16055,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F79" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -16046,7 +16075,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F80" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16066,7 +16095,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F81" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -16086,7 +16115,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F82" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -16106,7 +16135,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F83" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -16126,7 +16155,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F84" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -16146,7 +16175,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F85" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -19468,7 +19497,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F79" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -19488,7 +19517,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F80" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -19508,7 +19537,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F81" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -19528,7 +19557,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F82" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -19548,7 +19577,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F83" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -19568,7 +19597,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F84" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -19588,7 +19617,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F85" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -19608,7 +19637,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F86" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -19628,7 +19657,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F87" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -26618,7 +26647,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F343" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -26638,7 +26667,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F344" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -26658,7 +26687,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F345" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -26678,7 +26707,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F346" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -26698,7 +26727,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F347" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -26718,7 +26747,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F348" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -26738,7 +26767,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F349" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -26758,7 +26787,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F350" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -26778,7 +26807,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F351" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -32019,7 +32048,7 @@
   <sheetPr/>
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+    <sheetView topLeftCell="A345" workbookViewId="0">
       <selection activeCell="A528" sqref="A528:F530"/>
     </sheetView>
   </sheetViews>
@@ -33390,7 +33419,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F73" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -33410,7 +33439,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F74" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -33430,7 +33459,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F75" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -33450,7 +33479,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F76" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -33470,7 +33499,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F77" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -33490,7 +33519,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F78" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -33510,7 +33539,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F79" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -33530,7 +33559,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F80" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -33550,7 +33579,7 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F81" t="str">
-        <v>S_NHANVIEN_CHUNG</v>
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -41762,19 +41791,19 @@
     </row>
     <row r="528" spans="1:6">
       <c r="A528" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B528" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="C528" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="D528" t="s">
         <v>118</v>
       </c>
       <c r="E528" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F528" t="s">
         <v>59</v>
@@ -41782,19 +41811,19 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="B529" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="C529" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="D529" t="s">
         <v>118</v>
       </c>
       <c r="E529" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F529" t="s">
         <v>59</v>
@@ -41802,19 +41831,19 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B530" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="C530" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="D530" t="s">
         <v>118</v>
       </c>
       <c r="E530" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F530" t="s">
         <v>59</v>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260" tabRatio="894" firstSheet="2" activeTab="9"/>
+    <workbookView windowHeight="16260" tabRatio="894" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1889">
   <si>
     <t>code</t>
   </si>
@@ -4506,6 +4506,18 @@
   </si>
   <si>
     <t>Quyền cập nhật ManagerAssessment</t>
+  </si>
+  <si>
+    <t>hrm.dashboard.manager.realtime</t>
+  </si>
+  <si>
+    <t>[HCNS] [Manager Dashboard] Xem thống kê các vấn đề HCNS cần xử lý</t>
+  </si>
+  <si>
+    <t>Xem thống kê các đề xuất cần xác nhận và đánh giá KPI</t>
+  </si>
+  <si>
+    <t>Manager Dashboard</t>
   </si>
   <si>
     <t>employee_kpi_assessment.create</t>
@@ -7119,8 +7131,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="S_TRUONGPHONG" displayName="S_TRUONGPHONG" ref="A1:F39" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F39" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="S_TRUONGPHONG" displayName="S_TRUONGPHONG" ref="A1:F40" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F40" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="60"/>
     <tableColumn id="2" name="Tên" dataDxfId="61"/>
@@ -8106,7 +8118,7 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -8872,10 +8884,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -9665,6 +9677,26 @@
         <v>1454</v>
       </c>
       <c r="F39" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F40" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9718,13 +9750,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="B2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="C2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -9733,18 +9765,18 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="C3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -9753,7 +9785,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9773,7 +9805,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9793,7 +9825,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9813,7 +9845,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9833,7 +9865,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9853,7 +9885,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9873,18 +9905,18 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="B10" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="C10" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -9893,18 +9925,18 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="B11" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="C11" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -9913,18 +9945,18 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="B12" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="C12" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -9933,18 +9965,18 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="B13" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="C13" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -9953,7 +9985,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9973,7 +10005,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9993,198 +10025,198 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="B16" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="C16" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F16" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="B17" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C17" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F17" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="B18" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="C18" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F18" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="B19" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="C19" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F19" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B20" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="C20" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F20" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="B21" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="C21" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F21" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="B22" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="C22" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F22" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="B23" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="C23" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F23" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="B24" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="C24" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F24" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="B25" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="C25" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -10193,18 +10225,18 @@
         <v>1048</v>
       </c>
       <c r="F25" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="B26" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="C26" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -10213,12 +10245,12 @@
         <v>1048</v>
       </c>
       <c r="F26" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="B27" t="s">
         <v>1046</v>
@@ -10233,12 +10265,12 @@
         <v>1048</v>
       </c>
       <c r="F27" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="B28" t="s">
         <v>1050</v>
@@ -10253,18 +10285,18 @@
         <v>1048</v>
       </c>
       <c r="F28" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="B29" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="C29" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -10273,18 +10305,18 @@
         <v>1048</v>
       </c>
       <c r="F29" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="B30" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="C30" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -10293,18 +10325,18 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="B31" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="C31" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -10313,18 +10345,18 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="B32" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="C32" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -10333,18 +10365,18 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="B33" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="C33" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -10353,18 +10385,18 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B34" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="C34" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -10373,18 +10405,18 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="B35" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="C35" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -10393,18 +10425,18 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="B36" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="C36" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -10413,18 +10445,18 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="B37" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="C37" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -10484,13 +10516,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="B2" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="C2" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
@@ -10499,18 +10531,18 @@
         <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="B3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="C3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
@@ -10519,18 +10551,18 @@
         <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B4" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="C4" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -10539,18 +10571,18 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="B5" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="C5" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -10559,18 +10591,18 @@
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="B6" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="C6" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -10579,18 +10611,18 @@
         <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="B7" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="C7" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="D7" t="s">
         <v>145</v>
@@ -10599,18 +10631,18 @@
         <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="B8" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="C8" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
@@ -10619,23 +10651,23 @@
         <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="B10" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="C10" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="D10" t="s">
         <v>145</v>
@@ -10644,18 +10676,18 @@
         <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="B11" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="C11" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -10664,18 +10696,18 @@
         <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="B12" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C12" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -10684,18 +10716,18 @@
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="B13" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="C13" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
@@ -10704,18 +10736,18 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="B14" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="C14" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="D14" t="s">
         <v>145</v>
@@ -10724,18 +10756,18 @@
         <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="B15" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="C15" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -10744,18 +10776,18 @@
         <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="B16" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="C16" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
@@ -10764,18 +10796,18 @@
         <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="B17" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="C17" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
@@ -10784,18 +10816,18 @@
         <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="B18" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="C18" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
@@ -10804,18 +10836,18 @@
         <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="B19" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="C19" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
@@ -10824,23 +10856,23 @@
         <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="B21" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="C21" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="D21" t="s">
         <v>145</v>
@@ -10849,18 +10881,18 @@
         <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="B22" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="C22" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
@@ -10869,18 +10901,18 @@
         <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="B23" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="C23" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -10889,18 +10921,18 @@
         <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="B24" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="C24" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -10909,18 +10941,18 @@
         <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="C25" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -10929,18 +10961,18 @@
         <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="B26" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="C26" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -10949,18 +10981,18 @@
         <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B27" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="C27" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -10969,18 +11001,18 @@
         <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="B28" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="C28" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
@@ -10989,18 +11021,18 @@
         <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="B29" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="C29" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -11009,18 +11041,18 @@
         <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="B30" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="C30" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -11029,23 +11061,23 @@
         <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="B32" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="C32" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
@@ -11054,18 +11086,18 @@
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="B33" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="C33" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="D33" t="s">
         <v>145</v>
@@ -11074,18 +11106,18 @@
         <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B34" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C34" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D34" t="s">
         <v>145</v>
@@ -11094,18 +11126,18 @@
         <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="B35" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="C35" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="D35" t="s">
         <v>145</v>
@@ -11114,18 +11146,18 @@
         <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B36" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C36" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
@@ -11134,18 +11166,18 @@
         <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="B37" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="C37" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -11154,18 +11186,18 @@
         <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B38" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C38" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="D38" t="s">
         <v>145</v>
@@ -11174,18 +11206,18 @@
         <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B39" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="C39" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -11194,18 +11226,18 @@
         <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="B40" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C40" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="D40" t="s">
         <v>145</v>
@@ -11214,18 +11246,18 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B41" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="C41" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
@@ -11234,23 +11266,23 @@
         <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="B43" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="C43" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
@@ -11259,18 +11291,18 @@
         <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="B44" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="C44" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="D44" t="s">
         <v>145</v>
@@ -11279,18 +11311,18 @@
         <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="B45" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="C45" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -11299,18 +11331,18 @@
         <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="B46" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="C46" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -11319,18 +11351,18 @@
         <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="B47" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="C47" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
@@ -11339,18 +11371,18 @@
         <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="B48" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="C48" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
@@ -11359,18 +11391,18 @@
         <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="B49" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="C49" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="D49" t="s">
         <v>145</v>
@@ -11379,18 +11411,18 @@
         <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="B50" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="C50" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
@@ -11399,18 +11431,18 @@
         <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="B51" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="C51" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -11419,18 +11451,18 @@
         <v>170</v>
       </c>
       <c r="F51" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="B52" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="C52" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -11439,23 +11471,23 @@
         <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="B54" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="C54" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D54" t="s">
         <v>145</v>
@@ -11464,18 +11496,18 @@
         <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="B55" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="C55" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="D55" t="s">
         <v>145</v>
@@ -11484,18 +11516,18 @@
         <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="B56" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="C56" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="D56" t="s">
         <v>145</v>
@@ -11504,18 +11536,18 @@
         <v>170</v>
       </c>
       <c r="F56" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="B57" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="C57" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
@@ -11524,18 +11556,18 @@
         <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="C58" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -11544,18 +11576,18 @@
         <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="B59" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="C59" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="D59" t="s">
         <v>145</v>
@@ -11564,18 +11596,18 @@
         <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="B60" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="C60" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -11584,18 +11616,18 @@
         <v>170</v>
       </c>
       <c r="F60" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B61" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="C61" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -11604,18 +11636,18 @@
         <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="B62" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C62" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="D62" t="s">
         <v>145</v>
@@ -11624,18 +11656,18 @@
         <v>170</v>
       </c>
       <c r="F62" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="B63" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="C63" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="D63" t="s">
         <v>145</v>
@@ -11644,23 +11676,23 @@
         <v>170</v>
       </c>
       <c r="F63" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B65" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="C65" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="D65" t="s">
         <v>145</v>
@@ -11669,18 +11701,18 @@
         <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="B66" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="C66" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="D66" t="s">
         <v>145</v>
@@ -11689,18 +11721,18 @@
         <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="B67" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="C67" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="D67" t="s">
         <v>145</v>
@@ -11709,18 +11741,18 @@
         <v>170</v>
       </c>
       <c r="F67" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="B68" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="C68" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="D68" t="s">
         <v>145</v>
@@ -11729,18 +11761,18 @@
         <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="B69" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C69" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D69" t="s">
         <v>145</v>
@@ -11749,18 +11781,18 @@
         <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="B70" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="C70" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
@@ -11769,18 +11801,18 @@
         <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="B71" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C71" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="D71" t="s">
         <v>145</v>
@@ -11789,18 +11821,18 @@
         <v>170</v>
       </c>
       <c r="F71" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="B72" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="C72" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="D72" t="s">
         <v>145</v>
@@ -11809,18 +11841,18 @@
         <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B73" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C73" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="D73" t="s">
         <v>145</v>
@@ -11829,18 +11861,18 @@
         <v>170</v>
       </c>
       <c r="F73" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="B74" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="C74" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="D74" t="s">
         <v>145</v>
@@ -11849,23 +11881,23 @@
         <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="B76" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="C76" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="D76" t="s">
         <v>145</v>
@@ -11874,18 +11906,18 @@
         <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="B77" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="C77" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="D77" t="s">
         <v>145</v>
@@ -11894,18 +11926,18 @@
         <v>170</v>
       </c>
       <c r="F77" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="B78" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="C78" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="D78" t="s">
         <v>145</v>
@@ -11914,18 +11946,18 @@
         <v>170</v>
       </c>
       <c r="F78" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B79" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="C79" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="D79" t="s">
         <v>145</v>
@@ -11934,18 +11966,18 @@
         <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="B80" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="C80" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="D80" t="s">
         <v>145</v>
@@ -11954,18 +11986,18 @@
         <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B81" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="C81" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="D81" t="s">
         <v>145</v>
@@ -11974,18 +12006,18 @@
         <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B82" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C82" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="D82" t="s">
         <v>145</v>
@@ -11994,18 +12026,18 @@
         <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="B83" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C83" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="D83" t="s">
         <v>145</v>
@@ -12014,18 +12046,18 @@
         <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="B84" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="C84" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="D84" t="s">
         <v>145</v>
@@ -12034,18 +12066,18 @@
         <v>170</v>
       </c>
       <c r="F84" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="B85" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="C85" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="D85" t="s">
         <v>145</v>
@@ -12054,18 +12086,18 @@
         <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="B86" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="C86" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="D86" t="s">
         <v>145</v>
@@ -12074,18 +12106,18 @@
         <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="B87" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="C87" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="D87" t="s">
         <v>145</v>
@@ -12094,18 +12126,18 @@
         <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="B88" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="C88" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="D88" t="s">
         <v>145</v>
@@ -12114,18 +12146,18 @@
         <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="B89" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="C89" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="D89" t="s">
         <v>145</v>
@@ -12134,18 +12166,18 @@
         <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="B90" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="C90" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
@@ -12154,18 +12186,18 @@
         <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="B91" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="C91" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
@@ -12174,18 +12206,18 @@
         <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="B92" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="C92" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="D92" t="s">
         <v>145</v>
@@ -12194,18 +12226,18 @@
         <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="B93" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="C93" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="D93" t="s">
         <v>145</v>
@@ -12214,18 +12246,18 @@
         <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="B94" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="C94" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="D94" t="s">
         <v>145</v>
@@ -12234,18 +12266,18 @@
         <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="B95" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="C95" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="D95" t="s">
         <v>145</v>
@@ -12254,18 +12286,18 @@
         <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="B96" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="C96" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="D96" t="s">
         <v>145</v>
@@ -12274,18 +12306,18 @@
         <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="B97" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="C97" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="D97" t="s">
         <v>145</v>
@@ -12294,18 +12326,18 @@
         <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="B98" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="C98" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="D98" t="s">
         <v>145</v>
@@ -12314,18 +12346,18 @@
         <v>170</v>
       </c>
       <c r="F98" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="B99" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="C99" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="D99" t="s">
         <v>145</v>
@@ -12334,18 +12366,18 @@
         <v>170</v>
       </c>
       <c r="F99" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="B100" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="C100" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="D100" t="s">
         <v>145</v>
@@ -12354,18 +12386,18 @@
         <v>170</v>
       </c>
       <c r="F100" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="B101" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="C101" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="D101" t="s">
         <v>145</v>
@@ -12374,18 +12406,18 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="B102" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="C102" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="D102" t="s">
         <v>145</v>
@@ -12394,18 +12426,18 @@
         <v>170</v>
       </c>
       <c r="F102" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="B103" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="C103" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="D103" t="s">
         <v>145</v>
@@ -12414,18 +12446,18 @@
         <v>170</v>
       </c>
       <c r="F103" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="B104" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="C104" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -12434,18 +12466,18 @@
         <v>170</v>
       </c>
       <c r="F104" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="B105" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="C105" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="D105" t="s">
         <v>145</v>
@@ -12454,18 +12486,18 @@
         <v>170</v>
       </c>
       <c r="F105" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="B106" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="C106" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="D106" t="s">
         <v>145</v>
@@ -12474,18 +12506,18 @@
         <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="B107" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="C107" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="D107" t="s">
         <v>145</v>
@@ -12494,18 +12526,18 @@
         <v>170</v>
       </c>
       <c r="F107" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="B108" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="C108" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="D108" t="s">
         <v>145</v>
@@ -12514,18 +12546,18 @@
         <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="B109" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="C109" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="D109" t="s">
         <v>145</v>
@@ -12534,18 +12566,18 @@
         <v>170</v>
       </c>
       <c r="F109" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="B110" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="C110" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="D110" t="s">
         <v>145</v>
@@ -12554,18 +12586,18 @@
         <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="B111" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="C111" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="D111" t="s">
         <v>145</v>
@@ -12574,18 +12606,18 @@
         <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="B112" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="C112" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="D112" t="s">
         <v>145</v>
@@ -12594,18 +12626,18 @@
         <v>170</v>
       </c>
       <c r="F112" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="B113" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="C113" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="D113" t="s">
         <v>145</v>
@@ -12614,18 +12646,18 @@
         <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="B114" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="C114" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="D114" t="s">
         <v>145</v>
@@ -12634,7 +12666,7 @@
         <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -13489,7 +13521,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
     </row>
   </sheetData>
@@ -41791,19 +41823,19 @@
     </row>
     <row r="528" spans="1:6">
       <c r="A528" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="B528" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="C528" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="D528" t="s">
         <v>118</v>
       </c>
       <c r="E528" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="F528" t="s">
         <v>59</v>
@@ -41811,19 +41843,19 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="B529" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="C529" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="D529" t="s">
         <v>118</v>
       </c>
       <c r="E529" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="F529" t="s">
         <v>59</v>
@@ -41831,19 +41863,19 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="B530" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="C530" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="D530" t="s">
         <v>118</v>
       </c>
       <c r="E530" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="F530" t="s">
         <v>59</v>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260" tabRatio="894" activeTab="8"/>
+    <workbookView windowHeight="15300" tabRatio="894" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -6142,49 +6142,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6422,7 +6385,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -6434,34 +6397,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
@@ -6546,7 +6509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6566,49 +6529,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7132,7 +7086,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="S_NV_CHUNG" displayName="S_NV_CHUNG" ref="A1:F107" totalsRowShown="0">
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F107" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A2:F107">
+  <sortState ref="A1:F107">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="6">
@@ -7546,121 +7500,121 @@
       </c>
     </row>
     <row r="2" ht="17" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9017,7 +8971,6 @@
     <row r="10" spans="1:5">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
@@ -9104,7 +9057,6 @@
     <row r="15" spans="1:5">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
@@ -9151,7 +9103,6 @@
     <row r="18" spans="1:5">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
@@ -9183,7 +9134,6 @@
     <row r="21" spans="1:5">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
@@ -9270,7 +9220,6 @@
     <row r="26" spans="1:5">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
@@ -9317,7 +9266,6 @@
     <row r="29" spans="1:5">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
@@ -9349,7 +9297,6 @@
     <row r="32" spans="1:5">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
@@ -9436,7 +9383,6 @@
     <row r="37" spans="1:5">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
     </row>
@@ -9483,7 +9429,6 @@
     <row r="40" spans="1:5">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
     </row>
@@ -9515,7 +9460,6 @@
     <row r="43" spans="1:5">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
@@ -9602,7 +9546,6 @@
     <row r="48" spans="1:5">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
     </row>
@@ -9649,7 +9592,6 @@
     <row r="51" spans="1:5">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
     </row>
@@ -9681,7 +9623,6 @@
     <row r="54" spans="1:5">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
@@ -9768,7 +9709,6 @@
     <row r="59" spans="1:5">
       <c r="A59"/>
       <c r="B59"/>
-      <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
     </row>
@@ -9815,7 +9755,6 @@
     <row r="62" spans="1:5">
       <c r="A62"/>
       <c r="B62"/>
-      <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
     </row>
@@ -9847,7 +9786,6 @@
     <row r="65" spans="1:5">
       <c r="A65"/>
       <c r="B65"/>
-      <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
     </row>
@@ -9934,7 +9872,6 @@
     <row r="70" spans="1:5">
       <c r="A70"/>
       <c r="B70"/>
-      <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
     </row>
@@ -9981,7 +9918,6 @@
     <row r="73" spans="1:5">
       <c r="A73"/>
       <c r="B73"/>
-      <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
     </row>
@@ -10008,7 +9944,6 @@
     <row r="76" spans="1:5">
       <c r="A76"/>
       <c r="B76"/>
-      <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
     </row>
@@ -10095,7 +10030,6 @@
     <row r="81" spans="1:5">
       <c r="A81"/>
       <c r="B81"/>
-      <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
     </row>
@@ -10142,7 +10076,6 @@
     <row r="84" spans="1:5">
       <c r="A84"/>
       <c r="B84"/>
-      <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
     </row>
@@ -10169,7 +10102,6 @@
     <row r="86" spans="1:5">
       <c r="A86"/>
       <c r="B86"/>
-      <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
     </row>
@@ -10256,7 +10188,6 @@
     <row r="91" spans="1:5">
       <c r="A91"/>
       <c r="B91"/>
-      <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
@@ -10303,7 +10234,6 @@
     <row r="94" spans="1:5">
       <c r="A94"/>
       <c r="B94"/>
-      <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
     </row>
@@ -10330,7 +10260,6 @@
     <row r="96" spans="1:5">
       <c r="A96"/>
       <c r="B96"/>
-      <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
     </row>
@@ -10417,7 +10346,6 @@
     <row r="101" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
-      <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
@@ -10464,7 +10392,6 @@
     <row r="104" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
@@ -10491,7 +10418,6 @@
     <row r="106" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
@@ -10578,7 +10504,6 @@
     <row r="111" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
@@ -10625,7 +10550,6 @@
     <row r="114" spans="1:5">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
@@ -34467,10 +34391,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:F110"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -36631,56 +36555,26 @@
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="str">
-        <f t="array" ref="A110:F147">S_TRUONGPHONG[]</f>
+    <row r="110" spans="1:3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="str" cm="1">
+        <f t="array" ref="A112:F153">S_TRUONGPHONG[]</f>
         <v>recruitment_request.create</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B112" t="str">
         <v>[HCNS] [Tuyển dụng] Quyền tạo Phiếu yêu cầu tuyển dụng</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C112" t="str">
         <v>Quyền tạo mới một Phiếu yêu cầu tuyển dụng</v>
-      </c>
-      <c r="D110" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E110" t="str">
-        <v>Tuyển dụng</v>
-      </c>
-      <c r="F110" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="str">
-        <v>recruitment_request.destroy</v>
-      </c>
-      <c r="B111" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
-      </c>
-      <c r="C111" t="str">
-        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
-      </c>
-      <c r="D111" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E111" t="str">
-        <v>Tuyển dụng</v>
-      </c>
-      <c r="F111" t="str">
-        <v>S_TRUONGPHONG</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="str">
-        <v>recruitment_request.export_detail_document</v>
-      </c>
-      <c r="B112" t="str">
-        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
-      </c>
-      <c r="C112" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D112" t="str">
         <v>HCNS</v>
@@ -36694,13 +36588,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="str">
-        <v>recruitment_request.histories</v>
+        <v>recruitment_request.destroy</v>
       </c>
       <c r="B113" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C113" t="str">
-        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
+        <v>Quyền xóa Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D113" t="str">
         <v>HCNS</v>
@@ -36714,13 +36608,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="str">
-        <v>recruitment_request.history_detail</v>
+        <v>recruitment_request.export_detail_document</v>
       </c>
       <c r="B114" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Tuyển dụng] UNREGISTERED Export Detail Document Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C114" t="str">
-        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Export Detail Document a Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D114" t="str">
         <v>HCNS</v>
@@ -36734,13 +36628,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="str">
-        <v>recruitment_request.list</v>
+        <v>recruitment_request.histories</v>
       </c>
       <c r="B115" t="str">
-        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C115" t="str">
-        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
+        <v>Xem lịch sử Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D115" t="str">
         <v>HCNS</v>
@@ -36754,13 +36648,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="str">
-        <v>recruitment_request.partial_update</v>
+        <v>recruitment_request.history_detail</v>
       </c>
       <c r="B116" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C116" t="str">
-        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem chi tiết lịch sử của Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D116" t="str">
         <v>HCNS</v>
@@ -36774,13 +36668,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="str">
-        <v>recruitment_request.retrieve</v>
+        <v>recruitment_request.list</v>
       </c>
       <c r="B117" t="str">
-        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
+        <v>[HCNS] [Tuyển dụng] Danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
       </c>
       <c r="C117" t="str">
-        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem danh sách Phiếu Yêu Cầu Tuyển Dụng</v>
       </c>
       <c r="D117" t="str">
         <v>HCNS</v>
@@ -36794,19 +36688,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="str">
-        <v>proposal_verifier.histories</v>
+        <v>recruitment_request.partial_update</v>
       </c>
       <c r="B118" t="str">
-        <v>[HRM] [Đề xuất] Xem lịch sử Người xác minh</v>
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C118" t="str">
-        <v>Xem lịch sử Người xác minh</v>
+        <v>Quyền cập nhật một phần Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D118" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E118" t="str">
-        <v>Đề xuất</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F118" t="str">
         <v>S_TRUONGPHONG</v>
@@ -36814,19 +36708,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="str">
-        <v>proposal_verifier.history_detail</v>
+        <v>recruitment_request.retrieve</v>
       </c>
       <c r="B119" t="str">
-        <v>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</v>
+        <v>[HCNS] [Tuyển dụng] Xem Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C119" t="str">
-        <v>Xem chi tiết lịch sử của Người xác minh</v>
+        <v>Xem chi tiết của Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D119" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E119" t="str">
-        <v>Đề xuất</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F119" t="str">
         <v>S_TRUONGPHONG</v>
@@ -36834,13 +36728,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="str">
-        <v>proposal_verifier.mine</v>
+        <v>proposal_verifier.histories</v>
       </c>
       <c r="B120" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</v>
+        <v>[HRM] [Đề xuất] Xem lịch sử Người xác minh</v>
       </c>
       <c r="C120" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</v>
+        <v>Xem lịch sử Người xác minh</v>
       </c>
       <c r="D120" t="str">
         <v>HRM</v>
@@ -36854,13 +36748,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="str">
-        <v>proposal_verifier.reject</v>
+        <v>proposal_verifier.history_detail</v>
       </c>
       <c r="B121" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</v>
+        <v>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</v>
       </c>
       <c r="C121" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</v>
+        <v>Xem chi tiết lịch sử của Người xác minh</v>
       </c>
       <c r="D121" t="str">
         <v>HRM</v>
@@ -36874,13 +36768,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="str">
-        <v>proposal_verifier.retrieve</v>
+        <v>proposal_verifier.mine</v>
       </c>
       <c r="B122" t="str">
-        <v>[HRM] [Đề xuất] Xem Người xác minh</v>
+        <v>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</v>
       </c>
       <c r="C122" t="str">
-        <v>Xem chi tiết của Người xác minh</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</v>
       </c>
       <c r="D122" t="str">
         <v>HRM</v>
@@ -36894,13 +36788,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="str">
-        <v>proposal_verifier.verify</v>
+        <v>proposal_verifier.reject</v>
       </c>
       <c r="B123" t="str">
-        <v>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</v>
+        <v>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</v>
       </c>
       <c r="C123" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</v>
       </c>
       <c r="D123" t="str">
         <v>HRM</v>
@@ -36914,19 +36808,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="str">
-        <v>recruitment_request.update</v>
+        <v>proposal_verifier.retrieve</v>
       </c>
       <c r="B124" t="str">
-        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+        <v>[HRM] [Đề xuất] Xem Người xác minh</v>
       </c>
       <c r="C124" t="str">
-        <v>Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
+        <v>Xem chi tiết của Người xác minh</v>
       </c>
       <c r="D124" t="str">
-        <v>HCNS</v>
+        <v>HRM</v>
       </c>
       <c r="E124" t="str">
-        <v>Tuyển dụng</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F124" t="str">
         <v>S_TRUONGPHONG</v>
@@ -36934,19 +36828,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="str">
-        <v>department_kpi_assessment.list</v>
+        <v>proposal_verifier.verify</v>
       </c>
       <c r="B125" t="str">
-        <v>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</v>
+        <v>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</v>
       </c>
       <c r="C125" t="str">
-        <v>Xem danh sách Department Kpi Assessments</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</v>
       </c>
       <c r="D125" t="str">
-        <v>Payroll</v>
+        <v>HRM</v>
       </c>
       <c r="E125" t="str">
-        <v>KPI Management</v>
+        <v>Đề xuất</v>
       </c>
       <c r="F125" t="str">
         <v>S_TRUONGPHONG</v>
@@ -36954,19 +36848,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="str">
-        <v>department_kpi_assessment.retrieve</v>
+        <v>recruitment_request.update</v>
       </c>
       <c r="B126" t="str">
-        <v>[Payroll] [KPI Management] Xem Department KPI Assessment</v>
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="C126" t="str">
-        <v>Xem chi tiết của Department KPI Assessment</v>
+        <v>Quyền cập nhật Phiếu yêu cầu tuyển dụng</v>
       </c>
       <c r="D126" t="str">
-        <v>Payroll</v>
+        <v>HCNS</v>
       </c>
       <c r="E126" t="str">
-        <v>KPI Management</v>
+        <v>Tuyển dụng</v>
       </c>
       <c r="F126" t="str">
         <v>S_TRUONGPHONG</v>
@@ -36974,13 +36868,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="str">
-        <v>employee_kpi_assessment.histories</v>
+        <v>department_kpi_assessment.list</v>
       </c>
       <c r="B127" t="str">
-        <v>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</v>
+        <v>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</v>
       </c>
       <c r="C127" t="str">
-        <v>Xem lịch sử Employee KPI Assessment</v>
+        <v>Xem danh sách Department Kpi Assessments</v>
       </c>
       <c r="D127" t="str">
         <v>Payroll</v>
@@ -36994,13 +36888,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="str">
-        <v>employee_kpi_assessment.history_detail</v>
+        <v>department_kpi_assessment.retrieve</v>
       </c>
       <c r="B128" t="str">
-        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</v>
+        <v>[Payroll] [KPI Management] Xem Department KPI Assessment</v>
       </c>
       <c r="C128" t="str">
-        <v>Xem chi tiết lịch sử của Employee KPI Assessment</v>
+        <v>Xem chi tiết của Department KPI Assessment</v>
       </c>
       <c r="D128" t="str">
         <v>Payroll</v>
@@ -37014,13 +36908,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="str">
-        <v>employee_kpi_assessment.list</v>
+        <v>employee_kpi_assessment.histories</v>
       </c>
       <c r="B129" t="str">
-        <v>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</v>
+        <v>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</v>
       </c>
       <c r="C129" t="str">
-        <v>Xem danh sách Employee Kpi Assessments</v>
+        <v>Xem lịch sử Employee KPI Assessment</v>
       </c>
       <c r="D129" t="str">
         <v>Payroll</v>
@@ -37034,13 +36928,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="str">
-        <v>employee_kpi_assessment.partial_update</v>
+        <v>employee_kpi_assessment.history_detail</v>
       </c>
       <c r="B130" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</v>
+        <v>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</v>
       </c>
       <c r="C130" t="str">
-        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
+        <v>Xem chi tiết lịch sử của Employee KPI Assessment</v>
       </c>
       <c r="D130" t="str">
         <v>Payroll</v>
@@ -37054,13 +36948,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="str">
-        <v>employee_kpi_assessment.retrieve</v>
+        <v>employee_kpi_assessment.list</v>
       </c>
       <c r="B131" t="str">
-        <v>[Payroll] [KPI Management] Xem Employee KPI Assessment</v>
+        <v>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</v>
       </c>
       <c r="C131" t="str">
-        <v>Xem chi tiết của Employee KPI Assessment</v>
+        <v>Xem danh sách Employee Kpi Assessments</v>
       </c>
       <c r="D131" t="str">
         <v>Payroll</v>
@@ -37074,13 +36968,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="str">
-        <v>employee_kpi_assessment.update</v>
+        <v>employee_kpi_assessment.partial_update</v>
       </c>
       <c r="B132" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</v>
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</v>
       </c>
       <c r="C132" t="str">
-        <v>Quyền cập nhật Employee KPI Assessment</v>
+        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
       </c>
       <c r="D132" t="str">
         <v>Payroll</v>
@@ -37094,19 +36988,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="str">
-        <v>employee_manager_assessment.list</v>
+        <v>employee_kpi_assessment.retrieve</v>
       </c>
       <c r="B133" t="str">
-        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+        <v>[Payroll] [KPI Management] Xem Employee KPI Assessment</v>
       </c>
       <c r="C133" t="str">
-        <v>Xem danh sách ManagerAssessments</v>
+        <v>Xem chi tiết của Employee KPI Assessment</v>
       </c>
       <c r="D133" t="str">
         <v>Payroll</v>
       </c>
       <c r="E133" t="str">
-        <v>Manager Assessment</v>
+        <v>KPI Management</v>
       </c>
       <c r="F133" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37114,19 +37008,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="str">
-        <v>employee_self_assessment.list</v>
+        <v>employee_kpi_assessment.update</v>
       </c>
       <c r="B134" t="str">
-        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
+        <v>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</v>
       </c>
       <c r="C134" t="str">
-        <v>Xem danh sách EmployeeSelfAssessments</v>
+        <v>Quyền cập nhật Employee KPI Assessment</v>
       </c>
       <c r="D134" t="str">
         <v>Payroll</v>
       </c>
       <c r="E134" t="str">
-        <v>Employee Self-Assessment</v>
+        <v>KPI Management</v>
       </c>
       <c r="F134" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37134,13 +37028,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="str">
-        <v>employee_manager_assessment.partial_update</v>
+        <v>employee_manager_assessment.list</v>
       </c>
       <c r="B135" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
       </c>
       <c r="C135" t="str">
-        <v>Quyền cập nhật một phần ManagerAssessment</v>
+        <v>Xem danh sách ManagerAssessments</v>
       </c>
       <c r="D135" t="str">
         <v>Payroll</v>
@@ -37154,19 +37048,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="str">
-        <v>employee_manager_assessment.retrieve</v>
+        <v>employee_self_assessment.list</v>
       </c>
       <c r="B136" t="str">
-        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
+        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
       </c>
       <c r="C136" t="str">
-        <v>Xem chi tiết của ManagerAssessment</v>
+        <v>Xem danh sách EmployeeSelfAssessments</v>
       </c>
       <c r="D136" t="str">
         <v>Payroll</v>
       </c>
       <c r="E136" t="str">
-        <v>Manager Assessment</v>
+        <v>Employee Self-Assessment</v>
       </c>
       <c r="F136" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37174,13 +37068,13 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="str">
-        <v>employee_manager_assessment.current_assessments</v>
+        <v>employee_manager_assessment.partial_update</v>
       </c>
       <c r="B137" t="str">
-        <v>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
       </c>
       <c r="C137" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</v>
+        <v>Quyền cập nhật một phần ManagerAssessment</v>
       </c>
       <c r="D137" t="str">
         <v>Payroll</v>
@@ -37214,13 +37108,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="str">
-        <v>employee_manager_assessment.create</v>
+        <v>employee_manager_assessment.current_assessments</v>
       </c>
       <c r="B139" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</v>
       </c>
       <c r="C139" t="str">
-        <v>Quyền tạo mới một ManagerAssessment</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</v>
       </c>
       <c r="D139" t="str">
         <v>Payroll</v>
@@ -37234,13 +37128,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="str">
-        <v>employee_manager_assessment.destroy</v>
+        <v>employee_manager_assessment.retrieve</v>
       </c>
       <c r="B140" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] Xem ManagerAssessment</v>
       </c>
       <c r="C140" t="str">
-        <v>Quyền xóa ManagerAssessment</v>
+        <v>Xem chi tiết của ManagerAssessment</v>
       </c>
       <c r="D140" t="str">
         <v>Payroll</v>
@@ -37254,13 +37148,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="str">
-        <v>employee_manager_assessment.list</v>
+        <v>employee_manager_assessment.create</v>
       </c>
       <c r="B141" t="str">
-        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
+        <v>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</v>
       </c>
       <c r="C141" t="str">
-        <v>Xem danh sách ManagerAssessments</v>
+        <v>Quyền tạo mới một ManagerAssessment</v>
       </c>
       <c r="D141" t="str">
         <v>Payroll</v>
@@ -37274,13 +37168,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="str">
-        <v>employee_manager_assessment.partial_update</v>
+        <v>employee_manager_assessment.destroy</v>
       </c>
       <c r="B142" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</v>
       </c>
       <c r="C142" t="str">
-        <v>Quyền cập nhật một phần ManagerAssessment</v>
+        <v>Quyền xóa ManagerAssessment</v>
       </c>
       <c r="D142" t="str">
         <v>Payroll</v>
@@ -37294,13 +37188,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="str">
-        <v>employee_manager_assessment.update</v>
+        <v>employee_manager_assessment.list</v>
       </c>
       <c r="B143" t="str">
-        <v>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</v>
+        <v>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</v>
       </c>
       <c r="C143" t="str">
-        <v>Quyền cập nhật ManagerAssessment</v>
+        <v>Xem danh sách ManagerAssessments</v>
       </c>
       <c r="D143" t="str">
         <v>Payroll</v>
@@ -37314,19 +37208,19 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="str">
-        <v>hrm.dashboard.manager.realtime</v>
+        <v>employee_manager_assessment.partial_update</v>
       </c>
       <c r="B144" t="str">
-        <v>[HCNS] [Manager Dashboard] Xem thống kê các vấn đề HCNS cần xử lý</v>
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</v>
       </c>
       <c r="C144" t="str">
-        <v>Xem thống kê các đề xuất cần xác nhận và đánh giá KPI</v>
+        <v>Quyền cập nhật một phần ManagerAssessment</v>
       </c>
       <c r="D144" t="str">
-        <v>HCNS</v>
+        <v>Payroll</v>
       </c>
       <c r="E144" t="str">
-        <v>Manager Dashboard</v>
+        <v>Manager Assessment</v>
       </c>
       <c r="F144" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37334,19 +37228,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="str">
-        <v>my_team_kpi_assessment.create</v>
+        <v>employee_manager_assessment.update</v>
       </c>
       <c r="B145" t="str">
-        <v>[Phiếu lương] [Team KPI] Quyền tạo Employee KPI Assessment</v>
+        <v>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</v>
       </c>
       <c r="C145" t="str">
-        <v>Quyền tạo mới một Employee KPI Assessment</v>
+        <v>Quyền cập nhật ManagerAssessment</v>
       </c>
       <c r="D145" t="str">
-        <v>Phiếu lương</v>
+        <v>Payroll</v>
       </c>
       <c r="E145" t="str">
-        <v>Team KPI</v>
+        <v>Manager Assessment</v>
       </c>
       <c r="F145" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37354,19 +37248,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="str">
-        <v>my_team_kpi_assessment.current</v>
+        <v>hrm.dashboard.manager.realtime</v>
       </c>
       <c r="B146" t="str">
-        <v>[Phiếu lương] [Team KPI] UNREGISTERED Current Employee KPI Assessment</v>
+        <v>[HCNS] [Manager Dashboard] Xem thống kê các vấn đề HCNS cần xử lý</v>
       </c>
       <c r="C146" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current a Employee KPI Assessment</v>
+        <v>Xem thống kê các đề xuất cần xác nhận và đánh giá KPI</v>
       </c>
       <c r="D146" t="str">
-        <v>Phiếu lương</v>
+        <v>HCNS</v>
       </c>
       <c r="E146" t="str">
-        <v>Team KPI</v>
+        <v>Manager Dashboard</v>
       </c>
       <c r="F146" t="str">
         <v>S_TRUONGPHONG</v>
@@ -37374,13 +37268,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="str">
-        <v>my_team_kpi_assessment.destroy</v>
+        <v>my_team_kpi_assessment.create</v>
       </c>
       <c r="B147" t="str">
-        <v>[Phiếu lương] [Team KPI] Quyền xóa Employee KPI Assessment</v>
+        <v>[Phiếu lương] [Team KPI] Quyền tạo Employee KPI Assessment</v>
       </c>
       <c r="C147" t="str">
-        <v>Quyền xóa Employee KPI Assessment</v>
+        <v>Quyền tạo mới một Employee KPI Assessment</v>
       </c>
       <c r="D147" t="str">
         <v>Phiếu lương</v>
@@ -37389,6 +37283,126 @@
         <v>Team KPI</v>
       </c>
       <c r="F147" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="str">
+        <v>my_team_kpi_assessment.current</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] UNREGISTERED Current Employee KPI Assessment</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current a Employee KPI Assessment</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F148" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="str">
+        <v>my_team_kpi_assessment.destroy</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] Quyền xóa Employee KPI Assessment</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <v>Quyền xóa Employee KPI Assessment</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F149" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="str">
+        <v>my_team_kpi_assessment.list</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] Danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <v>Xem danh sách Employee Kpi Assessments</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F150" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="str">
+        <v>my_team_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="C151" s="1" t="str">
+        <v>Quyền cập nhật một phần Employee KPI Assessment</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F151" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="str">
+        <v>my_team_kpi_assessment.retrieve</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] Xem Employee KPI Assessment</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <v>Xem chi tiết của Employee KPI Assessment</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F152" t="str">
+        <v>S_TRUONGPHONG</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="str">
+        <v>my_team_kpi_assessment.update</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <v>[Phiếu lương] [Team KPI] Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="C153" s="1" t="str">
+        <v>Quyền cập nhật Employee KPI Assessment</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Phiếu lương</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Team KPI</v>
+      </c>
+      <c r="F153" t="str">
         <v>S_TRUONGPHONG</v>
       </c>
     </row>
@@ -48826,10 +48840,10 @@
       <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D12" t="s">
@@ -48843,7 +48857,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B13" t="s">
@@ -58337,19 +58351,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -59098,8 +59112,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16360" tabRatio="894" activeTab="7"/>
+    <workbookView windowHeight="16260" tabRatio="894" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="1881">
   <si>
     <t>code</t>
   </si>
@@ -4525,6 +4525,1170 @@
     <t>Quyền cập nhật Quyết Định</t>
   </si>
   <si>
+    <t>S_TRUONGPHONG</t>
+  </si>
+  <si>
+    <t>proposal_verifier.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Người xác minh</t>
+  </si>
+  <si>
+    <t>Xem lịch sử Người xác minh</t>
+  </si>
+  <si>
+    <t>proposal_verifier.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của Người xác minh</t>
+  </si>
+  <si>
+    <t>proposal_verifier.mine</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</t>
+  </si>
+  <si>
+    <t>proposal_verifier.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</t>
+  </si>
+  <si>
+    <t>proposal_verifier.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem Người xác minh</t>
+  </si>
+  <si>
+    <t>Xem chi tiết của Người xác minh</t>
+  </si>
+  <si>
+    <t>proposal_verifier.verify</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.list</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</t>
+  </si>
+  <si>
+    <t>Xem danh sách Department Kpi Assessments</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.retrieve</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>Xem chi tiết của Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.histories</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>Xem lịch sử Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.history_detail</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.list</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.partial_update</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.retrieve</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.update</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.list</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</t>
+  </si>
+  <si>
+    <t>Xem danh sách ManagerAssessments</t>
+  </si>
+  <si>
+    <t>Manager Assessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.partial_update</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật một phần ManagerAssessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.retrieve</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Xem ManagerAssessment</t>
+  </si>
+  <si>
+    <t>Xem chi tiết của ManagerAssessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.current_assessments</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.create</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</t>
+  </si>
+  <si>
+    <t>Quyền tạo mới một ManagerAssessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.destroy</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</t>
+  </si>
+  <si>
+    <t>Quyền xóa ManagerAssessment</t>
+  </si>
+  <si>
+    <t>employee_manager_assessment.update</t>
+  </si>
+  <si>
+    <t>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật ManagerAssessment</t>
+  </si>
+  <si>
+    <t>hrm.dashboard.manager.realtime</t>
+  </si>
+  <si>
+    <t>[HCNS] [Manager Dashboard] Xem thống kê các vấn đề HCNS cần xử lý</t>
+  </si>
+  <si>
+    <t>Xem thống kê các đề xuất cần xác nhận và đánh giá KPI</t>
+  </si>
+  <si>
+    <t>Manager Dashboard</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.create</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Quyền tạo Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>Team KPI</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.current</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] UNREGISTERED Current Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current a Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.destroy</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Quyền xóa Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.list</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Danh sách Employee Kpi Assessments</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.partial_update</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Quyền cập nhật một phần Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.retrieve</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Xem Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>my_team_kpi_assessment.update</t>
+  </si>
+  <si>
+    <t>[Phiếu lương] [Team KPI] Quyền cập nhật Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.create</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền tạo Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>S_HRM_TONG</t>
+  </si>
+  <si>
+    <t>employee_kpi_assessment.destroy</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền xóa Employee KPI Assessment</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.create</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền tạo Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>Quyền tạo mới một Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.destroy</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền xóa Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>Quyền xóa Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.histories</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem lịch sử Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>Xem lịch sử Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>department_kpi_assessment.history_detail</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của Department KPI Assessment</t>
+  </si>
+  <si>
+    <t>holiday.create</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền tạo CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Quyền tạo mới một CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Quản lý Ngày Nghỉ Lễ</t>
+  </si>
+  <si>
+    <t>holiday.destroy</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền xóa CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Quyền xóa CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>holiday.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Quản lý Ngày Nghỉ Lễ] Quyền xuất Ngày lễ</t>
+  </si>
+  <si>
+    <t>Quyền xuất Ngày lễ</t>
+  </si>
+  <si>
+    <t>holiday.histories</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem lịch sử CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Xem lịch sử CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>holiday.history_detail</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem chi tiết lịch sử của CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>holiday.list</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Danh sách CompensatoryWorkdays</t>
+  </si>
+  <si>
+    <t>Xem danh sách CompensatoryWorkdays</t>
+  </si>
+  <si>
+    <t>holiday.partial_update</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật một phần CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật một phần CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>holiday.retrieve</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Xem chi tiết của CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>holiday.update</t>
+  </si>
+  <si>
+    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật CompensatoryWorkday</t>
+  </si>
+  <si>
+    <t>kpi_assessment_period.finalize</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Period Management] UNREGISTERED Finalize KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Finalize a KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>kpi_assessment_period.generate</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Period Management] UNREGISTERED Generate KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Generate a KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>kpi_assessment_period.list</t>
+  </si>
+  <si>
+    <t>kpi_assessment_period.retrieve</t>
+  </si>
+  <si>
+    <t>kpi_assessment_period.summary</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Period Management] UNREGISTERED Summary KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Summary a KPI Assessment Period</t>
+  </si>
+  <si>
+    <t>kpi_criterion.create</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền tạo KPI Criterion</t>
+  </si>
+  <si>
+    <t>Quyền tạo mới một KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.destroy</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền xóa KPI Criterion</t>
+  </si>
+  <si>
+    <t>Quyền xóa KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.histories</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem lịch sử KPI Criterion</t>
+  </si>
+  <si>
+    <t>Xem lịch sử KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.history_detail</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của KPI Criterion</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.list</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Danh sách Kpi Criteria</t>
+  </si>
+  <si>
+    <t>Xem danh sách Kpi Criteria</t>
+  </si>
+  <si>
+    <t>kpi_criterion.partial_update</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền cập nhật một phần KPI Criterion</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật một phần KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.retrieve</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Xem KPI Criterion</t>
+  </si>
+  <si>
+    <t>Xem chi tiết của KPI Criterion</t>
+  </si>
+  <si>
+    <t>kpi_criterion.update</t>
+  </si>
+  <si>
+    <t>[Payroll] [KPI Management] Quyền cập nhật KPI Criterion</t>
+  </si>
+  <si>
+    <t>Quyền cập nhật KPI Criterion</t>
+  </si>
+  <si>
+    <t>proposal.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất</t>
+  </si>
+  <si>
+    <t>Phê duyệt Đề xuất</t>
+  </si>
+  <si>
+    <t>S_HRM_QL_DEXUAT</t>
+  </si>
+  <si>
+    <t>proposal.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất</t>
+  </si>
+  <si>
+    <t>Xem lịch sử Đề xuất</t>
+  </si>
+  <si>
+    <t>proposal.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử của Đề xuất</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch sử của Đề xuất</t>
+  </si>
+  <si>
+    <t>proposal.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề Xuất</t>
+  </si>
+  <si>
+    <t>proposal.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất</t>
+  </si>
+  <si>
+    <t>Từ chối Đề xuất</t>
+  </si>
+  <si>
+    <t>proposal.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem Đề xuất</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_asset_allocation.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Cấp tài sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất cấp tài sản</t>
+  </si>
+  <si>
+    <t>proposal_device_change.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_device_change.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất thay đổi thiết bị đăng nhập</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_job_transfer.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất điều chuyển công tác</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_late_exemption.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất miễn trừ trễ</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất nghỉ việc hưởng chế độ thai sản.</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_maternity_leave.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ việc hưởng chế độ thai sản</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề xuất Làm việc ngoài giờ (OT)</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_overtime_work.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất làm việc ngoài giờ</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Danh sách Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_paid_leave.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem nhật ký thay đổi Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết nhật ký thay đổi Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_post_maternity_benefits.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất chế độ làm việc hậu thai sản</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử thay đổi Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử thay đổi Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_timesheet_entry_complaint.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Khiếu nại Chấm công</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất khiếu nại chấm công</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.approve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng phê duyệt đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.export</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xuất đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.histories</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.history_detail</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.list</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem danh sách đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.reject</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng từ chối đề xuất nghỉ không lương</t>
+  </si>
+  <si>
+    <t>proposal_unpaid_leave.retrieve</t>
+  </si>
+  <si>
+    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ không lương</t>
+  </si>
+  <si>
     <t>hrm.dashboard.common.realtime</t>
   </si>
   <si>
@@ -4535,1170 +5699,6 @@
   </si>
   <si>
     <t>HRM Dashboard</t>
-  </si>
-  <si>
-    <t>S_TRUONGPHONG</t>
-  </si>
-  <si>
-    <t>proposal_verifier.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Người xác minh</t>
-  </si>
-  <si>
-    <t>Xem lịch sử Người xác minh</t>
-  </si>
-  <si>
-    <t>proposal_verifier.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử của Người xác minh</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của Người xác minh</t>
-  </si>
-  <si>
-    <t>proposal_verifier.mine</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] UNREGISTERED Mine Người xác minh</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Mine a Người xác minh</t>
-  </si>
-  <si>
-    <t>proposal_verifier.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] UNREGISTERED Reject Người xác minh</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Reject a Người xác minh</t>
-  </si>
-  <si>
-    <t>proposal_verifier.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem Người xác minh</t>
-  </si>
-  <si>
-    <t>Xem chi tiết của Người xác minh</t>
-  </si>
-  <si>
-    <t>proposal_verifier.verify</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] UNREGISTERED Verify Người xác minh</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Verify a Người xác minh</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.list</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Danh sách Department Kpi Assessments</t>
-  </si>
-  <si>
-    <t>Xem danh sách Department Kpi Assessments</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.retrieve</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>Xem chi tiết của Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.histories</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem lịch sử Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>Xem lịch sử Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.history_detail</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.list</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Danh sách Employee Kpi Assessments</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.partial_update</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền cập nhật một phần Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.retrieve</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.update</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền cập nhật Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.list</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Danh sách ManagerAssessments</t>
-  </si>
-  <si>
-    <t>Xem danh sách ManagerAssessments</t>
-  </si>
-  <si>
-    <t>Manager Assessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.partial_update</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Quyền cập nhật một phần ManagerAssessment</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật một phần ManagerAssessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.retrieve</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Xem ManagerAssessment</t>
-  </si>
-  <si>
-    <t>Xem chi tiết của ManagerAssessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.current_assessments</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] UNREGISTERED Current Assessments ManagerAssessment</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessments a ManagerAssessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.create</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Quyền tạo ManagerAssessment</t>
-  </si>
-  <si>
-    <t>Quyền tạo mới một ManagerAssessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.destroy</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Quyền xóa ManagerAssessment</t>
-  </si>
-  <si>
-    <t>Quyền xóa ManagerAssessment</t>
-  </si>
-  <si>
-    <t>employee_manager_assessment.update</t>
-  </si>
-  <si>
-    <t>[Payroll] [Manager Assessment] Quyền cập nhật ManagerAssessment</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật ManagerAssessment</t>
-  </si>
-  <si>
-    <t>hrm.dashboard.manager.realtime</t>
-  </si>
-  <si>
-    <t>[HCNS] [Manager Dashboard] Xem thống kê các vấn đề HCNS cần xử lý</t>
-  </si>
-  <si>
-    <t>Xem thống kê các đề xuất cần xác nhận và đánh giá KPI</t>
-  </si>
-  <si>
-    <t>Manager Dashboard</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.create</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Quyền tạo Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>Team KPI</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.current</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] UNREGISTERED Current Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current a Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.destroy</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Quyền xóa Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.list</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Danh sách Employee Kpi Assessments</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.partial_update</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Quyền cập nhật một phần Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.retrieve</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Xem Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>my_team_kpi_assessment.update</t>
-  </si>
-  <si>
-    <t>[Phiếu lương] [Team KPI] Quyền cập nhật Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.create</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền tạo Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>S_HRM_TONG</t>
-  </si>
-  <si>
-    <t>employee_kpi_assessment.destroy</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền xóa Employee KPI Assessment</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.create</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền tạo Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>Quyền tạo mới một Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.destroy</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền xóa Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>Quyền xóa Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.histories</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem lịch sử Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>Xem lịch sử Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>department_kpi_assessment.history_detail</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của Department KPI Assessment</t>
-  </si>
-  <si>
-    <t>holiday.create</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền tạo CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Quyền tạo mới một CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Quản lý Ngày Nghỉ Lễ</t>
-  </si>
-  <si>
-    <t>holiday.destroy</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền xóa CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Quyền xóa CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>holiday.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Quản lý Ngày Nghỉ Lễ] Quyền xuất Ngày lễ</t>
-  </si>
-  <si>
-    <t>Quyền xuất Ngày lễ</t>
-  </si>
-  <si>
-    <t>holiday.histories</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem lịch sử CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Xem lịch sử CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>holiday.history_detail</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem chi tiết lịch sử của CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>holiday.list</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Danh sách CompensatoryWorkdays</t>
-  </si>
-  <si>
-    <t>Xem danh sách CompensatoryWorkdays</t>
-  </si>
-  <si>
-    <t>holiday.partial_update</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật một phần CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật một phần CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>holiday.retrieve</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Xem CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Xem chi tiết của CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>holiday.update</t>
-  </si>
-  <si>
-    <t>[HCNS] [Quản lý Ngày Nghỉ Lễ] Quyền cập nhật CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật CompensatoryWorkday</t>
-  </si>
-  <si>
-    <t>kpi_assessment_period.finalize</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Period Management] UNREGISTERED Finalize KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Finalize a KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>kpi_assessment_period.generate</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Period Management] UNREGISTERED Generate KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Generate a KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>kpi_assessment_period.list</t>
-  </si>
-  <si>
-    <t>kpi_assessment_period.retrieve</t>
-  </si>
-  <si>
-    <t>kpi_assessment_period.summary</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Period Management] UNREGISTERED Summary KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Summary a KPI Assessment Period</t>
-  </si>
-  <si>
-    <t>kpi_criterion.create</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền tạo KPI Criterion</t>
-  </si>
-  <si>
-    <t>Quyền tạo mới một KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.destroy</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền xóa KPI Criterion</t>
-  </si>
-  <si>
-    <t>Quyền xóa KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.histories</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem lịch sử KPI Criterion</t>
-  </si>
-  <si>
-    <t>Xem lịch sử KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.history_detail</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem chi tiết lịch sử của KPI Criterion</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.list</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Danh sách Kpi Criteria</t>
-  </si>
-  <si>
-    <t>Xem danh sách Kpi Criteria</t>
-  </si>
-  <si>
-    <t>kpi_criterion.partial_update</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền cập nhật một phần KPI Criterion</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật một phần KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.retrieve</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Xem KPI Criterion</t>
-  </si>
-  <si>
-    <t>Xem chi tiết của KPI Criterion</t>
-  </si>
-  <si>
-    <t>kpi_criterion.update</t>
-  </si>
-  <si>
-    <t>[Payroll] [KPI Management] Quyền cập nhật KPI Criterion</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật KPI Criterion</t>
-  </si>
-  <si>
-    <t>proposal.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất</t>
-  </si>
-  <si>
-    <t>Phê duyệt Đề xuất</t>
-  </si>
-  <si>
-    <t>S_HRM_QL_DEXUAT</t>
-  </si>
-  <si>
-    <t>proposal.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất</t>
-  </si>
-  <si>
-    <t>Xem lịch sử Đề xuất</t>
-  </si>
-  <si>
-    <t>proposal.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử của Đề xuất</t>
-  </si>
-  <si>
-    <t>Xem chi tiết lịch sử của Đề xuất</t>
-  </si>
-  <si>
-    <t>proposal.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề Xuất</t>
-  </si>
-  <si>
-    <t>proposal.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất</t>
-  </si>
-  <si>
-    <t>Từ chối Đề xuất</t>
-  </si>
-  <si>
-    <t>proposal.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem Đề xuất</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_asset_allocation.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Cấp tài sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất cấp tài sản</t>
-  </si>
-  <si>
-    <t>proposal_device_change.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_device_change.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất thay đổi thiết bị đăng nhập</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_job_transfer.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất điều chuyển công tác</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_late_exemption.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất miễn trừ trễ</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất nghỉ việc hưởng chế độ thai sản.</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_maternity_leave.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ việc hưởng chế độ thai sản</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề xuất Làm việc ngoài giờ (OT)</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_overtime_work.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất làm việc ngoài giờ</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Danh sách Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_paid_leave.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ phép có lương</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem nhật ký thay đổi Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết nhật ký thay đổi Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_post_maternity_benefits.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất chế độ làm việc hậu thai sản</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử thay đổi Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử thay đổi Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho một đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_timesheet_entry_complaint.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Khiếu nại Chấm công</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất khiếu nại chấm công</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.approve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Phê duyệt Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng phê duyệt đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.export</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xuất Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xuất đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.histories</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem lịch sử Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi cho đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.history_detail</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết lịch sử Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem nhật ký thay đổi chi tiết cho đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.list</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem danh sách Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem danh sách đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.reject</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Từ chối Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng từ chối đề xuất nghỉ không lương</t>
-  </si>
-  <si>
-    <t>proposal_unpaid_leave.retrieve</t>
-  </si>
-  <si>
-    <t>[HRM] [Đề xuất] Xem chi tiết Đề xuất Nghỉ không lương</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng xem chi tiết một đề xuất nghỉ không lương</t>
   </si>
   <si>
     <t>sales_revenue_report.chart</t>
@@ -7070,8 +7070,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="S_HRM_QL_DEXUAT" displayName="S_HRM_QL_DEXUAT" ref="A1:F77" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F77" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="S_HRM_QL_DEXUAT" displayName="S_HRM_QL_DEXUAT" ref="A1:F78" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F78" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="60"/>
     <tableColumn id="2" name="Tên" dataDxfId="61"/>
@@ -7178,8 +7178,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="S_HRM_CHUNG" displayName="S_HRM_CHUNG" ref="A1:F37" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F37" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="S_HRM_CHUNG" displayName="S_HRM_CHUNG" ref="A1:F36" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F36" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="42"/>
     <tableColumn id="2" name="Tên" dataDxfId="43"/>
@@ -7193,8 +7193,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="S_TRUONGPHONG" displayName="S_TRUONGPHONG" ref="A1:F45" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F45" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="S_TRUONGPHONG" displayName="S_TRUONGPHONG" ref="A1:F54" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F54" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="48"/>
     <tableColumn id="2" name="Tên" dataDxfId="49"/>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B2" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
@@ -8080,15 +8080,15 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
@@ -8100,18 +8100,18 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -8120,18 +8120,18 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B5" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C5" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -8140,15 +8140,15 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C6" t="s">
         <v>154</v>
@@ -8160,15 +8160,15 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B7" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -8180,15 +8180,15 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B8" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C8" t="s">
         <v>160</v>
@@ -8200,15 +8200,15 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B9" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C9" t="s">
         <v>163</v>
@@ -8220,18 +8220,18 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B10" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C10" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -8240,18 +8240,18 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B11" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C11" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -8260,18 +8260,18 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B12" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C12" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -8280,18 +8280,18 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B13" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C13" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -8300,18 +8300,18 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B14" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C14" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -8320,18 +8320,18 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B15" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C15" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -8340,198 +8340,198 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B16" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C16" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F16" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B17" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="C17" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F17" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B18" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C18" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F18" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B19" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C19" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F19" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B20" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C20" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F20" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B21" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C21" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F21" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B22" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C22" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F22" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B23" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C23" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F23" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="B24" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C24" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F24" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B25" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C25" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -8540,18 +8540,18 @@
         <v>1132</v>
       </c>
       <c r="F25" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B26" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C26" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -8560,12 +8560,12 @@
         <v>1132</v>
       </c>
       <c r="F26" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B27" t="s">
         <v>1130</v>
@@ -8580,12 +8580,12 @@
         <v>1132</v>
       </c>
       <c r="F27" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B28" t="s">
         <v>1134</v>
@@ -8600,18 +8600,18 @@
         <v>1132</v>
       </c>
       <c r="F28" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B29" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C29" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -8620,18 +8620,18 @@
         <v>1132</v>
       </c>
       <c r="F29" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B30" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C30" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -8640,18 +8640,18 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B31" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C31" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -8660,18 +8660,18 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B32" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C32" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -8680,18 +8680,18 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="B33" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C33" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -8700,18 +8700,18 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B34" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C34" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -8720,18 +8720,18 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="B35" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C35" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -8740,18 +8740,18 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B36" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C36" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -8760,18 +8760,18 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B37" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C37" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -8795,10 +8795,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -8807,6 +8807,7 @@
     <col min="2" max="2" width="73.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.6875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.4765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -8831,13 +8832,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -8846,18 +8847,18 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B3" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C3" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -8866,18 +8867,18 @@
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B4" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C4" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="D4" t="s">
         <v>77</v>
@@ -8886,15 +8887,15 @@
         <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B5" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C5" t="s">
         <v>166</v>
@@ -8906,18 +8907,18 @@
         <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D6" t="s">
         <v>77</v>
@@ -8926,15 +8927,15 @@
         <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B7" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C7" t="s">
         <v>170</v>
@@ -8946,18 +8947,18 @@
         <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B8" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C8" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -8966,18 +8967,18 @@
         <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B9" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C9" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -8986,18 +8987,18 @@
         <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="B10" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C10" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -9006,18 +9007,18 @@
         <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="B11" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C11" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -9026,18 +9027,18 @@
         <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B12" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C12" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -9046,18 +9047,18 @@
         <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="B13" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="C13" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
@@ -9066,18 +9067,18 @@
         <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="B14" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C14" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
@@ -9086,18 +9087,18 @@
         <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B15" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C15" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
@@ -9106,18 +9107,18 @@
         <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="B16" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C16" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -9126,18 +9127,18 @@
         <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="B17" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="C17" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
@@ -9146,18 +9147,18 @@
         <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B18" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C18" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -9166,18 +9167,18 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="B19" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C19" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
@@ -9186,18 +9187,18 @@
         <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B20" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="C20" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
@@ -9206,18 +9207,18 @@
         <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B21" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C21" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -9226,18 +9227,18 @@
         <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="B22" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="C22" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -9246,18 +9247,18 @@
         <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B23" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C23" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
@@ -9266,18 +9267,18 @@
         <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="B24" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C24" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
@@ -9286,18 +9287,18 @@
         <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B25" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C25" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
@@ -9306,18 +9307,18 @@
         <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B26" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C26" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -9326,18 +9327,18 @@
         <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B27" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C27" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -9346,18 +9347,18 @@
         <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B28" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="C28" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -9366,18 +9367,18 @@
         <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="B29" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="C29" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -9386,18 +9387,18 @@
         <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="B30" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C30" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -9406,18 +9407,18 @@
         <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="B31" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="C31" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -9426,18 +9427,18 @@
         <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B32" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C32" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -9446,18 +9447,18 @@
         <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B33" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C33" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="D33" t="s">
         <v>77</v>
@@ -9466,18 +9467,18 @@
         <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B34" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="C34" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -9486,18 +9487,18 @@
         <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B35" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="C35" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -9506,18 +9507,18 @@
         <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="B36" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="C36" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -9526,18 +9527,18 @@
         <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="B37" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C37" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -9546,18 +9547,18 @@
         <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="B38" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C38" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
@@ -9566,18 +9567,18 @@
         <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="B39" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C39" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="D39" t="s">
         <v>77</v>
@@ -9586,18 +9587,18 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="B40" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C40" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>
@@ -9606,18 +9607,18 @@
         <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="B41" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C41" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="D41" t="s">
         <v>77</v>
@@ -9626,18 +9627,18 @@
         <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="B42" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="C42" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D42" t="s">
         <v>77</v>
@@ -9646,18 +9647,18 @@
         <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="B43" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C43" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -9666,18 +9667,18 @@
         <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="B44" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C44" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -9686,18 +9687,18 @@
         <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="B45" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C45" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D45" t="s">
         <v>77</v>
@@ -9706,18 +9707,18 @@
         <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="B46" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="C46" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="D46" t="s">
         <v>77</v>
@@ -9726,18 +9727,18 @@
         <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="B47" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="C47" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="D47" t="s">
         <v>77</v>
@@ -9746,18 +9747,18 @@
         <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B48" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="C48" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
@@ -9766,18 +9767,18 @@
         <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="B49" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="C49" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="D49" t="s">
         <v>77</v>
@@ -9786,18 +9787,18 @@
         <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="B50" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C50" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D50" t="s">
         <v>77</v>
@@ -9806,18 +9807,18 @@
         <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="B51" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="C51" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
@@ -9826,18 +9827,18 @@
         <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="B52" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="C52" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="D52" t="s">
         <v>77</v>
@@ -9846,18 +9847,18 @@
         <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="B53" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="C53" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="D53" t="s">
         <v>77</v>
@@ -9866,18 +9867,18 @@
         <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="B54" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C54" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
@@ -9886,18 +9887,18 @@
         <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="B55" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="C55" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="D55" t="s">
         <v>77</v>
@@ -9906,18 +9907,18 @@
         <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="B56" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C56" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="D56" t="s">
         <v>77</v>
@@ -9926,18 +9927,18 @@
         <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B57" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="C57" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="D57" t="s">
         <v>77</v>
@@ -9946,18 +9947,18 @@
         <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="B58" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C58" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="D58" t="s">
         <v>77</v>
@@ -9966,18 +9967,18 @@
         <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="B59" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C59" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="D59" t="s">
         <v>77</v>
@@ -9986,18 +9987,18 @@
         <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="B60" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="C60" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="D60" t="s">
         <v>77</v>
@@ -10006,18 +10007,18 @@
         <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="B61" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C61" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -10026,18 +10027,18 @@
         <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="B62" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="C62" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
@@ -10046,18 +10047,18 @@
         <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="B63" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C63" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="D63" t="s">
         <v>77</v>
@@ -10066,18 +10067,18 @@
         <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="B64" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="C64" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="D64" t="s">
         <v>77</v>
@@ -10086,18 +10087,18 @@
         <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="B65" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="C65" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="D65" t="s">
         <v>77</v>
@@ -10106,18 +10107,18 @@
         <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="B66" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C66" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="D66" t="s">
         <v>77</v>
@@ -10126,18 +10127,18 @@
         <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B67" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C67" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="D67" t="s">
         <v>77</v>
@@ -10146,18 +10147,18 @@
         <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="B68" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C68" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="D68" t="s">
         <v>77</v>
@@ -10166,18 +10167,18 @@
         <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="B69" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="C69" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="D69" t="s">
         <v>77</v>
@@ -10186,18 +10187,18 @@
         <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B70" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="C70" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="D70" t="s">
         <v>77</v>
@@ -10206,18 +10207,18 @@
         <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="B71" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="C71" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="D71" t="s">
         <v>77</v>
@@ -10226,18 +10227,18 @@
         <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="B72" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C72" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
@@ -10246,18 +10247,18 @@
         <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B73" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C73" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="D73" t="s">
         <v>77</v>
@@ -10266,18 +10267,18 @@
         <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="B74" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C74" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="D74" t="s">
         <v>77</v>
@@ -10286,18 +10287,18 @@
         <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B75" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C75" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -10306,18 +10307,18 @@
         <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="B76" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C76" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="D76" t="s">
         <v>77</v>
@@ -10326,18 +10327,18 @@
         <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="B77" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="C77" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="D77" t="s">
         <v>77</v>
@@ -10346,7 +10347,27 @@
         <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>1647</v>
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1643</v>
       </c>
     </row>
   </sheetData>
@@ -23850,10 +23871,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F671"/>
+  <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="A613" sqref="A613"/>
+    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
+      <selection activeCell="B717" sqref="B717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -34180,7 +34201,7 @@
     </row>
     <row r="596" spans="1:6">
       <c r="A596" s="2" t="str" cm="1">
-        <f t="array" ref="A596:F671">S_HRM_QL_DEXUAT[]</f>
+        <f t="array" ref="A596:F672">S_HRM_QL_DEXUAT[]</f>
         <v>proposal.approve</v>
       </c>
       <c r="B596" s="2" t="str">
@@ -35697,6 +35718,727 @@
       </c>
       <c r="F671" t="str">
         <v>S_HRM_QL_DEXUAT</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" s="2" t="str">
+        <v>hrm.dashboard.common.realtime</v>
+      </c>
+      <c r="B672" s="2" t="str">
+        <v>[HCNS] [HRM Dashboard] View Common HRM realtime dashboard</v>
+      </c>
+      <c r="C672" t="str">
+        <v>View HRM stats for handling proposals, attendance, and penalties</v>
+      </c>
+      <c r="D672" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E672" t="str">
+        <v>HRM Dashboard</v>
+      </c>
+      <c r="F672" t="str">
+        <v>S_HRM_QL_DEXUAT</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" s="2" t="str" cm="1">
+        <f t="array" ref="A677:F711">S_HRM_CHUNG[]</f>
+        <v>export.check_status</v>
+      </c>
+      <c r="B677" s="2" t="str">
+        <v>[Hệ thống ] [Trạng thái xuất dữ liệu] Trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="C677" t="str">
+        <v>Quyền xem trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="D677" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E677" t="str">
+        <v>Trạng thái xuất dữ liệu</v>
+      </c>
+      <c r="F677" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" s="2" t="str">
+        <v>import.check_status</v>
+      </c>
+      <c r="B678" s="2" t="str">
+        <v>[Imports] [Trạng thái] Quyền kiểm tra trạng thái nhập dữ liệu</v>
+      </c>
+      <c r="C678" t="str">
+        <v>Kiểm tra trạng thái nhập dữ liệu</v>
+      </c>
+      <c r="D678" t="str">
+        <v>Imports</v>
+      </c>
+      <c r="E678" t="str">
+        <v>Trạng thái</v>
+      </c>
+      <c r="F678" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" s="2" t="str">
+        <v>mailtemplate.job_status</v>
+      </c>
+      <c r="B679" s="2" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Job Status MailTemplate</v>
+      </c>
+      <c r="C679" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Job Status a MailTemplate</v>
+      </c>
+      <c r="D679" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E679" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F679" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" s="2" t="str">
+        <v>mailtemplate.list</v>
+      </c>
+      <c r="B680" s="2" t="str">
+        <v>[Mail Templates] [Template Management] Danh sách MailTemplates</v>
+      </c>
+      <c r="C680" t="str">
+        <v>Xem danh sách MailTemplates</v>
+      </c>
+      <c r="D680" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E680" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F680" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" s="2" t="str">
+        <v>mailtemplate.preview</v>
+      </c>
+      <c r="B681" s="2" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Preview MailTemplate</v>
+      </c>
+      <c r="C681" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Preview a MailTemplate</v>
+      </c>
+      <c r="D681" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E681" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F681" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" s="2" t="str">
+        <v>mailtemplate.retrieve</v>
+      </c>
+      <c r="B682" s="2" t="str">
+        <v>[Mail Templates] [Template Management] Xem MailTemplate</v>
+      </c>
+      <c r="C682" t="str">
+        <v>Xem chi tiết của MailTemplate</v>
+      </c>
+      <c r="D682" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E682" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F682" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" s="2" t="str">
+        <v>mailtemplate.send</v>
+      </c>
+      <c r="B683" s="2" t="str">
+        <v>[Mail Templates] [Template Management] UNREGISTERED Send MailTemplate</v>
+      </c>
+      <c r="C683" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Send a MailTemplate</v>
+      </c>
+      <c r="D683" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E683" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F683" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" s="2" t="str">
+        <v>mailtemplate.update</v>
+      </c>
+      <c r="B684" s="2" t="str">
+        <v>[Mail Templates] [Template Management] Quyền cập nhật MailTemplate</v>
+      </c>
+      <c r="C684" t="str">
+        <v>Quyền cập nhật MailTemplate</v>
+      </c>
+      <c r="D684" t="str">
+        <v>Mail Templates</v>
+      </c>
+      <c r="E684" t="str">
+        <v>Template Management</v>
+      </c>
+      <c r="F684" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="2" t="str">
+        <v>nationality.list</v>
+      </c>
+      <c r="B685" s="2" t="str">
+        <v>[Core] [Geographic Data] Danh sách Nationalities</v>
+      </c>
+      <c r="C685" t="str">
+        <v>Xem danh sách Nationalities</v>
+      </c>
+      <c r="D685" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E685" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F685" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" s="2" t="str">
+        <v>nationality.retrieve</v>
+      </c>
+      <c r="B686" s="2" t="str">
+        <v>[Core] [Geographic Data] Xem Nationality</v>
+      </c>
+      <c r="C686" t="str">
+        <v>Xem chi tiết của Nationality</v>
+      </c>
+      <c r="D686" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E686" t="str">
+        <v>Geographic Data</v>
+      </c>
+      <c r="F686" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" s="2" t="str">
+        <v>project.create</v>
+      </c>
+      <c r="B687" s="2" t="str">
+        <v>[Real Estate] [Project Management] Quyền tạo Project</v>
+      </c>
+      <c r="C687" t="str">
+        <v>Quyền tạo mới một Project</v>
+      </c>
+      <c r="D687" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E687" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F687" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" s="2" t="str">
+        <v>project.destroy</v>
+      </c>
+      <c r="B688" s="2" t="str">
+        <v>[Real Estate] [Project Management] Quyền xóa Project</v>
+      </c>
+      <c r="C688" t="str">
+        <v>Quyền xóa Project</v>
+      </c>
+      <c r="D688" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E688" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F688" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" s="2" t="str">
+        <v>project.histories</v>
+      </c>
+      <c r="B689" s="2" t="str">
+        <v>[Real Estate] [Project Management] Xem lịch sử Project</v>
+      </c>
+      <c r="C689" t="str">
+        <v>Xem lịch sử Project</v>
+      </c>
+      <c r="D689" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E689" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F689" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" s="2" t="str">
+        <v>project.history_detail</v>
+      </c>
+      <c r="B690" s="2" t="str">
+        <v>[Real Estate] [Project Management] Xem chi tiết lịch sử của Project</v>
+      </c>
+      <c r="C690" t="str">
+        <v>Xem chi tiết lịch sử của Project</v>
+      </c>
+      <c r="D690" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E690" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F690" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="A691" s="2" t="str">
+        <v>project.list</v>
+      </c>
+      <c r="B691" s="2" t="str">
+        <v>[Real Estate] [Project Management] Danh sách Projects</v>
+      </c>
+      <c r="C691" t="str">
+        <v>Xem danh sách Projects</v>
+      </c>
+      <c r="D691" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E691" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F691" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" s="2" t="str">
+        <v>project.partial_update</v>
+      </c>
+      <c r="B692" s="2" t="str">
+        <v>[Real Estate] [Project Management] Quyền cập nhật một phần Project</v>
+      </c>
+      <c r="C692" t="str">
+        <v>Quyền cập nhật một phần Project</v>
+      </c>
+      <c r="D692" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E692" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F692" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" s="2" t="str">
+        <v>project.retrieve</v>
+      </c>
+      <c r="B693" s="2" t="str">
+        <v>[Real Estate] [Project Management] Xem Project</v>
+      </c>
+      <c r="C693" t="str">
+        <v>Xem chi tiết của Project</v>
+      </c>
+      <c r="D693" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E693" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F693" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="2" t="str">
+        <v>project.update</v>
+      </c>
+      <c r="B694" s="2" t="str">
+        <v>[Real Estate] [Project Management] Quyền cập nhật Project</v>
+      </c>
+      <c r="C694" t="str">
+        <v>Quyền cập nhật Project</v>
+      </c>
+      <c r="D694" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E694" t="str">
+        <v>Project Management</v>
+      </c>
+      <c r="F694" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" s="2" t="str">
+        <v>employee_self_assessment.create</v>
+      </c>
+      <c r="B695" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền tạo EmployeeSelfAssessment</v>
+      </c>
+      <c r="C695" t="str">
+        <v>Quyền tạo mới một EmployeeSelfAssessment</v>
+      </c>
+      <c r="D695" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E695" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F695" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" s="2" t="str">
+        <v>employee_self_assessment.current_assessment</v>
+      </c>
+      <c r="B696" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] UNREGISTERED Current Assessment EmployeeSelfAssessment</v>
+      </c>
+      <c r="C696" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Current Assessment a EmployeeSelfAssessment</v>
+      </c>
+      <c r="D696" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E696" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F696" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" s="2" t="str">
+        <v>employee_self_assessment.destroy</v>
+      </c>
+      <c r="B697" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền xóa EmployeeSelfAssessment</v>
+      </c>
+      <c r="C697" t="str">
+        <v>Quyền xóa EmployeeSelfAssessment</v>
+      </c>
+      <c r="D697" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E697" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F697" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="A698" s="2" t="str">
+        <v>employee_self_assessment.list</v>
+      </c>
+      <c r="B698" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="C698" t="str">
+        <v>Xem danh sách EmployeeSelfAssessments</v>
+      </c>
+      <c r="D698" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E698" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F698" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" s="2" t="str">
+        <v>employee_self_assessment.partial_update</v>
+      </c>
+      <c r="B699" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật một phần EmployeeSelfAssessment</v>
+      </c>
+      <c r="C699" t="str">
+        <v>Quyền cập nhật một phần EmployeeSelfAssessment</v>
+      </c>
+      <c r="D699" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E699" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F699" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="A700" s="2" t="str">
+        <v>employee_self_assessment.retrieve</v>
+      </c>
+      <c r="B700" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Xem EmployeeSelfAssessment</v>
+      </c>
+      <c r="C700" t="str">
+        <v>Xem chi tiết của EmployeeSelfAssessment</v>
+      </c>
+      <c r="D700" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E700" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F700" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="A701" s="2" t="str">
+        <v>employee_self_assessment.update</v>
+      </c>
+      <c r="B701" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] Quyền cập nhật EmployeeSelfAssessment</v>
+      </c>
+      <c r="C701" t="str">
+        <v>Quyền cập nhật EmployeeSelfAssessment</v>
+      </c>
+      <c r="D701" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E701" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F701" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6">
+      <c r="A702" s="2" t="str">
+        <v>employee_self_assessment.update_item_score</v>
+      </c>
+      <c r="B702" s="2" t="str">
+        <v>[Payroll] [Employee Self-Assessment] UNREGISTERED Update Item Score EmployeeSelfAssessment</v>
+      </c>
+      <c r="C702" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Update Item Score a EmployeeSelfAssessment</v>
+      </c>
+      <c r="D702" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E702" t="str">
+        <v>Employee Self-Assessment</v>
+      </c>
+      <c r="F702" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" s="2" t="str">
+        <v>decision.create</v>
+      </c>
+      <c r="B703" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền tạo Quyết Định</v>
+      </c>
+      <c r="C703" t="str">
+        <v>Quyền tạo mới một Quyết Định</v>
+      </c>
+      <c r="D703" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E703" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F703" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="A704" s="2" t="str">
+        <v>decision.destroy</v>
+      </c>
+      <c r="B704" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền xóa Quyết Định</v>
+      </c>
+      <c r="C704" t="str">
+        <v>Quyền xóa Quyết Định</v>
+      </c>
+      <c r="D704" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E704" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F704" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" s="2" t="str">
+        <v>decision.export</v>
+      </c>
+      <c r="B705" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền xuất Quyết Định</v>
+      </c>
+      <c r="C705" t="str">
+        <v>Quyền xuất Quyết Định</v>
+      </c>
+      <c r="D705" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E705" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F705" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" s="2" t="str">
+        <v>decision.histories</v>
+      </c>
+      <c r="B706" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem lịch sử Quyết Định</v>
+      </c>
+      <c r="C706" t="str">
+        <v>Xem lịch sử Quyết Định</v>
+      </c>
+      <c r="D706" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E706" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F706" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="2" t="str">
+        <v>decision.history_detail</v>
+      </c>
+      <c r="B707" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem chi tiết lịch sử của Quyết Định</v>
+      </c>
+      <c r="C707" t="str">
+        <v>Xem chi tiết lịch sử của Quyết Định</v>
+      </c>
+      <c r="D707" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E707" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F707" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6">
+      <c r="A708" s="2" t="str">
+        <v>decision.list</v>
+      </c>
+      <c r="B708" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Danh sách Các Quyết Định</v>
+      </c>
+      <c r="C708" t="str">
+        <v>Xem danh sách Các Quyết Định</v>
+      </c>
+      <c r="D708" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E708" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F708" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="2" t="str">
+        <v>decision.partial_update</v>
+      </c>
+      <c r="B709" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền cập nhật một phần Quyết Định</v>
+      </c>
+      <c r="C709" t="str">
+        <v>Quyền cập nhật một phần Quyết Định</v>
+      </c>
+      <c r="D709" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E709" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F709" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="2" t="str">
+        <v>decision.retrieve</v>
+      </c>
+      <c r="B710" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Xem Quyết Định</v>
+      </c>
+      <c r="C710" t="str">
+        <v>Xem chi tiết của Quyết Định</v>
+      </c>
+      <c r="D710" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E710" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F710" t="str">
+        <v>S_HRM_CHUNG</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" s="2" t="str">
+        <v>decision.update</v>
+      </c>
+      <c r="B711" s="2" t="str">
+        <v>[HCNS] [Quản lý Quyết Định] Quyền cập nhật Quyết Định</v>
+      </c>
+      <c r="C711" t="str">
+        <v>Quyền cập nhật Quyết Định</v>
+      </c>
+      <c r="D711" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E711" t="str">
+        <v>Quản lý Quyết Định</v>
+      </c>
+      <c r="F711" t="str">
+        <v>S_HRM_CHUNG</v>
       </c>
     </row>
   </sheetData>
@@ -35708,10 +36450,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -37884,7 +38626,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="str" cm="1">
-        <f t="array" ref="A112:F155">S_TRUONGPHONG[]</f>
+        <f t="array" ref="A112:F164">S_TRUONGPHONG[]</f>
         <v>recruitment_request.create</v>
       </c>
       <c r="B112" t="str">
@@ -38761,6 +39503,186 @@
       </c>
       <c r="F155" t="str">
         <v>S_HRM_LUONG</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2" t="str">
+        <v>job_description.create</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Mô tả công việc</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <v>Quyền tạo mới một Mô tả công việc</v>
+      </c>
+      <c r="D156" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F156" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2" t="str">
+        <v>job_description.destroy</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <v>Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="D157" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F157" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="str">
+        <v>job_description.export</v>
+      </c>
+      <c r="B158" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <v>Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="D158" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F158" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2" t="str">
+        <v>job_description.histories</v>
+      </c>
+      <c r="B159" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <v>Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="D159" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F159" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2" t="str">
+        <v>job_description.history_detail</v>
+      </c>
+      <c r="B160" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="C160" s="2" t="str">
+        <v>Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="D160" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F160" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2" t="str">
+        <v>job_description.list</v>
+      </c>
+      <c r="B161" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Danh sách Mô Tả Công Việc</v>
+      </c>
+      <c r="C161" s="2" t="str">
+        <v>Xem danh sách Mô Tả Công Việc</v>
+      </c>
+      <c r="D161" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F161" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2" t="str">
+        <v>job_description.partial_update</v>
+      </c>
+      <c r="B162" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Mô tả công việc</v>
+      </c>
+      <c r="C162" s="2" t="str">
+        <v>Quyền cập nhật một phần Mô tả công việc</v>
+      </c>
+      <c r="D162" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F162" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2" t="str">
+        <v>job_description.retrieve</v>
+      </c>
+      <c r="B163" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem Mô tả công việc</v>
+      </c>
+      <c r="C163" s="2" t="str">
+        <v>Xem chi tiết của Mô tả công việc</v>
+      </c>
+      <c r="D163" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F163" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2" t="str">
+        <v>job_description.update</v>
+      </c>
+      <c r="B164" s="2" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Mô tả công việc</v>
+      </c>
+      <c r="C164" s="2" t="str">
+        <v>Quyền cập nhật Mô tả công việc</v>
+      </c>
+      <c r="D164" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F164" t="str">
+        <v>S_HRM_TUYENDUNG</v>
       </c>
     </row>
   </sheetData>
@@ -38772,7 +39694,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F684"/>
+  <dimension ref="A1:F685"/>
   <sheetViews>
     <sheetView topLeftCell="A585" workbookViewId="0">
       <selection activeCell="I605" sqref="I605"/>
@@ -49951,7 +50873,7 @@
     </row>
     <row r="609" spans="1:6">
       <c r="A609" s="2" t="str" cm="1">
-        <f t="array" ref="A609:F684">S_HRM_QL_DEXUAT[]</f>
+        <f t="array" ref="A609:F685">S_HRM_QL_DEXUAT[]</f>
         <v>proposal.approve</v>
       </c>
       <c r="B609" s="2" t="str">
@@ -51467,6 +52389,26 @@
         <v>Đề xuất</v>
       </c>
       <c r="F684" t="str">
+        <v>S_HRM_QL_DEXUAT</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="2" t="str">
+        <v>hrm.dashboard.common.realtime</v>
+      </c>
+      <c r="B685" s="2" t="str">
+        <v>[HCNS] [HRM Dashboard] View Common HRM realtime dashboard</v>
+      </c>
+      <c r="C685" t="str">
+        <v>View HRM stats for handling proposals, attendance, and penalties</v>
+      </c>
+      <c r="D685" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E685" t="str">
+        <v>HRM Dashboard</v>
+      </c>
+      <c r="F685" t="str">
         <v>S_HRM_QL_DEXUAT</v>
       </c>
     </row>
@@ -51479,10 +52421,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F823"/>
+  <dimension ref="A1:F848"/>
   <sheetViews>
-    <sheetView topLeftCell="B234" workbookViewId="0">
-      <selection activeCell="A247" sqref="$A247:$XFD247"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -51514,7 +52456,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:F77">S_HRM_QL_DEXUAT[]</f>
+        <f t="array" ref="A2:F78">S_HRM_QL_DEXUAT[]</f>
         <v>proposal.approve</v>
       </c>
       <c r="B2" t="str">
@@ -53030,6 +53972,26 @@
         <v>Đề xuất</v>
       </c>
       <c r="F77" t="str">
+        <v>S_HRM_QL_DEXUAT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="str">
+        <v>hrm.dashboard.common.realtime</v>
+      </c>
+      <c r="B78" t="str">
+        <v>[HCNS] [HRM Dashboard] View Common HRM realtime dashboard</v>
+      </c>
+      <c r="C78" t="str">
+        <v>View HRM stats for handling proposals, attendance, and penalties</v>
+      </c>
+      <c r="D78" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E78" t="str">
+        <v>HRM Dashboard</v>
+      </c>
+      <c r="F78" t="str">
         <v>S_HRM_QL_DEXUAT</v>
       </c>
     </row>
@@ -53976,7 +54938,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="str" cm="1">
-        <f t="array" ref="A211:F246">S_HRM_CHUNG[]</f>
+        <f t="array" ref="A211:F245">S_HRM_CHUNG[]</f>
         <v>export.check_status</v>
       </c>
       <c r="B211" t="str">
@@ -54672,26 +55634,6 @@
         <v>Quản lý Quyết Định</v>
       </c>
       <c r="F245" t="str">
-        <v>S_HRM_CHUNG</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="str">
-        <v>hrm.dashboard.common.realtime</v>
-      </c>
-      <c r="B246" t="str">
-        <v>[HCNS] [HRM Dashboard] View Common HRM realtime dashboard</v>
-      </c>
-      <c r="C246" t="str">
-        <v>View HRM stats for handling proposals, attendance, and penalties</v>
-      </c>
-      <c r="D246" t="str">
-        <v>HCNS</v>
-      </c>
-      <c r="E246" t="str">
-        <v>HRM Dashboard</v>
-      </c>
-      <c r="F246" t="str">
         <v>S_HRM_CHUNG</v>
       </c>
     </row>
@@ -63943,7 +64885,7 @@
     </row>
     <row r="747" spans="1:6">
       <c r="A747" t="str" cm="1">
-        <f t="array" ref="A747:F790">S_TRUONGPHONG[]</f>
+        <f t="array" ref="A747:F799">S_TRUONGPHONG[]</f>
         <v>recruitment_request.create</v>
       </c>
       <c r="B747" t="str">
@@ -64822,564 +65764,744 @@
         <v>S_HRM_LUONG</v>
       </c>
     </row>
+    <row r="791" spans="1:6">
+      <c r="A791" t="str">
+        <v>job_description.create</v>
+      </c>
+      <c r="B791" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền tạo Mô tả công việc</v>
+      </c>
+      <c r="C791" t="str">
+        <v>Quyền tạo mới một Mô tả công việc</v>
+      </c>
+      <c r="D791" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E791" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F791" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792" t="str">
+        <v>job_description.destroy</v>
+      </c>
+      <c r="B792" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="C792" t="str">
+        <v>Quyền xóa Mô tả công việc</v>
+      </c>
+      <c r="D792" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E792" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F792" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793" t="str">
+        <v>job_description.export</v>
+      </c>
+      <c r="B793" t="str">
+        <v>[HCNS] [Tuyển dụng] Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="C793" t="str">
+        <v>Quyền xuất Mô tả công việc</v>
+      </c>
+      <c r="D793" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E793" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F793" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" t="str">
+        <v>job_description.histories</v>
+      </c>
+      <c r="B794" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="C794" t="str">
+        <v>Xem lịch sử Mô tả công việc</v>
+      </c>
+      <c r="D794" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E794" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F794" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" t="str">
+        <v>job_description.history_detail</v>
+      </c>
+      <c r="B795" t="str">
+        <v>[HCNS] [Tuyển dụng] Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="C795" t="str">
+        <v>Xem chi tiết lịch sử của Mô tả công việc</v>
+      </c>
+      <c r="D795" t="str">
+        <v>HCNS</v>
+      </c>
+      <c r="E795" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F795" t="str">
+        <v>S_HRM_TUYENDUNG</v>
+      </c>
+    </row>
     <row r="796" spans="1:6">
-      <c r="A796" t="str" cm="1">
-        <f t="array" ref="A796:F823">core_permission[]</f>
-        <v>audit_logging.get_detail</v>
+      <c r="A796" t="str">
+        <v>job_description.list</v>
       </c>
       <c r="B796" t="str">
-        <v>[Hệ thống ] [Thao tác người dùng] UNREGISTERED Get Detail AuditLog</v>
+        <v>[HCNS] [Tuyển dụng] Danh sách Mô Tả Công Việc</v>
       </c>
       <c r="C796" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Get Detail a AuditLog</v>
+        <v>Xem danh sách Mô Tả Công Việc</v>
       </c>
       <c r="D796" t="str">
-        <v>Hệ thống </v>
+        <v>HCNS</v>
       </c>
       <c r="E796" t="str">
-        <v>Thao tác người dùng</v>
-      </c>
-      <c r="F796">
-        <v>0</v>
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F796" t="str">
+        <v>S_HRM_TUYENDUNG</v>
       </c>
     </row>
     <row r="797" spans="1:6">
       <c r="A797" t="str">
-        <v>audit_logging.search</v>
+        <v>job_description.partial_update</v>
       </c>
       <c r="B797" t="str">
-        <v>[Hệ thống ] [Thao tác người dùng] UNREGISTERED Search AuditLog</v>
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật một phần Mô tả công việc</v>
       </c>
       <c r="C797" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Search a AuditLog</v>
+        <v>Quyền cập nhật một phần Mô tả công việc</v>
       </c>
       <c r="D797" t="str">
-        <v>Hệ thống </v>
+        <v>HCNS</v>
       </c>
       <c r="E797" t="str">
-        <v>Thao tác người dùng</v>
-      </c>
-      <c r="F797">
-        <v>0</v>
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F797" t="str">
+        <v>S_HRM_TUYENDUNG</v>
       </c>
     </row>
     <row r="798" spans="1:6">
       <c r="A798" t="str">
-        <v>permission.retrieve</v>
+        <v>job_description.retrieve</v>
       </c>
       <c r="B798" t="str">
-        <v>[Core] [Permission Management] Xem Quyền</v>
+        <v>[HCNS] [Tuyển dụng] Xem Mô tả công việc</v>
       </c>
       <c r="C798" t="str">
-        <v>Xem chi tiết của Quyền</v>
+        <v>Xem chi tiết của Mô tả công việc</v>
       </c>
       <c r="D798" t="str">
-        <v>Core</v>
+        <v>HCNS</v>
       </c>
       <c r="E798" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F798">
-        <v>0</v>
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F798" t="str">
+        <v>S_HRM_TUYENDUNG</v>
       </c>
     </row>
     <row r="799" spans="1:6">
       <c r="A799" t="str">
-        <v>permission.list</v>
+        <v>job_description.update</v>
       </c>
       <c r="B799" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
+        <v>[HCNS] [Tuyển dụng] Quyền cập nhật Mô tả công việc</v>
       </c>
       <c r="C799" t="str">
-        <v>Xem danh sách Quyền</v>
+        <v>Quyền cập nhật Mô tả công việc</v>
       </c>
       <c r="D799" t="str">
-        <v>Core</v>
+        <v>HCNS</v>
       </c>
       <c r="E799" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F799">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800" spans="1:6">
-      <c r="A800" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B800" t="str">
-        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
-      </c>
-      <c r="C800" t="str">
-        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
-      </c>
-      <c r="D800" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E800" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F800">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6">
-      <c r="A801" t="str">
-        <v>department_kpi_assessment.update</v>
-      </c>
-      <c r="B801" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật Department KPI Assessment</v>
-      </c>
-      <c r="C801" t="str">
-        <v>Quyền cập nhật Department KPI Assessment</v>
-      </c>
-      <c r="D801" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E801" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F801">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6">
-      <c r="A802" t="str">
-        <v>department_kpi_assessment.partial_update</v>
-      </c>
-      <c r="B802" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Department KPI Assessment</v>
-      </c>
-      <c r="C802" t="str">
-        <v>Quyền cập nhật một phần Department KPI Assessment</v>
-      </c>
-      <c r="D802" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E802" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F802">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6">
-      <c r="A803" t="str">
-        <v>role.create</v>
-      </c>
-      <c r="B803" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền tạo Vai trò</v>
-      </c>
-      <c r="C803" t="str">
-        <v>Quyền tạo mới một Vai trò</v>
-      </c>
-      <c r="D803" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E803" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F803">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6">
-      <c r="A804" t="str">
-        <v>role.destroy</v>
-      </c>
-      <c r="B804" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền xóa Vai trò</v>
-      </c>
-      <c r="C804" t="str">
-        <v>Quyền xóa Vai trò</v>
-      </c>
-      <c r="D804" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E804" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F804">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805" spans="1:6">
-      <c r="A805" t="str">
-        <v>role.histories</v>
-      </c>
-      <c r="B805" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem lịch sử Vai trò</v>
-      </c>
-      <c r="C805" t="str">
-        <v>Xem lịch sử Vai trò</v>
-      </c>
-      <c r="D805" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E805" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F805">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806" spans="1:6">
-      <c r="A806" t="str">
-        <v>role.history_detail</v>
-      </c>
-      <c r="B806" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem chi tiết lịch sử của Vai trò</v>
-      </c>
-      <c r="C806" t="str">
-        <v>Xem chi tiết lịch sử của Vai trò</v>
-      </c>
-      <c r="D806" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E806" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F806">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="1:6">
-      <c r="A807" t="str">
-        <v>role.list</v>
-      </c>
-      <c r="B807" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Danh sách Các Vai Trò</v>
-      </c>
-      <c r="C807" t="str">
-        <v>Xem danh sách Các Vai Trò</v>
-      </c>
-      <c r="D807" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E807" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F807">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6">
-      <c r="A808" t="str">
-        <v>role.partial_update</v>
-      </c>
-      <c r="B808" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật một phần Vai trò</v>
-      </c>
-      <c r="C808" t="str">
-        <v>Quyền cập nhật một phần Vai trò</v>
-      </c>
-      <c r="D808" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E808" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F808">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6">
-      <c r="A809" t="str">
-        <v>role.retrieve</v>
-      </c>
-      <c r="B809" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem Vai trò</v>
-      </c>
-      <c r="C809" t="str">
-        <v>Xem chi tiết của Vai trò</v>
-      </c>
-      <c r="D809" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E809" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F809">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6">
-      <c r="A810" t="str">
-        <v>role.update</v>
-      </c>
-      <c r="B810" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật Vai trò</v>
-      </c>
-      <c r="C810" t="str">
-        <v>Quyền cập nhật Vai trò</v>
-      </c>
-      <c r="D810" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E810" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F810">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811" spans="1:6">
-      <c r="A811" t="str">
-        <v>department_kpi_assessment.partial_update</v>
-      </c>
-      <c r="B811" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Department KPI Assessment</v>
-      </c>
-      <c r="C811" t="str">
-        <v>Quyền cập nhật một phần Department KPI Assessment</v>
-      </c>
-      <c r="D811" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E811" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F811" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="812" spans="1:6">
-      <c r="A812" t="str">
-        <v>department_kpi_assessment.update</v>
-      </c>
-      <c r="B812" t="str">
-        <v>[Payroll] [KPI Management] Quyền cập nhật Department KPI Assessment</v>
-      </c>
-      <c r="C812" t="str">
-        <v>Quyền cập nhật Department KPI Assessment</v>
-      </c>
-      <c r="D812" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="E812" t="str">
-        <v>KPI Management</v>
-      </c>
-      <c r="F812" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="813" spans="1:6">
-      <c r="A813" t="str">
-        <v>permission.list</v>
-      </c>
-      <c r="B813" t="str">
-        <v>[Core] [Permission Management] Danh sách Quyền</v>
-      </c>
-      <c r="C813" t="str">
-        <v>Xem danh sách Quyền</v>
-      </c>
-      <c r="D813" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E813" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F813" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="814" spans="1:6">
-      <c r="A814" t="str">
-        <v>permission.structure</v>
-      </c>
-      <c r="B814" t="str">
-        <v>[Core] [Permission Management] Quyền xem cấu trúc permission</v>
-      </c>
-      <c r="C814" t="str">
-        <v>Quyền xem cấu trúc module và submodule permission</v>
-      </c>
-      <c r="D814" t="str">
-        <v>Core</v>
-      </c>
-      <c r="E814" t="str">
-        <v>Permission Management</v>
-      </c>
-      <c r="F814" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="815" spans="1:6">
-      <c r="A815" t="str">
-        <v>role.clone</v>
-      </c>
-      <c r="B815" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Nhân bản vai trò</v>
-      </c>
-      <c r="C815" t="str">
-        <v>Nhân bản một vai trò hiện có</v>
-      </c>
-      <c r="D815" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E815" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F815" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="816" spans="1:6">
-      <c r="A816" t="str">
-        <v>role.create</v>
-      </c>
-      <c r="B816" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền tạo Vai trò</v>
-      </c>
-      <c r="C816" t="str">
-        <v>Quyền tạo mới một Vai trò</v>
-      </c>
-      <c r="D816" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E816" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F816" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="817" spans="1:6">
-      <c r="A817" t="str">
-        <v>role.destroy</v>
-      </c>
-      <c r="B817" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền xóa Vai trò</v>
-      </c>
-      <c r="C817" t="str">
-        <v>Quyền xóa Vai trò</v>
-      </c>
-      <c r="D817" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E817" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F817" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="818" spans="1:6">
-      <c r="A818" t="str">
-        <v>role.histories</v>
-      </c>
-      <c r="B818" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem lịch sử Vai trò</v>
-      </c>
-      <c r="C818" t="str">
-        <v>Xem lịch sử Vai trò</v>
-      </c>
-      <c r="D818" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E818" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F818" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="819" spans="1:6">
-      <c r="A819" t="str">
-        <v>role.history_detail</v>
-      </c>
-      <c r="B819" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem chi tiết lịch sử của Vai trò</v>
-      </c>
-      <c r="C819" t="str">
-        <v>Xem chi tiết lịch sử của Vai trò</v>
-      </c>
-      <c r="D819" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E819" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F819" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="820" spans="1:6">
-      <c r="A820" t="str">
-        <v>role.list</v>
-      </c>
-      <c r="B820" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Danh sách Các Vai Trò</v>
-      </c>
-      <c r="C820" t="str">
-        <v>Xem danh sách Các Vai Trò</v>
-      </c>
-      <c r="D820" t="str">
-        <v>Hệ thống </v>
-      </c>
-      <c r="E820" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F820" t="str">
-        <v/>
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="F799" t="str">
+        <v>S_HRM_TUYENDUNG</v>
       </c>
     </row>
     <row r="821" spans="1:6">
-      <c r="A821" t="str">
-        <v>role.partial_update</v>
+      <c r="A821" t="str" cm="1">
+        <f t="array" ref="A821:F848">core_permission[]</f>
+        <v>audit_logging.get_detail</v>
       </c>
       <c r="B821" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật một phần Vai trò</v>
+        <v>[Hệ thống ] [Thao tác người dùng] UNREGISTERED Get Detail AuditLog</v>
       </c>
       <c r="C821" t="str">
-        <v>Quyền cập nhật một phần Vai trò</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Get Detail a AuditLog</v>
       </c>
       <c r="D821" t="str">
         <v>Hệ thống </v>
       </c>
       <c r="E821" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F821" t="str">
-        <v/>
+        <v>Thao tác người dùng</v>
+      </c>
+      <c r="F821">
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:6">
       <c r="A822" t="str">
-        <v>role.retrieve</v>
+        <v>audit_logging.search</v>
       </c>
       <c r="B822" t="str">
-        <v>[Hệ thống ] [Quản lý vai trò] Xem Vai trò</v>
+        <v>[Hệ thống ] [Thao tác người dùng] UNREGISTERED Search AuditLog</v>
       </c>
       <c r="C822" t="str">
-        <v>Xem chi tiết của Vai trò</v>
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Search a AuditLog</v>
       </c>
       <c r="D822" t="str">
         <v>Hệ thống </v>
       </c>
       <c r="E822" t="str">
-        <v>Quản lý vai trò</v>
-      </c>
-      <c r="F822" t="str">
-        <v/>
+        <v>Thao tác người dùng</v>
+      </c>
+      <c r="F822">
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:6">
       <c r="A823" t="str">
+        <v>permission.retrieve</v>
+      </c>
+      <c r="B823" t="str">
+        <v>[Core] [Permission Management] Xem Quyền</v>
+      </c>
+      <c r="C823" t="str">
+        <v>Xem chi tiết của Quyền</v>
+      </c>
+      <c r="D823" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E823" t="str">
+        <v>Permission Management</v>
+      </c>
+      <c r="F823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" t="str">
+        <v>permission.list</v>
+      </c>
+      <c r="B824" t="str">
+        <v>[Core] [Permission Management] Danh sách Quyền</v>
+      </c>
+      <c r="C824" t="str">
+        <v>Xem danh sách Quyền</v>
+      </c>
+      <c r="D824" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E824" t="str">
+        <v>Permission Management</v>
+      </c>
+      <c r="F824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" t="str">
+        <v>permission.structure</v>
+      </c>
+      <c r="B825" t="str">
+        <v>[Core] [Permission Management] UNREGISTERED Structure Quyền</v>
+      </c>
+      <c r="C825" t="str">
+        <v>You need to add this action to PERMISSION_REGISTERED_ACTIONS to it's View Structure a Quyền</v>
+      </c>
+      <c r="D825" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E825" t="str">
+        <v>Permission Management</v>
+      </c>
+      <c r="F825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" t="str">
+        <v>department_kpi_assessment.update</v>
+      </c>
+      <c r="B826" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="C826" t="str">
+        <v>Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="D826" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E826" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" t="str">
+        <v>department_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B827" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="C827" t="str">
+        <v>Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="D827" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E827" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828" t="str">
+        <v>role.create</v>
+      </c>
+      <c r="B828" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền tạo Vai trò</v>
+      </c>
+      <c r="C828" t="str">
+        <v>Quyền tạo mới một Vai trò</v>
+      </c>
+      <c r="D828" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E828" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" t="str">
+        <v>role.destroy</v>
+      </c>
+      <c r="B829" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền xóa Vai trò</v>
+      </c>
+      <c r="C829" t="str">
+        <v>Quyền xóa Vai trò</v>
+      </c>
+      <c r="D829" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E829" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" t="str">
+        <v>role.histories</v>
+      </c>
+      <c r="B830" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem lịch sử Vai trò</v>
+      </c>
+      <c r="C830" t="str">
+        <v>Xem lịch sử Vai trò</v>
+      </c>
+      <c r="D830" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E830" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" t="str">
+        <v>role.history_detail</v>
+      </c>
+      <c r="B831" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem chi tiết lịch sử của Vai trò</v>
+      </c>
+      <c r="C831" t="str">
+        <v>Xem chi tiết lịch sử của Vai trò</v>
+      </c>
+      <c r="D831" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E831" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" t="str">
+        <v>role.list</v>
+      </c>
+      <c r="B832" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Danh sách Các Vai Trò</v>
+      </c>
+      <c r="C832" t="str">
+        <v>Xem danh sách Các Vai Trò</v>
+      </c>
+      <c r="D832" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E832" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6">
+      <c r="A833" t="str">
+        <v>role.partial_update</v>
+      </c>
+      <c r="B833" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật một phần Vai trò</v>
+      </c>
+      <c r="C833" t="str">
+        <v>Quyền cập nhật một phần Vai trò</v>
+      </c>
+      <c r="D833" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E833" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="A834" t="str">
+        <v>role.retrieve</v>
+      </c>
+      <c r="B834" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem Vai trò</v>
+      </c>
+      <c r="C834" t="str">
+        <v>Xem chi tiết của Vai trò</v>
+      </c>
+      <c r="D834" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E834" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6">
+      <c r="A835" t="str">
         <v>role.update</v>
       </c>
-      <c r="B823" t="str">
+      <c r="B835" t="str">
         <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật Vai trò</v>
       </c>
-      <c r="C823" t="str">
+      <c r="C835" t="str">
         <v>Quyền cập nhật Vai trò</v>
       </c>
-      <c r="D823" t="str">
+      <c r="D835" t="str">
         <v>Hệ thống </v>
       </c>
-      <c r="E823" t="str">
+      <c r="E835" t="str">
         <v>Quản lý vai trò</v>
       </c>
-      <c r="F823" t="str">
+      <c r="F835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6">
+      <c r="A836" t="str">
+        <v>department_kpi_assessment.partial_update</v>
+      </c>
+      <c r="B836" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="C836" t="str">
+        <v>Quyền cập nhật một phần Department KPI Assessment</v>
+      </c>
+      <c r="D836" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E836" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F836" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="837" spans="1:6">
+      <c r="A837" t="str">
+        <v>department_kpi_assessment.update</v>
+      </c>
+      <c r="B837" t="str">
+        <v>[Payroll] [KPI Management] Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="C837" t="str">
+        <v>Quyền cập nhật Department KPI Assessment</v>
+      </c>
+      <c r="D837" t="str">
+        <v>Payroll</v>
+      </c>
+      <c r="E837" t="str">
+        <v>KPI Management</v>
+      </c>
+      <c r="F837" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="838" spans="1:6">
+      <c r="A838" t="str">
+        <v>permission.list</v>
+      </c>
+      <c r="B838" t="str">
+        <v>[Core] [Permission Management] Danh sách Quyền</v>
+      </c>
+      <c r="C838" t="str">
+        <v>Xem danh sách Quyền</v>
+      </c>
+      <c r="D838" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E838" t="str">
+        <v>Permission Management</v>
+      </c>
+      <c r="F838" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="839" spans="1:6">
+      <c r="A839" t="str">
+        <v>permission.structure</v>
+      </c>
+      <c r="B839" t="str">
+        <v>[Core] [Permission Management] Quyền xem cấu trúc permission</v>
+      </c>
+      <c r="C839" t="str">
+        <v>Quyền xem cấu trúc module và submodule permission</v>
+      </c>
+      <c r="D839" t="str">
+        <v>Core</v>
+      </c>
+      <c r="E839" t="str">
+        <v>Permission Management</v>
+      </c>
+      <c r="F839" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="840" spans="1:6">
+      <c r="A840" t="str">
+        <v>role.clone</v>
+      </c>
+      <c r="B840" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Nhân bản vai trò</v>
+      </c>
+      <c r="C840" t="str">
+        <v>Nhân bản một vai trò hiện có</v>
+      </c>
+      <c r="D840" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E840" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F840" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="841" spans="1:6">
+      <c r="A841" t="str">
+        <v>role.create</v>
+      </c>
+      <c r="B841" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền tạo Vai trò</v>
+      </c>
+      <c r="C841" t="str">
+        <v>Quyền tạo mới một Vai trò</v>
+      </c>
+      <c r="D841" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E841" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F841" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="842" spans="1:6">
+      <c r="A842" t="str">
+        <v>role.destroy</v>
+      </c>
+      <c r="B842" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền xóa Vai trò</v>
+      </c>
+      <c r="C842" t="str">
+        <v>Quyền xóa Vai trò</v>
+      </c>
+      <c r="D842" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E842" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F842" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="843" spans="1:6">
+      <c r="A843" t="str">
+        <v>role.histories</v>
+      </c>
+      <c r="B843" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem lịch sử Vai trò</v>
+      </c>
+      <c r="C843" t="str">
+        <v>Xem lịch sử Vai trò</v>
+      </c>
+      <c r="D843" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E843" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F843" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="844" spans="1:6">
+      <c r="A844" t="str">
+        <v>role.history_detail</v>
+      </c>
+      <c r="B844" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem chi tiết lịch sử của Vai trò</v>
+      </c>
+      <c r="C844" t="str">
+        <v>Xem chi tiết lịch sử của Vai trò</v>
+      </c>
+      <c r="D844" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E844" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F844" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="845" spans="1:6">
+      <c r="A845" t="str">
+        <v>role.list</v>
+      </c>
+      <c r="B845" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Danh sách Các Vai Trò</v>
+      </c>
+      <c r="C845" t="str">
+        <v>Xem danh sách Các Vai Trò</v>
+      </c>
+      <c r="D845" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E845" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F845" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="846" spans="1:6">
+      <c r="A846" t="str">
+        <v>role.partial_update</v>
+      </c>
+      <c r="B846" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật một phần Vai trò</v>
+      </c>
+      <c r="C846" t="str">
+        <v>Quyền cập nhật một phần Vai trò</v>
+      </c>
+      <c r="D846" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E846" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F846" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="847" spans="1:6">
+      <c r="A847" t="str">
+        <v>role.retrieve</v>
+      </c>
+      <c r="B847" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Xem Vai trò</v>
+      </c>
+      <c r="C847" t="str">
+        <v>Xem chi tiết của Vai trò</v>
+      </c>
+      <c r="D847" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E847" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F847" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="848" spans="1:6">
+      <c r="A848" t="str">
+        <v>role.update</v>
+      </c>
+      <c r="B848" t="str">
+        <v>[Hệ thống ] [Quản lý vai trò] Quyền cập nhật Vai trò</v>
+      </c>
+      <c r="C848" t="str">
+        <v>Quyền cập nhật Vai trò</v>
+      </c>
+      <c r="D848" t="str">
+        <v>Hệ thống </v>
+      </c>
+      <c r="E848" t="str">
+        <v>Quản lý vai trò</v>
+      </c>
+      <c r="F848" t="str">
         <v/>
       </c>
     </row>
@@ -67562,8 +68684,8 @@
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A22:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -75126,10 +76248,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -75861,26 +76983,6 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1383</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -75894,10 +76996,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -75947,7 +77049,7 @@
         <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -75967,7 +77069,7 @@
         <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -75987,7 +77089,7 @@
         <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -76007,7 +77109,7 @@
         <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -76027,7 +77129,7 @@
         <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -76047,7 +77149,7 @@
         <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -76067,7 +77169,7 @@
         <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -76087,18 +77189,18 @@
         <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B10" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C10" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -76107,18 +77209,18 @@
         <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B11" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C11" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -76127,18 +77229,18 @@
         <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="B12" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C12" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -76147,18 +77249,18 @@
         <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B13" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C13" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
@@ -76167,18 +77269,18 @@
         <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B14" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C14" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
@@ -76187,18 +77289,18 @@
         <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B15" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C15" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
@@ -76207,7 +77309,7 @@
         <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -76227,18 +77329,18 @@
         <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B17" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C17" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -76247,18 +77349,18 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B18" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C18" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -76267,18 +77369,18 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B19" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C19" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -76287,18 +77389,18 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B20" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C20" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -76307,15 +77409,15 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B21" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C21" t="s">
         <v>154</v>
@@ -76327,15 +77429,15 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B22" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C22" t="s">
         <v>157</v>
@@ -76347,15 +77449,15 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B23" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C23" t="s">
         <v>160</v>
@@ -76367,15 +77469,15 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B24" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C24" t="s">
         <v>163</v>
@@ -76387,27 +77489,27 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B25" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C25" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F25" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -76427,215 +77529,215 @@
         <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C27" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F27" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B28" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C28" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F28" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B29" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C29" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F29" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B30" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C30" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F30" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B31" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C31" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F31" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B32" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C32" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F32" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B33" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C33" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F33" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B34" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C34" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F34" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B35" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C35" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F35" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B36" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C36" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D36" t="s">
         <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F36" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B37" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C37" t="s">
         <v>143</v>
@@ -76644,38 +77746,38 @@
         <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F37" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B38" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C38" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D38" t="s">
         <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F38" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B39" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C39" t="s">
         <v>151</v>
@@ -76684,18 +77786,18 @@
         <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F39" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B40" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C40" t="s">
         <v>154</v>
@@ -76704,18 +77806,18 @@
         <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F40" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="B41" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C41" t="s">
         <v>157</v>
@@ -76724,18 +77826,18 @@
         <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F41" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B42" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C42" t="s">
         <v>160</v>
@@ -76744,18 +77846,18 @@
         <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F42" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B43" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C43" t="s">
         <v>163</v>
@@ -76764,10 +77866,10 @@
         <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F43" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -76808,6 +77910,186 @@
       </c>
       <c r="F45" t="s">
         <v>939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B49" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" t="s">
+        <v>366</v>
+      </c>
+      <c r="C50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260" tabRatio="894" firstSheet="13" activeTab="17"/>
+    <workbookView windowHeight="15300" tabRatio="894" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -8001,7 +8001,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -8750,7 +8750,7 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="A70" sqref="A70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -10354,7 +10354,7 @@
   <sheetPr/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -12460,7 +12460,7 @@
   <sheetPr/>
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -14553,7 +14553,6 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105"/>
-      <c r="B105"/>
       <c r="C105"/>
     </row>
     <row r="106" spans="1:3">
@@ -37307,8 +37306,8 @@
   <sheetPr/>
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -40292,7 +40291,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F154" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -40312,7 +40311,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F155" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -40332,7 +40331,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F156" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -40352,7 +40351,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F157" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -40372,7 +40371,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F158" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -40392,7 +40391,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F159" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -40412,7 +40411,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F160" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -40432,7 +40431,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F161" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -40452,7 +40451,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F162" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -40472,7 +40471,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F163" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -40492,7 +40491,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F164" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -40512,7 +40511,7 @@
         <v>Đề xuất</v>
       </c>
       <c r="F165" t="str">
-        <v>S_NV_CHUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
   </sheetData>
@@ -40526,8 +40525,8 @@
   <sheetPr/>
   <dimension ref="A1:F754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="B671" sqref="B671"/>
+    <sheetView topLeftCell="A711" workbookViewId="0">
+      <selection activeCell="A746" sqref="A746:G746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -52310,7 +52309,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F652" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -52330,7 +52329,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F653" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -52350,7 +52349,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F654" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -52370,7 +52369,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F655" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -52390,7 +52389,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F656" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -52410,7 +52409,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F657" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -52430,7 +52429,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F658" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -52450,7 +52449,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F659" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -52470,7 +52469,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F660" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -52490,7 +52489,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F661" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -52510,7 +52509,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F662" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -52530,7 +52529,7 @@
         <v>Đề xuất</v>
       </c>
       <c r="F663" t="str">
-        <v>S_NV_CHUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -62564,7 +62563,7 @@
         <v>KPI Management</v>
       </c>
       <c r="F525" t="str">
-        <v/>
+        <v>S_HRM_TONG</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -67427,7 +67426,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F789" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -67447,7 +67446,7 @@
         <v>KPI Period Management</v>
       </c>
       <c r="F790" t="str">
-        <v>S_HRM_LUONG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -67467,7 +67466,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F791" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="792" spans="1:6">
@@ -67487,7 +67486,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F792" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -67507,7 +67506,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F793" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -67527,7 +67526,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F794" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -67547,7 +67546,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F795" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -67567,7 +67566,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F796" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -67587,7 +67586,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F797" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -67607,7 +67606,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F798" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -67627,7 +67626,7 @@
         <v>Tuyển dụng</v>
       </c>
       <c r="F799" t="str">
-        <v>S_HRM_TUYENDUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -67647,7 +67646,7 @@
         <v>Đề xuất</v>
       </c>
       <c r="F800" t="str">
-        <v>S_NV_CHUNG</v>
+        <v>S_TRUONGPHONG</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -70330,7 +70329,7 @@
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A30" sqref="A22:F30"/>
     </sheetView>
   </sheetViews>
@@ -78684,8 +78683,8 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -79575,7 +79574,7 @@
         <v>1130</v>
       </c>
       <c r="F44" t="s">
-        <v>932</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -79595,7 +79594,7 @@
         <v>1130</v>
       </c>
       <c r="F45" t="s">
-        <v>932</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -79615,7 +79614,7 @@
         <v>287</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -79635,7 +79634,7 @@
         <v>287</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -79655,7 +79654,7 @@
         <v>287</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -79675,7 +79674,7 @@
         <v>287</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -79695,7 +79694,7 @@
         <v>287</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -79715,7 +79714,7 @@
         <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -79735,7 +79734,7 @@
         <v>287</v>
       </c>
       <c r="F52" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -79755,7 +79754,7 @@
         <v>287</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -79775,7 +79774,7 @@
         <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -79795,7 +79794,7 @@
         <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>1477</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fixtures/core_permission.xlsx
+++ b/apps/core/fixtures/core_permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300" tabRatio="894" activeTab="7"/>
+    <workbookView windowHeight="15300" tabRatio="894" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="core_permission" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="1885">
   <si>
     <t>code</t>
   </si>
@@ -3811,15 +3811,6 @@
     <t>Quyền tạo mới một Miễn chấm công</t>
   </si>
   <si>
-    <t>attendance_exemption.destroy</t>
-  </si>
-  <si>
-    <t>[HRM] [Quản lý Chấm Công] Quyền xóa Miễn chấm công</t>
-  </si>
-  <si>
-    <t>Quyền xóa Miễn chấm công</t>
-  </si>
-  <si>
     <t>attendance_exemption.export</t>
   </si>
   <si>
@@ -3856,15 +3847,6 @@
     <t>Xem danh sách Các Nhân Sự Miễn Chấm Công</t>
   </si>
   <si>
-    <t>attendance_exemption.partial_update</t>
-  </si>
-  <si>
-    <t>[HRM] [Quản lý Chấm Công] Quyền cập nhật một phần Miễn chấm công</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật một phần Miễn chấm công</t>
-  </si>
-  <si>
     <t>attendance_exemption.retrieve</t>
   </si>
   <si>
@@ -3874,15 +3856,6 @@
     <t>Xem chi tiết của Miễn chấm công</t>
   </si>
   <si>
-    <t>attendance_exemption.update</t>
-  </si>
-  <si>
-    <t>[HRM] [Quản lý Chấm Công] Quyền cập nhật Miễn chấm công</t>
-  </si>
-  <si>
-    <t>Quyền cập nhật Miễn chấm công</t>
-  </si>
-  <si>
     <t>attendance_geolocation.destroy</t>
   </si>
   <si>
@@ -3928,9 +3901,6 @@
     <t>Quyền tạo mới một Log chấm Công GPS</t>
   </si>
   <si>
-    <t>S_NV_CHAMCONG</t>
-  </si>
-  <si>
     <t>attendance_geolocation.partial_update</t>
   </si>
   <si>
@@ -5042,6 +5012,12 @@
   </si>
   <si>
     <t>Quyền cập nhật KPI Criterion</t>
+  </si>
+  <si>
+    <t>attendance_exemption.disable</t>
+  </si>
+  <si>
+    <t>[HRM] [Quản lý Chấm Công] UNREGISTERED Disable Miễn chấm công</t>
   </si>
   <si>
     <t>proposal.approve</t>
@@ -7091,8 +7067,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="S_HRM_TONG" displayName="S_HRM_TONG" ref="A1:F37" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F37" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="S_HRM_TONG" displayName="S_HRM_TONG" ref="A1:F38" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F38" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="54"/>
     <tableColumn id="2" name="Tên" dataDxfId="55"/>
@@ -7184,8 +7160,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="S_HRM_CHAMCONG" displayName="S_HRM_CHAMCONG" ref="A1:F48" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F48" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="S_HRM_CHAMCONG" displayName="S_HRM_CHAMCONG" ref="A1:F45" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F45" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="code" dataDxfId="30"/>
     <tableColumn id="2" name="Tên" dataDxfId="31"/>
@@ -8164,10 +8140,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -8201,10 +8177,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="B2" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -8216,15 +8192,15 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="B3" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -8236,18 +8212,18 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="B4" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="C4" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -8256,18 +8232,18 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="B5" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="C5" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -8276,15 +8252,15 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="B6" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="C6" t="s">
         <v>170</v>
@@ -8296,15 +8272,15 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="B7" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="C7" t="s">
         <v>173</v>
@@ -8316,15 +8292,15 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="B8" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="C8" t="s">
         <v>176</v>
@@ -8336,15 +8312,15 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="B9" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="C9" t="s">
         <v>179</v>
@@ -8356,18 +8332,18 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="B10" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="C10" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -8376,18 +8352,18 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="B11" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="C11" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -8396,18 +8372,18 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="B12" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="C12" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -8416,18 +8392,18 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="B13" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="C13" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -8436,18 +8412,18 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="B14" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="C14" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -8456,18 +8432,18 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="B15" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="C15" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -8476,198 +8452,198 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="B16" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="C16" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F16" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="B17" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="C17" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F17" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="B18" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="C18" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F18" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="B19" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="C19" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F19" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="B20" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="C20" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F20" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="B21" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="C21" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F21" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="B22" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="C22" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F22" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B23" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="C23" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F23" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="B24" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="C24" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F24" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="B25" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C25" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -8676,18 +8652,18 @@
         <v>1130</v>
       </c>
       <c r="F25" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="B26" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="C26" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -8696,12 +8672,12 @@
         <v>1130</v>
       </c>
       <c r="F26" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="B27" t="s">
         <v>1128</v>
@@ -8716,12 +8692,12 @@
         <v>1130</v>
       </c>
       <c r="F27" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="B28" t="s">
         <v>1132</v>
@@ -8736,18 +8712,18 @@
         <v>1130</v>
       </c>
       <c r="F28" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="B29" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="C29" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -8756,18 +8732,18 @@
         <v>1130</v>
       </c>
       <c r="F29" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="B30" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="C30" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -8776,18 +8752,18 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="B31" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="C31" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -8796,18 +8772,18 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="B32" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="C32" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -8816,18 +8792,18 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="B33" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="C33" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -8836,18 +8812,18 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="B34" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="C34" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -8856,18 +8832,18 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="B35" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="C35" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -8876,18 +8852,18 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="B36" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="C36" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -8896,18 +8872,18 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="B37" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="C37" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -8916,7 +8892,27 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>1574</v>
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -8968,13 +8964,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="B2" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="C2" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
@@ -8983,18 +8979,18 @@
         <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="B3" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="C3" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
@@ -9003,18 +8999,18 @@
         <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="B4" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="C4" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
@@ -9023,15 +9019,15 @@
         <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="B5" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
@@ -9043,18 +9039,18 @@
         <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="B6" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="C6" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
@@ -9063,15 +9059,15 @@
         <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="B7" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C7" t="s">
         <v>186</v>
@@ -9083,18 +9079,18 @@
         <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="B8" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="C8" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
@@ -9103,18 +9099,18 @@
         <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="B9" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="C9" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -9123,18 +9119,18 @@
         <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="B10" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="C10" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -9143,18 +9139,18 @@
         <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="B11" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="C11" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
@@ -9163,18 +9159,18 @@
         <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="B12" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="C12" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
@@ -9183,18 +9179,18 @@
         <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="B13" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="C13" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
@@ -9203,18 +9199,18 @@
         <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="B14" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="C14" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -9223,18 +9219,18 @@
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="B15" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="C15" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
@@ -9243,18 +9239,18 @@
         <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="B16" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="C16" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="D16" t="s">
         <v>95</v>
@@ -9263,18 +9259,18 @@
         <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="B17" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="C17" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
@@ -9283,18 +9279,18 @@
         <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="B18" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="C18" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
@@ -9303,18 +9299,18 @@
         <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="B19" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="C19" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="D19" t="s">
         <v>95</v>
@@ -9323,18 +9319,18 @@
         <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="B20" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="C20" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
@@ -9343,18 +9339,18 @@
         <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="B21" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="C21" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
@@ -9363,18 +9359,18 @@
         <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="B22" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="C22" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -9383,18 +9379,18 @@
         <v>183</v>
       </c>
       <c r="F22" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="B23" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C23" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
@@ -9403,18 +9399,18 @@
         <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="B24" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="C24" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
@@ -9423,18 +9419,18 @@
         <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="B25" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="C25" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D25" t="s">
         <v>95</v>
@@ -9443,18 +9439,18 @@
         <v>183</v>
       </c>
       <c r="F25" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="B26" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="C26" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
@@ -9463,18 +9459,18 @@
         <v>183</v>
       </c>
       <c r="F26" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="B27" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="C27" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
@@ -9483,18 +9479,18 @@
         <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="B28" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="C28" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
@@ -9503,18 +9499,18 @@
         <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="B29" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="C29" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -9523,18 +9519,18 @@
         <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="B30" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="C30" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
@@ -9543,18 +9539,18 @@
         <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="B31" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="C31" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
@@ -9563,18 +9559,18 @@
         <v>183</v>
       </c>
       <c r="F31" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="B32" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="C32" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
@@ -9583,18 +9579,18 @@
         <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="B33" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="C33" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>
@@ -9603,18 +9599,18 @@
         <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="B34" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="C34" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -9623,18 +9619,18 @@
         <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="B35" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="C35" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
@@ -9643,18 +9639,18 @@
         <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="B36" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="C36" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="D36" t="s">
         <v>95</v>
@@ -9663,18 +9659,18 @@
         <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="B37" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="C37" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="D37" t="s">
         <v>95</v>
@@ -9683,18 +9679,18 @@
         <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="B38" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="C38" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="D38" t="s">
         <v>95</v>
@@ -9703,18 +9699,18 @@
         <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="B39" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="C39" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="D39" t="s">
         <v>95</v>
@@ -9723,18 +9719,18 @@
         <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="B40" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="C40" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="D40" t="s">
         <v>95</v>
@@ -9743,18 +9739,18 @@
         <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="B41" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="C41" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="D41" t="s">
         <v>95</v>
@@ -9763,18 +9759,18 @@
         <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="B42" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="C42" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="D42" t="s">
         <v>95</v>
@@ -9783,18 +9779,18 @@
         <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="B43" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="C43" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="D43" t="s">
         <v>95</v>
@@ -9803,18 +9799,18 @@
         <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="B44" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="C44" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="D44" t="s">
         <v>95</v>
@@ -9823,18 +9819,18 @@
         <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="B45" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="C45" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="D45" t="s">
         <v>95</v>
@@ -9843,18 +9839,18 @@
         <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="B46" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="C46" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="D46" t="s">
         <v>95</v>
@@ -9863,18 +9859,18 @@
         <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="B47" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="C47" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
@@ -9883,18 +9879,18 @@
         <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="B48" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="C48" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="D48" t="s">
         <v>95</v>
@@ -9903,18 +9899,18 @@
         <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="B49" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="C49" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="D49" t="s">
         <v>95</v>
@@ -9923,18 +9919,18 @@
         <v>183</v>
       </c>
       <c r="F49" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="B50" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="C50" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="D50" t="s">
         <v>95</v>
@@ -9943,18 +9939,18 @@
         <v>183</v>
       </c>
       <c r="F50" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="B51" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="C51" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="D51" t="s">
         <v>95</v>
@@ -9963,18 +9959,18 @@
         <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="B52" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="C52" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="D52" t="s">
         <v>95</v>
@@ -9983,18 +9979,18 @@
         <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="B53" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="C53" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="D53" t="s">
         <v>95</v>
@@ -10003,18 +9999,18 @@
         <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="B54" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="C54" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="D54" t="s">
         <v>95</v>
@@ -10023,18 +10019,18 @@
         <v>183</v>
       </c>
       <c r="F54" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="B55" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="C55" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="D55" t="s">
         <v>95</v>
@@ -10043,18 +10039,18 @@
         <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="B56" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="C56" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="D56" t="s">
         <v>95</v>
@@ -10063,18 +10059,18 @@
         <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="B57" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="C57" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="D57" t="s">
         <v>95</v>
@@ -10083,18 +10079,18 @@
         <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="B58" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="C58" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="D58" t="s">
         <v>95</v>
@@ -10103,18 +10099,18 @@
         <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="B59" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="C59" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="D59" t="s">
         <v>95</v>
@@ -10123,18 +10119,18 @@
         <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="B60" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="C60" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="D60" t="s">
         <v>95</v>
@@ -10143,18 +10139,18 @@
         <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="B61" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="C61" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="D61" t="s">
         <v>95</v>
@@ -10163,18 +10159,18 @@
         <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="B62" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="C62" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="D62" t="s">
         <v>95</v>
@@ -10183,18 +10179,18 @@
         <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="B63" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="C63" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="D63" t="s">
         <v>95</v>
@@ -10203,18 +10199,18 @@
         <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="B64" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="C64" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="D64" t="s">
         <v>95</v>
@@ -10223,18 +10219,18 @@
         <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="B65" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="C65" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="D65" t="s">
         <v>95</v>
@@ -10243,18 +10239,18 @@
         <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="B66" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="C66" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="D66" t="s">
         <v>95</v>
@@ -10263,18 +10259,18 @@
         <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="B67" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="C67" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="D67" t="s">
         <v>95</v>
@@ -10283,18 +10279,18 @@
         <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="B68" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="C68" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="D68" t="s">
         <v>95</v>
@@ -10303,18 +10299,18 @@
         <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="B69" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="C69" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="D69" t="s">
         <v>95</v>
@@ -10323,18 +10319,18 @@
         <v>183</v>
       </c>
       <c r="F69" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="B70" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="C70" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="D70" t="s">
         <v>95</v>
@@ -10343,18 +10339,18 @@
         <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="B71" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="C71" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="D71" t="s">
         <v>95</v>
@@ -10363,18 +10359,18 @@
         <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B72" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="C72" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="D72" t="s">
         <v>95</v>
@@ -10383,18 +10379,18 @@
         <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="B73" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="C73" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="D73" t="s">
         <v>95</v>
@@ -10403,18 +10399,18 @@
         <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="B74" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="C74" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="D74" t="s">
         <v>95</v>
@@ -10423,18 +10419,18 @@
         <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="B75" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="C75" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="D75" t="s">
         <v>95</v>
@@ -10443,18 +10439,18 @@
         <v>183</v>
       </c>
       <c r="F75" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="B76" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="C76" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="D76" t="s">
         <v>95</v>
@@ -10463,18 +10459,18 @@
         <v>183</v>
       </c>
       <c r="F76" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="B77" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="C77" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="D77" t="s">
         <v>95</v>
@@ -10483,27 +10479,27 @@
         <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="B78" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="C78" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="D78" t="s">
         <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="F78" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
   </sheetData>
@@ -24424,8 +24420,8 @@
   <sheetPr/>
   <dimension ref="A1:F834"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A486" sqref="A486"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -26551,20 +26547,36 @@
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114"/>
-      <c r="B114"/>
+    <row r="114" spans="1:6">
+      <c r="A114" t="str" cm="1">
+        <f t="array" ref="A114:F157">S_HRM_CHAMCONG[]</f>
+        <v>attendance_record.other_bulk_approve</v>
+      </c>
+      <c r="B114" t="str">
+        <v>[HRM] [Log chấm công] Duyệt hàng loạt cho log chấm công Khác</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Duyệt hoặc từ chối hàng loạt log chấm công Khác</v>
+      </c>
+      <c r="D114" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F114" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="str">
-        <f t="array" ref="A115:F161">S_HRM_CHAMCONG[]</f>
-        <v>attendance_record.other_bulk_approve</v>
+        <v>attendance_record.retrieve</v>
       </c>
       <c r="B115" t="str">
-        <v>[HRM] [Log chấm công] Duyệt hàng loạt cho log chấm công Khác</v>
+        <v>[HRM] [Log chấm công] Xem Log Chấm Công</v>
       </c>
       <c r="C115" t="str">
-        <v>Duyệt hoặc từ chối hàng loạt log chấm công Khác</v>
+        <v>Xem chi tiết của Log Chấm Công</v>
       </c>
       <c r="D115" t="str">
         <v>HRM</v>
@@ -26578,19 +26590,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="str">
-        <v>attendance_record.retrieve</v>
+        <v>attendance_device.check_connection</v>
       </c>
       <c r="B116" t="str">
-        <v>[HRM] [Log chấm công] Xem Log Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Kiểm tra kết nối thiết bị</v>
       </c>
       <c r="C116" t="str">
-        <v>Xem chi tiết của Log Chấm Công</v>
+        <v>Thử kết nối đến thiết bị chấm công và cập nhật trạng thái kết nối của nó</v>
       </c>
       <c r="D116" t="str">
         <v>HRM</v>
       </c>
       <c r="E116" t="str">
-        <v>Log chấm công</v>
+        <v>Máy chấm công</v>
       </c>
       <c r="F116" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -26598,13 +26610,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="str">
-        <v>attendance_device.check_connection</v>
+        <v>attendance_device.create</v>
       </c>
       <c r="B117" t="str">
-        <v>[HRM] [Máy chấm công] Kiểm tra kết nối thiết bị</v>
+        <v>[HRM] [Máy chấm công] Quyền tạo Thiết Bị Chấm Công</v>
       </c>
       <c r="C117" t="str">
-        <v>Thử kết nối đến thiết bị chấm công và cập nhật trạng thái kết nối của nó</v>
+        <v>Quyền tạo mới một Thiết Bị Chấm Công</v>
       </c>
       <c r="D117" t="str">
         <v>HRM</v>
@@ -26618,13 +26630,13 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="str">
-        <v>attendance_device.create</v>
+        <v>attendance_device.destroy</v>
       </c>
       <c r="B118" t="str">
-        <v>[HRM] [Máy chấm công] Quyền tạo Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Quyền xóa Thiết Bị Chấm Công</v>
       </c>
       <c r="C118" t="str">
-        <v>Quyền tạo mới một Thiết Bị Chấm Công</v>
+        <v>Quyền xóa Thiết Bị Chấm Công</v>
       </c>
       <c r="D118" t="str">
         <v>HRM</v>
@@ -26638,13 +26650,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="str">
-        <v>attendance_device.destroy</v>
+        <v>attendance_device.histories</v>
       </c>
       <c r="B119" t="str">
-        <v>[HRM] [Máy chấm công] Quyền xóa Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Xem lịch sử Thiết Bị Chấm Công</v>
       </c>
       <c r="C119" t="str">
-        <v>Quyền xóa Thiết Bị Chấm Công</v>
+        <v>Xem lịch sử Thiết Bị Chấm Công</v>
       </c>
       <c r="D119" t="str">
         <v>HRM</v>
@@ -26658,13 +26670,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="str">
-        <v>attendance_device.histories</v>
+        <v>attendance_device.history_detail</v>
       </c>
       <c r="B120" t="str">
-        <v>[HRM] [Máy chấm công] Xem lịch sử Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
       </c>
       <c r="C120" t="str">
-        <v>Xem lịch sử Thiết Bị Chấm Công</v>
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
       </c>
       <c r="D120" t="str">
         <v>HRM</v>
@@ -26678,13 +26690,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="str">
-        <v>attendance_device.history_detail</v>
+        <v>attendance_device.list</v>
       </c>
       <c r="B121" t="str">
-        <v>[HRM] [Máy chấm công] Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Danh sách Các Thiết Bị Chấm Công</v>
       </c>
       <c r="C121" t="str">
-        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+        <v>Xem danh sách Các Thiết Bị Chấm Công</v>
       </c>
       <c r="D121" t="str">
         <v>HRM</v>
@@ -26698,13 +26710,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="str">
-        <v>attendance_device.list</v>
+        <v>attendance_device.partial_update</v>
       </c>
       <c r="B122" t="str">
-        <v>[HRM] [Máy chấm công] Danh sách Các Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Quyền cập nhật một phần Thiết Bị Chấm Công</v>
       </c>
       <c r="C122" t="str">
-        <v>Xem danh sách Các Thiết Bị Chấm Công</v>
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công</v>
       </c>
       <c r="D122" t="str">
         <v>HRM</v>
@@ -26718,13 +26730,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="str">
-        <v>attendance_device.partial_update</v>
+        <v>attendance_device.retrieve</v>
       </c>
       <c r="B123" t="str">
-        <v>[HRM] [Máy chấm công] Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Xem Thiết Bị Chấm Công</v>
       </c>
       <c r="C123" t="str">
-        <v>Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+        <v>Xem chi tiết của Thiết Bị Chấm Công</v>
       </c>
       <c r="D123" t="str">
         <v>HRM</v>
@@ -26738,13 +26750,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="str">
-        <v>attendance_device.retrieve</v>
+        <v>attendance_device.toggle_enabled</v>
       </c>
       <c r="B124" t="str">
-        <v>[HRM] [Máy chấm công] Xem Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Bật/tắt trạng thái thiết bị</v>
       </c>
       <c r="C124" t="str">
-        <v>Xem chi tiết của Thiết Bị Chấm Công</v>
+        <v>Enable hoặc disable thiết bị chấm công</v>
       </c>
       <c r="D124" t="str">
         <v>HRM</v>
@@ -26758,13 +26770,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="str">
-        <v>attendance_device.toggle_enabled</v>
+        <v>attendance_device.update</v>
       </c>
       <c r="B125" t="str">
-        <v>[HRM] [Máy chấm công] Bật/tắt trạng thái thiết bị</v>
+        <v>[HRM] [Máy chấm công] Quyền cập nhật Thiết Bị Chấm Công</v>
       </c>
       <c r="C125" t="str">
-        <v>Enable hoặc disable thiết bị chấm công</v>
+        <v>Quyền cập nhật Thiết Bị Chấm Công</v>
       </c>
       <c r="D125" t="str">
         <v>HRM</v>
@@ -26778,19 +26790,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="str">
-        <v>attendance_device.update</v>
+        <v>timesheet.histories</v>
       </c>
       <c r="B126" t="str">
-        <v>[HRM] [Máy chấm công] Quyền cập nhật Thiết Bị Chấm Công</v>
+        <v>[HCNS] [Bảng chấm công] Lịch sử bảng công</v>
       </c>
       <c r="C126" t="str">
-        <v>Quyền cập nhật Thiết Bị Chấm Công</v>
+        <v>Xem lịch sử thay đổi bảng công</v>
       </c>
       <c r="D126" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E126" t="str">
-        <v>Máy chấm công</v>
+        <v>Bảng chấm công</v>
       </c>
       <c r="F126" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -26798,13 +26810,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="str">
-        <v>timesheet.histories</v>
+        <v>timesheet.history_detail</v>
       </c>
       <c r="B127" t="str">
-        <v>[HCNS] [Bảng chấm công] Lịch sử bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Xem chi tiết lịch sử bảng công</v>
       </c>
       <c r="C127" t="str">
-        <v>Xem lịch sử thay đổi bảng công</v>
+        <v>Xem chi tiết lịch sử bảng công</v>
       </c>
       <c r="D127" t="str">
         <v>HCNS</v>
@@ -26818,13 +26830,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="str">
-        <v>timesheet.history_detail</v>
+        <v>timesheet.list</v>
       </c>
       <c r="B128" t="str">
-        <v>[HCNS] [Bảng chấm công] Xem chi tiết lịch sử bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Bảng công</v>
       </c>
       <c r="C128" t="str">
-        <v>Xem chi tiết lịch sử bảng công</v>
+        <v>Bảng công</v>
       </c>
       <c r="D128" t="str">
         <v>HCNS</v>
@@ -26838,13 +26850,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="str">
-        <v>timesheet.list</v>
+        <v>timesheet.partial_update</v>
       </c>
       <c r="B129" t="str">
-        <v>[HCNS] [Bảng chấm công] Bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Quyền cập nhật một phần Bảng chấm công</v>
       </c>
       <c r="C129" t="str">
-        <v>Bảng công</v>
+        <v>Quyền cập nhật một phần Bảng chấm công</v>
       </c>
       <c r="D129" t="str">
         <v>HCNS</v>
@@ -26858,13 +26870,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="str">
-        <v>timesheet.partial_update</v>
+        <v>timesheet.retrieve</v>
       </c>
       <c r="B130" t="str">
-        <v>[HCNS] [Bảng chấm công] Quyền cập nhật một phần Bảng chấm công</v>
+        <v>[HCNS] [Bảng chấm công] Chi tiết bảng công nhân viên</v>
       </c>
       <c r="C130" t="str">
-        <v>Quyền cập nhật một phần Bảng chấm công</v>
+        <v>Chi tiết bảng công nhân viên</v>
       </c>
       <c r="D130" t="str">
         <v>HCNS</v>
@@ -26878,13 +26890,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="str">
-        <v>timesheet.retrieve</v>
+        <v>timesheet.update</v>
       </c>
       <c r="B131" t="str">
-        <v>[HCNS] [Bảng chấm công] Chi tiết bảng công nhân viên</v>
+        <v>[HCNS] [Bảng chấm công] Cập nhật ngày công của nhân viên</v>
       </c>
       <c r="C131" t="str">
-        <v>Chi tiết bảng công nhân viên</v>
+        <v>Cập nhật ngày công của nhân viên</v>
       </c>
       <c r="D131" t="str">
         <v>HCNS</v>
@@ -26898,19 +26910,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="str">
-        <v>timesheet.update</v>
+        <v>wifi_attendance_device.create</v>
       </c>
       <c r="B132" t="str">
-        <v>[HCNS] [Bảng chấm công] Cập nhật ngày công của nhân viên</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền tạo Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C132" t="str">
-        <v>Cập nhật ngày công của nhân viên</v>
+        <v>Quyền tạo mới một Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D132" t="str">
         <v>HCNS</v>
       </c>
       <c r="E132" t="str">
-        <v>Bảng chấm công</v>
+        <v>Thiết bị chấm công WiFi</v>
       </c>
       <c r="F132" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -26918,13 +26930,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="str">
-        <v>wifi_attendance_device.create</v>
+        <v>wifi_attendance_device.destroy</v>
       </c>
       <c r="B133" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền tạo Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xóa Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C133" t="str">
-        <v>Quyền tạo mới một Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền xóa Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D133" t="str">
         <v>HCNS</v>
@@ -26938,13 +26950,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="str">
-        <v>wifi_attendance_device.destroy</v>
+        <v>wifi_attendance_device.export</v>
       </c>
       <c r="B134" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xóa Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xuất Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C134" t="str">
-        <v>Quyền xóa Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền xuất Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D134" t="str">
         <v>HCNS</v>
@@ -26958,13 +26970,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="str">
-        <v>wifi_attendance_device.export</v>
+        <v>wifi_attendance_device.histories</v>
       </c>
       <c r="B135" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xuất Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem lịch sử Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C135" t="str">
-        <v>Quyền xuất Thiết Bị Chấm Công WiFi</v>
+        <v>Xem lịch sử Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D135" t="str">
         <v>HCNS</v>
@@ -26978,13 +26990,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="str">
-        <v>wifi_attendance_device.histories</v>
+        <v>wifi_attendance_device.history_detail</v>
       </c>
       <c r="B136" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C136" t="str">
-        <v>Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D136" t="str">
         <v>HCNS</v>
@@ -26998,13 +27010,13 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="str">
-        <v>wifi_attendance_device.history_detail</v>
+        <v>wifi_attendance_device.partial_update</v>
       </c>
       <c r="B137" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C137" t="str">
-        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D137" t="str">
         <v>HCNS</v>
@@ -27018,13 +27030,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="str">
-        <v>wifi_attendance_device.partial_update</v>
+        <v>wifi_attendance_device.retrieve</v>
       </c>
       <c r="B138" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C138" t="str">
-        <v>Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+        <v>Xem chi tiết của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D138" t="str">
         <v>HCNS</v>
@@ -27038,13 +27050,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="str">
-        <v>wifi_attendance_device.retrieve</v>
+        <v>wifi_attendance_device.update</v>
       </c>
       <c r="B139" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C139" t="str">
-        <v>Xem chi tiết của Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D139" t="str">
         <v>HCNS</v>
@@ -27058,19 +27070,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="str">
-        <v>wifi_attendance_device.update</v>
+        <v>recruitment_reports.by_method</v>
       </c>
       <c r="B140" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo tỷ lệ chấm công theo các phương thức</v>
       </c>
       <c r="C140" t="str">
-        <v>Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+        <v>Báo cáo thống kê chấm công theo phương thức (thiết bị, wifi, GPS, khác)</v>
       </c>
       <c r="D140" t="str">
-        <v>HCNS</v>
+        <v>Báo Cáo</v>
       </c>
       <c r="E140" t="str">
-        <v>Thiết bị chấm công WiFi</v>
+        <v>Quản lý Chấm Công</v>
       </c>
       <c r="F140" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -27078,13 +27090,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="str">
-        <v>recruitment_reports.by_method</v>
+        <v>recruitment_reports.by_project</v>
       </c>
       <c r="B141" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo tỷ lệ chấm công theo các phương thức</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo Cáo Chấm Công Hàng Ngày</v>
       </c>
       <c r="C141" t="str">
-        <v>Báo cáo thống kê chấm công theo phương thức (thiết bị, wifi, GPS, khác)</v>
+        <v>Báo cáo chấm công GPS theo dự án</v>
       </c>
       <c r="D141" t="str">
         <v>Báo Cáo</v>
@@ -27098,13 +27110,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="str">
-        <v>recruitment_reports.by_project</v>
+        <v>recruitment_reports.by_project_organization</v>
       </c>
       <c r="B142" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo Cáo Chấm Công Hàng Ngày</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo chấm công GPS theo phòng ban</v>
       </c>
       <c r="C142" t="str">
-        <v>Báo cáo chấm công GPS theo dự án</v>
+        <v>Báo cáo chấm công GPS theo phòng ban</v>
       </c>
       <c r="D142" t="str">
         <v>Báo Cáo</v>
@@ -27118,16 +27130,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="str">
-        <v>recruitment_reports.by_project_organization</v>
+        <v>attendance_exemption.create</v>
       </c>
       <c r="B143" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo chấm công GPS theo phòng ban</v>
+        <v>[HRM] [Quản lý Chấm Công] Quyền tạo Miễn chấm công</v>
       </c>
       <c r="C143" t="str">
-        <v>Báo cáo chấm công GPS theo phòng ban</v>
+        <v>Quyền tạo mới một Miễn chấm công</v>
       </c>
       <c r="D143" t="str">
-        <v>Báo Cáo</v>
+        <v>HRM</v>
       </c>
       <c r="E143" t="str">
         <v>Quản lý Chấm Công</v>
@@ -27138,13 +27150,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="str">
-        <v>attendance_exemption.create</v>
+        <v>attendance_exemption.export</v>
       </c>
       <c r="B144" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền tạo Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
       </c>
       <c r="C144" t="str">
-        <v>Quyền tạo mới một Miễn chấm công</v>
+        <v>Quyền xuất Miễn chấm công</v>
       </c>
       <c r="D144" t="str">
         <v>HRM</v>
@@ -27158,13 +27170,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="str">
-        <v>attendance_exemption.destroy</v>
+        <v>attendance_exemption.histories</v>
       </c>
       <c r="B145" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xóa Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="C145" t="str">
-        <v>Quyền xóa Miễn chấm công</v>
+        <v>Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="D145" t="str">
         <v>HRM</v>
@@ -27178,13 +27190,13 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="str">
-        <v>attendance_exemption.export</v>
+        <v>attendance_exemption.history_detail</v>
       </c>
       <c r="B146" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="C146" t="str">
-        <v>Quyền xuất Miễn chấm công</v>
+        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="D146" t="str">
         <v>HRM</v>
@@ -27198,13 +27210,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="str">
-        <v>attendance_exemption.histories</v>
+        <v>attendance_exemption.list</v>
       </c>
       <c r="B147" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="C147" t="str">
-        <v>Xem lịch sử Miễn chấm công</v>
+        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="D147" t="str">
         <v>HRM</v>
@@ -27218,13 +27230,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="str">
-        <v>attendance_exemption.history_detail</v>
+        <v>attendance_exemption.retrieve</v>
       </c>
       <c r="B148" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
       </c>
       <c r="C148" t="str">
-        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>Xem chi tiết của Miễn chấm công</v>
       </c>
       <c r="D148" t="str">
         <v>HRM</v>
@@ -27238,19 +27250,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="str">
-        <v>attendance_exemption.list</v>
+        <v>attendance_geolocation.destroy</v>
       </c>
       <c r="B149" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="C149" t="str">
-        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="D149" t="str">
         <v>HRM</v>
       </c>
       <c r="E149" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F149" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -27258,19 +27270,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="str">
-        <v>attendance_exemption.partial_update</v>
+        <v>attendance_geolocation.export</v>
       </c>
       <c r="B150" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật một phần Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="C150" t="str">
-        <v>Quyền cập nhật một phần Miễn chấm công</v>
+        <v>Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="D150" t="str">
         <v>HRM</v>
       </c>
       <c r="E150" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F150" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -27278,19 +27290,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="str">
-        <v>attendance_exemption.retrieve</v>
+        <v>attendance_geolocation.histories</v>
       </c>
       <c r="B151" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="C151" t="str">
-        <v>Xem chi tiết của Miễn chấm công</v>
+        <v>Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="D151" t="str">
         <v>HRM</v>
       </c>
       <c r="E151" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F151" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -27298,19 +27310,19 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="str">
-        <v>attendance_exemption.update</v>
+        <v>attendance_geolocation.history_detail</v>
       </c>
       <c r="B152" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="C152" t="str">
-        <v>Quyền cập nhật Miễn chấm công</v>
+        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="D152" t="str">
         <v>HRM</v>
       </c>
       <c r="E152" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F152" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -27318,13 +27330,13 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="str">
-        <v>attendance_geolocation.destroy</v>
+        <v>attendance_geolocation.create</v>
       </c>
       <c r="B153" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
       </c>
       <c r="C153" t="str">
-        <v>Quyền xóa Log chấm Công GPS</v>
+        <v>Quyền tạo mới một Log chấm Công GPS</v>
       </c>
       <c r="D153" t="str">
         <v>HRM</v>
@@ -27338,13 +27350,13 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="str">
-        <v>attendance_geolocation.export</v>
+        <v>attendance_geolocation.partial_update</v>
       </c>
       <c r="B154" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="C154" t="str">
-        <v>Quyền xuất Log chấm Công GPS</v>
+        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="D154" t="str">
         <v>HRM</v>
@@ -27358,13 +27370,13 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="str">
-        <v>attendance_geolocation.histories</v>
+        <v>attendance_geolocation.retrieve</v>
       </c>
       <c r="B155" t="str">
-        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
       </c>
       <c r="C155" t="str">
-        <v>Xem lịch sử Log chấm Công GPS</v>
+        <v>Xem chi tiết của Log chấm Công GPS</v>
       </c>
       <c r="D155" t="str">
         <v>HRM</v>
@@ -27378,13 +27390,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="str">
-        <v>attendance_geolocation.history_detail</v>
+        <v>attendance_geolocation.update</v>
       </c>
       <c r="B156" t="str">
-        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="C156" t="str">
-        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
+        <v>Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="D156" t="str">
         <v>HRM</v>
@@ -27398,103 +27410,39 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="str">
-        <v>attendance_geolocation.create</v>
+        <v>attendance_record.list</v>
       </c>
       <c r="B157" t="str">
-        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
+        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
       </c>
       <c r="C157" t="str">
-        <v>Quyền tạo mới một Log chấm Công GPS</v>
+        <v>Xem danh sách Các Log Chấm Công</v>
       </c>
       <c r="D157" t="str">
         <v>HRM</v>
       </c>
       <c r="E157" t="str">
-        <v>Định vị dự án</v>
+        <v>Log chấm công</v>
       </c>
       <c r="F157" t="str">
-        <v>S_NV_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="str">
-        <v>attendance_geolocation.partial_update</v>
-      </c>
-      <c r="B158" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
-      </c>
-      <c r="C158" t="str">
-        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
-      </c>
-      <c r="D158" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E158" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F158" t="str">
         <v>S_HRM_CHAMCONG</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="str">
-        <v>attendance_geolocation.retrieve</v>
-      </c>
-      <c r="B159" t="str">
-        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
-      </c>
-      <c r="C159" t="str">
-        <v>Xem chi tiết của Log chấm Công GPS</v>
-      </c>
-      <c r="D159" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E159" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F159" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="str">
-        <v>attendance_geolocation.update</v>
-      </c>
-      <c r="B160" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="C160" t="str">
-        <v>Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="D160" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E160" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F160" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="str">
-        <v>attendance_record.list</v>
-      </c>
-      <c r="B161" t="str">
-        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="C161" t="str">
-        <v>Xem danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="D161" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E161" t="str">
-        <v>Log chấm công</v>
-      </c>
-      <c r="F161" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
+    <row r="158" spans="1:2">
+      <c r="A158"/>
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159"/>
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160"/>
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161"/>
+      <c r="B161"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="str" cm="1">
@@ -40938,8 +40886,8 @@
   <sheetPr/>
   <dimension ref="A1:F764"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -40971,55 +40919,55 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -43909,22 +43857,82 @@
         <v>S_HRM_CHUNG</v>
       </c>
     </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2" t="str" cm="1">
+        <f t="array" ref="A181:F224">S_HRM_CHAMCONG[]</f>
+        <v>attendance_record.other_bulk_approve</v>
+      </c>
+      <c r="B181" s="2" t="str">
+        <v>[HRM] [Log chấm công] Duyệt hàng loạt cho log chấm công Khác</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Duyệt hoặc từ chối hàng loạt log chấm công Khác</v>
+      </c>
+      <c r="D181" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F181" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2" t="str">
+        <v>attendance_record.retrieve</v>
+      </c>
+      <c r="B182" s="2" t="str">
+        <v>[HRM] [Log chấm công] Xem Log Chấm Công</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Xem chi tiết của Log Chấm Công</v>
+      </c>
+      <c r="D182" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Log chấm công</v>
+      </c>
+      <c r="F182" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2" t="str">
+        <v>attendance_device.check_connection</v>
+      </c>
+      <c r="B183" s="2" t="str">
+        <v>[HRM] [Máy chấm công] Kiểm tra kết nối thiết bị</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Thử kết nối đến thiết bị chấm công và cập nhật trạng thái kết nối của nó</v>
+      </c>
+      <c r="D183" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Máy chấm công</v>
+      </c>
+      <c r="F183" t="str">
+        <v>S_HRM_CHAMCONG</v>
+      </c>
+    </row>
     <row r="184" spans="1:6">
       <c r="A184" t="str">
-        <f t="array" ref="A184:F230">S_HRM_CHAMCONG[]</f>
-        <v>attendance_record.other_bulk_approve</v>
+        <v>attendance_device.create</v>
       </c>
       <c r="B184" t="str">
-        <v>[HRM] [Log chấm công] Duyệt hàng loạt cho log chấm công Khác</v>
+        <v>[HRM] [Máy chấm công] Quyền tạo Thiết Bị Chấm Công</v>
       </c>
       <c r="C184" t="str">
-        <v>Duyệt hoặc từ chối hàng loạt log chấm công Khác</v>
+        <v>Quyền tạo mới một Thiết Bị Chấm Công</v>
       </c>
       <c r="D184" t="str">
         <v>HRM</v>
       </c>
       <c r="E184" t="str">
-        <v>Log chấm công</v>
+        <v>Máy chấm công</v>
       </c>
       <c r="F184" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -43932,19 +43940,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="str">
-        <v>attendance_record.retrieve</v>
+        <v>attendance_device.destroy</v>
       </c>
       <c r="B185" t="str">
-        <v>[HRM] [Log chấm công] Xem Log Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Quyền xóa Thiết Bị Chấm Công</v>
       </c>
       <c r="C185" t="str">
-        <v>Xem chi tiết của Log Chấm Công</v>
+        <v>Quyền xóa Thiết Bị Chấm Công</v>
       </c>
       <c r="D185" t="str">
         <v>HRM</v>
       </c>
       <c r="E185" t="str">
-        <v>Log chấm công</v>
+        <v>Máy chấm công</v>
       </c>
       <c r="F185" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -43952,13 +43960,13 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="str">
-        <v>attendance_device.check_connection</v>
+        <v>attendance_device.histories</v>
       </c>
       <c r="B186" t="str">
-        <v>[HRM] [Máy chấm công] Kiểm tra kết nối thiết bị</v>
+        <v>[HRM] [Máy chấm công] Xem lịch sử Thiết Bị Chấm Công</v>
       </c>
       <c r="C186" t="str">
-        <v>Thử kết nối đến thiết bị chấm công và cập nhật trạng thái kết nối của nó</v>
+        <v>Xem lịch sử Thiết Bị Chấm Công</v>
       </c>
       <c r="D186" t="str">
         <v>HRM</v>
@@ -43972,13 +43980,13 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="str">
-        <v>attendance_device.create</v>
+        <v>attendance_device.history_detail</v>
       </c>
       <c r="B187" t="str">
-        <v>[HRM] [Máy chấm công] Quyền tạo Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
       </c>
       <c r="C187" t="str">
-        <v>Quyền tạo mới một Thiết Bị Chấm Công</v>
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
       </c>
       <c r="D187" t="str">
         <v>HRM</v>
@@ -43992,13 +44000,13 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="str">
-        <v>attendance_device.destroy</v>
+        <v>attendance_device.list</v>
       </c>
       <c r="B188" t="str">
-        <v>[HRM] [Máy chấm công] Quyền xóa Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Danh sách Các Thiết Bị Chấm Công</v>
       </c>
       <c r="C188" t="str">
-        <v>Quyền xóa Thiết Bị Chấm Công</v>
+        <v>Xem danh sách Các Thiết Bị Chấm Công</v>
       </c>
       <c r="D188" t="str">
         <v>HRM</v>
@@ -44012,13 +44020,13 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="str">
-        <v>attendance_device.histories</v>
+        <v>attendance_device.partial_update</v>
       </c>
       <c r="B189" t="str">
-        <v>[HRM] [Máy chấm công] Xem lịch sử Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Quyền cập nhật một phần Thiết Bị Chấm Công</v>
       </c>
       <c r="C189" t="str">
-        <v>Xem lịch sử Thiết Bị Chấm Công</v>
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công</v>
       </c>
       <c r="D189" t="str">
         <v>HRM</v>
@@ -44032,13 +44040,13 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="str">
-        <v>attendance_device.history_detail</v>
+        <v>attendance_device.retrieve</v>
       </c>
       <c r="B190" t="str">
-        <v>[HRM] [Máy chấm công] Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Xem Thiết Bị Chấm Công</v>
       </c>
       <c r="C190" t="str">
-        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công</v>
+        <v>Xem chi tiết của Thiết Bị Chấm Công</v>
       </c>
       <c r="D190" t="str">
         <v>HRM</v>
@@ -44052,13 +44060,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="str">
-        <v>attendance_device.list</v>
+        <v>attendance_device.toggle_enabled</v>
       </c>
       <c r="B191" t="str">
-        <v>[HRM] [Máy chấm công] Danh sách Các Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Bật/tắt trạng thái thiết bị</v>
       </c>
       <c r="C191" t="str">
-        <v>Xem danh sách Các Thiết Bị Chấm Công</v>
+        <v>Enable hoặc disable thiết bị chấm công</v>
       </c>
       <c r="D191" t="str">
         <v>HRM</v>
@@ -44072,13 +44080,13 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="str">
-        <v>attendance_device.partial_update</v>
+        <v>attendance_device.update</v>
       </c>
       <c r="B192" t="str">
-        <v>[HRM] [Máy chấm công] Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+        <v>[HRM] [Máy chấm công] Quyền cập nhật Thiết Bị Chấm Công</v>
       </c>
       <c r="C192" t="str">
-        <v>Quyền cập nhật một phần Thiết Bị Chấm Công</v>
+        <v>Quyền cập nhật Thiết Bị Chấm Công</v>
       </c>
       <c r="D192" t="str">
         <v>HRM</v>
@@ -44092,19 +44100,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="str">
-        <v>attendance_device.retrieve</v>
+        <v>timesheet.histories</v>
       </c>
       <c r="B193" t="str">
-        <v>[HRM] [Máy chấm công] Xem Thiết Bị Chấm Công</v>
+        <v>[HCNS] [Bảng chấm công] Lịch sử bảng công</v>
       </c>
       <c r="C193" t="str">
-        <v>Xem chi tiết của Thiết Bị Chấm Công</v>
+        <v>Xem lịch sử thay đổi bảng công</v>
       </c>
       <c r="D193" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E193" t="str">
-        <v>Máy chấm công</v>
+        <v>Bảng chấm công</v>
       </c>
       <c r="F193" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44112,19 +44120,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="str">
-        <v>attendance_device.toggle_enabled</v>
+        <v>timesheet.history_detail</v>
       </c>
       <c r="B194" t="str">
-        <v>[HRM] [Máy chấm công] Bật/tắt trạng thái thiết bị</v>
+        <v>[HCNS] [Bảng chấm công] Xem chi tiết lịch sử bảng công</v>
       </c>
       <c r="C194" t="str">
-        <v>Enable hoặc disable thiết bị chấm công</v>
+        <v>Xem chi tiết lịch sử bảng công</v>
       </c>
       <c r="D194" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E194" t="str">
-        <v>Máy chấm công</v>
+        <v>Bảng chấm công</v>
       </c>
       <c r="F194" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44132,19 +44140,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="str">
-        <v>attendance_device.update</v>
+        <v>timesheet.list</v>
       </c>
       <c r="B195" t="str">
-        <v>[HRM] [Máy chấm công] Quyền cập nhật Thiết Bị Chấm Công</v>
+        <v>[HCNS] [Bảng chấm công] Bảng công</v>
       </c>
       <c r="C195" t="str">
-        <v>Quyền cập nhật Thiết Bị Chấm Công</v>
+        <v>Bảng công</v>
       </c>
       <c r="D195" t="str">
-        <v>HRM</v>
+        <v>HCNS</v>
       </c>
       <c r="E195" t="str">
-        <v>Máy chấm công</v>
+        <v>Bảng chấm công</v>
       </c>
       <c r="F195" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44152,13 +44160,13 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="str">
-        <v>timesheet.histories</v>
+        <v>timesheet.partial_update</v>
       </c>
       <c r="B196" t="str">
-        <v>[HCNS] [Bảng chấm công] Lịch sử bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Quyền cập nhật một phần Bảng chấm công</v>
       </c>
       <c r="C196" t="str">
-        <v>Xem lịch sử thay đổi bảng công</v>
+        <v>Quyền cập nhật một phần Bảng chấm công</v>
       </c>
       <c r="D196" t="str">
         <v>HCNS</v>
@@ -44172,13 +44180,13 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="str">
-        <v>timesheet.history_detail</v>
+        <v>timesheet.retrieve</v>
       </c>
       <c r="B197" t="str">
-        <v>[HCNS] [Bảng chấm công] Xem chi tiết lịch sử bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Chi tiết bảng công nhân viên</v>
       </c>
       <c r="C197" t="str">
-        <v>Xem chi tiết lịch sử bảng công</v>
+        <v>Chi tiết bảng công nhân viên</v>
       </c>
       <c r="D197" t="str">
         <v>HCNS</v>
@@ -44192,13 +44200,13 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="str">
-        <v>timesheet.list</v>
+        <v>timesheet.update</v>
       </c>
       <c r="B198" t="str">
-        <v>[HCNS] [Bảng chấm công] Bảng công</v>
+        <v>[HCNS] [Bảng chấm công] Cập nhật ngày công của nhân viên</v>
       </c>
       <c r="C198" t="str">
-        <v>Bảng công</v>
+        <v>Cập nhật ngày công của nhân viên</v>
       </c>
       <c r="D198" t="str">
         <v>HCNS</v>
@@ -44212,19 +44220,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="str">
-        <v>timesheet.partial_update</v>
+        <v>wifi_attendance_device.create</v>
       </c>
       <c r="B199" t="str">
-        <v>[HCNS] [Bảng chấm công] Quyền cập nhật một phần Bảng chấm công</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền tạo Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C199" t="str">
-        <v>Quyền cập nhật một phần Bảng chấm công</v>
+        <v>Quyền tạo mới một Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D199" t="str">
         <v>HCNS</v>
       </c>
       <c r="E199" t="str">
-        <v>Bảng chấm công</v>
+        <v>Thiết bị chấm công WiFi</v>
       </c>
       <c r="F199" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44232,19 +44240,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="str">
-        <v>timesheet.retrieve</v>
+        <v>wifi_attendance_device.destroy</v>
       </c>
       <c r="B200" t="str">
-        <v>[HCNS] [Bảng chấm công] Chi tiết bảng công nhân viên</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xóa Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C200" t="str">
-        <v>Chi tiết bảng công nhân viên</v>
+        <v>Quyền xóa Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D200" t="str">
         <v>HCNS</v>
       </c>
       <c r="E200" t="str">
-        <v>Bảng chấm công</v>
+        <v>Thiết bị chấm công WiFi</v>
       </c>
       <c r="F200" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44252,19 +44260,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="str">
-        <v>timesheet.update</v>
+        <v>wifi_attendance_device.export</v>
       </c>
       <c r="B201" t="str">
-        <v>[HCNS] [Bảng chấm công] Cập nhật ngày công của nhân viên</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xuất Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C201" t="str">
-        <v>Cập nhật ngày công của nhân viên</v>
+        <v>Quyền xuất Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D201" t="str">
         <v>HCNS</v>
       </c>
       <c r="E201" t="str">
-        <v>Bảng chấm công</v>
+        <v>Thiết bị chấm công WiFi</v>
       </c>
       <c r="F201" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44272,13 +44280,13 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="str">
-        <v>wifi_attendance_device.create</v>
+        <v>wifi_attendance_device.histories</v>
       </c>
       <c r="B202" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền tạo Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem lịch sử Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C202" t="str">
-        <v>Quyền tạo mới một Thiết Bị Chấm Công WiFi</v>
+        <v>Xem lịch sử Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D202" t="str">
         <v>HCNS</v>
@@ -44292,13 +44300,13 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="str">
-        <v>wifi_attendance_device.destroy</v>
+        <v>wifi_attendance_device.history_detail</v>
       </c>
       <c r="B203" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xóa Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C203" t="str">
-        <v>Quyền xóa Thiết Bị Chấm Công WiFi</v>
+        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D203" t="str">
         <v>HCNS</v>
@@ -44312,13 +44320,13 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="str">
-        <v>wifi_attendance_device.export</v>
+        <v>wifi_attendance_device.partial_update</v>
       </c>
       <c r="B204" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền xuất Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C204" t="str">
-        <v>Quyền xuất Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D204" t="str">
         <v>HCNS</v>
@@ -44332,13 +44340,13 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="str">
-        <v>wifi_attendance_device.histories</v>
+        <v>wifi_attendance_device.retrieve</v>
       </c>
       <c r="B205" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Xem Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C205" t="str">
-        <v>Xem lịch sử Thiết Bị Chấm Công WiFi</v>
+        <v>Xem chi tiết của Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D205" t="str">
         <v>HCNS</v>
@@ -44352,13 +44360,13 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="str">
-        <v>wifi_attendance_device.history_detail</v>
+        <v>wifi_attendance_device.update</v>
       </c>
       <c r="B206" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="C206" t="str">
-        <v>Xem chi tiết lịch sử của Thiết Bị Chấm Công WiFi</v>
+        <v>Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
       </c>
       <c r="D206" t="str">
         <v>HCNS</v>
@@ -44372,19 +44380,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="str">
-        <v>wifi_attendance_device.partial_update</v>
+        <v>recruitment_reports.by_method</v>
       </c>
       <c r="B207" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo tỷ lệ chấm công theo các phương thức</v>
       </c>
       <c r="C207" t="str">
-        <v>Quyền cập nhật một phần Thiết Bị Chấm Công WiFi</v>
+        <v>Báo cáo thống kê chấm công theo phương thức (thiết bị, wifi, GPS, khác)</v>
       </c>
       <c r="D207" t="str">
-        <v>HCNS</v>
+        <v>Báo Cáo</v>
       </c>
       <c r="E207" t="str">
-        <v>Thiết bị chấm công WiFi</v>
+        <v>Quản lý Chấm Công</v>
       </c>
       <c r="F207" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44392,19 +44400,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="str">
-        <v>wifi_attendance_device.retrieve</v>
+        <v>recruitment_reports.by_project</v>
       </c>
       <c r="B208" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Xem Thiết Bị Chấm Công WiFi</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo Cáo Chấm Công Hàng Ngày</v>
       </c>
       <c r="C208" t="str">
-        <v>Xem chi tiết của Thiết Bị Chấm Công WiFi</v>
+        <v>Báo cáo chấm công GPS theo dự án</v>
       </c>
       <c r="D208" t="str">
-        <v>HCNS</v>
+        <v>Báo Cáo</v>
       </c>
       <c r="E208" t="str">
-        <v>Thiết bị chấm công WiFi</v>
+        <v>Quản lý Chấm Công</v>
       </c>
       <c r="F208" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44412,19 +44420,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="str">
-        <v>wifi_attendance_device.update</v>
+        <v>recruitment_reports.by_project_organization</v>
       </c>
       <c r="B209" t="str">
-        <v>[HCNS] [Thiết bị chấm công WiFi] Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo chấm công GPS theo phòng ban</v>
       </c>
       <c r="C209" t="str">
-        <v>Quyền cập nhật Thiết Bị Chấm Công WiFi</v>
+        <v>Báo cáo chấm công GPS theo phòng ban</v>
       </c>
       <c r="D209" t="str">
-        <v>HCNS</v>
+        <v>Báo Cáo</v>
       </c>
       <c r="E209" t="str">
-        <v>Thiết bị chấm công WiFi</v>
+        <v>Quản lý Chấm Công</v>
       </c>
       <c r="F209" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44432,16 +44440,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="str">
-        <v>recruitment_reports.by_method</v>
+        <v>attendance_exemption.create</v>
       </c>
       <c r="B210" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo tỷ lệ chấm công theo các phương thức</v>
+        <v>[HRM] [Quản lý Chấm Công] Quyền tạo Miễn chấm công</v>
       </c>
       <c r="C210" t="str">
-        <v>Báo cáo thống kê chấm công theo phương thức (thiết bị, wifi, GPS, khác)</v>
+        <v>Quyền tạo mới một Miễn chấm công</v>
       </c>
       <c r="D210" t="str">
-        <v>Báo Cáo</v>
+        <v>HRM</v>
       </c>
       <c r="E210" t="str">
         <v>Quản lý Chấm Công</v>
@@ -44452,16 +44460,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="str">
-        <v>recruitment_reports.by_project</v>
+        <v>attendance_exemption.export</v>
       </c>
       <c r="B211" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo Cáo Chấm Công Hàng Ngày</v>
+        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
       </c>
       <c r="C211" t="str">
-        <v>Báo cáo chấm công GPS theo dự án</v>
+        <v>Quyền xuất Miễn chấm công</v>
       </c>
       <c r="D211" t="str">
-        <v>Báo Cáo</v>
+        <v>HRM</v>
       </c>
       <c r="E211" t="str">
         <v>Quản lý Chấm Công</v>
@@ -44472,16 +44480,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="str">
-        <v>recruitment_reports.by_project_organization</v>
+        <v>attendance_exemption.histories</v>
       </c>
       <c r="B212" t="str">
-        <v>[Báo Cáo] [Quản lý Chấm Công] Báo cáo chấm công GPS theo phòng ban</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="C212" t="str">
-        <v>Báo cáo chấm công GPS theo phòng ban</v>
+        <v>Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="D212" t="str">
-        <v>Báo Cáo</v>
+        <v>HRM</v>
       </c>
       <c r="E212" t="str">
         <v>Quản lý Chấm Công</v>
@@ -44492,13 +44500,13 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="str">
-        <v>attendance_exemption.create</v>
+        <v>attendance_exemption.history_detail</v>
       </c>
       <c r="B213" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền tạo Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="C213" t="str">
-        <v>Quyền tạo mới một Miễn chấm công</v>
+        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="D213" t="str">
         <v>HRM</v>
@@ -44512,13 +44520,13 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="str">
-        <v>attendance_exemption.destroy</v>
+        <v>attendance_exemption.list</v>
       </c>
       <c r="B214" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xóa Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="C214" t="str">
-        <v>Quyền xóa Miễn chấm công</v>
+        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="D214" t="str">
         <v>HRM</v>
@@ -44532,13 +44540,13 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="str">
-        <v>attendance_exemption.export</v>
+        <v>attendance_exemption.retrieve</v>
       </c>
       <c r="B215" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
       </c>
       <c r="C215" t="str">
-        <v>Quyền xuất Miễn chấm công</v>
+        <v>Xem chi tiết của Miễn chấm công</v>
       </c>
       <c r="D215" t="str">
         <v>HRM</v>
@@ -44552,19 +44560,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="str">
-        <v>attendance_exemption.histories</v>
+        <v>attendance_geolocation.destroy</v>
       </c>
       <c r="B216" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="C216" t="str">
-        <v>Xem lịch sử Miễn chấm công</v>
+        <v>Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="D216" t="str">
         <v>HRM</v>
       </c>
       <c r="E216" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F216" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44572,19 +44580,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="str">
-        <v>attendance_exemption.history_detail</v>
+        <v>attendance_geolocation.export</v>
       </c>
       <c r="B217" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="C217" t="str">
-        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="D217" t="str">
         <v>HRM</v>
       </c>
       <c r="E217" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F217" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44592,19 +44600,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="str">
-        <v>attendance_exemption.list</v>
+        <v>attendance_geolocation.histories</v>
       </c>
       <c r="B218" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="C218" t="str">
-        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="D218" t="str">
         <v>HRM</v>
       </c>
       <c r="E218" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F218" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44612,19 +44620,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="str">
-        <v>attendance_exemption.partial_update</v>
+        <v>attendance_geolocation.history_detail</v>
       </c>
       <c r="B219" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật một phần Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="C219" t="str">
-        <v>Quyền cập nhật một phần Miễn chấm công</v>
+        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="D219" t="str">
         <v>HRM</v>
       </c>
       <c r="E219" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F219" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44632,19 +44640,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="str">
-        <v>attendance_exemption.retrieve</v>
+        <v>attendance_geolocation.create</v>
       </c>
       <c r="B220" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
       </c>
       <c r="C220" t="str">
-        <v>Xem chi tiết của Miễn chấm công</v>
+        <v>Quyền tạo mới một Log chấm Công GPS</v>
       </c>
       <c r="D220" t="str">
         <v>HRM</v>
       </c>
       <c r="E220" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F220" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44652,19 +44660,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="str">
-        <v>attendance_exemption.update</v>
+        <v>attendance_geolocation.partial_update</v>
       </c>
       <c r="B221" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="C221" t="str">
-        <v>Quyền cập nhật Miễn chấm công</v>
+        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="D221" t="str">
         <v>HRM</v>
       </c>
       <c r="E221" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F221" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -44672,13 +44680,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="str">
-        <v>attendance_geolocation.destroy</v>
+        <v>attendance_geolocation.retrieve</v>
       </c>
       <c r="B222" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
       </c>
       <c r="C222" t="str">
-        <v>Quyền xóa Log chấm Công GPS</v>
+        <v>Xem chi tiết của Log chấm Công GPS</v>
       </c>
       <c r="D222" t="str">
         <v>HRM</v>
@@ -44692,13 +44700,13 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="str">
-        <v>attendance_geolocation.export</v>
+        <v>attendance_geolocation.update</v>
       </c>
       <c r="B223" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="C223" t="str">
-        <v>Quyền xuất Log chấm Công GPS</v>
+        <v>Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="D223" t="str">
         <v>HRM</v>
@@ -44712,143 +44720,47 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="str">
-        <v>attendance_geolocation.histories</v>
+        <v>attendance_record.list</v>
       </c>
       <c r="B224" t="str">
-        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
+        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
       </c>
       <c r="C224" t="str">
-        <v>Xem lịch sử Log chấm Công GPS</v>
+        <v>Xem danh sách Các Log Chấm Công</v>
       </c>
       <c r="D224" t="str">
         <v>HRM</v>
       </c>
       <c r="E224" t="str">
-        <v>Định vị dự án</v>
+        <v>Log chấm công</v>
       </c>
       <c r="F224" t="str">
         <v>S_HRM_CHAMCONG</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="str">
-        <v>attendance_geolocation.history_detail</v>
-      </c>
-      <c r="B225" t="str">
-        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
-      </c>
-      <c r="C225" t="str">
-        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
-      </c>
-      <c r="D225" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E225" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F225" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" t="str">
-        <v>attendance_geolocation.create</v>
-      </c>
-      <c r="B226" t="str">
-        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
-      </c>
-      <c r="C226" t="str">
-        <v>Quyền tạo mới một Log chấm Công GPS</v>
-      </c>
-      <c r="D226" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E226" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F226" t="str">
-        <v>S_NV_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" t="str">
-        <v>attendance_geolocation.partial_update</v>
-      </c>
-      <c r="B227" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
-      </c>
-      <c r="C227" t="str">
-        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
-      </c>
-      <c r="D227" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E227" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F227" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" t="str">
-        <v>attendance_geolocation.retrieve</v>
-      </c>
-      <c r="B228" t="str">
-        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
-      </c>
-      <c r="C228" t="str">
-        <v>Xem chi tiết của Log chấm Công GPS</v>
-      </c>
-      <c r="D228" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E228" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F228" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" t="str">
-        <v>attendance_geolocation.update</v>
-      </c>
-      <c r="B229" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="C229" t="str">
-        <v>Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="D229" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E229" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F229" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" t="str">
-        <v>attendance_record.list</v>
-      </c>
-      <c r="B230" t="str">
-        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="C230" t="str">
-        <v>Xem danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="D230" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E230" t="str">
-        <v>Log chấm công</v>
-      </c>
-      <c r="F230" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
+    <row r="225" spans="1:2">
+      <c r="A225"/>
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226"/>
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227"/>
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228"/>
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229"/>
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230"/>
+      <c r="B230"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="str">
@@ -55693,7 +55605,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="str" cm="1">
-        <f t="array" ref="A156:F202">S_HRM_CHAMCONG[]</f>
+        <f t="array" ref="A156:F199">S_HRM_CHAMCONG[]</f>
         <v>attendance_record.other_bulk_approve</v>
       </c>
       <c r="B156" t="str">
@@ -56294,13 +56206,13 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="str">
-        <v>attendance_exemption.destroy</v>
+        <v>attendance_exemption.export</v>
       </c>
       <c r="B186" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xóa Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
       </c>
       <c r="C186" t="str">
-        <v>Quyền xóa Miễn chấm công</v>
+        <v>Quyền xuất Miễn chấm công</v>
       </c>
       <c r="D186" t="str">
         <v>HRM</v>
@@ -56314,13 +56226,13 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="str">
-        <v>attendance_exemption.export</v>
+        <v>attendance_exemption.histories</v>
       </c>
       <c r="B187" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền xuất Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="C187" t="str">
-        <v>Quyền xuất Miễn chấm công</v>
+        <v>Xem lịch sử Miễn chấm công</v>
       </c>
       <c r="D187" t="str">
         <v>HRM</v>
@@ -56334,13 +56246,13 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="str">
-        <v>attendance_exemption.histories</v>
+        <v>attendance_exemption.history_detail</v>
       </c>
       <c r="B188" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem lịch sử Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="C188" t="str">
-        <v>Xem lịch sử Miễn chấm công</v>
+        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
       </c>
       <c r="D188" t="str">
         <v>HRM</v>
@@ -56354,13 +56266,13 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="str">
-        <v>attendance_exemption.history_detail</v>
+        <v>attendance_exemption.list</v>
       </c>
       <c r="B189" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="C189" t="str">
-        <v>Xem chi tiết lịch sử của Miễn chấm công</v>
+        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
       </c>
       <c r="D189" t="str">
         <v>HRM</v>
@@ -56374,13 +56286,13 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="str">
-        <v>attendance_exemption.list</v>
+        <v>attendance_exemption.retrieve</v>
       </c>
       <c r="B190" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
       </c>
       <c r="C190" t="str">
-        <v>Xem danh sách Các Nhân Sự Miễn Chấm Công</v>
+        <v>Xem chi tiết của Miễn chấm công</v>
       </c>
       <c r="D190" t="str">
         <v>HRM</v>
@@ -56394,19 +56306,19 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="str">
-        <v>attendance_exemption.partial_update</v>
+        <v>attendance_geolocation.destroy</v>
       </c>
       <c r="B191" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật một phần Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="C191" t="str">
-        <v>Quyền cập nhật một phần Miễn chấm công</v>
+        <v>Quyền xóa Log chấm Công GPS</v>
       </c>
       <c r="D191" t="str">
         <v>HRM</v>
       </c>
       <c r="E191" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F191" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -56414,19 +56326,19 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="str">
-        <v>attendance_exemption.retrieve</v>
+        <v>attendance_geolocation.export</v>
       </c>
       <c r="B192" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Xem Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="C192" t="str">
-        <v>Xem chi tiết của Miễn chấm công</v>
+        <v>Quyền xuất Log chấm Công GPS</v>
       </c>
       <c r="D192" t="str">
         <v>HRM</v>
       </c>
       <c r="E192" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F192" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -56434,19 +56346,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="str">
-        <v>attendance_exemption.update</v>
+        <v>attendance_geolocation.histories</v>
       </c>
       <c r="B193" t="str">
-        <v>[HRM] [Quản lý Chấm Công] Quyền cập nhật Miễn chấm công</v>
+        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="C193" t="str">
-        <v>Quyền cập nhật Miễn chấm công</v>
+        <v>Xem lịch sử Log chấm Công GPS</v>
       </c>
       <c r="D193" t="str">
         <v>HRM</v>
       </c>
       <c r="E193" t="str">
-        <v>Quản lý Chấm Công</v>
+        <v>Định vị dự án</v>
       </c>
       <c r="F193" t="str">
         <v>S_HRM_CHAMCONG</v>
@@ -56454,13 +56366,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="str">
-        <v>attendance_geolocation.destroy</v>
+        <v>attendance_geolocation.history_detail</v>
       </c>
       <c r="B194" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xóa Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="C194" t="str">
-        <v>Quyền xóa Log chấm Công GPS</v>
+        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
       </c>
       <c r="D194" t="str">
         <v>HRM</v>
@@ -56474,13 +56386,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="str">
-        <v>attendance_geolocation.export</v>
+        <v>attendance_geolocation.create</v>
       </c>
       <c r="B195" t="str">
-        <v>[HRM] [Định vị dự án] Quyền xuất Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
       </c>
       <c r="C195" t="str">
-        <v>Quyền xuất Log chấm Công GPS</v>
+        <v>Quyền tạo mới một Log chấm Công GPS</v>
       </c>
       <c r="D195" t="str">
         <v>HRM</v>
@@ -56494,13 +56406,13 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="str">
-        <v>attendance_geolocation.histories</v>
+        <v>attendance_geolocation.partial_update</v>
       </c>
       <c r="B196" t="str">
-        <v>[HRM] [Định vị dự án] Xem lịch sử Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="C196" t="str">
-        <v>Xem lịch sử Log chấm Công GPS</v>
+        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
       </c>
       <c r="D196" t="str">
         <v>HRM</v>
@@ -56514,13 +56426,13 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="str">
-        <v>attendance_geolocation.history_detail</v>
+        <v>attendance_geolocation.retrieve</v>
       </c>
       <c r="B197" t="str">
-        <v>[HRM] [Định vị dự án] Xem chi tiết lịch sử của Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
       </c>
       <c r="C197" t="str">
-        <v>Xem chi tiết lịch sử của Log chấm Công GPS</v>
+        <v>Xem chi tiết của Log chấm Công GPS</v>
       </c>
       <c r="D197" t="str">
         <v>HRM</v>
@@ -56534,13 +56446,13 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="str">
-        <v>attendance_geolocation.create</v>
+        <v>attendance_geolocation.update</v>
       </c>
       <c r="B198" t="str">
-        <v>[HRM] [Định vị dự án] Quyền tạo Log chấm Công GPS</v>
+        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="C198" t="str">
-        <v>Quyền tạo mới một Log chấm Công GPS</v>
+        <v>Quyền cập nhật Log chấm Công GPS</v>
       </c>
       <c r="D198" t="str">
         <v>HRM</v>
@@ -56549,86 +56461,26 @@
         <v>Định vị dự án</v>
       </c>
       <c r="F198" t="str">
-        <v>S_NV_CHAMCONG</v>
+        <v>S_HRM_CHAMCONG</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="str">
-        <v>attendance_geolocation.partial_update</v>
+        <v>attendance_record.list</v>
       </c>
       <c r="B199" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật một phần Log chấm Công GPS</v>
+        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
       </c>
       <c r="C199" t="str">
-        <v>Quyền cập nhật một phần Log chấm Công GPS</v>
+        <v>Xem danh sách Các Log Chấm Công</v>
       </c>
       <c r="D199" t="str">
         <v>HRM</v>
       </c>
       <c r="E199" t="str">
-        <v>Định vị dự án</v>
+        <v>Log chấm công</v>
       </c>
       <c r="F199" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" t="str">
-        <v>attendance_geolocation.retrieve</v>
-      </c>
-      <c r="B200" t="str">
-        <v>[HRM] [Định vị dự án] Xem Log chấm Công GPS</v>
-      </c>
-      <c r="C200" t="str">
-        <v>Xem chi tiết của Log chấm Công GPS</v>
-      </c>
-      <c r="D200" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E200" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F200" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" t="str">
-        <v>attendance_geolocation.update</v>
-      </c>
-      <c r="B201" t="str">
-        <v>[HRM] [Định vị dự án] Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="C201" t="str">
-        <v>Quyền cập nhật Log chấm Công GPS</v>
-      </c>
-      <c r="D201" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E201" t="str">
-        <v>Định vị dự án</v>
-      </c>
-      <c r="F201" t="str">
-        <v>S_HRM_CHAMCONG</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" t="str">
-        <v>attendance_record.list</v>
-      </c>
-      <c r="B202" t="str">
-        <v>[HRM] [Log chấm công] Danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="C202" t="str">
-        <v>Xem danh sách Các Log Chấm Công</v>
-      </c>
-      <c r="D202" t="str">
-        <v>HRM</v>
-      </c>
-      <c r="E202" t="str">
-        <v>Log chấm công</v>
-      </c>
-      <c r="F202" t="str">
         <v>S_HRM_CHAMCONG</v>
       </c>
     </row>
@@ -61818,7 +61670,7 @@
     </row>
     <row r="490" spans="1:6">
       <c r="A490" t="str" cm="1">
-        <f t="array" ref="A490:F525">S_HRM_TONG[]</f>
+        <f t="array" ref="A490:F526">S_HRM_TONG[]</f>
         <v>employee_kpi_assessment.create</v>
       </c>
       <c r="B490" t="str">
@@ -62534,6 +62386,26 @@
         <v>KPI Management</v>
       </c>
       <c r="F525" t="str">
+        <v>S_HRM_TONG</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" t="str">
+        <v>attendance_exemption.disable</v>
+      </c>
+      <c r="B526" t="str">
+        <v>[HRM] [Quản lý Chấm Công] UNREGISTERED Disable Miễn chấm công</v>
+      </c>
+      <c r="C526" t="str">
+        <v>[HRM] [Quản lý Chấm Công] UNREGISTERED Disable Miễn chấm công</v>
+      </c>
+      <c r="D526" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="E526" t="str">
+        <v>Quản lý Chấm Công</v>
+      </c>
+      <c r="F526" t="str">
         <v>S_HRM_TONG</v>
       </c>
     </row>
@@ -76259,10 +76131,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -77007,7 +76879,7 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>1231</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>1150</v>
@@ -77027,7 +76899,7 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>1231</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>1150</v>
@@ -77047,7 +76919,7 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>1231</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>1150</v>
@@ -77150,86 +77022,26 @@
         <v>96</v>
       </c>
       <c r="F44" t="s">
-        <v>1280</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B45" t="s">
         <v>1281</v>
       </c>
-      <c r="B45" t="s">
-        <v>1282</v>
-      </c>
       <c r="C45" t="s">
-        <v>1283</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
         <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>1149</v>
       </c>
       <c r="F45" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F48" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -77282,682 +77094,682 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="B2" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="C2" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F2" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="B3" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="C3" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F3" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="C4" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F4" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="B5" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C5" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F5" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="B6" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="C6" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F6" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="B7" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="C7" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F7" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B8" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="C8" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F8" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="B9" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="C9" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F9" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="B10" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="C10" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F10" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="B11" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="C11" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F11" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="B12" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="C12" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F12" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="B13" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="C13" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F13" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="B14" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="C14" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F14" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="B15" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="C15" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F15" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="B16" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="C16" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F16" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="B17" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="C17" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F17" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="B18" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="C18" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F18" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="B19" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="C19" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F19" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="B20" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C20" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F20" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="B21" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="C21" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F21" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="B22" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="C22" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F22" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="B23" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="C23" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F23" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="B24" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="C24" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F24" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="B25" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="C25" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F25" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="B26" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="C26" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="F26" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="B27" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="C27" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F27" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="B28" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="C28" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F28" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="B29" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="C29" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F29" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="B30" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="C30" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F30" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="B31" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="C31" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F31" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="B32" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="C32" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F32" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="B33" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="C33" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F33" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="B34" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="C34" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F34" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="B35" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="C35" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="F35" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
@@ -77975,8 +77787,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -78010,173 +77822,173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="B2" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="C2" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="F2" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="B3" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="C3" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="D3" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="E3" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="F3" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="B4" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="C4" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="D4" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E4" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F4" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="B5" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="C5" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="D5" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E5" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F5" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="B6" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="C6" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="D6" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E6" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F6" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="B7" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="C7" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E7" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F7" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="B8" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="C8" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="D8" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E8" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F8" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="B9" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="C9" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="D9" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E9" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F9" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="B10" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="C10" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -78185,18 +77997,18 @@
         <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="B11" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="C11" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -78205,178 +78017,178 @@
         <v>292</v>
       </c>
       <c r="F11" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="B12" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="C12" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="D12" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E12" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F12" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="B13" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="C13" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="D13" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E13" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F13" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="B14" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="C14" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="D14" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E14" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F14" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="B15" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="C15" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="D15" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E15" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F15" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="B16" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="C16" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="D16" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E16" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F16" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="B17" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="C17" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="D17" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E17" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F17" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="B18" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="C18" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="D18" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E18" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F18" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="B19" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="C19" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="D19" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E19" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F19" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="B20" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="C20" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -78385,7 +78197,7 @@
         <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -78393,10 +78205,10 @@
         <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="C21" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -78405,18 +78217,18 @@
         <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="B22" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="C22" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -78425,18 +78237,18 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="B23" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="C23" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -78445,7 +78257,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -78465,7 +78277,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -78485,18 +78297,18 @@
         <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="B26" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="C26" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -78505,18 +78317,18 @@
         <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="B27" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="C27" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -78525,18 +78337,18 @@
         <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="B28" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="C28" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -78545,18 +78357,18 @@
         <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="B29" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="C29" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -78565,18 +78377,18 @@
         <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="B30" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="C30" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
@@ -78585,18 +78397,18 @@
         <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="B31" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="C31" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -78605,18 +78417,18 @@
         <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="B32" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="C32" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -78625,7 +78437,7 @@
         <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -78645,18 +78457,18 @@
         <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="B34" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="C34" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
@@ -78665,7 +78477,7 @@
         <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -78685,18 +78497,18 @@
         <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="B36" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="C36" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -78705,27 +78517,27 @@
         <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="B37" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="C37" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="D37" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E37" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="F37" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -78794,7 +78606,7 @@
         <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -78814,7 +78626,7 @@
         <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -78834,7 +78646,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -78854,7 +78666,7 @@
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -78874,7 +78686,7 @@
         <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -78894,7 +78706,7 @@
         <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -78914,7 +78726,7 @@
         <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -78934,18 +78746,18 @@
         <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="B10" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="C10" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -78954,18 +78766,18 @@
         <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="B11" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="C11" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
@@ -78974,18 +78786,18 @@
         <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="B12" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="C12" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
@@ -78994,18 +78806,18 @@
         <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="B13" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="C13" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
@@ -79014,18 +78826,18 @@
         <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="B14" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="C14" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -79034,18 +78846,18 @@
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="B15" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="C15" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
@@ -79054,7 +78866,7 @@
         <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -79074,18 +78886,18 @@
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="B17" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="C17" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -79094,18 +78906,18 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="B18" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="C18" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -79114,18 +78926,18 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="B19" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="C19" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -79134,18 +78946,18 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="B20" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="C20" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -79154,15 +78966,15 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="B21" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="C21" t="s">
         <v>170</v>
@@ -79174,15 +78986,15 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="B22" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="C22" t="s">
         <v>173</v>
@@ -79194,15 +79006,15 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="B23" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="C23" t="s">
         <v>176</v>
@@ -79214,15 +79026,15 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="B24" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="C24" t="s">
         <v>179</v>
@@ -79234,38 +79046,38 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="B25" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="C25" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F25" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="B26" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="C26" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -79274,215 +79086,215 @@
         <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="C27" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F27" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="B28" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="C28" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F28" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="B29" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="C29" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F29" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="B30" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="C30" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F30" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="B31" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="C31" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F31" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="B32" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="C32" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F32" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="B33" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="C33" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F33" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="B34" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="C34" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F34" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="B35" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="C35" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F35" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="B36" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="C36" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="F36" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="B37" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="C37" t="s">
         <v>159</v>
@@ -79491,38 +79303,38 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F37" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="B38" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="C38" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="D38" t="s">
         <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F38" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="B39" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="C39" t="s">
         <v>167</v>
@@ -79531,18 +79343,18 @@
         <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F39" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="B40" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="C40" t="s">
         <v>170</v>
@@ -79551,18 +79363,18 @@
         <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F40" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="B41" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -79571,18 +79383,18 @@
         <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F41" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="B42" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="C42" t="s">
         <v>176</v>
@@ -79591,18 +79403,18 @@
         <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F42" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="B43" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="C43" t="s">
         <v>179</v>
@@ -79611,10 +79423,10 @@
         <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="F43" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -79634,7 +79446,7 @@
         <v>1130</v>
       </c>
       <c r="F44" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -79654,7 +79466,7 @@
         <v>1130</v>
       </c>
       <c r="F45" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -79674,7 +79486,7 @@
         <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -79694,7 +79506,7 @@
         <v>303</v>
       </c>
       <c r="F47" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -79714,7 +79526,7 @@
         <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -79734,7 +79546,7 @@
         <v>303</v>
       </c>
       <c r="F49" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -79754,7 +79566,7 @@
         <v>303</v>
       </c>
       <c r="F50" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -79774,7 +79586,7 @@
         <v>303</v>
       </c>
       <c r="F51" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -79794,7 +79606,7 @@
         <v>303</v>
       </c>
       <c r="F52" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -79814,7 +79626,7 @@
         <v>303</v>
       </c>
       <c r="F53" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -79834,15 +79646,15 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="B55" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="C55" t="s">
         <v>257</v>
@@ -79854,7 +79666,7 @@
         <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
